--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61D16A2-CBE7-C24B-A812-90107ABDB382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A0380E-33F1-2642-BCB4-14864A68444F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="740" windowWidth="33120" windowHeight="12460" activeTab="1" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
@@ -4973,7 +4973,7 @@
   <dimension ref="A1:F455"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="B451" sqref="B451"/>
     </sheetView>
@@ -14075,7 +14075,7 @@
   <dimension ref="A1:F265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A235" sqref="A235"/>
     </sheetView>

--- a/database.xlsx
+++ b/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion WEB 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A0380E-33F1-2642-BCB4-14864A68444F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2057F4BD-D196-E842-8466-5AEC03B9BBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="740" windowWidth="33120" windowHeight="12460" activeTab="1" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
+    <workbookView xWindow="440" yWindow="740" windowWidth="33120" windowHeight="17160" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="4" r:id="rId1"/>
@@ -4972,10 +4972,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BE329E-0C32-C347-895C-9B9ADC4E5E27}">
   <dimension ref="A1:F455"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="B451" sqref="B451"/>
+      <selection pane="bottomLeft" activeCell="A449" sqref="A449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14074,8 +14074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E4E2C6-ECF6-8E42-BACE-6A57540CDA47}">
   <dimension ref="A1:F265"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A235" sqref="A235"/>
     </sheetView>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion WEB 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C5A1D8-5CE2-CB43-9B97-70F62FD3AB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8A1CDA-3270-BC4F-9975-EC036E1E57EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="740" windowWidth="33120" windowHeight="17160" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4297" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4299" uniqueCount="1198">
   <si>
     <t>Nombre</t>
   </si>
@@ -4973,9 +4973,9 @@
   <dimension ref="A1:F455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="B199" sqref="B199"/>
+      <selection pane="bottomLeft" activeCell="F448" sqref="F448:F449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13914,7 +13914,7 @@
         <v>1194</v>
       </c>
       <c r="B448" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C448" t="s">
         <v>314</v>
@@ -13924,6 +13924,9 @@
       </c>
       <c r="E448" s="31" t="s">
         <v>257</v>
+      </c>
+      <c r="F448" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13931,7 +13934,7 @@
         <v>1195</v>
       </c>
       <c r="B449" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C449" t="s">
         <v>314</v>
@@ -13941,6 +13944,9 @@
       </c>
       <c r="E449" s="31" t="s">
         <v>257</v>
+      </c>
+      <c r="F449" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14075,7 +14081,7 @@
   <dimension ref="A1:F265"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A235" sqref="A235"/>
     </sheetView>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion WEB 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8A1CDA-3270-BC4F-9975-EC036E1E57EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C47F85-88A2-3A46-853E-DD60566DB03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="740" windowWidth="33120" windowHeight="17160" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
+    <workbookView xWindow="4800" yWindow="1180" windowWidth="33120" windowHeight="17160" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4299" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4299" uniqueCount="1199">
   <si>
     <t>Nombre</t>
   </si>
@@ -3643,6 +3643,9 @@
   </si>
   <si>
     <t>EDUARDO CHÁVEZ PÉREZ</t>
+  </si>
+  <si>
+    <t>SUSANA ELIZABETH MONTES MERRERO</t>
   </si>
 </sst>
 </file>
@@ -4973,9 +4976,9 @@
   <dimension ref="A1:F455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="F448" sqref="F448:F449"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5073,7 +5076,7 @@
         <v>434</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>1198</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion WEB 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C47F85-88A2-3A46-853E-DD60566DB03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BA1DD4-40EC-204B-98DF-AC036A0FFB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1180" windowWidth="33120" windowHeight="17160" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
+    <workbookView xWindow="10520" yWindow="2020" windowWidth="33120" windowHeight="17160" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="4" r:id="rId1"/>
@@ -3645,7 +3645,7 @@
     <t>EDUARDO CHÁVEZ PÉREZ</t>
   </si>
   <si>
-    <t>SUSANA ELIZABETH MONTES MERRERO</t>
+    <t>SUSANA ELIZABETH MONTES MARRERO</t>
   </si>
 </sst>
 </file>
@@ -4976,9 +4976,9 @@
   <dimension ref="A1:F455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion WEB 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BA1DD4-40EC-204B-98DF-AC036A0FFB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95644D65-8751-DA45-8E69-6448170A4B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10520" yWindow="2020" windowWidth="33120" windowHeight="17160" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
+    <workbookView xWindow="5280" yWindow="2020" windowWidth="33120" windowHeight="17160" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="4" r:id="rId1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion WEB 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95644D65-8751-DA45-8E69-6448170A4B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC21FA5-FE91-2144-A196-242F968F5B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5280" yWindow="2020" windowWidth="33120" windowHeight="17160" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
@@ -4978,7 +4978,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion WEB 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4B8BA5-AD99-5A47-A083-1C3ECE4ABB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EA0008-8554-0647-B503-B8251F74728A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="16300" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
+    <workbookView xWindow="20" yWindow="8160" windowWidth="32000" windowHeight="8680" activeTab="1" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4299" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4315" uniqueCount="1204">
   <si>
     <t>Nombre</t>
   </si>
@@ -3537,9 +3537,6 @@
     <t>ALBERTO RAMIREZ MARQUEZ</t>
   </si>
   <si>
-    <t>IVAN MUÑOZ ISRAEL</t>
-  </si>
-  <si>
     <t>JUANA HERNÁNDEZ CHAVARRÍA</t>
   </si>
   <si>
@@ -3643,13 +3640,36 @@
   </si>
   <si>
     <t>SUSANA ELIZABETH MONTES MARRERO</t>
+  </si>
+  <si>
+    <t>ISRAEL IVAN GUTIÈRREZ MUÑOZ</t>
+  </si>
+  <si>
+    <t>JOSÉ ANTONIO MARTÍNEZ LÓPEZ</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL RIVERA SÁNCHEZ</t>
+  </si>
+  <si>
+    <t>TNM-054-54-2025
+TNM-054-55-2025
+TNM-054-56-2025</t>
+  </si>
+  <si>
+    <t>DISEÑO DEL MÓDULO DE ESPECIALIDAD DEL PROGRAMA EDUCATIVO DE LA CARRERA DE ING. CIVIL</t>
+  </si>
+  <si>
+    <t>ANÁLISIS DEL PROGRAMA EDUCATIVO DE LA CARRERA DE ARQUITECTURA / TALLERES DE DISEÑO I AL VI</t>
+  </si>
+  <si>
+    <t>ANÁLISIS DEL PROGRAMA EDUCATIVO DE LA CARRERA DE ARQUITECTURA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3704,6 +3724,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -3892,7 +3919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3955,6 +3982,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4972,8 +5004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BE329E-0C32-C347-895C-9B9ADC4E5E27}">
   <dimension ref="A1:F455"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="B149" sqref="B149"/>
     </sheetView>
@@ -5073,7 +5105,7 @@
         <v>433</v>
       </c>
       <c r="B5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -8933,7 +8965,7 @@
         <v>626</v>
       </c>
       <c r="B198" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C198" t="s">
         <v>237</v>
@@ -13891,7 +13923,7 @@
     </row>
     <row r="447" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B447" t="s">
         <v>1127</v>
@@ -13911,7 +13943,7 @@
     </row>
     <row r="448" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B448" t="s">
         <v>5</v>
@@ -13931,7 +13963,7 @@
     </row>
     <row r="449" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B449" t="s">
         <v>25</v>
@@ -14078,12 +14110,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E4E2C6-ECF6-8E42-BACE-6A57540CDA47}">
-  <dimension ref="A1:F265"/>
+  <dimension ref="A1:F268"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+      <selection pane="bottomLeft" activeCell="I267" sqref="I267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18724,7 +18756,7 @@
     </row>
     <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="23" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B234" t="s">
         <v>330</v>
@@ -18848,7 +18880,7 @@
         <v>1142</v>
       </c>
       <c r="B241" t="s">
-        <v>1162</v>
+        <v>1197</v>
       </c>
       <c r="C241" t="s">
         <v>358</v>
@@ -18868,7 +18900,7 @@
         <v>1143</v>
       </c>
       <c r="B242" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C242" t="s">
         <v>365</v>
@@ -18888,7 +18920,7 @@
         <v>1144</v>
       </c>
       <c r="B243" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C243" t="s">
         <v>370</v>
@@ -18908,7 +18940,7 @@
         <v>1145</v>
       </c>
       <c r="B244" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C244" t="s">
         <v>372</v>
@@ -18928,7 +18960,7 @@
         <v>1146</v>
       </c>
       <c r="B245" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C245" t="s">
         <v>374</v>
@@ -18948,7 +18980,7 @@
         <v>1147</v>
       </c>
       <c r="B246" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C246" t="s">
         <v>376</v>
@@ -18965,10 +18997,10 @@
     </row>
     <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B247" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C247" t="s">
         <v>377</v>
@@ -18985,16 +19017,16 @@
     </row>
     <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C248" t="s">
         <v>385</v>
       </c>
       <c r="D248" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E248" t="s">
         <v>386</v>
@@ -19005,16 +19037,16 @@
     </row>
     <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C249" t="s">
         <v>385</v>
       </c>
       <c r="D249" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E249" t="s">
         <v>386</v>
@@ -19025,16 +19057,16 @@
     </row>
     <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C250" t="s">
         <v>385</v>
       </c>
       <c r="D250" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E250" t="s">
         <v>386</v>
@@ -19045,16 +19077,16 @@
     </row>
     <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C251" t="s">
         <v>385</v>
       </c>
       <c r="D251" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E251" t="s">
         <v>386</v>
@@ -19065,16 +19097,16 @@
     </row>
     <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C252" t="s">
         <v>385</v>
       </c>
       <c r="D252" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E252" t="s">
         <v>386</v>
@@ -19108,7 +19140,7 @@
         <v>1149</v>
       </c>
       <c r="B254" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C254" t="s">
         <v>388</v>
@@ -19128,7 +19160,7 @@
         <v>1150</v>
       </c>
       <c r="B255" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C255" t="s">
         <v>390</v>
@@ -19148,13 +19180,13 @@
         <v>1151</v>
       </c>
       <c r="B256" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C256" t="s">
         <v>392</v>
       </c>
       <c r="D256" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E256" t="s">
         <v>386</v>
@@ -19208,10 +19240,10 @@
         <v>1154</v>
       </c>
       <c r="B259" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C259" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D259" t="s">
         <v>12</v>
@@ -19251,7 +19283,7 @@
         <v>127</v>
       </c>
       <c r="C261" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D261" t="s">
         <v>22</v>
@@ -19268,7 +19300,7 @@
         <v>1157</v>
       </c>
       <c r="B262" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C262" t="s">
         <v>414</v>
@@ -19288,7 +19320,7 @@
         <v>1158</v>
       </c>
       <c r="B263" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C263" t="s">
         <v>419</v>
@@ -19328,18 +19360,72 @@
         <v>1160</v>
       </c>
       <c r="B265" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C265" t="s">
         <v>423</v>
       </c>
       <c r="D265" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E265" t="s">
         <v>386</v>
       </c>
       <c r="F265" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="36" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B266" s="35" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D266" t="s">
+        <v>18</v>
+      </c>
+      <c r="E266" t="s">
+        <v>386</v>
+      </c>
+      <c r="F266" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B267" s="35" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C267" s="37" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D267" t="s">
+        <v>18</v>
+      </c>
+      <c r="E267" t="s">
+        <v>386</v>
+      </c>
+      <c r="F267" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B268" s="35" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C268" s="35" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D268" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E268" t="s">
+        <v>352</v>
+      </c>
+      <c r="F268" t="s">
         <v>9</v>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion WEB 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488F8A56-90DA-144B-AE62-87759011E515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D87BD5-BC1A-7249-AD27-3A49C975A761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="32000" windowHeight="14080" activeTab="1" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="31120" windowHeight="15860" activeTab="1" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="4" r:id="rId1"/>
@@ -20,8 +20,6 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ENERO!$C$1:$C$423</definedName>
@@ -51,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4376" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4784" uniqueCount="1337">
   <si>
     <t>Nombre</t>
   </si>
@@ -2872,12 +2870,6 @@
     <t>DISEÑO DEL MÓDULO DE ESPECIALIDAD DEL PROGRAMA EDUCATIVO DE LA CARRERA DE ING. CIVIL</t>
   </si>
   <si>
-    <t>ANÁLISIS DEL PROGRAMA EDUCATIVO DE LA CARRERA DE ARQUITECTURA / TALLERES DE DISEÑO I AL VI</t>
-  </si>
-  <si>
-    <t>ANÁLISIS DEL PROGRAMA EDUCATIVO DE LA CARRERA DE ARQUITECTURA</t>
-  </si>
-  <si>
     <t>TNM-054-30-2025-01</t>
   </si>
   <si>
@@ -3316,18 +3308,9 @@
     <t>TNM-054-39-2025-16</t>
   </si>
   <si>
-    <t>TNM-054-39-2025-17</t>
-  </si>
-  <si>
-    <t>TNM-054-39-2025-18</t>
-  </si>
-  <si>
     <t>TNM-054-40-2025-01</t>
   </si>
   <si>
-    <t>TNM-054-56-2025-01</t>
-  </si>
-  <si>
     <t>TNM-054-41-2025-01</t>
   </si>
   <si>
@@ -3514,9 +3497,6 @@
     <t>TNM-054-44-2025-18</t>
   </si>
   <si>
-    <t>TNM-054-45-2025-</t>
-  </si>
-  <si>
     <t>TNM-054-46-2025-01</t>
   </si>
   <si>
@@ -3814,12 +3794,6 @@
     <t>TNM-054-53-2025-12</t>
   </si>
   <si>
-    <t>TNM-054-54-2025-01</t>
-  </si>
-  <si>
-    <t>TNM-054-55-2025-01</t>
-  </si>
-  <si>
     <t>ADRIANA ERÉNDIRA MURILLO</t>
   </si>
   <si>
@@ -3919,9 +3893,6 @@
     <t>SAMUEL DE LA LUZ RIVERA SANTILLÁN</t>
   </si>
   <si>
-    <t>NO HAY LISTAS</t>
-  </si>
-  <si>
     <t>JUDITH ELIZABETH POPE CORTÉS</t>
   </si>
   <si>
@@ -3955,9 +3926,6 @@
     <t>JUAN GAVIOTA RAMOS DOMÍNGUEZ</t>
   </si>
   <si>
-    <t>MARÍA CRISTINA VÁZQUEZ OLVERA</t>
-  </si>
-  <si>
     <t>OMAR OSVALDO RENTERÍA RAMOS</t>
   </si>
   <si>
@@ -3967,9 +3935,6 @@
     <t>PEDRO ANTONIO VELÁZQUEZ VENTURA</t>
   </si>
   <si>
-    <t>JUAN PAULO MARTÍN GARCÍA LEAL</t>
-  </si>
-  <si>
     <t>ANA LUISA MOORILLÓN SOTO</t>
   </si>
   <si>
@@ -4024,18 +3989,12 @@
     <t>ANGÉLICA MÁRQUEZ BURCIAGA</t>
   </si>
   <si>
-    <t>ANA LAURA ZÚÑIGA AGUILAR</t>
-  </si>
-  <si>
     <t>JUAN CHÁIREZ GONZÁLEZ</t>
   </si>
   <si>
     <t>JOSÉ ASCENSIÓN JÁQUEZ FÉLIX</t>
   </si>
   <si>
-    <t>GERARDINA DE LAS MARAVILLAS GONZÁLEZ</t>
-  </si>
-  <si>
     <t>ANDREA SUSANA MITRE VALDÉS</t>
   </si>
   <si>
@@ -4081,13 +4040,28 @@
     <t>TNM-054-37-2025-01</t>
   </si>
   <si>
-    <t>TNM-054-38-2025-04</t>
-  </si>
-  <si>
     <t>TNM-054-43-2025-05</t>
   </si>
   <si>
     <t>TNM-054-51-2025-15</t>
+  </si>
+  <si>
+    <t>TNM-054-38-2025-10</t>
+  </si>
+  <si>
+    <t>TNM-054-45-2025-01</t>
+  </si>
+  <si>
+    <t>NO HAY LISTA</t>
+  </si>
+  <si>
+    <t>ANA LAURA ZUÑIGA  AGUILAR</t>
+  </si>
+  <si>
+    <t>INSTITUTO TECNOLOGICO DE PIEDRAS NEGRAS</t>
+  </si>
+  <si>
+    <t>EXTERNO</t>
   </si>
 </sst>
 </file>
@@ -4205,7 +4179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -4318,11 +4292,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4383,9 +4368,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4395,13 +4377,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4946,76 +4932,6 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="ENERO"/>
-      <sheetName val="PARTICIPANTES Junio"/>
-      <sheetName val="JUNIO"/>
-      <sheetName val="ENCUESTA 1"/>
-      <sheetName val="ENUESTA 2"/>
-      <sheetName val="BD MAR 25"/>
-      <sheetName val="CURSO 23"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="PARTICIPANTES Enero"/>
-      <sheetName val="PARTICIPANTES Junio"/>
-      <sheetName val="PARTICIPANTES Agosto"/>
-      <sheetName val="CURSOS e INSTRUCTORES"/>
-      <sheetName val="BD DOCENTES"/>
-      <sheetName val="CURP"/>
-      <sheetName val="MAIL"/>
-      <sheetName val="CHECK LIST"/>
-      <sheetName val="MIN-MAY"/>
-      <sheetName val="CHECK DEPTOS"/>
-      <sheetName val="CURSOS ago24-ene25"/>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Hoja4"/>
-      <sheetName val="Hoja2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
       <sheetName val="PARTICIPANTES Enero"/>
       <sheetName val="PARTICIPANTES Junio"/>
       <sheetName val="CURSOS e INSTRUCTORES"/>
@@ -5070,7 +4986,7 @@
     <tableColumn id="6" xr3:uid="{783F0072-DA7B-3140-83D6-27D662F54BBB}" name="Nombre" dataDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="8" xr3:uid="{D0D33A24-B6D2-2541-8F70-5398A340F57E}" name="Curso" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{AB02D729-8232-8643-B88A-00257BFDD549}" name="Departamento" dataDxfId="5" totalsRowDxfId="4">
-      <calculatedColumnFormula>IF(PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP(PARTICIPANTES16183[[#This Row],[Nombre]],[4]!BD_DOCENTES[#Data],2,FALSE))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP(PARTICIPANTES16183[[#This Row],[Nombre]],[2]!BD_DOCENTES[#Data],2,FALSE))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{DF3AACD7-1A51-AB47-9454-2F951F317051}" name="Fecha" dataDxfId="3" totalsRowDxfId="2"/>
     <tableColumn id="12" xr3:uid="{88C52EF0-15CE-8445-A82B-DCF650F2DA69}" name="Duracion" dataDxfId="1" totalsRowDxfId="0"/>
@@ -14507,9 +14423,9 @@
   <dimension ref="A1:F409"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E323" sqref="E323"/>
+      <selection pane="bottomLeft" activeCell="H163" sqref="H163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14543,407 +14459,388 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>941</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>1255</v>
+      <c r="A2" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>1247</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE INGENIERÍA INDUSTRIAL</v>
+      <c r="D2" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>351</v>
       </c>
-      <c r="F2">
-        <v>30</v>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>942</v>
-      </c>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="14" t="s">
+        <v>940</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>246</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D3" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS ECONOMICO-ADMINISTRATIVAS</v>
+      <c r="D3" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>351</v>
       </c>
-      <c r="F3">
-        <v>30</v>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>943</v>
-      </c>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>266</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D4" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D4" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>351</v>
       </c>
-      <c r="F4">
-        <v>30</v>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>944</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>1256</v>
+        <v>942</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>1248</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D5" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE INGENIERÍA ELÉCTRICA Y ELECTRÓNICA</v>
+      <c r="D5" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>351</v>
       </c>
-      <c r="F5">
-        <v>30</v>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
-        <v>945</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>1257</v>
+      <c r="A6" s="14" t="s">
+        <v>943</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>1249</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D6" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS ECONOMICO-ADMINISTRATIVAS</v>
+      <c r="D6" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>351</v>
       </c>
-      <c r="F6">
-        <v>30</v>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>946</v>
-      </c>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>913</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D7" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D7" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>351</v>
       </c>
-      <c r="F7">
-        <v>30</v>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
-        <v>947</v>
-      </c>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>248</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D8" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D8" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>351</v>
       </c>
-      <c r="F8">
-        <v>30</v>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>948</v>
-      </c>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="14" t="s">
+        <v>946</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>223</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE INGENIERÍA QUÍMICA-BIOQUÍMICA</v>
+      <c r="D9" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>351</v>
       </c>
-      <c r="F9">
-        <v>30</v>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
-        <v>949</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>1258</v>
+      <c r="A10" s="14" t="s">
+        <v>947</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>1250</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D10" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS DE LA TIERRA</v>
+      <c r="D10" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>351</v>
       </c>
-      <c r="F10">
-        <v>30</v>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
-        <v>950</v>
-      </c>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>253</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D11" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE INGENIERÍA ELÉCTRICA Y ELECTRÓNICA</v>
+      <c r="D11" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>351</v>
       </c>
-      <c r="F11">
-        <v>30</v>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
-        <v>951</v>
-      </c>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>239</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS ECONOMICO-ADMINISTRATIVAS</v>
+      <c r="D12" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="E12" t="s">
         <v>351</v>
       </c>
-      <c r="F12">
-        <v>30</v>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
-        <v>952</v>
-      </c>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>247</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D13" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE METAL-MECÁNICA</v>
+      <c r="D13" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="E13" t="s">
         <v>351</v>
       </c>
-      <c r="F13">
-        <v>30</v>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
-        <v>953</v>
-      </c>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="14" t="s">
+        <v>951</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>249</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D14" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE INGENIERÍA INDUSTRIAL</v>
+      <c r="D14" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="E14" t="s">
         <v>351</v>
       </c>
-      <c r="F14">
-        <v>30</v>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>954</v>
-      </c>
-      <c r="B15" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>122</v>
       </c>
       <c r="C15" t="s">
         <v>352</v>
       </c>
-      <c r="D15" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D15" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>351</v>
       </c>
-      <c r="F15">
-        <v>30</v>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="B16" s="36" t="s">
+        <v>953</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>123</v>
       </c>
       <c r="C16" t="s">
         <v>352</v>
       </c>
-      <c r="D16" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D16" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>351</v>
       </c>
-      <c r="F16">
-        <v>30</v>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>956</v>
-      </c>
-      <c r="B17" s="36" t="s">
+        <v>954</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>261</v>
       </c>
       <c r="C17" t="s">
         <v>352</v>
       </c>
-      <c r="D17" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D17" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>351</v>
       </c>
-      <c r="F17">
-        <v>30</v>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>957</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>1259</v>
+        <v>955</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>1251</v>
       </c>
       <c r="C18" t="s">
         <v>352</v>
       </c>
-      <c r="D18" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D18" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>351</v>
       </c>
-      <c r="F18">
-        <v>30</v>
+      <c r="F18" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>958</v>
-      </c>
-      <c r="B19" s="36" t="s">
+        <v>956</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>93</v>
       </c>
       <c r="C19" t="s">
         <v>352</v>
       </c>
-      <c r="D19" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D19" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>351</v>
       </c>
-      <c r="F19">
-        <v>30</v>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>959</v>
-      </c>
-      <c r="B20" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>109</v>
       </c>
       <c r="C20" t="s">
         <v>352</v>
       </c>
-      <c r="D20" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D20" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>351</v>
       </c>
-      <c r="F20">
-        <v>30</v>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B21" t="s">
         <v>110</v>
@@ -14951,547 +14848,521 @@
       <c r="C21" t="s">
         <v>352</v>
       </c>
-      <c r="D21" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D21" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>351</v>
       </c>
-      <c r="F21">
-        <v>30</v>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>961</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>1260</v>
+        <v>959</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>1252</v>
       </c>
       <c r="C22" t="s">
         <v>352</v>
       </c>
-      <c r="D22" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D22" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E22" t="s">
         <v>351</v>
       </c>
-      <c r="F22">
-        <v>30</v>
+      <c r="F22" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>962</v>
-      </c>
-      <c r="B23" s="36" t="s">
+        <v>960</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>114</v>
       </c>
       <c r="C23" t="s">
         <v>352</v>
       </c>
-      <c r="D23" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D23" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E23" t="s">
         <v>351</v>
       </c>
-      <c r="F23">
-        <v>30</v>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B24" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="C24" t="s">
         <v>352</v>
       </c>
-      <c r="D24" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D24" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E24" t="s">
         <v>351</v>
       </c>
-      <c r="F24">
-        <v>30</v>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>964</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>1262</v>
+        <v>962</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>1254</v>
       </c>
       <c r="C25" t="s">
         <v>352</v>
       </c>
-      <c r="D25" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D25" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E25" t="s">
         <v>351</v>
       </c>
-      <c r="F25">
-        <v>30</v>
+      <c r="F25" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>965</v>
-      </c>
-      <c r="B26" s="36" t="s">
+        <v>963</v>
+      </c>
+      <c r="B26" s="35" t="s">
         <v>92</v>
       </c>
       <c r="C26" t="s">
         <v>352</v>
       </c>
-      <c r="D26" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D26" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E26" t="s">
         <v>351</v>
       </c>
-      <c r="F26">
-        <v>30</v>
+      <c r="F26" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>966</v>
-      </c>
-      <c r="B27" s="36" t="s">
+        <v>964</v>
+      </c>
+      <c r="B27" s="35" t="s">
         <v>90</v>
       </c>
       <c r="C27" t="s">
         <v>352</v>
       </c>
-      <c r="D27" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D27" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E27" t="s">
         <v>351</v>
       </c>
-      <c r="F27">
-        <v>30</v>
+      <c r="F27" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>967</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>1263</v>
+        <v>965</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>1255</v>
       </c>
       <c r="C28" t="s">
         <v>352</v>
       </c>
-      <c r="D28" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS ECONOMICO-ADMINISTRATIVAS</v>
+      <c r="D28" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>351</v>
       </c>
-      <c r="F28">
-        <v>30</v>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>968</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>1264</v>
+        <v>966</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>1256</v>
       </c>
       <c r="C29" t="s">
         <v>352</v>
       </c>
-      <c r="D29" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D29" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E29" t="s">
         <v>351</v>
       </c>
-      <c r="F29">
-        <v>30</v>
+      <c r="F29" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>969</v>
-      </c>
-      <c r="B30" s="36" t="s">
+        <v>967</v>
+      </c>
+      <c r="B30" s="35" t="s">
         <v>124</v>
       </c>
       <c r="C30" t="s">
         <v>352</v>
       </c>
-      <c r="D30" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D30" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E30" t="s">
         <v>351</v>
       </c>
-      <c r="F30">
-        <v>30</v>
+      <c r="F30" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>970</v>
-      </c>
-      <c r="B31" s="36" t="s">
+        <v>968</v>
+      </c>
+      <c r="B31" s="35" t="s">
         <v>139</v>
       </c>
       <c r="C31" t="s">
         <v>352</v>
       </c>
-      <c r="D31" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D31" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E31" t="s">
         <v>351</v>
       </c>
-      <c r="F31">
-        <v>30</v>
+      <c r="F31" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>971</v>
-      </c>
-      <c r="B32" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="B32" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>352</v>
       </c>
-      <c r="D32" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS ECONOMICO-ADMINISTRATIVAS</v>
+      <c r="D32" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="E32" t="s">
         <v>351</v>
       </c>
-      <c r="F32">
-        <v>30</v>
+      <c r="F32" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>972</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>1265</v>
+        <v>970</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>1257</v>
       </c>
       <c r="C33" t="s">
         <v>352</v>
       </c>
-      <c r="D33" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS DE LA TIERRA</v>
+      <c r="D33" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="E33" t="s">
         <v>351</v>
       </c>
-      <c r="F33">
-        <v>30</v>
+      <c r="F33" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>973</v>
-      </c>
-      <c r="B34" s="36" t="s">
+        <v>971</v>
+      </c>
+      <c r="B34" s="35" t="s">
         <v>173</v>
       </c>
       <c r="C34" t="s">
         <v>352</v>
       </c>
-      <c r="D34" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS DE LA TIERRA</v>
+      <c r="D34" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="E34" t="s">
         <v>351</v>
       </c>
-      <c r="F34">
-        <v>30</v>
+      <c r="F34" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>974</v>
-      </c>
-      <c r="B35" s="36" t="s">
+        <v>972</v>
+      </c>
+      <c r="B35" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C35" t="s">
         <v>352</v>
       </c>
-      <c r="D35" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS DE LA TIERRA</v>
+      <c r="D35" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="E35" t="s">
         <v>351</v>
       </c>
-      <c r="F35">
-        <v>30</v>
+      <c r="F35" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>975</v>
-      </c>
-      <c r="B36" s="36" t="s">
+        <v>973</v>
+      </c>
+      <c r="B36" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C36" t="s">
         <v>352</v>
       </c>
-      <c r="D36" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D36" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E36" t="s">
         <v>351</v>
       </c>
-      <c r="F36">
-        <v>30</v>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>976</v>
-      </c>
-      <c r="B37" s="36" t="s">
+        <v>974</v>
+      </c>
+      <c r="B37" s="35" t="s">
         <v>161</v>
       </c>
       <c r="C37" t="s">
         <v>352</v>
       </c>
-      <c r="D37" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACIÓN</v>
+      <c r="D37" s="14" t="s">
+        <v>872</v>
       </c>
       <c r="E37" t="s">
         <v>351</v>
       </c>
-      <c r="F37">
-        <v>30</v>
+      <c r="F37" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>977</v>
-      </c>
-      <c r="B38" s="36" t="s">
+        <v>975</v>
+      </c>
+      <c r="B38" s="35" t="s">
         <v>267</v>
       </c>
       <c r="C38" t="s">
         <v>352</v>
       </c>
-      <c r="D38" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D38" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E38" t="s">
         <v>351</v>
       </c>
-      <c r="F38">
-        <v>30</v>
+      <c r="F38" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>978</v>
-      </c>
-      <c r="B39" s="36" t="s">
+        <v>976</v>
+      </c>
+      <c r="B39" s="35" t="s">
         <v>86</v>
       </c>
       <c r="C39" t="s">
         <v>352</v>
       </c>
-      <c r="D39" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D39" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E39" t="s">
         <v>351</v>
       </c>
-      <c r="F39">
-        <v>30</v>
+      <c r="F39" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>979</v>
-      </c>
-      <c r="B40" s="36" t="s">
+        <v>977</v>
+      </c>
+      <c r="B40" s="35" t="s">
         <v>268</v>
       </c>
       <c r="C40" t="s">
         <v>352</v>
       </c>
-      <c r="D40" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D40" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E40" t="s">
         <v>351</v>
       </c>
-      <c r="F40">
-        <v>30</v>
+      <c r="F40" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>980</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>1266</v>
+        <v>978</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>1258</v>
       </c>
       <c r="C41" t="s">
         <v>352</v>
       </c>
-      <c r="D41" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D41" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E41" t="s">
         <v>351</v>
       </c>
-      <c r="F41">
-        <v>30</v>
+      <c r="F41" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>981</v>
-      </c>
-      <c r="B42" s="36" t="s">
+        <v>979</v>
+      </c>
+      <c r="B42" s="35" t="s">
         <v>252</v>
       </c>
       <c r="C42" t="s">
         <v>352</v>
       </c>
-      <c r="D42" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D42" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E42" t="s">
         <v>351</v>
       </c>
-      <c r="F42">
-        <v>30</v>
+      <c r="F42" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>982</v>
-      </c>
-      <c r="B43" s="36" t="s">
+        <v>980</v>
+      </c>
+      <c r="B43" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C43" t="s">
         <v>352</v>
       </c>
-      <c r="D43" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D43" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E43" t="s">
         <v>351</v>
       </c>
-      <c r="F43">
-        <v>30</v>
+      <c r="F43" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>983</v>
-      </c>
-      <c r="B44" s="36" t="s">
+        <v>981</v>
+      </c>
+      <c r="B44" s="35" t="s">
         <v>38</v>
       </c>
       <c r="C44" t="s">
         <v>352</v>
       </c>
-      <c r="D44" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D44" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E44" t="s">
         <v>351</v>
       </c>
-      <c r="F44">
-        <v>30</v>
+      <c r="F44" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>984</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>1267</v>
+        <v>982</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>1259</v>
       </c>
       <c r="C45" t="s">
         <v>352</v>
       </c>
-      <c r="D45" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE METAL-MECÁNICA</v>
+      <c r="D45" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="E45" t="s">
         <v>351</v>
       </c>
-      <c r="F45">
-        <v>30</v>
+      <c r="F45" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>985</v>
-      </c>
-      <c r="B46" s="36" t="s">
+        <v>983</v>
+      </c>
+      <c r="B46" s="35" t="s">
         <v>386</v>
       </c>
       <c r="C46" t="s">
         <v>352</v>
       </c>
-      <c r="D46" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE INGENIERÍA ELÉCTRICA Y ELECTRÓNICA</v>
+      <c r="D46" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="E46" t="s">
         <v>351</v>
       </c>
-      <c r="F46">
-        <v>30</v>
+      <c r="F46" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>986</v>
-      </c>
-      <c r="B47" s="36" t="s">
+        <v>984</v>
+      </c>
+      <c r="B47" s="35" t="s">
         <v>353</v>
       </c>
       <c r="C47" t="s">
@@ -15503,16 +15374,16 @@
       <c r="E47" t="s">
         <v>351</v>
       </c>
-      <c r="F47">
-        <v>30</v>
+      <c r="F47" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>987</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>1268</v>
+        <v>985</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>1260</v>
       </c>
       <c r="C48" t="s">
         <v>354</v>
@@ -15523,15 +15394,15 @@
       <c r="E48" t="s">
         <v>351</v>
       </c>
-      <c r="F48">
-        <v>30</v>
+      <c r="F48" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>988</v>
-      </c>
-      <c r="B49" s="36" t="s">
+        <v>986</v>
+      </c>
+      <c r="B49" s="35" t="s">
         <v>213</v>
       </c>
       <c r="C49" t="s">
@@ -15543,16 +15414,16 @@
       <c r="E49" t="s">
         <v>351</v>
       </c>
-      <c r="F49">
-        <v>30</v>
+      <c r="F49" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>989</v>
-      </c>
-      <c r="B50" s="36" t="s">
-        <v>1269</v>
+        <v>987</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>1261</v>
       </c>
       <c r="C50" t="s">
         <v>354</v>
@@ -15563,16 +15434,16 @@
       <c r="E50" t="s">
         <v>351</v>
       </c>
-      <c r="F50">
-        <v>30</v>
+      <c r="F50" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>990</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>1270</v>
+        <v>988</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>1262</v>
       </c>
       <c r="C51" t="s">
         <v>354</v>
@@ -15583,16 +15454,16 @@
       <c r="E51" t="s">
         <v>351</v>
       </c>
-      <c r="F51">
-        <v>30</v>
+      <c r="F51" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>991</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>1271</v>
+        <v>989</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>1263</v>
       </c>
       <c r="C52" t="s">
         <v>354</v>
@@ -15603,15 +15474,15 @@
       <c r="E52" t="s">
         <v>351</v>
       </c>
-      <c r="F52">
-        <v>30</v>
+      <c r="F52" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>992</v>
-      </c>
-      <c r="B53" s="36" t="s">
+        <v>990</v>
+      </c>
+      <c r="B53" s="35" t="s">
         <v>99</v>
       </c>
       <c r="C53" t="s">
@@ -15623,15 +15494,15 @@
       <c r="E53" t="s">
         <v>351</v>
       </c>
-      <c r="F53">
-        <v>30</v>
+      <c r="F53" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>993</v>
-      </c>
-      <c r="B54" s="36" t="s">
+        <v>991</v>
+      </c>
+      <c r="B54" s="35" t="s">
         <v>323</v>
       </c>
       <c r="C54" t="s">
@@ -15643,15 +15514,15 @@
       <c r="E54" t="s">
         <v>351</v>
       </c>
-      <c r="F54">
-        <v>30</v>
+      <c r="F54" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>994</v>
-      </c>
-      <c r="B55" s="36" t="s">
+        <v>992</v>
+      </c>
+      <c r="B55" s="35" t="s">
         <v>212</v>
       </c>
       <c r="C55" t="s">
@@ -15663,15 +15534,15 @@
       <c r="E55" t="s">
         <v>351</v>
       </c>
-      <c r="F55">
-        <v>30</v>
+      <c r="F55" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>995</v>
-      </c>
-      <c r="B56" s="36" t="s">
+        <v>993</v>
+      </c>
+      <c r="B56" s="35" t="s">
         <v>355</v>
       </c>
       <c r="C56" t="s">
@@ -15683,15 +15554,15 @@
       <c r="E56" t="s">
         <v>351</v>
       </c>
-      <c r="F56">
-        <v>30</v>
+      <c r="F56" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>996</v>
-      </c>
-      <c r="B57" s="36" t="s">
+        <v>994</v>
+      </c>
+      <c r="B57" s="35" t="s">
         <v>216</v>
       </c>
       <c r="C57" t="s">
@@ -15703,15 +15574,15 @@
       <c r="E57" t="s">
         <v>351</v>
       </c>
-      <c r="F57">
-        <v>30</v>
+      <c r="F57" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>997</v>
-      </c>
-      <c r="B58" s="36" t="s">
+        <v>995</v>
+      </c>
+      <c r="B58" s="35" t="s">
         <v>860</v>
       </c>
       <c r="C58" t="s">
@@ -15723,15 +15594,15 @@
       <c r="E58" t="s">
         <v>351</v>
       </c>
-      <c r="F58">
-        <v>30</v>
+      <c r="F58" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="B59" s="36" t="s">
+        <v>996</v>
+      </c>
+      <c r="B59" s="35" t="s">
         <v>209</v>
       </c>
       <c r="C59" t="s">
@@ -15743,16 +15614,16 @@
       <c r="E59" t="s">
         <v>351</v>
       </c>
-      <c r="F59">
-        <v>30</v>
+      <c r="F59" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>999</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>1272</v>
+        <v>997</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>1264</v>
       </c>
       <c r="C60" t="s">
         <v>354</v>
@@ -15763,15 +15634,15 @@
       <c r="E60" t="s">
         <v>351</v>
       </c>
-      <c r="F60">
-        <v>30</v>
+      <c r="F60" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B61" s="36" t="s">
+        <v>998</v>
+      </c>
+      <c r="B61" s="35" t="s">
         <v>321</v>
       </c>
       <c r="C61" t="s">
@@ -15783,16 +15654,16 @@
       <c r="E61" t="s">
         <v>351</v>
       </c>
-      <c r="F61">
-        <v>30</v>
+      <c r="F61" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B62" s="36" t="s">
-        <v>1273</v>
+        <v>999</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>1265</v>
       </c>
       <c r="C62" t="s">
         <v>354</v>
@@ -15803,15 +15674,15 @@
       <c r="E62" t="s">
         <v>351</v>
       </c>
-      <c r="F62">
-        <v>30</v>
+      <c r="F62" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B63" s="36" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B63" s="35" t="s">
         <v>317</v>
       </c>
       <c r="C63" t="s">
@@ -15823,15 +15694,15 @@
       <c r="E63" t="s">
         <v>351</v>
       </c>
-      <c r="F63">
-        <v>30</v>
+      <c r="F63" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B64" s="36" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B64" s="35" t="s">
         <v>30</v>
       </c>
       <c r="C64" t="s">
@@ -15843,15 +15714,15 @@
       <c r="E64" t="s">
         <v>351</v>
       </c>
-      <c r="F64">
-        <v>30</v>
+      <c r="F64" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B65" s="36" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B65" s="35" t="s">
         <v>332</v>
       </c>
       <c r="C65" t="s">
@@ -15863,15 +15734,15 @@
       <c r="E65" t="s">
         <v>351</v>
       </c>
-      <c r="F65">
-        <v>30</v>
+      <c r="F65" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B66" s="36" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B66" s="35" t="s">
         <v>934</v>
       </c>
       <c r="C66" t="s">
@@ -15883,16 +15754,16 @@
       <c r="E66" t="s">
         <v>351</v>
       </c>
-      <c r="F66">
-        <v>30</v>
+      <c r="F66" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B67" s="36" t="s">
-        <v>1274</v>
+        <v>1004</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>1266</v>
       </c>
       <c r="C67" t="s">
         <v>356</v>
@@ -15903,16 +15774,16 @@
       <c r="E67" t="s">
         <v>351</v>
       </c>
-      <c r="F67">
-        <v>30</v>
+      <c r="F67" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B68" s="36" t="s">
-        <v>1275</v>
+        <v>1005</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>1267</v>
       </c>
       <c r="C68" t="s">
         <v>356</v>
@@ -15923,15 +15794,15 @@
       <c r="E68" t="s">
         <v>351</v>
       </c>
-      <c r="F68">
-        <v>30</v>
+      <c r="F68" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B69" s="36" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B69" s="35" t="s">
         <v>294</v>
       </c>
       <c r="C69" t="s">
@@ -15943,15 +15814,15 @@
       <c r="E69" t="s">
         <v>351</v>
       </c>
-      <c r="F69">
-        <v>30</v>
+      <c r="F69" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B70" s="36" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B70" s="35" t="s">
         <v>251</v>
       </c>
       <c r="C70" t="s">
@@ -15963,15 +15834,15 @@
       <c r="E70" t="s">
         <v>351</v>
       </c>
-      <c r="F70">
-        <v>30</v>
+      <c r="F70" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B71" s="36" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B71" s="35" t="s">
         <v>853</v>
       </c>
       <c r="C71" t="s">
@@ -15983,15 +15854,15 @@
       <c r="E71" t="s">
         <v>351</v>
       </c>
-      <c r="F71">
-        <v>30</v>
+      <c r="F71" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B72" s="36" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B72" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
@@ -16003,16 +15874,16 @@
       <c r="E72" t="s">
         <v>351</v>
       </c>
-      <c r="F72">
-        <v>30</v>
+      <c r="F72" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B73" s="36" t="s">
-        <v>1276</v>
+        <v>1010</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>1268</v>
       </c>
       <c r="C73" t="s">
         <v>356</v>
@@ -16023,15 +15894,15 @@
       <c r="E73" t="s">
         <v>351</v>
       </c>
-      <c r="F73">
-        <v>30</v>
+      <c r="F73" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B74" s="36" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B74" s="35" t="s">
         <v>128</v>
       </c>
       <c r="C74" t="s">
@@ -16043,15 +15914,15 @@
       <c r="E74" t="s">
         <v>351</v>
       </c>
-      <c r="F74">
-        <v>30</v>
+      <c r="F74" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B75" s="36" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B75" s="35" t="s">
         <v>25</v>
       </c>
       <c r="C75" t="s">
@@ -16063,15 +15934,15 @@
       <c r="E75" t="s">
         <v>351</v>
       </c>
-      <c r="F75">
-        <v>30</v>
+      <c r="F75" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B76" s="36" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B76" s="35" t="s">
         <v>136</v>
       </c>
       <c r="C76" t="s">
@@ -16083,15 +15954,15 @@
       <c r="E76" t="s">
         <v>351</v>
       </c>
-      <c r="F76">
-        <v>30</v>
+      <c r="F76" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B77" s="36" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B77" s="35" t="s">
         <v>357</v>
       </c>
       <c r="C77" t="s">
@@ -16103,16 +15974,16 @@
       <c r="E77" t="s">
         <v>351</v>
       </c>
-      <c r="F77">
-        <v>30</v>
+      <c r="F77" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B78" s="36" t="s">
-        <v>1277</v>
+        <v>1015</v>
+      </c>
+      <c r="B78" s="35" t="s">
+        <v>1269</v>
       </c>
       <c r="C78" t="s">
         <v>356</v>
@@ -16123,15 +15994,15 @@
       <c r="E78" t="s">
         <v>351</v>
       </c>
-      <c r="F78">
-        <v>30</v>
+      <c r="F78" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B79" s="36" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B79" s="35" t="s">
         <v>358</v>
       </c>
       <c r="C79" t="s">
@@ -16143,16 +16014,16 @@
       <c r="E79" t="s">
         <v>351</v>
       </c>
-      <c r="F79">
-        <v>30</v>
+      <c r="F79" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B80" s="36" t="s">
-        <v>1278</v>
+        <v>1017</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>1270</v>
       </c>
       <c r="C80" t="s">
         <v>356</v>
@@ -16163,15 +16034,15 @@
       <c r="E80" t="s">
         <v>351</v>
       </c>
-      <c r="F80">
-        <v>30</v>
+      <c r="F80" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B81" s="36" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B81" s="35" t="s">
         <v>227</v>
       </c>
       <c r="C81" t="s">
@@ -16183,15 +16054,15 @@
       <c r="E81" t="s">
         <v>351</v>
       </c>
-      <c r="F81">
-        <v>30</v>
+      <c r="F81" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B82" s="36" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B82" s="35" t="s">
         <v>359</v>
       </c>
       <c r="C82" t="s">
@@ -16203,15 +16074,15 @@
       <c r="E82" t="s">
         <v>351</v>
       </c>
-      <c r="F82">
-        <v>30</v>
+      <c r="F82" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B83" s="36" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B83" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="s">
@@ -16223,15 +16094,15 @@
       <c r="E83" t="s">
         <v>351</v>
       </c>
-      <c r="F83">
-        <v>30</v>
+      <c r="F83" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B84" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B84" s="35" t="s">
         <v>45</v>
       </c>
       <c r="C84" t="s">
@@ -16243,15 +16114,15 @@
       <c r="E84" t="s">
         <v>351</v>
       </c>
-      <c r="F84">
-        <v>30</v>
+      <c r="F84" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B85" s="36" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B85" s="35" t="s">
         <v>43</v>
       </c>
       <c r="C85" t="s">
@@ -16263,15 +16134,15 @@
       <c r="E85" t="s">
         <v>351</v>
       </c>
-      <c r="F85">
-        <v>30</v>
+      <c r="F85" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B86" s="36" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B86" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C86" t="s">
@@ -16283,15 +16154,15 @@
       <c r="E86" t="s">
         <v>351</v>
       </c>
-      <c r="F86">
-        <v>30</v>
+      <c r="F86" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B87" s="36" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B87" s="35" t="s">
         <v>79</v>
       </c>
       <c r="C87" t="s">
@@ -16303,15 +16174,15 @@
       <c r="E87" t="s">
         <v>351</v>
       </c>
-      <c r="F87">
-        <v>30</v>
+      <c r="F87" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B88" s="36" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B88" s="35" t="s">
         <v>63</v>
       </c>
       <c r="C88" t="s">
@@ -16323,15 +16194,15 @@
       <c r="E88" t="s">
         <v>351</v>
       </c>
-      <c r="F88">
-        <v>30</v>
+      <c r="F88" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B89" s="36" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B89" s="35" t="s">
         <v>257</v>
       </c>
       <c r="C89" t="s">
@@ -16343,16 +16214,16 @@
       <c r="E89" t="s">
         <v>351</v>
       </c>
-      <c r="F89">
-        <v>30</v>
+      <c r="F89" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B90" s="36" t="s">
-        <v>27</v>
+        <v>1027</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>1298</v>
       </c>
       <c r="C90" t="s">
         <v>360</v>
@@ -16363,16 +16234,16 @@
       <c r="E90" t="s">
         <v>351</v>
       </c>
-      <c r="F90">
-        <v>30</v>
+      <c r="F90" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B91" s="36" t="s">
-        <v>1279</v>
+        <v>1028</v>
+      </c>
+      <c r="B91" s="35" t="s">
+        <v>1271</v>
       </c>
       <c r="C91" t="s">
         <v>360</v>
@@ -16383,15 +16254,15 @@
       <c r="E91" t="s">
         <v>351</v>
       </c>
-      <c r="F91">
-        <v>30</v>
+      <c r="F91" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B92" s="36" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B92" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C92" t="s">
@@ -16403,15 +16274,15 @@
       <c r="E92" t="s">
         <v>351</v>
       </c>
-      <c r="F92">
-        <v>30</v>
+      <c r="F92" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B93" s="36" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B93" s="35" t="s">
         <v>47</v>
       </c>
       <c r="C93" t="s">
@@ -16423,15 +16294,15 @@
       <c r="E93" t="s">
         <v>351</v>
       </c>
-      <c r="F93">
-        <v>30</v>
+      <c r="F93" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B94" s="36" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B94" s="35" t="s">
         <v>75</v>
       </c>
       <c r="C94" t="s">
@@ -16443,16 +16314,16 @@
       <c r="E94" t="s">
         <v>351</v>
       </c>
-      <c r="F94">
-        <v>30</v>
+      <c r="F94" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B95" s="36" t="s">
-        <v>1280</v>
+        <v>1032</v>
+      </c>
+      <c r="B95" s="35" t="s">
+        <v>1272</v>
       </c>
       <c r="C95" t="s">
         <v>360</v>
@@ -16463,15 +16334,15 @@
       <c r="E95" t="s">
         <v>351</v>
       </c>
-      <c r="F95">
-        <v>30</v>
+      <c r="F95" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B96" s="36" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B96" s="35" t="s">
         <v>361</v>
       </c>
       <c r="C96" t="s">
@@ -16483,15 +16354,15 @@
       <c r="E96" t="s">
         <v>351</v>
       </c>
-      <c r="F96">
-        <v>30</v>
+      <c r="F96" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B97" s="36" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B97" s="35" t="s">
         <v>362</v>
       </c>
       <c r="C97" t="s">
@@ -16503,15 +16374,15 @@
       <c r="E97" t="s">
         <v>351</v>
       </c>
-      <c r="F97">
-        <v>30</v>
+      <c r="F97" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B98" s="36" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B98" s="35" t="s">
         <v>57</v>
       </c>
       <c r="C98" t="s">
@@ -16523,16 +16394,16 @@
       <c r="E98" t="s">
         <v>351</v>
       </c>
-      <c r="F98">
-        <v>30</v>
+      <c r="F98" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B99" s="36" t="s">
-        <v>1281</v>
+        <v>1036</v>
+      </c>
+      <c r="B99" s="35" t="s">
+        <v>1273</v>
       </c>
       <c r="C99" t="s">
         <v>360</v>
@@ -16543,16 +16414,16 @@
       <c r="E99" t="s">
         <v>351</v>
       </c>
-      <c r="F99">
-        <v>30</v>
+      <c r="F99" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B100" s="36" t="s">
-        <v>1282</v>
+        <v>1037</v>
+      </c>
+      <c r="B100" s="35" t="s">
+        <v>1274</v>
       </c>
       <c r="C100" t="s">
         <v>360</v>
@@ -16563,16 +16434,16 @@
       <c r="E100" t="s">
         <v>351</v>
       </c>
-      <c r="F100">
-        <v>30</v>
+      <c r="F100" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B101" s="36" t="s">
-        <v>1283</v>
+        <v>1038</v>
+      </c>
+      <c r="B101" s="35" t="s">
+        <v>1275</v>
       </c>
       <c r="C101" t="s">
         <v>360</v>
@@ -16583,15 +16454,15 @@
       <c r="E101" t="s">
         <v>351</v>
       </c>
-      <c r="F101">
-        <v>30</v>
+      <c r="F101" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B102" s="36" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B102" s="35" t="s">
         <v>32</v>
       </c>
       <c r="C102" t="s">
@@ -16603,15 +16474,15 @@
       <c r="E102" t="s">
         <v>351</v>
       </c>
-      <c r="F102">
-        <v>30</v>
+      <c r="F102" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B103" s="36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B103" s="35" t="s">
         <v>73</v>
       </c>
       <c r="C103" t="s">
@@ -16623,16 +16494,16 @@
       <c r="E103" t="s">
         <v>351</v>
       </c>
-      <c r="F103">
-        <v>30</v>
+      <c r="F103" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B104" s="36" t="s">
-        <v>1284</v>
+        <v>1041</v>
+      </c>
+      <c r="B104" s="35" t="s">
+        <v>1276</v>
       </c>
       <c r="C104" t="s">
         <v>364</v>
@@ -16643,15 +16514,15 @@
       <c r="E104" t="s">
         <v>351</v>
       </c>
-      <c r="F104">
-        <v>30</v>
+      <c r="F104" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B105" s="36" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B105" s="35" t="s">
         <v>232</v>
       </c>
       <c r="C105" t="s">
@@ -16663,16 +16534,16 @@
       <c r="E105" t="s">
         <v>351</v>
       </c>
-      <c r="F105">
-        <v>30</v>
+      <c r="F105" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B106" s="36" t="s">
-        <v>1285</v>
+        <v>1043</v>
+      </c>
+      <c r="B106" s="35" t="s">
+        <v>1277</v>
       </c>
       <c r="C106" t="s">
         <v>364</v>
@@ -16683,16 +16554,16 @@
       <c r="E106" t="s">
         <v>351</v>
       </c>
-      <c r="F106">
-        <v>30</v>
+      <c r="F106" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B107" s="36" t="s">
-        <v>1286</v>
+        <v>1044</v>
+      </c>
+      <c r="B107" s="35" t="s">
+        <v>1278</v>
       </c>
       <c r="C107" t="s">
         <v>364</v>
@@ -16703,15 +16574,15 @@
       <c r="E107" t="s">
         <v>351</v>
       </c>
-      <c r="F107">
-        <v>30</v>
+      <c r="F107" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B108" s="36" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B108" s="35" t="s">
         <v>230</v>
       </c>
       <c r="C108" t="s">
@@ -16723,15 +16594,15 @@
       <c r="E108" t="s">
         <v>351</v>
       </c>
-      <c r="F108">
-        <v>30</v>
+      <c r="F108" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B109" s="36" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B109" s="35" t="s">
         <v>231</v>
       </c>
       <c r="C109" t="s">
@@ -16743,15 +16614,15 @@
       <c r="E109" t="s">
         <v>351</v>
       </c>
-      <c r="F109">
-        <v>30</v>
+      <c r="F109" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B110" s="36" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B110" s="35" t="s">
         <v>234</v>
       </c>
       <c r="C110" t="s">
@@ -16763,16 +16634,16 @@
       <c r="E110" t="s">
         <v>351</v>
       </c>
-      <c r="F110">
-        <v>30</v>
+      <c r="F110" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B111" s="36" t="s">
-        <v>1287</v>
+        <v>1048</v>
+      </c>
+      <c r="B111" s="35" t="s">
+        <v>1279</v>
       </c>
       <c r="C111" t="s">
         <v>364</v>
@@ -16783,15 +16654,15 @@
       <c r="E111" t="s">
         <v>351</v>
       </c>
-      <c r="F111">
-        <v>30</v>
+      <c r="F111" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B112" s="36" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B112" s="35" t="s">
         <v>865</v>
       </c>
       <c r="C112" t="s">
@@ -16803,36 +16674,35 @@
       <c r="E112" t="s">
         <v>351</v>
       </c>
-      <c r="F112">
-        <v>30</v>
+      <c r="F112" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="34" t="s">
-        <v>1052</v>
+      <c r="A113" s="33" t="s">
+        <v>1050</v>
       </c>
       <c r="B113" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C113" s="38" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C113" s="37" t="s">
         <v>365</v>
       </c>
-      <c r="D113" s="41" t="e">
-        <f>IF(#REF!="","",VLOOKUP(#REF!,[3]!BD_DOCENTES[#Data],2,FALSE))</f>
+      <c r="D113" s="39" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E113" s="38" t="s">
+      <c r="E113" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="F113">
-        <v>30</v>
+      <c r="F113" s="39" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B114" s="36" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B114" s="35" t="s">
         <v>366</v>
       </c>
       <c r="C114" s="17" t="s">
@@ -16844,16 +16714,16 @@
       <c r="E114" t="s">
         <v>351</v>
       </c>
-      <c r="F114">
-        <v>30</v>
+      <c r="F114" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B115" s="36" t="s">
-        <v>1289</v>
+        <v>1051</v>
+      </c>
+      <c r="B115" s="35" t="s">
+        <v>1280</v>
       </c>
       <c r="C115" s="17" t="s">
         <v>367</v>
@@ -16864,16 +16734,16 @@
       <c r="E115" t="s">
         <v>351</v>
       </c>
-      <c r="F115">
-        <v>30</v>
+      <c r="F115" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B116" s="36" t="s">
-        <v>1290</v>
+        <v>1052</v>
+      </c>
+      <c r="B116" s="35" t="s">
+        <v>1281</v>
       </c>
       <c r="C116" s="17" t="s">
         <v>367</v>
@@ -16884,15 +16754,15 @@
       <c r="E116" t="s">
         <v>351</v>
       </c>
-      <c r="F116">
-        <v>30</v>
+      <c r="F116" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B117" s="36" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B117" s="35" t="s">
         <v>198</v>
       </c>
       <c r="C117" s="17" t="s">
@@ -16904,16 +16774,16 @@
       <c r="E117" t="s">
         <v>351</v>
       </c>
-      <c r="F117">
-        <v>30</v>
+      <c r="F117" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B118" s="36" t="s">
-        <v>1291</v>
+        <v>1054</v>
+      </c>
+      <c r="B118" s="35" t="s">
+        <v>1282</v>
       </c>
       <c r="C118" s="17" t="s">
         <v>367</v>
@@ -16924,15 +16794,15 @@
       <c r="E118" t="s">
         <v>351</v>
       </c>
-      <c r="F118">
-        <v>30</v>
+      <c r="F118" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B119" s="36" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B119" s="35" t="s">
         <v>200</v>
       </c>
       <c r="C119" s="17" t="s">
@@ -16944,16 +16814,16 @@
       <c r="E119" t="s">
         <v>351</v>
       </c>
-      <c r="F119">
-        <v>30</v>
+      <c r="F119" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B120" s="36" t="s">
-        <v>1292</v>
+        <v>1056</v>
+      </c>
+      <c r="B120" s="35" t="s">
+        <v>1283</v>
       </c>
       <c r="C120" s="17" t="s">
         <v>367</v>
@@ -16964,15 +16834,15 @@
       <c r="E120" t="s">
         <v>351</v>
       </c>
-      <c r="F120">
-        <v>30</v>
+      <c r="F120" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B121" s="36" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B121" s="35" t="s">
         <v>199</v>
       </c>
       <c r="C121" s="17" t="s">
@@ -16984,15 +16854,15 @@
       <c r="E121" t="s">
         <v>351</v>
       </c>
-      <c r="F121">
-        <v>30</v>
+      <c r="F121" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B122" s="36" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B122" s="35" t="s">
         <v>206</v>
       </c>
       <c r="C122" s="17" t="s">
@@ -17004,15 +16874,15 @@
       <c r="E122" t="s">
         <v>351</v>
       </c>
-      <c r="F122">
-        <v>30</v>
+      <c r="F122" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B123" s="36" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B123" s="35" t="s">
         <v>201</v>
       </c>
       <c r="C123" s="17" t="s">
@@ -17024,16 +16894,16 @@
       <c r="E123" t="s">
         <v>351</v>
       </c>
-      <c r="F123">
-        <v>30</v>
+      <c r="F123" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B124" s="36" t="s">
-        <v>1293</v>
+        <v>1060</v>
+      </c>
+      <c r="B124" s="35" t="s">
+        <v>1284</v>
       </c>
       <c r="C124" s="17" t="s">
         <v>367</v>
@@ -17044,15 +16914,15 @@
       <c r="E124" t="s">
         <v>351</v>
       </c>
-      <c r="F124">
-        <v>30</v>
+      <c r="F124" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B125" s="36" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B125" s="35" t="s">
         <v>310</v>
       </c>
       <c r="C125" s="17" t="s">
@@ -17064,16 +16934,16 @@
       <c r="E125" t="s">
         <v>351</v>
       </c>
-      <c r="F125">
-        <v>30</v>
+      <c r="F125" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B126" s="36" t="s">
-        <v>1294</v>
+        <v>1062</v>
+      </c>
+      <c r="B126" s="43" t="s">
+        <v>1285</v>
       </c>
       <c r="C126" s="17" t="s">
         <v>368</v>
@@ -17084,15 +16954,15 @@
       <c r="E126" t="s">
         <v>351</v>
       </c>
-      <c r="F126">
-        <v>30</v>
+      <c r="F126" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B127" s="36" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B127" s="35" t="s">
         <v>305</v>
       </c>
       <c r="C127" s="17" t="s">
@@ -17104,16 +16974,16 @@
       <c r="E127" t="s">
         <v>351</v>
       </c>
-      <c r="F127">
-        <v>30</v>
+      <c r="F127" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B128" s="36" t="s">
-        <v>1295</v>
+        <v>1064</v>
+      </c>
+      <c r="B128" s="35" t="s">
+        <v>1286</v>
       </c>
       <c r="C128" s="17" t="s">
         <v>368</v>
@@ -17124,15 +16994,15 @@
       <c r="E128" t="s">
         <v>351</v>
       </c>
-      <c r="F128">
-        <v>30</v>
+      <c r="F128" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B129" s="36" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B129" s="35" t="s">
         <v>307</v>
       </c>
       <c r="C129" s="17" t="s">
@@ -17144,15 +17014,15 @@
       <c r="E129" t="s">
         <v>351</v>
       </c>
-      <c r="F129">
-        <v>30</v>
+      <c r="F129" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B130" s="36" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B130" s="35" t="s">
         <v>97</v>
       </c>
       <c r="C130" s="17" t="s">
@@ -17164,16 +17034,16 @@
       <c r="E130" t="s">
         <v>351</v>
       </c>
-      <c r="F130">
-        <v>30</v>
+      <c r="F130" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B131" s="36" t="s">
-        <v>1296</v>
+        <v>1067</v>
+      </c>
+      <c r="B131" s="35" t="s">
+        <v>1287</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>368</v>
@@ -17184,15 +17054,15 @@
       <c r="E131" t="s">
         <v>351</v>
       </c>
-      <c r="F131">
-        <v>30</v>
+      <c r="F131" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B132" s="36" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B132" s="35" t="s">
         <v>94</v>
       </c>
       <c r="C132" s="17" t="s">
@@ -17204,16 +17074,16 @@
       <c r="E132" t="s">
         <v>351</v>
       </c>
-      <c r="F132">
-        <v>30</v>
+      <c r="F132" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B133" s="36" t="s">
-        <v>1297</v>
+        <v>1331</v>
+      </c>
+      <c r="B133" s="35" t="s">
+        <v>1288</v>
       </c>
       <c r="C133" s="17" t="s">
         <v>368</v>
@@ -17224,15 +17094,15 @@
       <c r="E133" t="s">
         <v>351</v>
       </c>
-      <c r="F133">
-        <v>30</v>
+      <c r="F133" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B134" s="36" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B134" s="35" t="s">
         <v>330</v>
       </c>
       <c r="C134" t="s">
@@ -17244,16 +17114,16 @@
       <c r="E134" t="s">
         <v>351</v>
       </c>
-      <c r="F134">
-        <v>30</v>
+      <c r="F134" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B135" s="36" t="s">
-        <v>1298</v>
+        <v>1070</v>
+      </c>
+      <c r="B135" s="35" t="s">
+        <v>1289</v>
       </c>
       <c r="C135" t="s">
         <v>369</v>
@@ -17264,15 +17134,15 @@
       <c r="E135" t="s">
         <v>351</v>
       </c>
-      <c r="F135">
-        <v>30</v>
+      <c r="F135" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B136" s="36" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B136" s="35" t="s">
         <v>370</v>
       </c>
       <c r="C136" t="s">
@@ -17284,15 +17154,15 @@
       <c r="E136" t="s">
         <v>351</v>
       </c>
-      <c r="F136">
-        <v>30</v>
+      <c r="F136" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B137" s="36" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B137" s="35" t="s">
         <v>51</v>
       </c>
       <c r="C137" t="s">
@@ -17304,15 +17174,15 @@
       <c r="E137" t="s">
         <v>351</v>
       </c>
-      <c r="F137">
-        <v>30</v>
+      <c r="F137" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B138" s="36" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B138" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C138" t="s">
@@ -17324,16 +17194,16 @@
       <c r="E138" t="s">
         <v>351</v>
       </c>
-      <c r="F138">
-        <v>30</v>
+      <c r="F138" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B139" s="36" t="s">
-        <v>1299</v>
+        <v>1074</v>
+      </c>
+      <c r="B139" s="35" t="s">
+        <v>1290</v>
       </c>
       <c r="C139" t="s">
         <v>369</v>
@@ -17344,16 +17214,16 @@
       <c r="E139" t="s">
         <v>351</v>
       </c>
-      <c r="F139">
-        <v>30</v>
+      <c r="F139" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B140" s="36" t="s">
-        <v>1300</v>
+        <v>1075</v>
+      </c>
+      <c r="B140" s="35" t="s">
+        <v>371</v>
       </c>
       <c r="C140" t="s">
         <v>369</v>
@@ -17364,16 +17234,16 @@
       <c r="E140" t="s">
         <v>351</v>
       </c>
-      <c r="F140">
-        <v>30</v>
+      <c r="F140" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B141" s="36" t="s">
-        <v>371</v>
+        <v>1076</v>
+      </c>
+      <c r="B141" s="35" t="s">
+        <v>1291</v>
       </c>
       <c r="C141" t="s">
         <v>369</v>
@@ -17384,16 +17254,16 @@
       <c r="E141" t="s">
         <v>351</v>
       </c>
-      <c r="F141">
-        <v>30</v>
+      <c r="F141" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B142" s="36" t="s">
-        <v>1301</v>
+        <v>1077</v>
+      </c>
+      <c r="B142" s="35" t="s">
+        <v>282</v>
       </c>
       <c r="C142" t="s">
         <v>369</v>
@@ -17404,16 +17274,16 @@
       <c r="E142" t="s">
         <v>351</v>
       </c>
-      <c r="F142">
-        <v>30</v>
+      <c r="F142" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B143" s="36" t="s">
-        <v>282</v>
+        <v>1078</v>
+      </c>
+      <c r="B143" s="35" t="s">
+        <v>345</v>
       </c>
       <c r="C143" t="s">
         <v>369</v>
@@ -17424,56 +17294,56 @@
       <c r="E143" t="s">
         <v>351</v>
       </c>
-      <c r="F143">
-        <v>30</v>
+      <c r="F143" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B144" s="36" t="s">
-        <v>345</v>
+        <v>1079</v>
+      </c>
+      <c r="B144" s="35" t="s">
+        <v>159</v>
       </c>
       <c r="C144" t="s">
         <v>369</v>
       </c>
       <c r="D144" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
         <v>351</v>
       </c>
-      <c r="F144">
-        <v>30</v>
+      <c r="F144" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B145" s="36" t="s">
-        <v>159</v>
+        <v>1080</v>
+      </c>
+      <c r="B145" s="35" t="s">
+        <v>372</v>
       </c>
       <c r="C145" t="s">
         <v>369</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E145" t="s">
         <v>351</v>
       </c>
-      <c r="F145">
-        <v>30</v>
+      <c r="F145" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B146" s="36" t="s">
-        <v>372</v>
+        <v>1081</v>
+      </c>
+      <c r="B146" s="35" t="s">
+        <v>1292</v>
       </c>
       <c r="C146" t="s">
         <v>369</v>
@@ -17484,16 +17354,16 @@
       <c r="E146" t="s">
         <v>351</v>
       </c>
-      <c r="F146">
-        <v>30</v>
+      <c r="F146" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B147" s="36" t="s">
-        <v>1302</v>
+        <v>1082</v>
+      </c>
+      <c r="B147" s="35" t="s">
+        <v>373</v>
       </c>
       <c r="C147" t="s">
         <v>369</v>
@@ -17504,16 +17374,16 @@
       <c r="E147" t="s">
         <v>351</v>
       </c>
-      <c r="F147">
-        <v>30</v>
+      <c r="F147" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B148" s="36" t="s">
-        <v>373</v>
+        <v>1083</v>
+      </c>
+      <c r="B148" s="35" t="s">
+        <v>1293</v>
       </c>
       <c r="C148" t="s">
         <v>369</v>
@@ -17524,16 +17394,16 @@
       <c r="E148" t="s">
         <v>351</v>
       </c>
-      <c r="F148">
-        <v>30</v>
+      <c r="F148" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B149" s="36" t="s">
-        <v>1303</v>
+        <v>1084</v>
+      </c>
+      <c r="B149" s="35" t="s">
+        <v>374</v>
       </c>
       <c r="C149" t="s">
         <v>369</v>
@@ -17544,453 +17414,436 @@
       <c r="E149" t="s">
         <v>351</v>
       </c>
-      <c r="F149">
-        <v>30</v>
+      <c r="F149" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="14" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B150" s="36" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C150" t="s">
-        <v>369</v>
-      </c>
-      <c r="D150" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" t="s">
-        <v>351</v>
-      </c>
-      <c r="F150">
-        <v>30</v>
+      <c r="A150" s="33" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C150" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="D150" s="39" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E150" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="F150" s="39" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B151" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C151" t="s">
+        <v>377</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" t="s">
+        <v>376</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="14" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B152" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C152" t="s">
+        <v>377</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" t="s">
+        <v>376</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="14" t="s">
         <v>1088</v>
       </c>
-      <c r="B151" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="C151" t="s">
-        <v>369</v>
-      </c>
-      <c r="D151" t="s">
-        <v>12</v>
-      </c>
-      <c r="E151" t="s">
-        <v>351</v>
-      </c>
-      <c r="F151">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="34" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C152" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="D152" s="41" t="e">
-        <f>IF(#REF!="","",VLOOKUP(#REF!,[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E152" s="38" t="s">
+      <c r="B153" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="C153" t="s">
+        <v>377</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" t="s">
         <v>376</v>
       </c>
-      <c r="F152">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="35" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B153" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C153" s="39" t="s">
-        <v>940</v>
-      </c>
-      <c r="D153" s="42" t="e">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E153" s="42"/>
-      <c r="F153">
-        <v>30</v>
+      <c r="F153" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B154" s="36" t="s">
-        <v>122</v>
+        <v>1089</v>
+      </c>
+      <c r="B154" s="35" t="s">
+        <v>165</v>
       </c>
       <c r="C154" t="s">
         <v>377</v>
       </c>
-      <c r="D154" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D154" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E154" t="s">
         <v>376</v>
       </c>
-      <c r="F154">
-        <v>30</v>
+      <c r="F154" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B155" s="36" t="s">
-        <v>123</v>
+        <v>1090</v>
+      </c>
+      <c r="B155" s="35" t="s">
+        <v>1294</v>
       </c>
       <c r="C155" t="s">
         <v>377</v>
       </c>
-      <c r="D155" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D155" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E155" t="s">
         <v>376</v>
       </c>
-      <c r="F155">
-        <v>30</v>
+      <c r="F155" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B156" s="36" t="s">
-        <v>260</v>
+        <v>1091</v>
+      </c>
+      <c r="B156" s="35" t="s">
+        <v>268</v>
       </c>
       <c r="C156" t="s">
         <v>377</v>
       </c>
-      <c r="D156" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D156" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E156" t="s">
         <v>376</v>
       </c>
-      <c r="F156">
-        <v>30</v>
+      <c r="F156" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B157" s="36" t="s">
-        <v>165</v>
+        <v>1092</v>
+      </c>
+      <c r="B157" s="35" t="s">
+        <v>1295</v>
       </c>
       <c r="C157" t="s">
         <v>377</v>
       </c>
-      <c r="D157" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D157" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E157" t="s">
         <v>376</v>
       </c>
-      <c r="F157">
-        <v>30</v>
+      <c r="F157" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B158" s="36" t="s">
-        <v>1305</v>
+        <v>1093</v>
+      </c>
+      <c r="B158" s="35" t="s">
+        <v>93</v>
       </c>
       <c r="C158" t="s">
         <v>377</v>
       </c>
-      <c r="D158" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE METAL-MECÁNICA</v>
+      <c r="D158" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E158" t="s">
         <v>376</v>
       </c>
-      <c r="F158">
-        <v>30</v>
+      <c r="F158" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B159" s="36" t="s">
-        <v>268</v>
+        <v>1094</v>
+      </c>
+      <c r="B159" s="35" t="s">
+        <v>110</v>
       </c>
       <c r="C159" t="s">
         <v>377</v>
       </c>
-      <c r="D159" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D159" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E159" t="s">
         <v>376</v>
       </c>
-      <c r="F159">
-        <v>30</v>
+      <c r="F159" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B160" s="36" t="s">
-        <v>1306</v>
+        <v>1095</v>
+      </c>
+      <c r="B160" s="35" t="s">
+        <v>1296</v>
       </c>
       <c r="C160" t="s">
         <v>377</v>
       </c>
-      <c r="D160" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D160" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E160" t="s">
         <v>376</v>
       </c>
-      <c r="F160">
-        <v>30</v>
+      <c r="F160" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B161" s="36" t="s">
-        <v>93</v>
+        <v>1096</v>
+      </c>
+      <c r="B161" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="C161" t="s">
         <v>377</v>
       </c>
-      <c r="D161" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D161" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E161" t="s">
         <v>376</v>
       </c>
-      <c r="F161">
-        <v>30</v>
+      <c r="F161" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B162" s="36" t="s">
-        <v>110</v>
+        <v>1097</v>
+      </c>
+      <c r="B162" s="35" t="s">
+        <v>1253</v>
       </c>
       <c r="C162" t="s">
         <v>377</v>
       </c>
-      <c r="D162" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D162" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E162" t="s">
         <v>376</v>
       </c>
-      <c r="F162">
-        <v>30</v>
+      <c r="F162" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B163" s="36" t="s">
-        <v>1307</v>
+        <v>1098</v>
+      </c>
+      <c r="B163" s="35" t="s">
+        <v>266</v>
       </c>
       <c r="C163" t="s">
         <v>377</v>
       </c>
-      <c r="D163" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D163" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E163" t="s">
         <v>376</v>
       </c>
-      <c r="F163">
-        <v>30</v>
+      <c r="F163" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B164" s="36" t="s">
-        <v>90</v>
+        <v>1099</v>
+      </c>
+      <c r="B164" s="35" t="s">
+        <v>92</v>
       </c>
       <c r="C164" t="s">
         <v>377</v>
       </c>
-      <c r="D164" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D164" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E164" t="s">
         <v>376</v>
       </c>
-      <c r="F164">
-        <v>30</v>
+      <c r="F164" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B165" s="36" t="s">
-        <v>1261</v>
+        <v>1100</v>
+      </c>
+      <c r="B165" s="35" t="s">
+        <v>121</v>
       </c>
       <c r="C165" t="s">
         <v>377</v>
       </c>
-      <c r="D165" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D165" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E165" t="s">
         <v>376</v>
       </c>
-      <c r="F165">
-        <v>30</v>
+      <c r="F165" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B166" s="36" t="s">
-        <v>266</v>
+        <v>1101</v>
+      </c>
+      <c r="B166" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="C166" t="s">
         <v>377</v>
       </c>
-      <c r="D166" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D166" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E166" t="s">
         <v>376</v>
       </c>
-      <c r="F166">
-        <v>30</v>
+      <c r="F166" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B167" s="36" t="s">
-        <v>92</v>
+        <v>1102</v>
+      </c>
+      <c r="B167" s="35" t="s">
+        <v>1297</v>
       </c>
       <c r="C167" t="s">
         <v>377</v>
       </c>
-      <c r="D167" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D167" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E167" t="s">
         <v>376</v>
       </c>
-      <c r="F167">
-        <v>30</v>
+      <c r="F167" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="14" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B168" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C168" t="s">
-        <v>377</v>
-      </c>
-      <c r="D168" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+        <v>1103</v>
+      </c>
+      <c r="B168" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="D168" t="s">
+        <v>23</v>
       </c>
       <c r="E168" t="s">
         <v>376</v>
       </c>
-      <c r="F168">
-        <v>30</v>
+      <c r="F168" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B169" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C169" t="s">
-        <v>377</v>
-      </c>
-      <c r="D169" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+        <v>1104</v>
+      </c>
+      <c r="B169" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="D169" t="s">
+        <v>23</v>
       </c>
       <c r="E169" t="s">
         <v>376</v>
       </c>
-      <c r="F169">
-        <v>30</v>
+      <c r="F169" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B170" s="36" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C170" t="s">
-        <v>377</v>
-      </c>
-      <c r="D170" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+        <v>1105</v>
+      </c>
+      <c r="B170" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="D170" t="s">
+        <v>23</v>
       </c>
       <c r="E170" t="s">
         <v>376</v>
       </c>
-      <c r="F170">
-        <v>30</v>
+      <c r="F170" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B171" s="36" t="s">
-        <v>43</v>
+        <v>1106</v>
+      </c>
+      <c r="B171" s="35" t="s">
+        <v>79</v>
       </c>
       <c r="C171" s="17" t="s">
         <v>378</v>
@@ -18001,16 +17854,16 @@
       <c r="E171" t="s">
         <v>376</v>
       </c>
-      <c r="F171">
-        <v>30</v>
+      <c r="F171" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="14" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B172" s="36" t="s">
-        <v>257</v>
+        <v>1107</v>
+      </c>
+      <c r="B172" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="C172" s="17" t="s">
         <v>378</v>
@@ -18021,16 +17874,16 @@
       <c r="E172" t="s">
         <v>376</v>
       </c>
-      <c r="F172">
-        <v>30</v>
+      <c r="F172" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="14" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B173" s="36" t="s">
-        <v>249</v>
+        <v>1108</v>
+      </c>
+      <c r="B173" s="35" t="s">
+        <v>1298</v>
       </c>
       <c r="C173" s="17" t="s">
         <v>378</v>
@@ -18041,16 +17894,16 @@
       <c r="E173" t="s">
         <v>376</v>
       </c>
-      <c r="F173">
-        <v>30</v>
+      <c r="F173" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="14" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B174" s="36" t="s">
-        <v>79</v>
+        <v>1109</v>
+      </c>
+      <c r="B174" s="35" t="s">
+        <v>69</v>
       </c>
       <c r="C174" s="17" t="s">
         <v>378</v>
@@ -18061,16 +17914,16 @@
       <c r="E174" t="s">
         <v>376</v>
       </c>
-      <c r="F174">
-        <v>30</v>
+      <c r="F174" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="14" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B175" s="36" t="s">
-        <v>63</v>
+        <v>1110</v>
+      </c>
+      <c r="B175" s="35" t="s">
+        <v>1299</v>
       </c>
       <c r="C175" s="17" t="s">
         <v>378</v>
@@ -18081,16 +17934,16 @@
       <c r="E175" t="s">
         <v>376</v>
       </c>
-      <c r="F175">
-        <v>30</v>
+      <c r="F175" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="14" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B176" s="36" t="s">
-        <v>1309</v>
+        <v>1111</v>
+      </c>
+      <c r="B176" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="C176" s="17" t="s">
         <v>378</v>
@@ -18101,16 +17954,16 @@
       <c r="E176" t="s">
         <v>376</v>
       </c>
-      <c r="F176">
-        <v>30</v>
+      <c r="F176" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="14" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B177" s="36" t="s">
-        <v>69</v>
+        <v>1112</v>
+      </c>
+      <c r="B177" s="35" t="s">
+        <v>379</v>
       </c>
       <c r="C177" s="17" t="s">
         <v>378</v>
@@ -18121,16 +17974,16 @@
       <c r="E177" t="s">
         <v>376</v>
       </c>
-      <c r="F177">
-        <v>30</v>
+      <c r="F177" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="14" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B178" s="36" t="s">
-        <v>1310</v>
+        <v>1113</v>
+      </c>
+      <c r="B178" s="35" t="s">
+        <v>1300</v>
       </c>
       <c r="C178" s="17" t="s">
         <v>378</v>
@@ -18141,16 +17994,16 @@
       <c r="E178" t="s">
         <v>376</v>
       </c>
-      <c r="F178">
-        <v>30</v>
+      <c r="F178" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="14" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B179" s="36" t="s">
-        <v>45</v>
+        <v>1114</v>
+      </c>
+      <c r="B179" s="35" t="s">
+        <v>57</v>
       </c>
       <c r="C179" s="17" t="s">
         <v>378</v>
@@ -18161,16 +18014,16 @@
       <c r="E179" t="s">
         <v>376</v>
       </c>
-      <c r="F179">
-        <v>30</v>
+      <c r="F179" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="14" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B180" s="36" t="s">
-        <v>379</v>
+        <v>1115</v>
+      </c>
+      <c r="B180" s="35" t="s">
+        <v>77</v>
       </c>
       <c r="C180" s="17" t="s">
         <v>378</v>
@@ -18181,16 +18034,16 @@
       <c r="E180" t="s">
         <v>376</v>
       </c>
-      <c r="F180">
-        <v>30</v>
+      <c r="F180" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="14" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B181" s="36" t="s">
-        <v>1311</v>
+        <v>1116</v>
+      </c>
+      <c r="B181" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="C181" s="17" t="s">
         <v>378</v>
@@ -18201,16 +18054,16 @@
       <c r="E181" t="s">
         <v>376</v>
       </c>
-      <c r="F181">
-        <v>30</v>
+      <c r="F181" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="14" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B182" s="36" t="s">
-        <v>57</v>
+        <v>1117</v>
+      </c>
+      <c r="B182" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="C182" s="17" t="s">
         <v>378</v>
@@ -18221,16 +18074,16 @@
       <c r="E182" t="s">
         <v>376</v>
       </c>
-      <c r="F182">
-        <v>30</v>
+      <c r="F182" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B183" s="36" t="s">
-        <v>77</v>
+        <v>1118</v>
+      </c>
+      <c r="B183" s="35" t="s">
+        <v>75</v>
       </c>
       <c r="C183" s="17" t="s">
         <v>378</v>
@@ -18241,16 +18094,16 @@
       <c r="E183" t="s">
         <v>376</v>
       </c>
-      <c r="F183">
-        <v>30</v>
+      <c r="F183" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B184" s="36" t="s">
-        <v>65</v>
+        <v>1119</v>
+      </c>
+      <c r="B184" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="C184" s="17" t="s">
         <v>378</v>
@@ -18261,16 +18114,16 @@
       <c r="E184" t="s">
         <v>376</v>
       </c>
-      <c r="F184">
-        <v>30</v>
+      <c r="F184" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B185" s="36" t="s">
-        <v>47</v>
+        <v>1120</v>
+      </c>
+      <c r="B185" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="C185" s="17" t="s">
         <v>378</v>
@@ -18281,16 +18134,16 @@
       <c r="E185" t="s">
         <v>376</v>
       </c>
-      <c r="F185">
-        <v>30</v>
+      <c r="F185" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="14" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B186" s="36" t="s">
-        <v>75</v>
+        <v>1121</v>
+      </c>
+      <c r="B186" s="35" t="s">
+        <v>73</v>
       </c>
       <c r="C186" s="17" t="s">
         <v>378</v>
@@ -18301,16 +18154,16 @@
       <c r="E186" t="s">
         <v>376</v>
       </c>
-      <c r="F186">
-        <v>30</v>
+      <c r="F186" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="14" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B187" s="36" t="s">
-        <v>59</v>
+        <v>1122</v>
+      </c>
+      <c r="B187" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="C187" s="17" t="s">
         <v>378</v>
@@ -18321,16 +18174,16 @@
       <c r="E187" t="s">
         <v>376</v>
       </c>
-      <c r="F187">
-        <v>30</v>
+      <c r="F187" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="14" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B188" s="36" t="s">
-        <v>361</v>
+        <v>1123</v>
+      </c>
+      <c r="B188" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="C188" s="17" t="s">
         <v>378</v>
@@ -18341,59 +18194,59 @@
       <c r="E188" t="s">
         <v>376</v>
       </c>
-      <c r="F188">
-        <v>30</v>
+      <c r="F188" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B189" s="36" t="s">
-        <v>73</v>
+        <v>1124</v>
+      </c>
+      <c r="B189" s="35" t="s">
+        <v>258</v>
       </c>
       <c r="C189" s="17" t="s">
         <v>378</v>
       </c>
       <c r="D189" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E189" t="s">
         <v>376</v>
       </c>
-      <c r="F189">
-        <v>30</v>
+      <c r="F189" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="14" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B190" s="36" t="s">
-        <v>32</v>
+        <v>1125</v>
+      </c>
+      <c r="B190" s="35" t="s">
+        <v>1274</v>
       </c>
       <c r="C190" s="17" t="s">
         <v>378</v>
       </c>
       <c r="D190" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E190" t="s">
         <v>376</v>
       </c>
-      <c r="F190">
-        <v>30</v>
+      <c r="F190" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="14" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B191" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C191" s="17" t="s">
-        <v>378</v>
+        <v>1126</v>
+      </c>
+      <c r="B191" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C191" t="s">
+        <v>380</v>
       </c>
       <c r="D191" t="s">
         <v>23</v>
@@ -18401,76 +18254,76 @@
       <c r="E191" t="s">
         <v>376</v>
       </c>
-      <c r="F191">
-        <v>30</v>
+      <c r="F191" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="14" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B192" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="C192" s="17" t="s">
-        <v>378</v>
+        <v>1127</v>
+      </c>
+      <c r="B192" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C192" t="s">
+        <v>380</v>
       </c>
       <c r="D192" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E192" t="s">
         <v>376</v>
       </c>
-      <c r="F192">
-        <v>30</v>
+      <c r="F192" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="14" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B193" s="36" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C193" s="17" t="s">
-        <v>378</v>
+        <v>1128</v>
+      </c>
+      <c r="B193" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C193" t="s">
+        <v>380</v>
       </c>
       <c r="D193" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E193" t="s">
         <v>376</v>
       </c>
-      <c r="F193">
-        <v>30</v>
+      <c r="F193" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="14" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B194" s="36" t="s">
-        <v>81</v>
+        <v>1129</v>
+      </c>
+      <c r="B194" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="C194" t="s">
         <v>380</v>
       </c>
       <c r="D194" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
         <v>376</v>
       </c>
-      <c r="F194">
-        <v>30</v>
+      <c r="F194" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="14" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B195" s="36" t="s">
-        <v>84</v>
+        <v>1329</v>
+      </c>
+      <c r="B195" s="35" t="s">
+        <v>85</v>
       </c>
       <c r="C195" t="s">
         <v>380</v>
@@ -18481,76 +18334,76 @@
       <c r="E195" t="s">
         <v>376</v>
       </c>
-      <c r="F195">
-        <v>30</v>
+      <c r="F195" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="14" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B196" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C196" t="s">
-        <v>380</v>
+        <v>1130</v>
+      </c>
+      <c r="B196" s="35" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>381</v>
       </c>
       <c r="D196" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E196" t="s">
         <v>376</v>
       </c>
-      <c r="F196">
-        <v>30</v>
+      <c r="F196" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="14" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B197" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C197" t="s">
-        <v>380</v>
+        <v>1131</v>
+      </c>
+      <c r="B197" s="35" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>381</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E197" t="s">
         <v>376</v>
       </c>
-      <c r="F197">
-        <v>30</v>
+      <c r="F197" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="14" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B198" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C198" t="s">
-        <v>380</v>
+        <v>1132</v>
+      </c>
+      <c r="B198" t="s">
+        <v>934</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>381</v>
       </c>
       <c r="D198" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E198" t="s">
         <v>376</v>
       </c>
-      <c r="F198">
-        <v>30</v>
+      <c r="F198" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B199" s="36" t="s">
-        <v>1312</v>
+        <v>1133</v>
+      </c>
+      <c r="B199" s="35" t="s">
+        <v>382</v>
       </c>
       <c r="C199" s="17" t="s">
         <v>381</v>
@@ -18561,156 +18414,156 @@
       <c r="E199" t="s">
         <v>376</v>
       </c>
-      <c r="F199">
-        <v>30</v>
+      <c r="F199" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B200" s="36" t="s">
-        <v>1267</v>
+        <v>1134</v>
+      </c>
+      <c r="B200" s="35" t="s">
+        <v>159</v>
       </c>
       <c r="C200" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D200" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
         <v>376</v>
       </c>
-      <c r="F200">
-        <v>30</v>
+      <c r="F200" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="14" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B201" s="36" t="s">
-        <v>934</v>
+        <v>1135</v>
+      </c>
+      <c r="B201" s="35" t="s">
+        <v>1302</v>
       </c>
       <c r="C201" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="D201" t="s">
-        <v>7</v>
+      <c r="D201" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E201" t="s">
         <v>376</v>
       </c>
-      <c r="F201">
-        <v>30</v>
+      <c r="F201" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="14" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B202" s="36" t="s">
-        <v>382</v>
+        <v>1136</v>
+      </c>
+      <c r="B202" s="35" t="s">
+        <v>1303</v>
       </c>
       <c r="C202" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="D202" t="s">
-        <v>15</v>
+      <c r="D202" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E202" t="s">
         <v>376</v>
       </c>
-      <c r="F202">
-        <v>30</v>
+      <c r="F202" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="14" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B203" s="36" t="s">
-        <v>159</v>
+        <v>1137</v>
+      </c>
+      <c r="B203" s="35" t="s">
+        <v>1304</v>
       </c>
       <c r="C203" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="D203" t="s">
-        <v>10</v>
+      <c r="D203" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E203" t="s">
         <v>376</v>
       </c>
-      <c r="F203">
-        <v>30</v>
+      <c r="F203" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="14" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B204" s="36" t="s">
-        <v>1313</v>
+        <v>1138</v>
+      </c>
+      <c r="B204" s="35" t="s">
+        <v>1305</v>
       </c>
       <c r="C204" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="D204" s="12" t="s">
-        <v>14</v>
+      <c r="D204" t="s">
+        <v>15</v>
       </c>
       <c r="E204" t="s">
         <v>376</v>
       </c>
-      <c r="F204">
-        <v>30</v>
+      <c r="F204" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="14" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B205" s="36" t="s">
-        <v>1314</v>
+        <v>1139</v>
+      </c>
+      <c r="B205" s="35" t="s">
+        <v>383</v>
       </c>
       <c r="C205" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="D205" s="12" t="s">
-        <v>14</v>
+      <c r="D205" t="s">
+        <v>15</v>
       </c>
       <c r="E205" t="s">
         <v>376</v>
       </c>
-      <c r="F205">
-        <v>30</v>
+      <c r="F205" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="14" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B206" s="36" t="s">
-        <v>1315</v>
+        <v>1140</v>
+      </c>
+      <c r="B206" s="35" t="s">
+        <v>1306</v>
       </c>
       <c r="C206" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="D206" s="12" t="s">
-        <v>14</v>
+      <c r="D206" t="s">
+        <v>15</v>
       </c>
       <c r="E206" t="s">
         <v>376</v>
       </c>
-      <c r="F206">
-        <v>30</v>
+      <c r="F206" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="14" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B207" s="36" t="s">
-        <v>1316</v>
+        <v>1141</v>
+      </c>
+      <c r="B207" s="35" t="s">
+        <v>384</v>
       </c>
       <c r="C207" s="17" t="s">
         <v>381</v>
@@ -18721,36 +18574,36 @@
       <c r="E207" t="s">
         <v>376</v>
       </c>
-      <c r="F207">
-        <v>30</v>
+      <c r="F207" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="14" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B208" s="36" t="s">
-        <v>383</v>
+        <v>1142</v>
+      </c>
+      <c r="B208" s="35" t="s">
+        <v>1272</v>
       </c>
       <c r="C208" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D208" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E208" t="s">
         <v>376</v>
       </c>
-      <c r="F208">
-        <v>30</v>
+      <c r="F208" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B209" s="36" t="s">
-        <v>1317</v>
+        <v>1143</v>
+      </c>
+      <c r="B209" s="35" t="s">
+        <v>292</v>
       </c>
       <c r="C209" s="17" t="s">
         <v>381</v>
@@ -18761,16 +18614,16 @@
       <c r="E209" t="s">
         <v>376</v>
       </c>
-      <c r="F209">
-        <v>30</v>
+      <c r="F209" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="14" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B210" s="36" t="s">
-        <v>384</v>
+        <v>1144</v>
+      </c>
+      <c r="B210" s="35" t="s">
+        <v>1307</v>
       </c>
       <c r="C210" s="17" t="s">
         <v>381</v>
@@ -18781,157 +18634,156 @@
       <c r="E210" t="s">
         <v>376</v>
       </c>
-      <c r="F210">
-        <v>30</v>
+      <c r="F210" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="14" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B211" s="36" t="s">
-        <v>1280</v>
+        <v>1145</v>
+      </c>
+      <c r="B211" s="35" t="s">
+        <v>385</v>
       </c>
       <c r="C211" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D211" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E211" t="s">
         <v>376</v>
       </c>
-      <c r="F211">
-        <v>30</v>
+      <c r="F211" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="14" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B212" s="36" t="s">
-        <v>292</v>
+        <v>1146</v>
+      </c>
+      <c r="B212" s="35" t="s">
+        <v>1308</v>
       </c>
       <c r="C212" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D212" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
         <v>376</v>
       </c>
-      <c r="F212">
-        <v>30</v>
+      <c r="F212" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="14" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B213" s="36" t="s">
-        <v>1318</v>
+        <v>1147</v>
+      </c>
+      <c r="B213" s="35" t="s">
+        <v>386</v>
       </c>
       <c r="C213" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D213" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E213" t="s">
         <v>376</v>
       </c>
-      <c r="F213">
-        <v>30</v>
+      <c r="F213" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="14" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B214" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="C214" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="D214" t="s">
-        <v>15</v>
-      </c>
-      <c r="E214" t="s">
+      <c r="A214" s="33" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C214" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="D214" s="39" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E214" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="F214">
-        <v>30</v>
+      <c r="F214" s="39" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="14" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B215" s="36" t="s">
-        <v>1319</v>
+        <v>1148</v>
+      </c>
+      <c r="B215" s="35" t="s">
+        <v>278</v>
       </c>
       <c r="C215" s="17" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E215" t="s">
         <v>376</v>
       </c>
-      <c r="F215">
-        <v>30</v>
+      <c r="F215" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="14" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B216" s="36" t="s">
-        <v>386</v>
+        <v>1149</v>
+      </c>
+      <c r="B216" s="35" t="s">
+        <v>1309</v>
       </c>
       <c r="C216" s="17" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D216" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E216" t="s">
         <v>376</v>
       </c>
-      <c r="F216">
-        <v>30</v>
+      <c r="F216" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="34" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C217" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="D217" s="41" t="e">
-        <f>IF(#REF!="","",VLOOKUP(#REF!,[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E217" s="38" t="s">
+      <c r="A217" s="14" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B217" s="35" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C217" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="D217" t="s">
+        <v>15</v>
+      </c>
+      <c r="E217" t="s">
         <v>376</v>
       </c>
-      <c r="F217">
-        <v>30</v>
+      <c r="F217" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="14" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B218" s="36" t="s">
-        <v>278</v>
+        <v>1151</v>
+      </c>
+      <c r="B218" s="35" t="s">
+        <v>1311</v>
       </c>
       <c r="C218" s="17" t="s">
         <v>388</v>
@@ -18942,16 +18794,16 @@
       <c r="E218" t="s">
         <v>376</v>
       </c>
-      <c r="F218">
-        <v>30</v>
+      <c r="F218" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="14" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B219" s="36" t="s">
-        <v>1320</v>
+        <v>1152</v>
+      </c>
+      <c r="B219" s="35" t="s">
+        <v>224</v>
       </c>
       <c r="C219" s="17" t="s">
         <v>388</v>
@@ -18962,16 +18814,16 @@
       <c r="E219" t="s">
         <v>376</v>
       </c>
-      <c r="F219">
-        <v>30</v>
+      <c r="F219" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="14" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B220" s="36" t="s">
-        <v>1321</v>
+        <v>1153</v>
+      </c>
+      <c r="B220" s="35" t="s">
+        <v>308</v>
       </c>
       <c r="C220" s="17" t="s">
         <v>388</v>
@@ -18982,16 +18834,16 @@
       <c r="E220" t="s">
         <v>376</v>
       </c>
-      <c r="F220">
-        <v>30</v>
+      <c r="F220" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="14" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B221" s="36" t="s">
-        <v>1322</v>
+        <v>1154</v>
+      </c>
+      <c r="B221" s="35" t="s">
+        <v>1286</v>
       </c>
       <c r="C221" s="17" t="s">
         <v>388</v>
@@ -19002,16 +18854,16 @@
       <c r="E221" t="s">
         <v>376</v>
       </c>
-      <c r="F221">
-        <v>30</v>
+      <c r="F221" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="14" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B222" s="36" t="s">
-        <v>224</v>
+        <v>1155</v>
+      </c>
+      <c r="B222" s="35" t="s">
+        <v>307</v>
       </c>
       <c r="C222" s="17" t="s">
         <v>388</v>
@@ -19022,16 +18874,16 @@
       <c r="E222" t="s">
         <v>376</v>
       </c>
-      <c r="F222">
-        <v>30</v>
+      <c r="F222" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="14" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B223" s="36" t="s">
-        <v>308</v>
+        <v>1156</v>
+      </c>
+      <c r="B223" s="35" t="s">
+        <v>94</v>
       </c>
       <c r="C223" s="17" t="s">
         <v>388</v>
@@ -19042,16 +18894,16 @@
       <c r="E223" t="s">
         <v>376</v>
       </c>
-      <c r="F223">
-        <v>30</v>
+      <c r="F223" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="14" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B224" s="36" t="s">
-        <v>1295</v>
+        <v>1157</v>
+      </c>
+      <c r="B224" s="35" t="s">
+        <v>905</v>
       </c>
       <c r="C224" s="17" t="s">
         <v>388</v>
@@ -19062,36 +18914,36 @@
       <c r="E224" t="s">
         <v>376</v>
       </c>
-      <c r="F224">
-        <v>30</v>
+      <c r="F224" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="14" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B225" s="36" t="s">
-        <v>307</v>
+        <v>1158</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>1334</v>
       </c>
       <c r="C225" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="D225" t="s">
-        <v>15</v>
+      <c r="D225" s="4" t="s">
+        <v>1335</v>
       </c>
       <c r="E225" t="s">
         <v>376</v>
       </c>
-      <c r="F225">
-        <v>30</v>
+      <c r="F225" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="14" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B226" s="36" t="s">
-        <v>94</v>
+        <v>1159</v>
+      </c>
+      <c r="B226" s="35" t="s">
+        <v>101</v>
       </c>
       <c r="C226" s="17" t="s">
         <v>388</v>
@@ -19102,16 +18954,16 @@
       <c r="E226" t="s">
         <v>376</v>
       </c>
-      <c r="F226">
-        <v>30</v>
+      <c r="F226" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="14" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B227" s="36" t="s">
-        <v>905</v>
+        <v>1160</v>
+      </c>
+      <c r="B227" s="35" t="s">
+        <v>310</v>
       </c>
       <c r="C227" s="17" t="s">
         <v>388</v>
@@ -19122,37 +18974,36 @@
       <c r="E227" t="s">
         <v>376</v>
       </c>
-      <c r="F227">
-        <v>30</v>
+      <c r="F227" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="14" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B228" s="36" t="s">
-        <v>1323</v>
+        <v>1161</v>
+      </c>
+      <c r="B228" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="C228" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="D228" s="4" t="e">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>#N/A</v>
+      <c r="D228" t="s">
+        <v>15</v>
       </c>
       <c r="E228" t="s">
         <v>376</v>
       </c>
-      <c r="F228">
-        <v>30</v>
+      <c r="F228" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="14" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B229" s="36" t="s">
-        <v>101</v>
+        <v>1162</v>
+      </c>
+      <c r="B229" s="35" t="s">
+        <v>1288</v>
       </c>
       <c r="C229" s="17" t="s">
         <v>388</v>
@@ -19163,16 +19014,16 @@
       <c r="E229" t="s">
         <v>376</v>
       </c>
-      <c r="F229">
-        <v>30</v>
+      <c r="F229" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="14" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B230" s="36" t="s">
-        <v>310</v>
+        <v>1163</v>
+      </c>
+      <c r="B230" s="35" t="s">
+        <v>389</v>
       </c>
       <c r="C230" s="17" t="s">
         <v>388</v>
@@ -19183,16 +19034,16 @@
       <c r="E230" t="s">
         <v>376</v>
       </c>
-      <c r="F230">
-        <v>30</v>
+      <c r="F230" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B231" s="36" t="s">
-        <v>97</v>
+        <v>1164</v>
+      </c>
+      <c r="B231" s="35" t="s">
+        <v>305</v>
       </c>
       <c r="C231" s="17" t="s">
         <v>388</v>
@@ -19203,16 +19054,16 @@
       <c r="E231" t="s">
         <v>376</v>
       </c>
-      <c r="F231">
-        <v>30</v>
+      <c r="F231" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="14" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B232" s="36" t="s">
-        <v>1297</v>
+        <v>1165</v>
+      </c>
+      <c r="B232" s="35" t="s">
+        <v>223</v>
       </c>
       <c r="C232" s="17" t="s">
         <v>388</v>
@@ -19223,96 +19074,96 @@
       <c r="E232" t="s">
         <v>376</v>
       </c>
-      <c r="F232">
-        <v>30</v>
+      <c r="F232" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="14" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B233" s="36" t="s">
-        <v>389</v>
+        <v>1166</v>
+      </c>
+      <c r="B233" s="35" t="s">
+        <v>230</v>
       </c>
       <c r="C233" s="17" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D233" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E233" t="s">
         <v>376</v>
       </c>
-      <c r="F233">
-        <v>30</v>
+      <c r="F233" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="14" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B234" s="36" t="s">
-        <v>305</v>
+        <v>1167</v>
+      </c>
+      <c r="B234" s="35" t="s">
+        <v>231</v>
       </c>
       <c r="C234" s="17" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D234" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E234" t="s">
         <v>376</v>
       </c>
-      <c r="F234">
-        <v>30</v>
+      <c r="F234" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="14" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B235" s="36" t="s">
-        <v>223</v>
+        <v>1168</v>
+      </c>
+      <c r="B235" s="35" t="s">
+        <v>1312</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="D235" t="s">
-        <v>15</v>
+        <v>390</v>
+      </c>
+      <c r="D235" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E235" t="s">
         <v>376</v>
       </c>
-      <c r="F235">
-        <v>30</v>
+      <c r="F235" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="14" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B236" s="36" t="s">
-        <v>230</v>
+        <v>1169</v>
+      </c>
+      <c r="B236" s="35" t="s">
+        <v>220</v>
       </c>
       <c r="C236" s="17" t="s">
         <v>390</v>
       </c>
       <c r="D236" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E236" t="s">
         <v>376</v>
       </c>
-      <c r="F236">
-        <v>30</v>
+      <c r="F236" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="14" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B237" s="36" t="s">
-        <v>231</v>
+        <v>1170</v>
+      </c>
+      <c r="B237" s="35" t="s">
+        <v>232</v>
       </c>
       <c r="C237" s="17" t="s">
         <v>390</v>
@@ -19323,56 +19174,56 @@
       <c r="E237" t="s">
         <v>376</v>
       </c>
-      <c r="F237">
-        <v>30</v>
+      <c r="F237" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="14" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B238" s="36" t="s">
-        <v>1324</v>
+        <v>1171</v>
+      </c>
+      <c r="B238" s="35" t="s">
+        <v>1313</v>
       </c>
       <c r="C238" s="17" t="s">
         <v>390</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>14</v>
+        <v>1336</v>
       </c>
       <c r="E238" t="s">
         <v>376</v>
       </c>
-      <c r="F238">
-        <v>30</v>
+      <c r="F238" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="14" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B239" s="36" t="s">
-        <v>220</v>
+        <v>1172</v>
+      </c>
+      <c r="B239" s="35" t="s">
+        <v>1277</v>
       </c>
       <c r="C239" s="17" t="s">
         <v>390</v>
       </c>
       <c r="D239" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E239" t="s">
         <v>376</v>
       </c>
-      <c r="F239">
-        <v>30</v>
+      <c r="F239" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="14" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B240" s="36" t="s">
-        <v>232</v>
+        <v>1173</v>
+      </c>
+      <c r="B240" s="35" t="s">
+        <v>1276</v>
       </c>
       <c r="C240" s="17" t="s">
         <v>390</v>
@@ -19383,36 +19234,36 @@
       <c r="E240" t="s">
         <v>376</v>
       </c>
-      <c r="F240">
-        <v>30</v>
+      <c r="F240" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="14" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B241" s="36" t="s">
-        <v>1325</v>
+        <v>1174</v>
+      </c>
+      <c r="B241" s="35" t="s">
+        <v>234</v>
       </c>
       <c r="C241" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="D241" s="12" t="s">
-        <v>14</v>
+      <c r="D241" t="s">
+        <v>12</v>
       </c>
       <c r="E241" t="s">
         <v>376</v>
       </c>
-      <c r="F241">
-        <v>30</v>
+      <c r="F241" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="14" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B242" s="36" t="s">
-        <v>1285</v>
+        <v>1175</v>
+      </c>
+      <c r="B242" s="35" t="s">
+        <v>1278</v>
       </c>
       <c r="C242" s="17" t="s">
         <v>390</v>
@@ -19423,16 +19274,16 @@
       <c r="E242" t="s">
         <v>376</v>
       </c>
-      <c r="F242">
-        <v>30</v>
+      <c r="F242" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="14" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B243" s="36" t="s">
-        <v>1284</v>
+        <v>1176</v>
+      </c>
+      <c r="B243" s="35" t="s">
+        <v>1279</v>
       </c>
       <c r="C243" s="17" t="s">
         <v>390</v>
@@ -19443,16 +19294,16 @@
       <c r="E243" t="s">
         <v>376</v>
       </c>
-      <c r="F243">
-        <v>30</v>
+      <c r="F243" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="14" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B244" s="36" t="s">
-        <v>234</v>
+        <v>1177</v>
+      </c>
+      <c r="B244" s="35" t="s">
+        <v>391</v>
       </c>
       <c r="C244" s="17" t="s">
         <v>390</v>
@@ -19463,16 +19314,16 @@
       <c r="E244" t="s">
         <v>376</v>
       </c>
-      <c r="F244">
-        <v>30</v>
+      <c r="F244" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="14" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B245" s="36" t="s">
-        <v>1286</v>
+        <v>1178</v>
+      </c>
+      <c r="B245" s="35" t="s">
+        <v>1291</v>
       </c>
       <c r="C245" s="17" t="s">
         <v>390</v>
@@ -19483,748 +19334,716 @@
       <c r="E245" t="s">
         <v>376</v>
       </c>
-      <c r="F245">
-        <v>30</v>
+      <c r="F245" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="14" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B246" s="36" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C246" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="D246" t="s">
-        <v>12</v>
+        <v>1179</v>
+      </c>
+      <c r="B246" s="35" t="s">
+        <v>860</v>
+      </c>
+      <c r="C246" t="s">
+        <v>392</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E246" t="s">
         <v>376</v>
       </c>
-      <c r="F246">
-        <v>30</v>
+      <c r="F246" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="14" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B247" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="C247" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="D247" t="s">
-        <v>12</v>
+        <v>1180</v>
+      </c>
+      <c r="B247" s="35" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C247" t="s">
+        <v>392</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E247" t="s">
         <v>376</v>
       </c>
-      <c r="F247">
-        <v>30</v>
+      <c r="F247" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="14" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B248" s="36" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C248" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="D248" t="s">
-        <v>12</v>
+        <v>1181</v>
+      </c>
+      <c r="B248" s="35" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C248" t="s">
+        <v>392</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E248" t="s">
         <v>376</v>
       </c>
-      <c r="F248">
-        <v>30</v>
+      <c r="F248" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="14" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B249" s="36" t="s">
-        <v>860</v>
+        <v>1182</v>
+      </c>
+      <c r="B249" s="35" t="s">
+        <v>1261</v>
       </c>
       <c r="C249" t="s">
         <v>392</v>
       </c>
-      <c r="D249" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE METAL-MECÁNICA</v>
+      <c r="D249" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E249" t="s">
         <v>376</v>
       </c>
-      <c r="F249">
-        <v>30</v>
+      <c r="F249" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="14" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B250" s="36" t="s">
-        <v>1270</v>
+        <v>1183</v>
+      </c>
+      <c r="B250" s="35" t="s">
+        <v>353</v>
       </c>
       <c r="C250" t="s">
         <v>392</v>
       </c>
-      <c r="D250" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE METAL-MECÁNICA</v>
+      <c r="D250" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E250" t="s">
         <v>376</v>
       </c>
-      <c r="F250">
-        <v>30</v>
+      <c r="F250" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="14" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B251" s="36" t="s">
-        <v>1272</v>
+        <v>1184</v>
+      </c>
+      <c r="B251" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="C251" t="s">
         <v>392</v>
       </c>
-      <c r="D251" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D251" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E251" t="s">
         <v>376</v>
       </c>
-      <c r="F251">
-        <v>30</v>
+      <c r="F251" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="33" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B252" s="36" t="s">
-        <v>1269</v>
+      <c r="A252" s="14" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B252" s="35" t="s">
+        <v>215</v>
       </c>
       <c r="C252" t="s">
         <v>392</v>
       </c>
-      <c r="D252" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE METAL-MECÁNICA</v>
+      <c r="D252" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E252" t="s">
         <v>376</v>
       </c>
-      <c r="F252">
-        <v>30</v>
+      <c r="F252" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="33" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B253" s="36" t="s">
-        <v>353</v>
+      <c r="A253" s="14" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B253" s="35" t="s">
+        <v>1263</v>
       </c>
       <c r="C253" t="s">
         <v>392</v>
       </c>
-      <c r="D253" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>HONORARÍOS / NO APARECE EN BD</v>
+      <c r="D253" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E253" t="s">
         <v>376</v>
       </c>
-      <c r="F253">
-        <v>30</v>
+      <c r="F253" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="33" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B254" s="36" t="s">
-        <v>209</v>
+      <c r="A254" s="14" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B254" s="35" t="s">
+        <v>247</v>
       </c>
       <c r="C254" t="s">
         <v>392</v>
       </c>
-      <c r="D254" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE METAL-MECÁNICA</v>
+      <c r="D254" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E254" t="s">
         <v>376</v>
       </c>
-      <c r="F254">
-        <v>30</v>
+      <c r="F254" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="33" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B255" s="36" t="s">
-        <v>215</v>
+      <c r="A255" s="14" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B255" s="35" t="s">
+        <v>355</v>
       </c>
       <c r="C255" t="s">
         <v>392</v>
       </c>
-      <c r="D255" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE METAL-MECÁNICA</v>
+      <c r="D255" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E255" t="s">
         <v>376</v>
       </c>
-      <c r="F255">
-        <v>30</v>
+      <c r="F255" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="33" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B256" s="36" t="s">
-        <v>1271</v>
+      <c r="A256" s="14" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B256" s="35" t="s">
+        <v>324</v>
       </c>
       <c r="C256" t="s">
         <v>392</v>
       </c>
-      <c r="D256" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE METAL-MECÁNICA</v>
+      <c r="D256" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E256" t="s">
         <v>376</v>
       </c>
-      <c r="F256">
-        <v>30</v>
+      <c r="F256" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="33" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B257" s="36" t="s">
-        <v>247</v>
+      <c r="A257" s="14" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B257" s="35" t="s">
+        <v>323</v>
       </c>
       <c r="C257" t="s">
         <v>392</v>
       </c>
-      <c r="D257" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE METAL-MECÁNICA</v>
+      <c r="D257" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E257" t="s">
         <v>376</v>
       </c>
-      <c r="F257">
-        <v>30</v>
+      <c r="F257" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="33" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B258" s="36" t="s">
-        <v>355</v>
+      <c r="A258" s="14" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B258" s="35" t="s">
+        <v>216</v>
       </c>
       <c r="C258" t="s">
         <v>392</v>
       </c>
-      <c r="D258" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE METAL-MECÁNICA</v>
+      <c r="D258" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E258" t="s">
         <v>376</v>
       </c>
-      <c r="F258">
-        <v>30</v>
+      <c r="F258" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="33" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B259" s="36" t="s">
-        <v>324</v>
+      <c r="A259" s="14" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B259" s="35" t="s">
+        <v>213</v>
       </c>
       <c r="C259" t="s">
         <v>392</v>
       </c>
-      <c r="D259" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE METAL-MECÁNICA</v>
+      <c r="D259" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E259" t="s">
         <v>376</v>
       </c>
-      <c r="F259">
-        <v>30</v>
+      <c r="F259" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="33" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B260" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="C260" t="s">
-        <v>392</v>
-      </c>
-      <c r="D260" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>HONORARÍOS / NO APARECE EN BD</v>
+      <c r="A260" s="14" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B260" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C260" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E260" t="s">
         <v>376</v>
       </c>
-      <c r="F260">
-        <v>30</v>
+      <c r="F260" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="33" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B261" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="C261" t="s">
-        <v>392</v>
-      </c>
-      <c r="D261" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE METAL-MECÁNICA</v>
+      <c r="A261" s="14" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B261" s="35" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C261" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E261" t="s">
         <v>376</v>
       </c>
-      <c r="F261">
-        <v>30</v>
+      <c r="F261" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="33" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B262" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="C262" t="s">
-        <v>392</v>
-      </c>
-      <c r="D262" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE METAL-MECÁNICA</v>
+      <c r="A262" s="14" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B262" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C262" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E262" t="s">
         <v>376</v>
       </c>
-      <c r="F262">
-        <v>30</v>
+      <c r="F262" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="14" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B263" s="36" t="s">
-        <v>89</v>
+        <v>1196</v>
+      </c>
+      <c r="B263" s="35" t="s">
+        <v>1271</v>
       </c>
       <c r="C263" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D263" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS ECONOMICO-ADMINISTRATIVAS</v>
+      <c r="D263" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E263" t="s">
         <v>376</v>
       </c>
-      <c r="F263">
-        <v>30</v>
+      <c r="F263" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="14" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B264" s="36" t="s">
-        <v>1283</v>
+        <v>1197</v>
+      </c>
+      <c r="B264" s="35" t="s">
+        <v>1314</v>
       </c>
       <c r="C264" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D264" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D264" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E264" t="s">
         <v>376</v>
       </c>
-      <c r="F264">
-        <v>30</v>
+      <c r="F264" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="14" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B265" s="36" t="s">
-        <v>1326</v>
+        <v>1198</v>
+      </c>
+      <c r="B265" s="35" t="s">
+        <v>1315</v>
       </c>
       <c r="C265" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D265" s="4" t="e">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>#N/A</v>
+      <c r="D265" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E265" t="s">
         <v>376</v>
       </c>
-      <c r="F265">
-        <v>30</v>
+      <c r="F265" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="14" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B266" s="36" t="s">
-        <v>1279</v>
+        <v>1199</v>
+      </c>
+      <c r="B266" s="35" t="s">
+        <v>394</v>
       </c>
       <c r="C266" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D266" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE INGENIERÍA ELÉCTRICA Y ELECTRÓNICA</v>
+      <c r="D266" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E266" t="s">
         <v>376</v>
       </c>
-      <c r="F266">
-        <v>30</v>
+      <c r="F266" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="14" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B267" s="36" t="s">
-        <v>1327</v>
+        <v>1200</v>
+      </c>
+      <c r="B267" s="35" t="s">
+        <v>1316</v>
       </c>
       <c r="C267" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D267" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS ECONOMICO-ADMINISTRATIVAS</v>
+      <c r="D267" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E267" t="s">
         <v>376</v>
       </c>
-      <c r="F267">
-        <v>30</v>
+      <c r="F267" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="14" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B268" s="36" t="s">
-        <v>1328</v>
+        <v>1201</v>
+      </c>
+      <c r="B268" s="35" t="s">
+        <v>1317</v>
       </c>
       <c r="C268" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D268" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS ECONOMICO-ADMINISTRATIVAS</v>
+      <c r="D268" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E268" t="s">
         <v>376</v>
       </c>
-      <c r="F268">
-        <v>30</v>
+      <c r="F268" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="14" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B269" s="36" t="s">
-        <v>394</v>
+        <v>1202</v>
+      </c>
+      <c r="B269" s="35" t="s">
+        <v>395</v>
       </c>
       <c r="C269" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D269" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS ECONOMICO-ADMINISTRATIVAS</v>
+      <c r="D269" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E269" t="s">
         <v>376</v>
       </c>
-      <c r="F269">
-        <v>30</v>
+      <c r="F269" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="14" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B270" s="36" t="s">
-        <v>1329</v>
+        <v>1203</v>
+      </c>
+      <c r="B270" s="35" t="s">
+        <v>1318</v>
       </c>
       <c r="C270" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D270" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS ECONOMICO-ADMINISTRATIVAS</v>
+      <c r="D270" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E270" t="s">
         <v>376</v>
       </c>
-      <c r="F270">
-        <v>30</v>
+      <c r="F270" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="14" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B271" s="36" t="s">
-        <v>1330</v>
+        <v>1204</v>
+      </c>
+      <c r="B271" s="35" t="s">
+        <v>176</v>
       </c>
       <c r="C271" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D271" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS ECONOMICO-ADMINISTRATIVAS</v>
+      <c r="D271" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E271" t="s">
         <v>376</v>
       </c>
-      <c r="F271">
-        <v>30</v>
+      <c r="F271" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="14" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B272" s="36" t="s">
-        <v>395</v>
+        <v>1205</v>
+      </c>
+      <c r="B272" s="35" t="s">
+        <v>1319</v>
       </c>
       <c r="C272" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D272" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS DE LA TIERRA</v>
+      <c r="D272" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E272" t="s">
         <v>376</v>
       </c>
-      <c r="F272">
-        <v>30</v>
+      <c r="F272" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="14" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B273" s="36" t="s">
-        <v>1331</v>
+        <v>1206</v>
+      </c>
+      <c r="B273" s="35" t="s">
+        <v>118</v>
       </c>
       <c r="C273" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D273" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D273" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E273" t="s">
         <v>376</v>
       </c>
-      <c r="F273">
-        <v>30</v>
+      <c r="F273" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="14" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B274" s="36" t="s">
-        <v>176</v>
+        <v>1207</v>
+      </c>
+      <c r="B274" s="35" t="s">
+        <v>256</v>
       </c>
       <c r="C274" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D274" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>HONORARÍOS / NO APARECE EN BD</v>
+      <c r="D274" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E274" t="s">
         <v>376</v>
       </c>
-      <c r="F274">
-        <v>30</v>
+      <c r="F274" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B275" s="36" t="s">
-        <v>1332</v>
+        <v>1208</v>
+      </c>
+      <c r="B275" s="35" t="s">
+        <v>139</v>
       </c>
       <c r="C275" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D275" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D275" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E275" t="s">
         <v>376</v>
       </c>
-      <c r="F275">
-        <v>30</v>
+      <c r="F275" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B276" s="36" t="s">
-        <v>118</v>
+        <v>1209</v>
+      </c>
+      <c r="B276" s="35" t="s">
+        <v>1249</v>
       </c>
       <c r="C276" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D276" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS ECONOMICO-ADMINISTRATIVAS</v>
+      <c r="D276" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E276" t="s">
         <v>376</v>
       </c>
-      <c r="F276">
-        <v>30</v>
+      <c r="F276" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="14" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B277" s="36" t="s">
-        <v>256</v>
+        <v>1210</v>
+      </c>
+      <c r="B277" s="35" t="s">
+        <v>1320</v>
       </c>
       <c r="C277" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D277" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE INGENIERÍA INDUSTRIAL</v>
+      <c r="D277" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E277" t="s">
         <v>376</v>
       </c>
-      <c r="F277">
-        <v>30</v>
+      <c r="F277" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B278" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C278" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="D278" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+        <v>1211</v>
+      </c>
+      <c r="B278" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C278" t="s">
+        <v>396</v>
+      </c>
+      <c r="D278" t="s">
+        <v>15</v>
       </c>
       <c r="E278" t="s">
         <v>376</v>
       </c>
-      <c r="F278">
-        <v>30</v>
+      <c r="F278" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B279" s="36" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C279" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="D279" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS ECONOMICO-ADMINISTRATIVAS</v>
+        <v>1212</v>
+      </c>
+      <c r="B279" s="35" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C279" t="s">
+        <v>396</v>
+      </c>
+      <c r="D279" t="s">
+        <v>15</v>
       </c>
       <c r="E279" t="s">
         <v>376</v>
       </c>
-      <c r="F279">
-        <v>30</v>
+      <c r="F279" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="14" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B280" s="36" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C280" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="D280" s="4" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS ECONOMICO-ADMINISTRATIVAS</v>
+        <v>1213</v>
+      </c>
+      <c r="B280" s="35" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C280" t="s">
+        <v>396</v>
+      </c>
+      <c r="D280" t="s">
+        <v>15</v>
       </c>
       <c r="E280" t="s">
         <v>376</v>
       </c>
-      <c r="F280">
-        <v>30</v>
+      <c r="F280" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="14" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B281" s="36" t="s">
-        <v>200</v>
+        <v>1214</v>
+      </c>
+      <c r="B281" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="C281" t="s">
         <v>396</v>
@@ -20235,16 +20054,16 @@
       <c r="E281" t="s">
         <v>376</v>
       </c>
-      <c r="F281">
-        <v>30</v>
+      <c r="F281" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="14" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B282" s="36" t="s">
-        <v>1291</v>
+        <v>1215</v>
+      </c>
+      <c r="B282" s="35" t="s">
+        <v>203</v>
       </c>
       <c r="C282" t="s">
         <v>396</v>
@@ -20255,16 +20074,16 @@
       <c r="E282" t="s">
         <v>376</v>
       </c>
-      <c r="F282">
-        <v>30</v>
+      <c r="F282" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="14" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B283" s="36" t="s">
-        <v>1290</v>
+        <v>1216</v>
+      </c>
+      <c r="B283" s="35" t="s">
+        <v>192</v>
       </c>
       <c r="C283" t="s">
         <v>396</v>
@@ -20275,16 +20094,16 @@
       <c r="E283" t="s">
         <v>376</v>
       </c>
-      <c r="F283">
-        <v>30</v>
+      <c r="F283" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="14" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B284" s="36" t="s">
-        <v>194</v>
+        <v>1217</v>
+      </c>
+      <c r="B284" s="35" t="s">
+        <v>397</v>
       </c>
       <c r="C284" t="s">
         <v>396</v>
@@ -20295,16 +20114,16 @@
       <c r="E284" t="s">
         <v>376</v>
       </c>
-      <c r="F284">
-        <v>30</v>
+      <c r="F284" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="14" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B285" s="36" t="s">
-        <v>203</v>
+        <v>1218</v>
+      </c>
+      <c r="B285" s="35" t="s">
+        <v>1280</v>
       </c>
       <c r="C285" t="s">
         <v>396</v>
@@ -20315,16 +20134,16 @@
       <c r="E285" t="s">
         <v>376</v>
       </c>
-      <c r="F285">
-        <v>30</v>
+      <c r="F285" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="14" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B286" s="36" t="s">
-        <v>192</v>
+        <v>1219</v>
+      </c>
+      <c r="B286" s="35" t="s">
+        <v>1284</v>
       </c>
       <c r="C286" t="s">
         <v>396</v>
@@ -20335,16 +20154,16 @@
       <c r="E286" t="s">
         <v>376</v>
       </c>
-      <c r="F286">
-        <v>30</v>
+      <c r="F286" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="14" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B287" s="36" t="s">
-        <v>397</v>
+        <v>1220</v>
+      </c>
+      <c r="B287" s="35" t="s">
+        <v>158</v>
       </c>
       <c r="C287" t="s">
         <v>396</v>
@@ -20355,16 +20174,16 @@
       <c r="E287" t="s">
         <v>376</v>
       </c>
-      <c r="F287">
-        <v>30</v>
+      <c r="F287" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="14" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B288" s="36" t="s">
-        <v>1289</v>
+        <v>1221</v>
+      </c>
+      <c r="B288" s="35" t="s">
+        <v>198</v>
       </c>
       <c r="C288" t="s">
         <v>396</v>
@@ -20375,36 +20194,36 @@
       <c r="E288" t="s">
         <v>376</v>
       </c>
-      <c r="F288">
-        <v>30</v>
+      <c r="F288" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="14" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B289" s="36" t="s">
-        <v>1293</v>
+        <v>1222</v>
+      </c>
+      <c r="B289" s="35" t="s">
+        <v>366</v>
       </c>
       <c r="C289" t="s">
         <v>396</v>
       </c>
       <c r="D289" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E289" t="s">
         <v>376</v>
       </c>
-      <c r="F289">
-        <v>30</v>
+      <c r="F289" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="14" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B290" s="36" t="s">
-        <v>158</v>
+        <v>1223</v>
+      </c>
+      <c r="B290" s="35" t="s">
+        <v>859</v>
       </c>
       <c r="C290" t="s">
         <v>396</v>
@@ -20415,16 +20234,16 @@
       <c r="E290" t="s">
         <v>376</v>
       </c>
-      <c r="F290">
-        <v>30</v>
+      <c r="F290" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="14" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B291" s="36" t="s">
-        <v>198</v>
+        <v>1224</v>
+      </c>
+      <c r="B291" s="35" t="s">
+        <v>201</v>
       </c>
       <c r="C291" t="s">
         <v>396</v>
@@ -20435,592 +20254,499 @@
       <c r="E291" t="s">
         <v>376</v>
       </c>
-      <c r="F291">
-        <v>30</v>
+      <c r="F291" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="14" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B292" s="36" t="s">
-        <v>366</v>
+        <v>1330</v>
+      </c>
+      <c r="B292" s="35" t="s">
+        <v>904</v>
       </c>
       <c r="C292" t="s">
         <v>396</v>
       </c>
       <c r="D292" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E292" t="s">
         <v>376</v>
       </c>
-      <c r="F292">
-        <v>30</v>
+      <c r="F292" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="14" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B293" s="36" t="s">
-        <v>859</v>
+      <c r="A293" s="16" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B293" s="35" t="s">
+        <v>121</v>
       </c>
       <c r="C293" t="s">
-        <v>396</v>
-      </c>
-      <c r="D293" t="s">
-        <v>15</v>
+        <v>398</v>
+      </c>
+      <c r="D293" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E293" t="s">
         <v>376</v>
       </c>
-      <c r="F293">
-        <v>30</v>
+      <c r="F293" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="14" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B294" s="36" t="s">
-        <v>201</v>
+      <c r="A294" s="16" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B294" s="35" t="s">
+        <v>262</v>
       </c>
       <c r="C294" t="s">
-        <v>396</v>
-      </c>
-      <c r="D294" t="s">
-        <v>15</v>
+        <v>398</v>
+      </c>
+      <c r="D294" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E294" t="s">
         <v>376</v>
       </c>
-      <c r="F294">
-        <v>30</v>
+      <c r="F294" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="14" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B295" s="36" t="s">
-        <v>904</v>
+      <c r="A295" s="16" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B295" s="35" t="s">
+        <v>189</v>
       </c>
       <c r="C295" t="s">
-        <v>396</v>
-      </c>
-      <c r="D295" t="s">
-        <v>15</v>
+        <v>398</v>
+      </c>
+      <c r="D295" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="E295" t="s">
         <v>376</v>
       </c>
-      <c r="F295">
-        <v>30</v>
+      <c r="F295" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="16" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B296" s="36" t="s">
-        <v>121</v>
+        <v>1228</v>
+      </c>
+      <c r="B296" s="35" t="s">
+        <v>261</v>
       </c>
       <c r="C296" t="s">
         <v>398</v>
       </c>
-      <c r="D296" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D296" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E296" t="s">
         <v>376</v>
       </c>
-      <c r="F296">
-        <v>30</v>
+      <c r="F296" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="16" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B297" s="36" t="s">
-        <v>262</v>
+        <v>1229</v>
+      </c>
+      <c r="B297" s="35" t="s">
+        <v>267</v>
       </c>
       <c r="C297" t="s">
         <v>398</v>
       </c>
-      <c r="D297" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D297" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E297" t="s">
         <v>376</v>
       </c>
-      <c r="F297">
-        <v>30</v>
+      <c r="F297" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="16" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B298" s="36" t="s">
-        <v>189</v>
+        <v>1230</v>
+      </c>
+      <c r="B298" s="35" t="s">
+        <v>1251</v>
       </c>
       <c r="C298" t="s">
         <v>398</v>
       </c>
-      <c r="D298" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS DE LA TIERRA</v>
+      <c r="D298" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E298" t="s">
         <v>376</v>
       </c>
-      <c r="F298">
-        <v>30</v>
+      <c r="F298" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="16" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B299" s="36" t="s">
-        <v>261</v>
+        <v>1231</v>
+      </c>
+      <c r="B299" s="35" t="s">
+        <v>109</v>
       </c>
       <c r="C299" t="s">
         <v>398</v>
       </c>
-      <c r="D299" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D299" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E299" t="s">
         <v>376</v>
       </c>
-      <c r="F299">
-        <v>30</v>
+      <c r="F299" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="16" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B300" s="36" t="s">
-        <v>267</v>
+        <v>1232</v>
+      </c>
+      <c r="B300" s="35" t="s">
+        <v>1321</v>
       </c>
       <c r="C300" t="s">
         <v>398</v>
       </c>
-      <c r="D300" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D300" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E300" t="s">
         <v>376</v>
       </c>
-      <c r="F300">
-        <v>30</v>
+      <c r="F300" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="16" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B301" s="36" t="s">
-        <v>1259</v>
+        <v>1233</v>
+      </c>
+      <c r="B301" s="35" t="s">
+        <v>114</v>
       </c>
       <c r="C301" t="s">
         <v>398</v>
       </c>
-      <c r="D301" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D301" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E301" t="s">
         <v>376</v>
       </c>
-      <c r="F301">
-        <v>30</v>
+      <c r="F301" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="16" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B302" s="36" t="s">
-        <v>109</v>
+        <v>1234</v>
+      </c>
+      <c r="B302" s="35" t="s">
+        <v>856</v>
       </c>
       <c r="C302" t="s">
         <v>398</v>
       </c>
-      <c r="D302" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+      <c r="D302" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E302" t="s">
         <v>376</v>
       </c>
-      <c r="F302">
-        <v>30</v>
+      <c r="F302" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="16" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B303" s="36" t="s">
-        <v>1334</v>
+        <v>1235</v>
+      </c>
+      <c r="B303" s="35" t="s">
+        <v>1322</v>
       </c>
       <c r="C303" t="s">
-        <v>398</v>
-      </c>
-      <c r="D303" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+        <v>399</v>
+      </c>
+      <c r="D303" s="40" t="s">
+        <v>14</v>
       </c>
       <c r="E303" t="s">
         <v>376</v>
       </c>
-      <c r="F303">
-        <v>30</v>
+      <c r="F303" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="16" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B304" s="36" t="s">
-        <v>114</v>
+      <c r="A304" s="42" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B304" s="35" t="s">
+        <v>1323</v>
       </c>
       <c r="C304" t="s">
-        <v>398</v>
-      </c>
-      <c r="D304" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+        <v>399</v>
+      </c>
+      <c r="D304" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E304" t="s">
         <v>376</v>
       </c>
-      <c r="F304">
-        <v>30</v>
+      <c r="F304" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="16" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B305" s="36" t="s">
-        <v>856</v>
+      <c r="A305" s="42" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B305" s="35" t="s">
+        <v>1324</v>
       </c>
       <c r="C305" t="s">
-        <v>398</v>
-      </c>
-      <c r="D305" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE SISTEMAS Y COMPUTACION</v>
+        <v>399</v>
+      </c>
+      <c r="D305" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E305" t="s">
         <v>376</v>
       </c>
-      <c r="F305">
-        <v>30</v>
+      <c r="F305" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="16" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B306" s="36" t="s">
-        <v>1335</v>
+      <c r="A306" s="42" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B306" s="35" t="s">
+        <v>400</v>
       </c>
       <c r="C306" t="s">
         <v>399</v>
       </c>
-      <c r="D306" s="43" t="s">
-        <v>14</v>
+      <c r="D306" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E306" t="s">
         <v>376</v>
       </c>
-      <c r="F306">
-        <v>30</v>
+      <c r="F306" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="16" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B307" s="36" t="s">
-        <v>1336</v>
+      <c r="A307" s="42" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B307" s="35" t="s">
+        <v>1325</v>
       </c>
       <c r="C307" t="s">
         <v>399</v>
       </c>
-      <c r="D307" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D307" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E307" t="s">
         <v>376</v>
       </c>
-      <c r="F307">
-        <v>30</v>
+      <c r="F307" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="16" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B308" s="36" t="s">
-        <v>1337</v>
+      <c r="A308" s="42" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B308" s="35" t="s">
+        <v>401</v>
       </c>
       <c r="C308" t="s">
         <v>399</v>
       </c>
-      <c r="D308" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D308" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E308" t="s">
         <v>376</v>
       </c>
-      <c r="F308">
-        <v>30</v>
+      <c r="F308" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="16" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B309" s="36" t="s">
-        <v>400</v>
+      <c r="A309" s="42" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B309" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="C309" t="s">
         <v>399</v>
       </c>
-      <c r="D309" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D309" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="E309" t="s">
         <v>376</v>
       </c>
-      <c r="F309">
-        <v>30</v>
+      <c r="F309" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="16" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B310" s="36" t="s">
-        <v>1338</v>
+      <c r="A310" s="42" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B310" s="35" t="s">
+        <v>402</v>
       </c>
       <c r="C310" t="s">
         <v>399</v>
       </c>
-      <c r="D310" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D310" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E310" t="s">
         <v>376</v>
       </c>
-      <c r="F310">
-        <v>30</v>
+      <c r="F310" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="16" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B311" s="36" t="s">
-        <v>401</v>
+      <c r="A311" s="42" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B311" s="35" t="s">
+        <v>1326</v>
       </c>
       <c r="C311" t="s">
         <v>399</v>
       </c>
-      <c r="D311" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D311" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E311" t="s">
         <v>376</v>
       </c>
-      <c r="F311">
-        <v>30</v>
+      <c r="F311" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="16" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B312" s="36" t="s">
-        <v>49</v>
+      <c r="A312" s="42" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B312" s="35" t="s">
+        <v>329</v>
       </c>
       <c r="C312" t="s">
         <v>399</v>
       </c>
-      <c r="D312" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE INGENIERÍA INDUSTRIAL</v>
+      <c r="D312" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="E312" t="s">
         <v>376</v>
       </c>
-      <c r="F312">
-        <v>30</v>
+      <c r="F312" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="16" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B313" s="36" t="s">
-        <v>402</v>
+      <c r="A313" s="42" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B313" s="35" t="s">
+        <v>248</v>
       </c>
       <c r="C313" t="s">
         <v>399</v>
       </c>
-      <c r="D313" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D313" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E313" t="s">
         <v>376</v>
       </c>
-      <c r="F313">
-        <v>30</v>
+      <c r="F313" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="16" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B314" s="36" t="s">
-        <v>1339</v>
+      <c r="A314" s="42" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B314" s="35" t="s">
+        <v>1327</v>
       </c>
       <c r="C314" t="s">
         <v>399</v>
       </c>
-      <c r="D314" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
+      <c r="D314" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E314" t="s">
         <v>376</v>
       </c>
-      <c r="F314">
-        <v>30</v>
+      <c r="F314" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="16" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B315" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="C315" t="s">
-        <v>399</v>
-      </c>
-      <c r="D315" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE INGENIERÍA ELÉCTRICA Y ELECTRÓNICA</v>
-      </c>
-      <c r="E315" t="s">
-        <v>376</v>
-      </c>
-      <c r="F315">
-        <v>30</v>
-      </c>
+      <c r="A315" s="16"/>
+      <c r="B315" s="35"/>
+      <c r="D315" s="14"/>
+      <c r="F315" s="41"/>
     </row>
     <row r="316" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="16" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B316" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="C316" t="s">
-        <v>399</v>
-      </c>
-      <c r="D316" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
-      </c>
-      <c r="E316" t="s">
-        <v>376</v>
-      </c>
-      <c r="F316">
-        <v>30</v>
-      </c>
+      <c r="A316" s="16"/>
+      <c r="B316" s="35"/>
+      <c r="D316" s="14"/>
+      <c r="F316" s="41"/>
     </row>
     <row r="317" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="16" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B317" s="36" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C317" t="s">
-        <v>399</v>
-      </c>
-      <c r="D317" s="14" t="str">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>DEPARTAMENTO DE CIENCIAS BASICAS</v>
-      </c>
-      <c r="E317" t="s">
-        <v>376</v>
-      </c>
-      <c r="F317">
-        <v>30</v>
-      </c>
+      <c r="A317" s="16"/>
+      <c r="B317" s="35"/>
+      <c r="D317" s="14"/>
+      <c r="F317" s="41"/>
     </row>
     <row r="318" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="35" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B318" s="35" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C318" s="38" t="s">
-        <v>938</v>
-      </c>
-      <c r="D318" s="34" t="e">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E318" t="s">
-        <v>376</v>
-      </c>
-      <c r="F318">
-        <v>30</v>
-      </c>
+      <c r="A318" s="34"/>
+      <c r="B318" s="34"/>
+      <c r="C318" s="37"/>
+      <c r="D318" s="33"/>
     </row>
     <row r="319" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="35" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B319" s="35" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C319" s="40" t="s">
-        <v>939</v>
-      </c>
-      <c r="D319" s="34" t="e">
-        <f>IF([2]!PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP([2]!PARTICIPANTES16183[[#This Row],[Nombre]],[3]!BD_DOCENTES[#Data],2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E319" t="s">
-        <v>376</v>
-      </c>
-      <c r="F319">
-        <v>30</v>
-      </c>
+      <c r="A319" s="34"/>
+      <c r="B319" s="34"/>
+      <c r="C319" s="38"/>
+      <c r="D319" s="33"/>
     </row>
     <row r="379" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion WEB 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D87BD5-BC1A-7249-AD27-3A49C975A761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9397BEC-D398-334A-9E1F-622E1C60E6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="31120" windowHeight="15860" activeTab="1" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
@@ -4179,7 +4179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -4303,11 +4303,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4371,23 +4382,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14420,12 +14437,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E4E2C6-ECF6-8E42-BACE-6A57540CDA47}">
-  <dimension ref="A1:F409"/>
+  <dimension ref="A1:G409"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="H163" sqref="H163"/>
+      <selection pane="bottomLeft" activeCell="C321" sqref="C321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14462,7 +14479,7 @@
       <c r="A2" s="14" t="s">
         <v>939</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>1247</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -14482,7 +14499,7 @@
       <c r="A3" s="14" t="s">
         <v>940</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>246</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -14502,7 +14519,7 @@
       <c r="A4" s="14" t="s">
         <v>941</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>266</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -14522,7 +14539,7 @@
       <c r="A5" s="14" t="s">
         <v>942</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>1248</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -14542,7 +14559,7 @@
       <c r="A6" s="14" t="s">
         <v>943</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>1249</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -14562,7 +14579,7 @@
       <c r="A7" s="14" t="s">
         <v>944</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>913</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -14582,7 +14599,7 @@
       <c r="A8" s="14" t="s">
         <v>945</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>248</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -14602,7 +14619,7 @@
       <c r="A9" s="14" t="s">
         <v>946</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>223</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -14622,7 +14639,7 @@
       <c r="A10" s="14" t="s">
         <v>947</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>1250</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -14642,7 +14659,7 @@
       <c r="A11" s="14" t="s">
         <v>948</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>253</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -14662,7 +14679,7 @@
       <c r="A12" s="14" t="s">
         <v>949</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>239</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -14682,7 +14699,7 @@
       <c r="A13" s="14" t="s">
         <v>950</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>247</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -14702,7 +14719,7 @@
       <c r="A14" s="14" t="s">
         <v>951</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>249</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -14722,7 +14739,7 @@
       <c r="A15" s="14" t="s">
         <v>952</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>122</v>
       </c>
       <c r="C15" t="s">
@@ -14742,7 +14759,7 @@
       <c r="A16" s="14" t="s">
         <v>953</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>123</v>
       </c>
       <c r="C16" t="s">
@@ -14762,7 +14779,7 @@
       <c r="A17" s="14" t="s">
         <v>954</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>261</v>
       </c>
       <c r="C17" t="s">
@@ -14782,7 +14799,7 @@
       <c r="A18" s="14" t="s">
         <v>955</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>1251</v>
       </c>
       <c r="C18" t="s">
@@ -14802,7 +14819,7 @@
       <c r="A19" s="14" t="s">
         <v>956</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>93</v>
       </c>
       <c r="C19" t="s">
@@ -14822,7 +14839,7 @@
       <c r="A20" s="14" t="s">
         <v>957</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>109</v>
       </c>
       <c r="C20" t="s">
@@ -14862,7 +14879,7 @@
       <c r="A22" s="14" t="s">
         <v>959</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>1252</v>
       </c>
       <c r="C22" t="s">
@@ -14882,7 +14899,7 @@
       <c r="A23" s="14" t="s">
         <v>960</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>114</v>
       </c>
       <c r="C23" t="s">
@@ -14922,7 +14939,7 @@
       <c r="A25" s="14" t="s">
         <v>962</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>1254</v>
       </c>
       <c r="C25" t="s">
@@ -14942,7 +14959,7 @@
       <c r="A26" s="14" t="s">
         <v>963</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="34" t="s">
         <v>92</v>
       </c>
       <c r="C26" t="s">
@@ -14962,7 +14979,7 @@
       <c r="A27" s="14" t="s">
         <v>964</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="34" t="s">
         <v>90</v>
       </c>
       <c r="C27" t="s">
@@ -14982,7 +14999,7 @@
       <c r="A28" s="14" t="s">
         <v>965</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="34" t="s">
         <v>1255</v>
       </c>
       <c r="C28" t="s">
@@ -15002,7 +15019,7 @@
       <c r="A29" s="14" t="s">
         <v>966</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="34" t="s">
         <v>1256</v>
       </c>
       <c r="C29" t="s">
@@ -15022,7 +15039,7 @@
       <c r="A30" s="14" t="s">
         <v>967</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="34" t="s">
         <v>124</v>
       </c>
       <c r="C30" t="s">
@@ -15042,7 +15059,7 @@
       <c r="A31" s="14" t="s">
         <v>968</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>139</v>
       </c>
       <c r="C31" t="s">
@@ -15062,7 +15079,7 @@
       <c r="A32" s="14" t="s">
         <v>969</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>36</v>
       </c>
       <c r="C32" t="s">
@@ -15082,7 +15099,7 @@
       <c r="A33" s="14" t="s">
         <v>970</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>1257</v>
       </c>
       <c r="C33" t="s">
@@ -15102,7 +15119,7 @@
       <c r="A34" s="14" t="s">
         <v>971</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>173</v>
       </c>
       <c r="C34" t="s">
@@ -15122,7 +15139,7 @@
       <c r="A35" s="14" t="s">
         <v>972</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="34" t="s">
         <v>116</v>
       </c>
       <c r="C35" t="s">
@@ -15142,7 +15159,7 @@
       <c r="A36" s="14" t="s">
         <v>973</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>34</v>
       </c>
       <c r="C36" t="s">
@@ -15162,7 +15179,7 @@
       <c r="A37" s="14" t="s">
         <v>974</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="34" t="s">
         <v>161</v>
       </c>
       <c r="C37" t="s">
@@ -15182,7 +15199,7 @@
       <c r="A38" s="14" t="s">
         <v>975</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="34" t="s">
         <v>267</v>
       </c>
       <c r="C38" t="s">
@@ -15202,7 +15219,7 @@
       <c r="A39" s="14" t="s">
         <v>976</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C39" t="s">
@@ -15222,7 +15239,7 @@
       <c r="A40" s="14" t="s">
         <v>977</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="34" t="s">
         <v>268</v>
       </c>
       <c r="C40" t="s">
@@ -15242,7 +15259,7 @@
       <c r="A41" s="14" t="s">
         <v>978</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="35" t="s">
         <v>1258</v>
       </c>
       <c r="C41" t="s">
@@ -15262,7 +15279,7 @@
       <c r="A42" s="14" t="s">
         <v>979</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="34" t="s">
         <v>252</v>
       </c>
       <c r="C42" t="s">
@@ -15282,7 +15299,7 @@
       <c r="A43" s="14" t="s">
         <v>980</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="34" t="s">
         <v>166</v>
       </c>
       <c r="C43" t="s">
@@ -15302,7 +15319,7 @@
       <c r="A44" s="14" t="s">
         <v>981</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="34" t="s">
         <v>38</v>
       </c>
       <c r="C44" t="s">
@@ -15322,7 +15339,7 @@
       <c r="A45" s="14" t="s">
         <v>982</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="34" t="s">
         <v>1259</v>
       </c>
       <c r="C45" t="s">
@@ -15342,7 +15359,7 @@
       <c r="A46" s="14" t="s">
         <v>983</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="34" t="s">
         <v>386</v>
       </c>
       <c r="C46" t="s">
@@ -15362,7 +15379,7 @@
       <c r="A47" s="14" t="s">
         <v>984</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="34" t="s">
         <v>353</v>
       </c>
       <c r="C47" t="s">
@@ -15382,7 +15399,7 @@
       <c r="A48" s="14" t="s">
         <v>985</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="34" t="s">
         <v>1260</v>
       </c>
       <c r="C48" t="s">
@@ -15402,7 +15419,7 @@
       <c r="A49" s="14" t="s">
         <v>986</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="34" t="s">
         <v>213</v>
       </c>
       <c r="C49" t="s">
@@ -15422,7 +15439,7 @@
       <c r="A50" s="14" t="s">
         <v>987</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="34" t="s">
         <v>1261</v>
       </c>
       <c r="C50" t="s">
@@ -15442,7 +15459,7 @@
       <c r="A51" s="14" t="s">
         <v>988</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="34" t="s">
         <v>1262</v>
       </c>
       <c r="C51" t="s">
@@ -15462,7 +15479,7 @@
       <c r="A52" s="14" t="s">
         <v>989</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="34" t="s">
         <v>1263</v>
       </c>
       <c r="C52" t="s">
@@ -15482,7 +15499,7 @@
       <c r="A53" s="14" t="s">
         <v>990</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="34" t="s">
         <v>99</v>
       </c>
       <c r="C53" t="s">
@@ -15502,7 +15519,7 @@
       <c r="A54" s="14" t="s">
         <v>991</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="34" t="s">
         <v>323</v>
       </c>
       <c r="C54" t="s">
@@ -15522,7 +15539,7 @@
       <c r="A55" s="14" t="s">
         <v>992</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="34" t="s">
         <v>212</v>
       </c>
       <c r="C55" t="s">
@@ -15542,7 +15559,7 @@
       <c r="A56" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="34" t="s">
         <v>355</v>
       </c>
       <c r="C56" t="s">
@@ -15562,7 +15579,7 @@
       <c r="A57" s="14" t="s">
         <v>994</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="34" t="s">
         <v>216</v>
       </c>
       <c r="C57" t="s">
@@ -15582,7 +15599,7 @@
       <c r="A58" s="14" t="s">
         <v>995</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="34" t="s">
         <v>860</v>
       </c>
       <c r="C58" t="s">
@@ -15602,7 +15619,7 @@
       <c r="A59" s="14" t="s">
         <v>996</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="34" t="s">
         <v>209</v>
       </c>
       <c r="C59" t="s">
@@ -15622,7 +15639,7 @@
       <c r="A60" s="14" t="s">
         <v>997</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="34" t="s">
         <v>1264</v>
       </c>
       <c r="C60" t="s">
@@ -15642,7 +15659,7 @@
       <c r="A61" s="14" t="s">
         <v>998</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="34" t="s">
         <v>321</v>
       </c>
       <c r="C61" t="s">
@@ -15662,7 +15679,7 @@
       <c r="A62" s="14" t="s">
         <v>999</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="34" t="s">
         <v>1265</v>
       </c>
       <c r="C62" t="s">
@@ -15682,7 +15699,7 @@
       <c r="A63" s="14" t="s">
         <v>1000</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="34" t="s">
         <v>317</v>
       </c>
       <c r="C63" t="s">
@@ -15702,7 +15719,7 @@
       <c r="A64" s="14" t="s">
         <v>1001</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C64" t="s">
@@ -15722,7 +15739,7 @@
       <c r="A65" s="14" t="s">
         <v>1002</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="34" t="s">
         <v>332</v>
       </c>
       <c r="C65" t="s">
@@ -15742,7 +15759,7 @@
       <c r="A66" s="14" t="s">
         <v>1003</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="34" t="s">
         <v>934</v>
       </c>
       <c r="C66" t="s">
@@ -15762,7 +15779,7 @@
       <c r="A67" s="14" t="s">
         <v>1004</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="34" t="s">
         <v>1266</v>
       </c>
       <c r="C67" t="s">
@@ -15782,7 +15799,7 @@
       <c r="A68" s="14" t="s">
         <v>1005</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="34" t="s">
         <v>1267</v>
       </c>
       <c r="C68" t="s">
@@ -15802,7 +15819,7 @@
       <c r="A69" s="14" t="s">
         <v>1006</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="34" t="s">
         <v>294</v>
       </c>
       <c r="C69" t="s">
@@ -15822,7 +15839,7 @@
       <c r="A70" s="14" t="s">
         <v>1007</v>
       </c>
-      <c r="B70" s="35" t="s">
+      <c r="B70" s="34" t="s">
         <v>251</v>
       </c>
       <c r="C70" t="s">
@@ -15842,7 +15859,7 @@
       <c r="A71" s="14" t="s">
         <v>1008</v>
       </c>
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="34" t="s">
         <v>853</v>
       </c>
       <c r="C71" t="s">
@@ -15862,7 +15879,7 @@
       <c r="A72" s="14" t="s">
         <v>1009</v>
       </c>
-      <c r="B72" s="35" t="s">
+      <c r="B72" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
@@ -15882,7 +15899,7 @@
       <c r="A73" s="14" t="s">
         <v>1010</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="34" t="s">
         <v>1268</v>
       </c>
       <c r="C73" t="s">
@@ -15902,7 +15919,7 @@
       <c r="A74" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="34" t="s">
         <v>128</v>
       </c>
       <c r="C74" t="s">
@@ -15922,7 +15939,7 @@
       <c r="A75" s="14" t="s">
         <v>1012</v>
       </c>
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C75" t="s">
@@ -15942,7 +15959,7 @@
       <c r="A76" s="14" t="s">
         <v>1013</v>
       </c>
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="34" t="s">
         <v>136</v>
       </c>
       <c r="C76" t="s">
@@ -15962,7 +15979,7 @@
       <c r="A77" s="14" t="s">
         <v>1014</v>
       </c>
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="34" t="s">
         <v>357</v>
       </c>
       <c r="C77" t="s">
@@ -15982,7 +15999,7 @@
       <c r="A78" s="14" t="s">
         <v>1015</v>
       </c>
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="34" t="s">
         <v>1269</v>
       </c>
       <c r="C78" t="s">
@@ -16002,7 +16019,7 @@
       <c r="A79" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="B79" s="35" t="s">
+      <c r="B79" s="34" t="s">
         <v>358</v>
       </c>
       <c r="C79" t="s">
@@ -16022,7 +16039,7 @@
       <c r="A80" s="14" t="s">
         <v>1017</v>
       </c>
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="34" t="s">
         <v>1270</v>
       </c>
       <c r="C80" t="s">
@@ -16042,7 +16059,7 @@
       <c r="A81" s="14" t="s">
         <v>1018</v>
       </c>
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="34" t="s">
         <v>227</v>
       </c>
       <c r="C81" t="s">
@@ -16062,7 +16079,7 @@
       <c r="A82" s="14" t="s">
         <v>1019</v>
       </c>
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="34" t="s">
         <v>359</v>
       </c>
       <c r="C82" t="s">
@@ -16082,7 +16099,7 @@
       <c r="A83" s="14" t="s">
         <v>1020</v>
       </c>
-      <c r="B83" s="35" t="s">
+      <c r="B83" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="s">
@@ -16102,7 +16119,7 @@
       <c r="A84" s="14" t="s">
         <v>1021</v>
       </c>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="34" t="s">
         <v>45</v>
       </c>
       <c r="C84" t="s">
@@ -16122,7 +16139,7 @@
       <c r="A85" s="14" t="s">
         <v>1022</v>
       </c>
-      <c r="B85" s="35" t="s">
+      <c r="B85" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C85" t="s">
@@ -16134,7 +16151,7 @@
       <c r="E85" t="s">
         <v>351</v>
       </c>
-      <c r="F85" s="44" t="s">
+      <c r="F85" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16142,7 +16159,7 @@
       <c r="A86" s="14" t="s">
         <v>1023</v>
       </c>
-      <c r="B86" s="35" t="s">
+      <c r="B86" s="34" t="s">
         <v>84</v>
       </c>
       <c r="C86" t="s">
@@ -16154,7 +16171,7 @@
       <c r="E86" t="s">
         <v>351</v>
       </c>
-      <c r="F86" s="44" t="s">
+      <c r="F86" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16162,7 +16179,7 @@
       <c r="A87" s="14" t="s">
         <v>1024</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="34" t="s">
         <v>79</v>
       </c>
       <c r="C87" t="s">
@@ -16174,7 +16191,7 @@
       <c r="E87" t="s">
         <v>351</v>
       </c>
-      <c r="F87" s="44" t="s">
+      <c r="F87" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16182,7 +16199,7 @@
       <c r="A88" s="14" t="s">
         <v>1025</v>
       </c>
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="34" t="s">
         <v>63</v>
       </c>
       <c r="C88" t="s">
@@ -16194,7 +16211,7 @@
       <c r="E88" t="s">
         <v>351</v>
       </c>
-      <c r="F88" s="44" t="s">
+      <c r="F88" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16202,7 +16219,7 @@
       <c r="A89" s="14" t="s">
         <v>1026</v>
       </c>
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="34" t="s">
         <v>257</v>
       </c>
       <c r="C89" t="s">
@@ -16214,7 +16231,7 @@
       <c r="E89" t="s">
         <v>351</v>
       </c>
-      <c r="F89" s="44" t="s">
+      <c r="F89" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16222,7 +16239,7 @@
       <c r="A90" s="14" t="s">
         <v>1027</v>
       </c>
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="34" t="s">
         <v>1298</v>
       </c>
       <c r="C90" t="s">
@@ -16234,7 +16251,7 @@
       <c r="E90" t="s">
         <v>351</v>
       </c>
-      <c r="F90" s="44" t="s">
+      <c r="F90" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16242,7 +16259,7 @@
       <c r="A91" s="14" t="s">
         <v>1028</v>
       </c>
-      <c r="B91" s="35" t="s">
+      <c r="B91" s="34" t="s">
         <v>1271</v>
       </c>
       <c r="C91" t="s">
@@ -16254,7 +16271,7 @@
       <c r="E91" t="s">
         <v>351</v>
       </c>
-      <c r="F91" s="44" t="s">
+      <c r="F91" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16262,7 +16279,7 @@
       <c r="A92" s="14" t="s">
         <v>1029</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C92" t="s">
@@ -16274,7 +16291,7 @@
       <c r="E92" t="s">
         <v>351</v>
       </c>
-      <c r="F92" s="44" t="s">
+      <c r="F92" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16282,7 +16299,7 @@
       <c r="A93" s="14" t="s">
         <v>1030</v>
       </c>
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C93" t="s">
@@ -16294,7 +16311,7 @@
       <c r="E93" t="s">
         <v>351</v>
       </c>
-      <c r="F93" s="44" t="s">
+      <c r="F93" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16302,7 +16319,7 @@
       <c r="A94" s="14" t="s">
         <v>1031</v>
       </c>
-      <c r="B94" s="35" t="s">
+      <c r="B94" s="34" t="s">
         <v>75</v>
       </c>
       <c r="C94" t="s">
@@ -16314,7 +16331,7 @@
       <c r="E94" t="s">
         <v>351</v>
       </c>
-      <c r="F94" s="44" t="s">
+      <c r="F94" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16322,7 +16339,7 @@
       <c r="A95" s="14" t="s">
         <v>1032</v>
       </c>
-      <c r="B95" s="35" t="s">
+      <c r="B95" s="34" t="s">
         <v>1272</v>
       </c>
       <c r="C95" t="s">
@@ -16334,7 +16351,7 @@
       <c r="E95" t="s">
         <v>351</v>
       </c>
-      <c r="F95" s="44" t="s">
+      <c r="F95" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16342,7 +16359,7 @@
       <c r="A96" s="14" t="s">
         <v>1033</v>
       </c>
-      <c r="B96" s="35" t="s">
+      <c r="B96" s="34" t="s">
         <v>361</v>
       </c>
       <c r="C96" t="s">
@@ -16354,7 +16371,7 @@
       <c r="E96" t="s">
         <v>351</v>
       </c>
-      <c r="F96" s="44" t="s">
+      <c r="F96" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16362,7 +16379,7 @@
       <c r="A97" s="14" t="s">
         <v>1034</v>
       </c>
-      <c r="B97" s="35" t="s">
+      <c r="B97" s="34" t="s">
         <v>362</v>
       </c>
       <c r="C97" t="s">
@@ -16374,7 +16391,7 @@
       <c r="E97" t="s">
         <v>351</v>
       </c>
-      <c r="F97" s="44" t="s">
+      <c r="F97" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16382,7 +16399,7 @@
       <c r="A98" s="14" t="s">
         <v>1035</v>
       </c>
-      <c r="B98" s="35" t="s">
+      <c r="B98" s="34" t="s">
         <v>57</v>
       </c>
       <c r="C98" t="s">
@@ -16394,7 +16411,7 @@
       <c r="E98" t="s">
         <v>351</v>
       </c>
-      <c r="F98" s="44" t="s">
+      <c r="F98" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16402,7 +16419,7 @@
       <c r="A99" s="14" t="s">
         <v>1036</v>
       </c>
-      <c r="B99" s="35" t="s">
+      <c r="B99" s="34" t="s">
         <v>1273</v>
       </c>
       <c r="C99" t="s">
@@ -16414,7 +16431,7 @@
       <c r="E99" t="s">
         <v>351</v>
       </c>
-      <c r="F99" s="44" t="s">
+      <c r="F99" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16422,7 +16439,7 @@
       <c r="A100" s="14" t="s">
         <v>1037</v>
       </c>
-      <c r="B100" s="35" t="s">
+      <c r="B100" s="34" t="s">
         <v>1274</v>
       </c>
       <c r="C100" t="s">
@@ -16434,7 +16451,7 @@
       <c r="E100" t="s">
         <v>351</v>
       </c>
-      <c r="F100" s="44" t="s">
+      <c r="F100" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16442,7 +16459,7 @@
       <c r="A101" s="14" t="s">
         <v>1038</v>
       </c>
-      <c r="B101" s="35" t="s">
+      <c r="B101" s="34" t="s">
         <v>1275</v>
       </c>
       <c r="C101" t="s">
@@ -16454,7 +16471,7 @@
       <c r="E101" t="s">
         <v>351</v>
       </c>
-      <c r="F101" s="44" t="s">
+      <c r="F101" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16462,7 +16479,7 @@
       <c r="A102" s="14" t="s">
         <v>1039</v>
       </c>
-      <c r="B102" s="35" t="s">
+      <c r="B102" s="34" t="s">
         <v>32</v>
       </c>
       <c r="C102" t="s">
@@ -16474,7 +16491,7 @@
       <c r="E102" t="s">
         <v>351</v>
       </c>
-      <c r="F102" s="44" t="s">
+      <c r="F102" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16482,7 +16499,7 @@
       <c r="A103" s="14" t="s">
         <v>1040</v>
       </c>
-      <c r="B103" s="35" t="s">
+      <c r="B103" s="34" t="s">
         <v>73</v>
       </c>
       <c r="C103" t="s">
@@ -16494,7 +16511,7 @@
       <c r="E103" t="s">
         <v>351</v>
       </c>
-      <c r="F103" s="44" t="s">
+      <c r="F103" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16502,7 +16519,7 @@
       <c r="A104" s="14" t="s">
         <v>1041</v>
       </c>
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="34" t="s">
         <v>1276</v>
       </c>
       <c r="C104" t="s">
@@ -16522,7 +16539,7 @@
       <c r="A105" s="14" t="s">
         <v>1042</v>
       </c>
-      <c r="B105" s="35" t="s">
+      <c r="B105" s="34" t="s">
         <v>232</v>
       </c>
       <c r="C105" t="s">
@@ -16542,7 +16559,7 @@
       <c r="A106" s="14" t="s">
         <v>1043</v>
       </c>
-      <c r="B106" s="35" t="s">
+      <c r="B106" s="34" t="s">
         <v>1277</v>
       </c>
       <c r="C106" t="s">
@@ -16562,7 +16579,7 @@
       <c r="A107" s="14" t="s">
         <v>1044</v>
       </c>
-      <c r="B107" s="35" t="s">
+      <c r="B107" s="34" t="s">
         <v>1278</v>
       </c>
       <c r="C107" t="s">
@@ -16582,7 +16599,7 @@
       <c r="A108" s="14" t="s">
         <v>1045</v>
       </c>
-      <c r="B108" s="35" t="s">
+      <c r="B108" s="34" t="s">
         <v>230</v>
       </c>
       <c r="C108" t="s">
@@ -16602,7 +16619,7 @@
       <c r="A109" s="14" t="s">
         <v>1046</v>
       </c>
-      <c r="B109" s="35" t="s">
+      <c r="B109" s="34" t="s">
         <v>231</v>
       </c>
       <c r="C109" t="s">
@@ -16622,7 +16639,7 @@
       <c r="A110" s="14" t="s">
         <v>1047</v>
       </c>
-      <c r="B110" s="35" t="s">
+      <c r="B110" s="34" t="s">
         <v>234</v>
       </c>
       <c r="C110" t="s">
@@ -16642,7 +16659,7 @@
       <c r="A111" s="14" t="s">
         <v>1048</v>
       </c>
-      <c r="B111" s="35" t="s">
+      <c r="B111" s="34" t="s">
         <v>1279</v>
       </c>
       <c r="C111" t="s">
@@ -16662,7 +16679,7 @@
       <c r="A112" s="14" t="s">
         <v>1049</v>
       </c>
-      <c r="B112" s="35" t="s">
+      <c r="B112" s="34" t="s">
         <v>865</v>
       </c>
       <c r="C112" t="s">
@@ -16685,16 +16702,16 @@
       <c r="B113" t="s">
         <v>1333</v>
       </c>
-      <c r="C113" s="37" t="s">
+      <c r="C113" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="D113" s="39" t="e">
+      <c r="D113" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E113" s="37" t="s">
+      <c r="E113" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="F113" s="39" t="s">
+      <c r="F113" s="37" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16702,7 +16719,7 @@
       <c r="A114" s="14" t="s">
         <v>1328</v>
       </c>
-      <c r="B114" s="35" t="s">
+      <c r="B114" s="34" t="s">
         <v>366</v>
       </c>
       <c r="C114" s="17" t="s">
@@ -16722,7 +16739,7 @@
       <c r="A115" s="14" t="s">
         <v>1051</v>
       </c>
-      <c r="B115" s="35" t="s">
+      <c r="B115" s="34" t="s">
         <v>1280</v>
       </c>
       <c r="C115" s="17" t="s">
@@ -16742,7 +16759,7 @@
       <c r="A116" s="14" t="s">
         <v>1052</v>
       </c>
-      <c r="B116" s="35" t="s">
+      <c r="B116" s="34" t="s">
         <v>1281</v>
       </c>
       <c r="C116" s="17" t="s">
@@ -16762,7 +16779,7 @@
       <c r="A117" s="14" t="s">
         <v>1053</v>
       </c>
-      <c r="B117" s="35" t="s">
+      <c r="B117" s="34" t="s">
         <v>198</v>
       </c>
       <c r="C117" s="17" t="s">
@@ -16782,7 +16799,7 @@
       <c r="A118" s="14" t="s">
         <v>1054</v>
       </c>
-      <c r="B118" s="35" t="s">
+      <c r="B118" s="34" t="s">
         <v>1282</v>
       </c>
       <c r="C118" s="17" t="s">
@@ -16802,7 +16819,7 @@
       <c r="A119" s="14" t="s">
         <v>1055</v>
       </c>
-      <c r="B119" s="35" t="s">
+      <c r="B119" s="34" t="s">
         <v>200</v>
       </c>
       <c r="C119" s="17" t="s">
@@ -16822,7 +16839,7 @@
       <c r="A120" s="14" t="s">
         <v>1056</v>
       </c>
-      <c r="B120" s="35" t="s">
+      <c r="B120" s="34" t="s">
         <v>1283</v>
       </c>
       <c r="C120" s="17" t="s">
@@ -16842,7 +16859,7 @@
       <c r="A121" s="14" t="s">
         <v>1057</v>
       </c>
-      <c r="B121" s="35" t="s">
+      <c r="B121" s="34" t="s">
         <v>199</v>
       </c>
       <c r="C121" s="17" t="s">
@@ -16862,7 +16879,7 @@
       <c r="A122" s="14" t="s">
         <v>1058</v>
       </c>
-      <c r="B122" s="35" t="s">
+      <c r="B122" s="34" t="s">
         <v>206</v>
       </c>
       <c r="C122" s="17" t="s">
@@ -16882,7 +16899,7 @@
       <c r="A123" s="14" t="s">
         <v>1059</v>
       </c>
-      <c r="B123" s="35" t="s">
+      <c r="B123" s="34" t="s">
         <v>201</v>
       </c>
       <c r="C123" s="17" t="s">
@@ -16902,7 +16919,7 @@
       <c r="A124" s="14" t="s">
         <v>1060</v>
       </c>
-      <c r="B124" s="35" t="s">
+      <c r="B124" s="34" t="s">
         <v>1284</v>
       </c>
       <c r="C124" s="17" t="s">
@@ -16922,7 +16939,7 @@
       <c r="A125" s="14" t="s">
         <v>1061</v>
       </c>
-      <c r="B125" s="35" t="s">
+      <c r="B125" s="34" t="s">
         <v>310</v>
       </c>
       <c r="C125" s="17" t="s">
@@ -16942,7 +16959,7 @@
       <c r="A126" s="14" t="s">
         <v>1062</v>
       </c>
-      <c r="B126" s="43" t="s">
+      <c r="B126" s="40" t="s">
         <v>1285</v>
       </c>
       <c r="C126" s="17" t="s">
@@ -16962,7 +16979,7 @@
       <c r="A127" s="14" t="s">
         <v>1063</v>
       </c>
-      <c r="B127" s="35" t="s">
+      <c r="B127" s="34" t="s">
         <v>305</v>
       </c>
       <c r="C127" s="17" t="s">
@@ -16982,7 +16999,7 @@
       <c r="A128" s="14" t="s">
         <v>1064</v>
       </c>
-      <c r="B128" s="35" t="s">
+      <c r="B128" s="34" t="s">
         <v>1286</v>
       </c>
       <c r="C128" s="17" t="s">
@@ -17002,7 +17019,7 @@
       <c r="A129" s="14" t="s">
         <v>1065</v>
       </c>
-      <c r="B129" s="35" t="s">
+      <c r="B129" s="34" t="s">
         <v>307</v>
       </c>
       <c r="C129" s="17" t="s">
@@ -17022,7 +17039,7 @@
       <c r="A130" s="14" t="s">
         <v>1066</v>
       </c>
-      <c r="B130" s="35" t="s">
+      <c r="B130" s="34" t="s">
         <v>97</v>
       </c>
       <c r="C130" s="17" t="s">
@@ -17042,7 +17059,7 @@
       <c r="A131" s="14" t="s">
         <v>1067</v>
       </c>
-      <c r="B131" s="35" t="s">
+      <c r="B131" s="34" t="s">
         <v>1287</v>
       </c>
       <c r="C131" s="17" t="s">
@@ -17062,7 +17079,7 @@
       <c r="A132" s="14" t="s">
         <v>1068</v>
       </c>
-      <c r="B132" s="35" t="s">
+      <c r="B132" s="34" t="s">
         <v>94</v>
       </c>
       <c r="C132" s="17" t="s">
@@ -17082,7 +17099,7 @@
       <c r="A133" s="14" t="s">
         <v>1331</v>
       </c>
-      <c r="B133" s="35" t="s">
+      <c r="B133" s="34" t="s">
         <v>1288</v>
       </c>
       <c r="C133" s="17" t="s">
@@ -17102,7 +17119,7 @@
       <c r="A134" s="14" t="s">
         <v>1069</v>
       </c>
-      <c r="B134" s="35" t="s">
+      <c r="B134" s="34" t="s">
         <v>330</v>
       </c>
       <c r="C134" t="s">
@@ -17122,7 +17139,7 @@
       <c r="A135" s="14" t="s">
         <v>1070</v>
       </c>
-      <c r="B135" s="35" t="s">
+      <c r="B135" s="34" t="s">
         <v>1289</v>
       </c>
       <c r="C135" t="s">
@@ -17142,7 +17159,7 @@
       <c r="A136" s="14" t="s">
         <v>1071</v>
       </c>
-      <c r="B136" s="35" t="s">
+      <c r="B136" s="34" t="s">
         <v>370</v>
       </c>
       <c r="C136" t="s">
@@ -17162,7 +17179,7 @@
       <c r="A137" s="14" t="s">
         <v>1072</v>
       </c>
-      <c r="B137" s="35" t="s">
+      <c r="B137" s="34" t="s">
         <v>51</v>
       </c>
       <c r="C137" t="s">
@@ -17182,7 +17199,7 @@
       <c r="A138" s="14" t="s">
         <v>1073</v>
       </c>
-      <c r="B138" s="35" t="s">
+      <c r="B138" s="34" t="s">
         <v>327</v>
       </c>
       <c r="C138" t="s">
@@ -17202,7 +17219,7 @@
       <c r="A139" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="B139" s="35" t="s">
+      <c r="B139" s="34" t="s">
         <v>1290</v>
       </c>
       <c r="C139" t="s">
@@ -17222,7 +17239,7 @@
       <c r="A140" s="14" t="s">
         <v>1075</v>
       </c>
-      <c r="B140" s="35" t="s">
+      <c r="B140" s="34" t="s">
         <v>371</v>
       </c>
       <c r="C140" t="s">
@@ -17242,7 +17259,7 @@
       <c r="A141" s="14" t="s">
         <v>1076</v>
       </c>
-      <c r="B141" s="35" t="s">
+      <c r="B141" s="34" t="s">
         <v>1291</v>
       </c>
       <c r="C141" t="s">
@@ -17262,7 +17279,7 @@
       <c r="A142" s="14" t="s">
         <v>1077</v>
       </c>
-      <c r="B142" s="35" t="s">
+      <c r="B142" s="34" t="s">
         <v>282</v>
       </c>
       <c r="C142" t="s">
@@ -17282,7 +17299,7 @@
       <c r="A143" s="14" t="s">
         <v>1078</v>
       </c>
-      <c r="B143" s="35" t="s">
+      <c r="B143" s="34" t="s">
         <v>345</v>
       </c>
       <c r="C143" t="s">
@@ -17302,7 +17319,7 @@
       <c r="A144" s="14" t="s">
         <v>1079</v>
       </c>
-      <c r="B144" s="35" t="s">
+      <c r="B144" s="34" t="s">
         <v>159</v>
       </c>
       <c r="C144" t="s">
@@ -17322,7 +17339,7 @@
       <c r="A145" s="14" t="s">
         <v>1080</v>
       </c>
-      <c r="B145" s="35" t="s">
+      <c r="B145" s="34" t="s">
         <v>372</v>
       </c>
       <c r="C145" t="s">
@@ -17342,7 +17359,7 @@
       <c r="A146" s="14" t="s">
         <v>1081</v>
       </c>
-      <c r="B146" s="35" t="s">
+      <c r="B146" s="34" t="s">
         <v>1292</v>
       </c>
       <c r="C146" t="s">
@@ -17362,7 +17379,7 @@
       <c r="A147" s="14" t="s">
         <v>1082</v>
       </c>
-      <c r="B147" s="35" t="s">
+      <c r="B147" s="34" t="s">
         <v>373</v>
       </c>
       <c r="C147" t="s">
@@ -17382,7 +17399,7 @@
       <c r="A148" s="14" t="s">
         <v>1083</v>
       </c>
-      <c r="B148" s="35" t="s">
+      <c r="B148" s="34" t="s">
         <v>1293</v>
       </c>
       <c r="C148" t="s">
@@ -17402,7 +17419,7 @@
       <c r="A149" s="14" t="s">
         <v>1084</v>
       </c>
-      <c r="B149" s="35" t="s">
+      <c r="B149" s="34" t="s">
         <v>374</v>
       </c>
       <c r="C149" t="s">
@@ -17425,16 +17442,16 @@
       <c r="B150" t="s">
         <v>1333</v>
       </c>
-      <c r="C150" s="37" t="s">
+      <c r="C150" s="36" t="s">
         <v>375</v>
       </c>
-      <c r="D150" s="39" t="e">
+      <c r="D150" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E150" s="37" t="s">
+      <c r="E150" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F150" s="39" t="s">
+      <c r="F150" s="37" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17442,7 +17459,7 @@
       <c r="A151" s="14" t="s">
         <v>1086</v>
       </c>
-      <c r="B151" s="35" t="s">
+      <c r="B151" s="34" t="s">
         <v>122</v>
       </c>
       <c r="C151" t="s">
@@ -17462,7 +17479,7 @@
       <c r="A152" s="14" t="s">
         <v>1087</v>
       </c>
-      <c r="B152" s="35" t="s">
+      <c r="B152" s="34" t="s">
         <v>123</v>
       </c>
       <c r="C152" t="s">
@@ -17482,7 +17499,7 @@
       <c r="A153" s="14" t="s">
         <v>1088</v>
       </c>
-      <c r="B153" s="35" t="s">
+      <c r="B153" s="34" t="s">
         <v>260</v>
       </c>
       <c r="C153" t="s">
@@ -17502,7 +17519,7 @@
       <c r="A154" s="14" t="s">
         <v>1089</v>
       </c>
-      <c r="B154" s="35" t="s">
+      <c r="B154" s="34" t="s">
         <v>165</v>
       </c>
       <c r="C154" t="s">
@@ -17522,7 +17539,7 @@
       <c r="A155" s="14" t="s">
         <v>1090</v>
       </c>
-      <c r="B155" s="35" t="s">
+      <c r="B155" s="34" t="s">
         <v>1294</v>
       </c>
       <c r="C155" t="s">
@@ -17542,7 +17559,7 @@
       <c r="A156" s="14" t="s">
         <v>1091</v>
       </c>
-      <c r="B156" s="35" t="s">
+      <c r="B156" s="34" t="s">
         <v>268</v>
       </c>
       <c r="C156" t="s">
@@ -17562,7 +17579,7 @@
       <c r="A157" s="14" t="s">
         <v>1092</v>
       </c>
-      <c r="B157" s="35" t="s">
+      <c r="B157" s="34" t="s">
         <v>1295</v>
       </c>
       <c r="C157" t="s">
@@ -17582,7 +17599,7 @@
       <c r="A158" s="14" t="s">
         <v>1093</v>
       </c>
-      <c r="B158" s="35" t="s">
+      <c r="B158" s="34" t="s">
         <v>93</v>
       </c>
       <c r="C158" t="s">
@@ -17602,7 +17619,7 @@
       <c r="A159" s="14" t="s">
         <v>1094</v>
       </c>
-      <c r="B159" s="35" t="s">
+      <c r="B159" s="34" t="s">
         <v>110</v>
       </c>
       <c r="C159" t="s">
@@ -17622,7 +17639,7 @@
       <c r="A160" s="14" t="s">
         <v>1095</v>
       </c>
-      <c r="B160" s="35" t="s">
+      <c r="B160" s="34" t="s">
         <v>1296</v>
       </c>
       <c r="C160" t="s">
@@ -17642,7 +17659,7 @@
       <c r="A161" s="14" t="s">
         <v>1096</v>
       </c>
-      <c r="B161" s="35" t="s">
+      <c r="B161" s="34" t="s">
         <v>90</v>
       </c>
       <c r="C161" t="s">
@@ -17662,7 +17679,7 @@
       <c r="A162" s="14" t="s">
         <v>1097</v>
       </c>
-      <c r="B162" s="35" t="s">
+      <c r="B162" s="34" t="s">
         <v>1253</v>
       </c>
       <c r="C162" t="s">
@@ -17682,7 +17699,7 @@
       <c r="A163" s="14" t="s">
         <v>1098</v>
       </c>
-      <c r="B163" s="35" t="s">
+      <c r="B163" s="34" t="s">
         <v>266</v>
       </c>
       <c r="C163" t="s">
@@ -17702,7 +17719,7 @@
       <c r="A164" s="14" t="s">
         <v>1099</v>
       </c>
-      <c r="B164" s="35" t="s">
+      <c r="B164" s="34" t="s">
         <v>92</v>
       </c>
       <c r="C164" t="s">
@@ -17722,7 +17739,7 @@
       <c r="A165" s="14" t="s">
         <v>1100</v>
       </c>
-      <c r="B165" s="35" t="s">
+      <c r="B165" s="34" t="s">
         <v>121</v>
       </c>
       <c r="C165" t="s">
@@ -17742,7 +17759,7 @@
       <c r="A166" s="14" t="s">
         <v>1101</v>
       </c>
-      <c r="B166" s="35" t="s">
+      <c r="B166" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C166" t="s">
@@ -17762,7 +17779,7 @@
       <c r="A167" s="14" t="s">
         <v>1102</v>
       </c>
-      <c r="B167" s="35" t="s">
+      <c r="B167" s="34" t="s">
         <v>1297</v>
       </c>
       <c r="C167" t="s">
@@ -17782,7 +17799,7 @@
       <c r="A168" s="14" t="s">
         <v>1103</v>
       </c>
-      <c r="B168" s="35" t="s">
+      <c r="B168" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C168" s="17" t="s">
@@ -17802,7 +17819,7 @@
       <c r="A169" s="14" t="s">
         <v>1104</v>
       </c>
-      <c r="B169" s="35" t="s">
+      <c r="B169" s="34" t="s">
         <v>257</v>
       </c>
       <c r="C169" s="17" t="s">
@@ -17822,7 +17839,7 @@
       <c r="A170" s="14" t="s">
         <v>1105</v>
       </c>
-      <c r="B170" s="35" t="s">
+      <c r="B170" s="34" t="s">
         <v>249</v>
       </c>
       <c r="C170" s="17" t="s">
@@ -17842,7 +17859,7 @@
       <c r="A171" s="14" t="s">
         <v>1106</v>
       </c>
-      <c r="B171" s="35" t="s">
+      <c r="B171" s="34" t="s">
         <v>79</v>
       </c>
       <c r="C171" s="17" t="s">
@@ -17862,7 +17879,7 @@
       <c r="A172" s="14" t="s">
         <v>1107</v>
       </c>
-      <c r="B172" s="35" t="s">
+      <c r="B172" s="34" t="s">
         <v>63</v>
       </c>
       <c r="C172" s="17" t="s">
@@ -17882,7 +17899,7 @@
       <c r="A173" s="14" t="s">
         <v>1108</v>
       </c>
-      <c r="B173" s="35" t="s">
+      <c r="B173" s="34" t="s">
         <v>1298</v>
       </c>
       <c r="C173" s="17" t="s">
@@ -17902,7 +17919,7 @@
       <c r="A174" s="14" t="s">
         <v>1109</v>
       </c>
-      <c r="B174" s="35" t="s">
+      <c r="B174" s="34" t="s">
         <v>69</v>
       </c>
       <c r="C174" s="17" t="s">
@@ -17922,7 +17939,7 @@
       <c r="A175" s="14" t="s">
         <v>1110</v>
       </c>
-      <c r="B175" s="35" t="s">
+      <c r="B175" s="34" t="s">
         <v>1299</v>
       </c>
       <c r="C175" s="17" t="s">
@@ -17942,7 +17959,7 @@
       <c r="A176" s="14" t="s">
         <v>1111</v>
       </c>
-      <c r="B176" s="35" t="s">
+      <c r="B176" s="34" t="s">
         <v>45</v>
       </c>
       <c r="C176" s="17" t="s">
@@ -17962,7 +17979,7 @@
       <c r="A177" s="14" t="s">
         <v>1112</v>
       </c>
-      <c r="B177" s="35" t="s">
+      <c r="B177" s="34" t="s">
         <v>379</v>
       </c>
       <c r="C177" s="17" t="s">
@@ -17982,7 +17999,7 @@
       <c r="A178" s="14" t="s">
         <v>1113</v>
       </c>
-      <c r="B178" s="35" t="s">
+      <c r="B178" s="34" t="s">
         <v>1300</v>
       </c>
       <c r="C178" s="17" t="s">
@@ -18002,7 +18019,7 @@
       <c r="A179" s="14" t="s">
         <v>1114</v>
       </c>
-      <c r="B179" s="35" t="s">
+      <c r="B179" s="34" t="s">
         <v>57</v>
       </c>
       <c r="C179" s="17" t="s">
@@ -18022,7 +18039,7 @@
       <c r="A180" s="14" t="s">
         <v>1115</v>
       </c>
-      <c r="B180" s="35" t="s">
+      <c r="B180" s="34" t="s">
         <v>77</v>
       </c>
       <c r="C180" s="17" t="s">
@@ -18042,7 +18059,7 @@
       <c r="A181" s="14" t="s">
         <v>1116</v>
       </c>
-      <c r="B181" s="35" t="s">
+      <c r="B181" s="34" t="s">
         <v>65</v>
       </c>
       <c r="C181" s="17" t="s">
@@ -18062,7 +18079,7 @@
       <c r="A182" s="14" t="s">
         <v>1117</v>
       </c>
-      <c r="B182" s="35" t="s">
+      <c r="B182" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C182" s="17" t="s">
@@ -18082,7 +18099,7 @@
       <c r="A183" s="14" t="s">
         <v>1118</v>
       </c>
-      <c r="B183" s="35" t="s">
+      <c r="B183" s="34" t="s">
         <v>75</v>
       </c>
       <c r="C183" s="17" t="s">
@@ -18102,7 +18119,7 @@
       <c r="A184" s="14" t="s">
         <v>1119</v>
       </c>
-      <c r="B184" s="35" t="s">
+      <c r="B184" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C184" s="17" t="s">
@@ -18122,7 +18139,7 @@
       <c r="A185" s="14" t="s">
         <v>1120</v>
       </c>
-      <c r="B185" s="35" t="s">
+      <c r="B185" s="34" t="s">
         <v>361</v>
       </c>
       <c r="C185" s="17" t="s">
@@ -18142,7 +18159,7 @@
       <c r="A186" s="14" t="s">
         <v>1121</v>
       </c>
-      <c r="B186" s="35" t="s">
+      <c r="B186" s="34" t="s">
         <v>73</v>
       </c>
       <c r="C186" s="17" t="s">
@@ -18162,7 +18179,7 @@
       <c r="A187" s="14" t="s">
         <v>1122</v>
       </c>
-      <c r="B187" s="35" t="s">
+      <c r="B187" s="34" t="s">
         <v>32</v>
       </c>
       <c r="C187" s="17" t="s">
@@ -18182,7 +18199,7 @@
       <c r="A188" s="14" t="s">
         <v>1123</v>
       </c>
-      <c r="B188" s="35" t="s">
+      <c r="B188" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C188" s="17" t="s">
@@ -18202,7 +18219,7 @@
       <c r="A189" s="14" t="s">
         <v>1124</v>
       </c>
-      <c r="B189" s="35" t="s">
+      <c r="B189" s="34" t="s">
         <v>258</v>
       </c>
       <c r="C189" s="17" t="s">
@@ -18222,7 +18239,7 @@
       <c r="A190" s="14" t="s">
         <v>1125</v>
       </c>
-      <c r="B190" s="35" t="s">
+      <c r="B190" s="34" t="s">
         <v>1274</v>
       </c>
       <c r="C190" s="17" t="s">
@@ -18242,7 +18259,7 @@
       <c r="A191" s="14" t="s">
         <v>1126</v>
       </c>
-      <c r="B191" s="35" t="s">
+      <c r="B191" s="34" t="s">
         <v>81</v>
       </c>
       <c r="C191" t="s">
@@ -18262,7 +18279,7 @@
       <c r="A192" s="14" t="s">
         <v>1127</v>
       </c>
-      <c r="B192" s="35" t="s">
+      <c r="B192" s="34" t="s">
         <v>84</v>
       </c>
       <c r="C192" t="s">
@@ -18282,7 +18299,7 @@
       <c r="A193" s="14" t="s">
         <v>1128</v>
       </c>
-      <c r="B193" s="35" t="s">
+      <c r="B193" s="34" t="s">
         <v>83</v>
       </c>
       <c r="C193" t="s">
@@ -18302,7 +18319,7 @@
       <c r="A194" s="14" t="s">
         <v>1129</v>
       </c>
-      <c r="B194" s="35" t="s">
+      <c r="B194" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C194" t="s">
@@ -18322,7 +18339,7 @@
       <c r="A195" s="14" t="s">
         <v>1329</v>
       </c>
-      <c r="B195" s="35" t="s">
+      <c r="B195" s="34" t="s">
         <v>85</v>
       </c>
       <c r="C195" t="s">
@@ -18342,7 +18359,7 @@
       <c r="A196" s="14" t="s">
         <v>1130</v>
       </c>
-      <c r="B196" s="35" t="s">
+      <c r="B196" s="34" t="s">
         <v>1301</v>
       </c>
       <c r="C196" s="17" t="s">
@@ -18362,7 +18379,7 @@
       <c r="A197" s="14" t="s">
         <v>1131</v>
       </c>
-      <c r="B197" s="35" t="s">
+      <c r="B197" s="34" t="s">
         <v>1259</v>
       </c>
       <c r="C197" s="17" t="s">
@@ -18402,7 +18419,7 @@
       <c r="A199" s="14" t="s">
         <v>1133</v>
       </c>
-      <c r="B199" s="35" t="s">
+      <c r="B199" s="34" t="s">
         <v>382</v>
       </c>
       <c r="C199" s="17" t="s">
@@ -18422,7 +18439,7 @@
       <c r="A200" s="14" t="s">
         <v>1134</v>
       </c>
-      <c r="B200" s="35" t="s">
+      <c r="B200" s="34" t="s">
         <v>159</v>
       </c>
       <c r="C200" s="17" t="s">
@@ -18442,7 +18459,7 @@
       <c r="A201" s="14" t="s">
         <v>1135</v>
       </c>
-      <c r="B201" s="35" t="s">
+      <c r="B201" s="34" t="s">
         <v>1302</v>
       </c>
       <c r="C201" s="17" t="s">
@@ -18462,7 +18479,7 @@
       <c r="A202" s="14" t="s">
         <v>1136</v>
       </c>
-      <c r="B202" s="35" t="s">
+      <c r="B202" s="34" t="s">
         <v>1303</v>
       </c>
       <c r="C202" s="17" t="s">
@@ -18482,7 +18499,7 @@
       <c r="A203" s="14" t="s">
         <v>1137</v>
       </c>
-      <c r="B203" s="35" t="s">
+      <c r="B203" s="34" t="s">
         <v>1304</v>
       </c>
       <c r="C203" s="17" t="s">
@@ -18502,7 +18519,7 @@
       <c r="A204" s="14" t="s">
         <v>1138</v>
       </c>
-      <c r="B204" s="35" t="s">
+      <c r="B204" s="34" t="s">
         <v>1305</v>
       </c>
       <c r="C204" s="17" t="s">
@@ -18522,7 +18539,7 @@
       <c r="A205" s="14" t="s">
         <v>1139</v>
       </c>
-      <c r="B205" s="35" t="s">
+      <c r="B205" s="34" t="s">
         <v>383</v>
       </c>
       <c r="C205" s="17" t="s">
@@ -18542,7 +18559,7 @@
       <c r="A206" s="14" t="s">
         <v>1140</v>
       </c>
-      <c r="B206" s="35" t="s">
+      <c r="B206" s="34" t="s">
         <v>1306</v>
       </c>
       <c r="C206" s="17" t="s">
@@ -18562,7 +18579,7 @@
       <c r="A207" s="14" t="s">
         <v>1141</v>
       </c>
-      <c r="B207" s="35" t="s">
+      <c r="B207" s="34" t="s">
         <v>384</v>
       </c>
       <c r="C207" s="17" t="s">
@@ -18582,7 +18599,7 @@
       <c r="A208" s="14" t="s">
         <v>1142</v>
       </c>
-      <c r="B208" s="35" t="s">
+      <c r="B208" s="34" t="s">
         <v>1272</v>
       </c>
       <c r="C208" s="17" t="s">
@@ -18602,7 +18619,7 @@
       <c r="A209" s="14" t="s">
         <v>1143</v>
       </c>
-      <c r="B209" s="35" t="s">
+      <c r="B209" s="34" t="s">
         <v>292</v>
       </c>
       <c r="C209" s="17" t="s">
@@ -18622,7 +18639,7 @@
       <c r="A210" s="14" t="s">
         <v>1144</v>
       </c>
-      <c r="B210" s="35" t="s">
+      <c r="B210" s="34" t="s">
         <v>1307</v>
       </c>
       <c r="C210" s="17" t="s">
@@ -18642,7 +18659,7 @@
       <c r="A211" s="14" t="s">
         <v>1145</v>
       </c>
-      <c r="B211" s="35" t="s">
+      <c r="B211" s="34" t="s">
         <v>385</v>
       </c>
       <c r="C211" s="17" t="s">
@@ -18662,7 +18679,7 @@
       <c r="A212" s="14" t="s">
         <v>1146</v>
       </c>
-      <c r="B212" s="35" t="s">
+      <c r="B212" s="34" t="s">
         <v>1308</v>
       </c>
       <c r="C212" s="17" t="s">
@@ -18682,7 +18699,7 @@
       <c r="A213" s="14" t="s">
         <v>1147</v>
       </c>
-      <c r="B213" s="35" t="s">
+      <c r="B213" s="34" t="s">
         <v>386</v>
       </c>
       <c r="C213" s="17" t="s">
@@ -18705,16 +18722,16 @@
       <c r="B214" t="s">
         <v>1333</v>
       </c>
-      <c r="C214" s="37" t="s">
+      <c r="C214" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="D214" s="39" t="e">
+      <c r="D214" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E214" s="37" t="s">
+      <c r="E214" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F214" s="39" t="s">
+      <c r="F214" s="37" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18722,7 +18739,7 @@
       <c r="A215" s="14" t="s">
         <v>1148</v>
       </c>
-      <c r="B215" s="35" t="s">
+      <c r="B215" s="34" t="s">
         <v>278</v>
       </c>
       <c r="C215" s="17" t="s">
@@ -18742,7 +18759,7 @@
       <c r="A216" s="14" t="s">
         <v>1149</v>
       </c>
-      <c r="B216" s="35" t="s">
+      <c r="B216" s="34" t="s">
         <v>1309</v>
       </c>
       <c r="C216" s="17" t="s">
@@ -18762,7 +18779,7 @@
       <c r="A217" s="14" t="s">
         <v>1150</v>
       </c>
-      <c r="B217" s="35" t="s">
+      <c r="B217" s="34" t="s">
         <v>1310</v>
       </c>
       <c r="C217" s="17" t="s">
@@ -18782,7 +18799,7 @@
       <c r="A218" s="14" t="s">
         <v>1151</v>
       </c>
-      <c r="B218" s="35" t="s">
+      <c r="B218" s="34" t="s">
         <v>1311</v>
       </c>
       <c r="C218" s="17" t="s">
@@ -18802,7 +18819,7 @@
       <c r="A219" s="14" t="s">
         <v>1152</v>
       </c>
-      <c r="B219" s="35" t="s">
+      <c r="B219" s="34" t="s">
         <v>224</v>
       </c>
       <c r="C219" s="17" t="s">
@@ -18822,7 +18839,7 @@
       <c r="A220" s="14" t="s">
         <v>1153</v>
       </c>
-      <c r="B220" s="35" t="s">
+      <c r="B220" s="34" t="s">
         <v>308</v>
       </c>
       <c r="C220" s="17" t="s">
@@ -18842,7 +18859,7 @@
       <c r="A221" s="14" t="s">
         <v>1154</v>
       </c>
-      <c r="B221" s="35" t="s">
+      <c r="B221" s="34" t="s">
         <v>1286</v>
       </c>
       <c r="C221" s="17" t="s">
@@ -18862,7 +18879,7 @@
       <c r="A222" s="14" t="s">
         <v>1155</v>
       </c>
-      <c r="B222" s="35" t="s">
+      <c r="B222" s="34" t="s">
         <v>307</v>
       </c>
       <c r="C222" s="17" t="s">
@@ -18882,7 +18899,7 @@
       <c r="A223" s="14" t="s">
         <v>1156</v>
       </c>
-      <c r="B223" s="35" t="s">
+      <c r="B223" s="34" t="s">
         <v>94</v>
       </c>
       <c r="C223" s="17" t="s">
@@ -18902,7 +18919,7 @@
       <c r="A224" s="14" t="s">
         <v>1157</v>
       </c>
-      <c r="B224" s="35" t="s">
+      <c r="B224" s="34" t="s">
         <v>905</v>
       </c>
       <c r="C224" s="17" t="s">
@@ -18942,7 +18959,7 @@
       <c r="A226" s="14" t="s">
         <v>1159</v>
       </c>
-      <c r="B226" s="35" t="s">
+      <c r="B226" s="34" t="s">
         <v>101</v>
       </c>
       <c r="C226" s="17" t="s">
@@ -18962,7 +18979,7 @@
       <c r="A227" s="14" t="s">
         <v>1160</v>
       </c>
-      <c r="B227" s="35" t="s">
+      <c r="B227" s="34" t="s">
         <v>310</v>
       </c>
       <c r="C227" s="17" t="s">
@@ -18982,7 +18999,7 @@
       <c r="A228" s="14" t="s">
         <v>1161</v>
       </c>
-      <c r="B228" s="35" t="s">
+      <c r="B228" s="34" t="s">
         <v>97</v>
       </c>
       <c r="C228" s="17" t="s">
@@ -19002,7 +19019,7 @@
       <c r="A229" s="14" t="s">
         <v>1162</v>
       </c>
-      <c r="B229" s="35" t="s">
+      <c r="B229" s="34" t="s">
         <v>1288</v>
       </c>
       <c r="C229" s="17" t="s">
@@ -19022,7 +19039,7 @@
       <c r="A230" s="14" t="s">
         <v>1163</v>
       </c>
-      <c r="B230" s="35" t="s">
+      <c r="B230" s="34" t="s">
         <v>389</v>
       </c>
       <c r="C230" s="17" t="s">
@@ -19042,7 +19059,7 @@
       <c r="A231" s="14" t="s">
         <v>1164</v>
       </c>
-      <c r="B231" s="35" t="s">
+      <c r="B231" s="34" t="s">
         <v>305</v>
       </c>
       <c r="C231" s="17" t="s">
@@ -19062,7 +19079,7 @@
       <c r="A232" s="14" t="s">
         <v>1165</v>
       </c>
-      <c r="B232" s="35" t="s">
+      <c r="B232" s="34" t="s">
         <v>223</v>
       </c>
       <c r="C232" s="17" t="s">
@@ -19082,7 +19099,7 @@
       <c r="A233" s="14" t="s">
         <v>1166</v>
       </c>
-      <c r="B233" s="35" t="s">
+      <c r="B233" s="34" t="s">
         <v>230</v>
       </c>
       <c r="C233" s="17" t="s">
@@ -19102,7 +19119,7 @@
       <c r="A234" s="14" t="s">
         <v>1167</v>
       </c>
-      <c r="B234" s="35" t="s">
+      <c r="B234" s="34" t="s">
         <v>231</v>
       </c>
       <c r="C234" s="17" t="s">
@@ -19122,7 +19139,7 @@
       <c r="A235" s="14" t="s">
         <v>1168</v>
       </c>
-      <c r="B235" s="35" t="s">
+      <c r="B235" s="34" t="s">
         <v>1312</v>
       </c>
       <c r="C235" s="17" t="s">
@@ -19142,7 +19159,7 @@
       <c r="A236" s="14" t="s">
         <v>1169</v>
       </c>
-      <c r="B236" s="35" t="s">
+      <c r="B236" s="34" t="s">
         <v>220</v>
       </c>
       <c r="C236" s="17" t="s">
@@ -19162,7 +19179,7 @@
       <c r="A237" s="14" t="s">
         <v>1170</v>
       </c>
-      <c r="B237" s="35" t="s">
+      <c r="B237" s="34" t="s">
         <v>232</v>
       </c>
       <c r="C237" s="17" t="s">
@@ -19182,7 +19199,7 @@
       <c r="A238" s="14" t="s">
         <v>1171</v>
       </c>
-      <c r="B238" s="35" t="s">
+      <c r="B238" s="34" t="s">
         <v>1313</v>
       </c>
       <c r="C238" s="17" t="s">
@@ -19202,7 +19219,7 @@
       <c r="A239" s="14" t="s">
         <v>1172</v>
       </c>
-      <c r="B239" s="35" t="s">
+      <c r="B239" s="34" t="s">
         <v>1277</v>
       </c>
       <c r="C239" s="17" t="s">
@@ -19222,7 +19239,7 @@
       <c r="A240" s="14" t="s">
         <v>1173</v>
       </c>
-      <c r="B240" s="35" t="s">
+      <c r="B240" s="34" t="s">
         <v>1276</v>
       </c>
       <c r="C240" s="17" t="s">
@@ -19242,7 +19259,7 @@
       <c r="A241" s="14" t="s">
         <v>1174</v>
       </c>
-      <c r="B241" s="35" t="s">
+      <c r="B241" s="34" t="s">
         <v>234</v>
       </c>
       <c r="C241" s="17" t="s">
@@ -19262,7 +19279,7 @@
       <c r="A242" s="14" t="s">
         <v>1175</v>
       </c>
-      <c r="B242" s="35" t="s">
+      <c r="B242" s="34" t="s">
         <v>1278</v>
       </c>
       <c r="C242" s="17" t="s">
@@ -19282,7 +19299,7 @@
       <c r="A243" s="14" t="s">
         <v>1176</v>
       </c>
-      <c r="B243" s="35" t="s">
+      <c r="B243" s="34" t="s">
         <v>1279</v>
       </c>
       <c r="C243" s="17" t="s">
@@ -19302,7 +19319,7 @@
       <c r="A244" s="14" t="s">
         <v>1177</v>
       </c>
-      <c r="B244" s="35" t="s">
+      <c r="B244" s="34" t="s">
         <v>391</v>
       </c>
       <c r="C244" s="17" t="s">
@@ -19322,7 +19339,7 @@
       <c r="A245" s="14" t="s">
         <v>1178</v>
       </c>
-      <c r="B245" s="35" t="s">
+      <c r="B245" s="34" t="s">
         <v>1291</v>
       </c>
       <c r="C245" s="17" t="s">
@@ -19342,7 +19359,7 @@
       <c r="A246" s="14" t="s">
         <v>1179</v>
       </c>
-      <c r="B246" s="35" t="s">
+      <c r="B246" s="34" t="s">
         <v>860</v>
       </c>
       <c r="C246" t="s">
@@ -19362,7 +19379,7 @@
       <c r="A247" s="14" t="s">
         <v>1180</v>
       </c>
-      <c r="B247" s="35" t="s">
+      <c r="B247" s="34" t="s">
         <v>1262</v>
       </c>
       <c r="C247" t="s">
@@ -19382,7 +19399,7 @@
       <c r="A248" s="14" t="s">
         <v>1181</v>
       </c>
-      <c r="B248" s="35" t="s">
+      <c r="B248" s="34" t="s">
         <v>1264</v>
       </c>
       <c r="C248" t="s">
@@ -19402,7 +19419,7 @@
       <c r="A249" s="14" t="s">
         <v>1182</v>
       </c>
-      <c r="B249" s="35" t="s">
+      <c r="B249" s="34" t="s">
         <v>1261</v>
       </c>
       <c r="C249" t="s">
@@ -19422,7 +19439,7 @@
       <c r="A250" s="14" t="s">
         <v>1183</v>
       </c>
-      <c r="B250" s="35" t="s">
+      <c r="B250" s="34" t="s">
         <v>353</v>
       </c>
       <c r="C250" t="s">
@@ -19442,7 +19459,7 @@
       <c r="A251" s="14" t="s">
         <v>1184</v>
       </c>
-      <c r="B251" s="35" t="s">
+      <c r="B251" s="34" t="s">
         <v>209</v>
       </c>
       <c r="C251" t="s">
@@ -19462,7 +19479,7 @@
       <c r="A252" s="14" t="s">
         <v>1185</v>
       </c>
-      <c r="B252" s="35" t="s">
+      <c r="B252" s="34" t="s">
         <v>215</v>
       </c>
       <c r="C252" t="s">
@@ -19482,7 +19499,7 @@
       <c r="A253" s="14" t="s">
         <v>1186</v>
       </c>
-      <c r="B253" s="35" t="s">
+      <c r="B253" s="34" t="s">
         <v>1263</v>
       </c>
       <c r="C253" t="s">
@@ -19502,7 +19519,7 @@
       <c r="A254" s="14" t="s">
         <v>1187</v>
       </c>
-      <c r="B254" s="35" t="s">
+      <c r="B254" s="34" t="s">
         <v>247</v>
       </c>
       <c r="C254" t="s">
@@ -19522,7 +19539,7 @@
       <c r="A255" s="14" t="s">
         <v>1188</v>
       </c>
-      <c r="B255" s="35" t="s">
+      <c r="B255" s="34" t="s">
         <v>355</v>
       </c>
       <c r="C255" t="s">
@@ -19542,7 +19559,7 @@
       <c r="A256" s="14" t="s">
         <v>1189</v>
       </c>
-      <c r="B256" s="35" t="s">
+      <c r="B256" s="34" t="s">
         <v>324</v>
       </c>
       <c r="C256" t="s">
@@ -19562,7 +19579,7 @@
       <c r="A257" s="14" t="s">
         <v>1190</v>
       </c>
-      <c r="B257" s="35" t="s">
+      <c r="B257" s="34" t="s">
         <v>323</v>
       </c>
       <c r="C257" t="s">
@@ -19582,7 +19599,7 @@
       <c r="A258" s="14" t="s">
         <v>1191</v>
       </c>
-      <c r="B258" s="35" t="s">
+      <c r="B258" s="34" t="s">
         <v>216</v>
       </c>
       <c r="C258" t="s">
@@ -19602,7 +19619,7 @@
       <c r="A259" s="14" t="s">
         <v>1192</v>
       </c>
-      <c r="B259" s="35" t="s">
+      <c r="B259" s="34" t="s">
         <v>213</v>
       </c>
       <c r="C259" t="s">
@@ -19622,7 +19639,7 @@
       <c r="A260" s="14" t="s">
         <v>1193</v>
       </c>
-      <c r="B260" s="35" t="s">
+      <c r="B260" s="34" t="s">
         <v>89</v>
       </c>
       <c r="C260" s="15" t="s">
@@ -19642,7 +19659,7 @@
       <c r="A261" s="14" t="s">
         <v>1194</v>
       </c>
-      <c r="B261" s="35" t="s">
+      <c r="B261" s="34" t="s">
         <v>1275</v>
       </c>
       <c r="C261" s="15" t="s">
@@ -19662,7 +19679,7 @@
       <c r="A262" s="14" t="s">
         <v>1195</v>
       </c>
-      <c r="B262" s="35" t="s">
+      <c r="B262" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C262" s="15" t="s">
@@ -19682,7 +19699,7 @@
       <c r="A263" s="14" t="s">
         <v>1196</v>
       </c>
-      <c r="B263" s="35" t="s">
+      <c r="B263" s="34" t="s">
         <v>1271</v>
       </c>
       <c r="C263" s="15" t="s">
@@ -19702,7 +19719,7 @@
       <c r="A264" s="14" t="s">
         <v>1197</v>
       </c>
-      <c r="B264" s="35" t="s">
+      <c r="B264" s="34" t="s">
         <v>1314</v>
       </c>
       <c r="C264" s="15" t="s">
@@ -19722,7 +19739,7 @@
       <c r="A265" s="14" t="s">
         <v>1198</v>
       </c>
-      <c r="B265" s="35" t="s">
+      <c r="B265" s="34" t="s">
         <v>1315</v>
       </c>
       <c r="C265" s="15" t="s">
@@ -19742,7 +19759,7 @@
       <c r="A266" s="14" t="s">
         <v>1199</v>
       </c>
-      <c r="B266" s="35" t="s">
+      <c r="B266" s="34" t="s">
         <v>394</v>
       </c>
       <c r="C266" s="15" t="s">
@@ -19762,7 +19779,7 @@
       <c r="A267" s="14" t="s">
         <v>1200</v>
       </c>
-      <c r="B267" s="35" t="s">
+      <c r="B267" s="34" t="s">
         <v>1316</v>
       </c>
       <c r="C267" s="15" t="s">
@@ -19782,7 +19799,7 @@
       <c r="A268" s="14" t="s">
         <v>1201</v>
       </c>
-      <c r="B268" s="35" t="s">
+      <c r="B268" s="34" t="s">
         <v>1317</v>
       </c>
       <c r="C268" s="15" t="s">
@@ -19802,7 +19819,7 @@
       <c r="A269" s="14" t="s">
         <v>1202</v>
       </c>
-      <c r="B269" s="35" t="s">
+      <c r="B269" s="34" t="s">
         <v>395</v>
       </c>
       <c r="C269" s="15" t="s">
@@ -19822,7 +19839,7 @@
       <c r="A270" s="14" t="s">
         <v>1203</v>
       </c>
-      <c r="B270" s="35" t="s">
+      <c r="B270" s="34" t="s">
         <v>1318</v>
       </c>
       <c r="C270" s="15" t="s">
@@ -19842,7 +19859,7 @@
       <c r="A271" s="14" t="s">
         <v>1204</v>
       </c>
-      <c r="B271" s="35" t="s">
+      <c r="B271" s="34" t="s">
         <v>176</v>
       </c>
       <c r="C271" s="15" t="s">
@@ -19862,7 +19879,7 @@
       <c r="A272" s="14" t="s">
         <v>1205</v>
       </c>
-      <c r="B272" s="35" t="s">
+      <c r="B272" s="34" t="s">
         <v>1319</v>
       </c>
       <c r="C272" s="15" t="s">
@@ -19882,7 +19899,7 @@
       <c r="A273" s="14" t="s">
         <v>1206</v>
       </c>
-      <c r="B273" s="35" t="s">
+      <c r="B273" s="34" t="s">
         <v>118</v>
       </c>
       <c r="C273" s="15" t="s">
@@ -19902,7 +19919,7 @@
       <c r="A274" s="14" t="s">
         <v>1207</v>
       </c>
-      <c r="B274" s="35" t="s">
+      <c r="B274" s="34" t="s">
         <v>256</v>
       </c>
       <c r="C274" s="15" t="s">
@@ -19922,7 +19939,7 @@
       <c r="A275" s="14" t="s">
         <v>1208</v>
       </c>
-      <c r="B275" s="35" t="s">
+      <c r="B275" s="34" t="s">
         <v>139</v>
       </c>
       <c r="C275" s="15" t="s">
@@ -19942,7 +19959,7 @@
       <c r="A276" s="14" t="s">
         <v>1209</v>
       </c>
-      <c r="B276" s="35" t="s">
+      <c r="B276" s="34" t="s">
         <v>1249</v>
       </c>
       <c r="C276" s="15" t="s">
@@ -19962,7 +19979,7 @@
       <c r="A277" s="14" t="s">
         <v>1210</v>
       </c>
-      <c r="B277" s="35" t="s">
+      <c r="B277" s="34" t="s">
         <v>1320</v>
       </c>
       <c r="C277" s="15" t="s">
@@ -19982,7 +19999,7 @@
       <c r="A278" s="14" t="s">
         <v>1211</v>
       </c>
-      <c r="B278" s="35" t="s">
+      <c r="B278" s="34" t="s">
         <v>200</v>
       </c>
       <c r="C278" t="s">
@@ -20002,7 +20019,7 @@
       <c r="A279" s="14" t="s">
         <v>1212</v>
       </c>
-      <c r="B279" s="35" t="s">
+      <c r="B279" s="34" t="s">
         <v>1282</v>
       </c>
       <c r="C279" t="s">
@@ -20022,7 +20039,7 @@
       <c r="A280" s="14" t="s">
         <v>1213</v>
       </c>
-      <c r="B280" s="35" t="s">
+      <c r="B280" s="34" t="s">
         <v>1281</v>
       </c>
       <c r="C280" t="s">
@@ -20042,7 +20059,7 @@
       <c r="A281" s="14" t="s">
         <v>1214</v>
       </c>
-      <c r="B281" s="35" t="s">
+      <c r="B281" s="34" t="s">
         <v>194</v>
       </c>
       <c r="C281" t="s">
@@ -20062,7 +20079,7 @@
       <c r="A282" s="14" t="s">
         <v>1215</v>
       </c>
-      <c r="B282" s="35" t="s">
+      <c r="B282" s="34" t="s">
         <v>203</v>
       </c>
       <c r="C282" t="s">
@@ -20082,7 +20099,7 @@
       <c r="A283" s="14" t="s">
         <v>1216</v>
       </c>
-      <c r="B283" s="35" t="s">
+      <c r="B283" s="34" t="s">
         <v>192</v>
       </c>
       <c r="C283" t="s">
@@ -20102,7 +20119,7 @@
       <c r="A284" s="14" t="s">
         <v>1217</v>
       </c>
-      <c r="B284" s="35" t="s">
+      <c r="B284" s="34" t="s">
         <v>397</v>
       </c>
       <c r="C284" t="s">
@@ -20122,7 +20139,7 @@
       <c r="A285" s="14" t="s">
         <v>1218</v>
       </c>
-      <c r="B285" s="35" t="s">
+      <c r="B285" s="34" t="s">
         <v>1280</v>
       </c>
       <c r="C285" t="s">
@@ -20142,7 +20159,7 @@
       <c r="A286" s="14" t="s">
         <v>1219</v>
       </c>
-      <c r="B286" s="35" t="s">
+      <c r="B286" s="34" t="s">
         <v>1284</v>
       </c>
       <c r="C286" t="s">
@@ -20162,7 +20179,7 @@
       <c r="A287" s="14" t="s">
         <v>1220</v>
       </c>
-      <c r="B287" s="35" t="s">
+      <c r="B287" s="34" t="s">
         <v>158</v>
       </c>
       <c r="C287" t="s">
@@ -20182,7 +20199,7 @@
       <c r="A288" s="14" t="s">
         <v>1221</v>
       </c>
-      <c r="B288" s="35" t="s">
+      <c r="B288" s="34" t="s">
         <v>198</v>
       </c>
       <c r="C288" t="s">
@@ -20202,7 +20219,7 @@
       <c r="A289" s="14" t="s">
         <v>1222</v>
       </c>
-      <c r="B289" s="35" t="s">
+      <c r="B289" s="34" t="s">
         <v>366</v>
       </c>
       <c r="C289" t="s">
@@ -20222,7 +20239,7 @@
       <c r="A290" s="14" t="s">
         <v>1223</v>
       </c>
-      <c r="B290" s="35" t="s">
+      <c r="B290" s="34" t="s">
         <v>859</v>
       </c>
       <c r="C290" t="s">
@@ -20242,7 +20259,7 @@
       <c r="A291" s="14" t="s">
         <v>1224</v>
       </c>
-      <c r="B291" s="35" t="s">
+      <c r="B291" s="34" t="s">
         <v>201</v>
       </c>
       <c r="C291" t="s">
@@ -20262,7 +20279,7 @@
       <c r="A292" s="14" t="s">
         <v>1330</v>
       </c>
-      <c r="B292" s="35" t="s">
+      <c r="B292" s="34" t="s">
         <v>904</v>
       </c>
       <c r="C292" t="s">
@@ -20282,7 +20299,7 @@
       <c r="A293" s="16" t="s">
         <v>1225</v>
       </c>
-      <c r="B293" s="35" t="s">
+      <c r="B293" s="34" t="s">
         <v>121</v>
       </c>
       <c r="C293" t="s">
@@ -20302,7 +20319,7 @@
       <c r="A294" s="16" t="s">
         <v>1226</v>
       </c>
-      <c r="B294" s="35" t="s">
+      <c r="B294" s="34" t="s">
         <v>262</v>
       </c>
       <c r="C294" t="s">
@@ -20322,7 +20339,7 @@
       <c r="A295" s="16" t="s">
         <v>1227</v>
       </c>
-      <c r="B295" s="35" t="s">
+      <c r="B295" s="34" t="s">
         <v>189</v>
       </c>
       <c r="C295" t="s">
@@ -20342,7 +20359,7 @@
       <c r="A296" s="16" t="s">
         <v>1228</v>
       </c>
-      <c r="B296" s="35" t="s">
+      <c r="B296" s="34" t="s">
         <v>261</v>
       </c>
       <c r="C296" t="s">
@@ -20362,7 +20379,7 @@
       <c r="A297" s="16" t="s">
         <v>1229</v>
       </c>
-      <c r="B297" s="35" t="s">
+      <c r="B297" s="34" t="s">
         <v>267</v>
       </c>
       <c r="C297" t="s">
@@ -20382,7 +20399,7 @@
       <c r="A298" s="16" t="s">
         <v>1230</v>
       </c>
-      <c r="B298" s="35" t="s">
+      <c r="B298" s="34" t="s">
         <v>1251</v>
       </c>
       <c r="C298" t="s">
@@ -20402,7 +20419,7 @@
       <c r="A299" s="16" t="s">
         <v>1231</v>
       </c>
-      <c r="B299" s="35" t="s">
+      <c r="B299" s="34" t="s">
         <v>109</v>
       </c>
       <c r="C299" t="s">
@@ -20422,7 +20439,7 @@
       <c r="A300" s="16" t="s">
         <v>1232</v>
       </c>
-      <c r="B300" s="35" t="s">
+      <c r="B300" s="34" t="s">
         <v>1321</v>
       </c>
       <c r="C300" t="s">
@@ -20442,7 +20459,7 @@
       <c r="A301" s="16" t="s">
         <v>1233</v>
       </c>
-      <c r="B301" s="35" t="s">
+      <c r="B301" s="34" t="s">
         <v>114</v>
       </c>
       <c r="C301" t="s">
@@ -20462,7 +20479,7 @@
       <c r="A302" s="16" t="s">
         <v>1234</v>
       </c>
-      <c r="B302" s="35" t="s">
+      <c r="B302" s="34" t="s">
         <v>856</v>
       </c>
       <c r="C302" t="s">
@@ -20482,13 +20499,13 @@
       <c r="A303" s="16" t="s">
         <v>1235</v>
       </c>
-      <c r="B303" s="35" t="s">
+      <c r="B303" s="34" t="s">
         <v>1322</v>
       </c>
       <c r="C303" t="s">
         <v>399</v>
       </c>
-      <c r="D303" s="40" t="s">
+      <c r="D303" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E303" t="s">
@@ -20499,10 +20516,10 @@
       </c>
     </row>
     <row r="304" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="42" t="s">
+      <c r="A304" s="39" t="s">
         <v>1236</v>
       </c>
-      <c r="B304" s="35" t="s">
+      <c r="B304" s="34" t="s">
         <v>1323</v>
       </c>
       <c r="C304" t="s">
@@ -20518,11 +20535,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="42" t="s">
+    <row r="305" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="39" t="s">
         <v>1237</v>
       </c>
-      <c r="B305" s="35" t="s">
+      <c r="B305" s="34" t="s">
         <v>1324</v>
       </c>
       <c r="C305" t="s">
@@ -20538,11 +20555,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="42" t="s">
+    <row r="306" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="39" t="s">
         <v>1238</v>
       </c>
-      <c r="B306" s="35" t="s">
+      <c r="B306" s="34" t="s">
         <v>400</v>
       </c>
       <c r="C306" t="s">
@@ -20558,11 +20575,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="42" t="s">
+    <row r="307" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="39" t="s">
         <v>1239</v>
       </c>
-      <c r="B307" s="35" t="s">
+      <c r="B307" s="34" t="s">
         <v>1325</v>
       </c>
       <c r="C307" t="s">
@@ -20578,11 +20595,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="42" t="s">
+    <row r="308" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="39" t="s">
         <v>1240</v>
       </c>
-      <c r="B308" s="35" t="s">
+      <c r="B308" s="34" t="s">
         <v>401</v>
       </c>
       <c r="C308" t="s">
@@ -20598,11 +20615,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="42" t="s">
+    <row r="309" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="39" t="s">
         <v>1241</v>
       </c>
-      <c r="B309" s="35" t="s">
+      <c r="B309" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C309" t="s">
@@ -20618,11 +20635,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="42" t="s">
+    <row r="310" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="39" t="s">
         <v>1242</v>
       </c>
-      <c r="B310" s="35" t="s">
+      <c r="B310" s="34" t="s">
         <v>402</v>
       </c>
       <c r="C310" t="s">
@@ -20638,11 +20655,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="42" t="s">
+    <row r="311" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="39" t="s">
         <v>1243</v>
       </c>
-      <c r="B311" s="35" t="s">
+      <c r="B311" s="34" t="s">
         <v>1326</v>
       </c>
       <c r="C311" t="s">
@@ -20658,11 +20675,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="42" t="s">
+    <row r="312" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="39" t="s">
         <v>1244</v>
       </c>
-      <c r="B312" s="35" t="s">
+      <c r="B312" s="34" t="s">
         <v>329</v>
       </c>
       <c r="C312" t="s">
@@ -20678,11 +20695,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="42" t="s">
+    <row r="313" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="39" t="s">
         <v>1245</v>
       </c>
-      <c r="B313" s="35" t="s">
+      <c r="B313" s="34" t="s">
         <v>248</v>
       </c>
       <c r="C313" t="s">
@@ -20698,17 +20715,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="42" t="s">
         <v>1246</v>
       </c>
-      <c r="B314" s="35" t="s">
+      <c r="B314" s="34" t="s">
         <v>1327</v>
       </c>
       <c r="C314" t="s">
         <v>399</v>
       </c>
-      <c r="D314" s="14" t="s">
+      <c r="D314" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E314" t="s">
@@ -20718,35 +20735,59 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="16"/>
-      <c r="B315" s="35"/>
-      <c r="D315" s="14"/>
-      <c r="F315" s="41"/>
-    </row>
-    <row r="316" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="16"/>
-      <c r="B316" s="35"/>
-      <c r="D316" s="14"/>
-      <c r="F316" s="41"/>
-    </row>
-    <row r="317" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="16"/>
-      <c r="B317" s="35"/>
-      <c r="D317" s="14"/>
-      <c r="F317" s="41"/>
-    </row>
-    <row r="318" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="34"/>
-      <c r="B318" s="34"/>
-      <c r="C318" s="37"/>
-      <c r="D318" s="33"/>
-    </row>
-    <row r="319" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="34"/>
-      <c r="B319" s="34"/>
-      <c r="C319" s="38"/>
-      <c r="D319" s="33"/>
+    <row r="315" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="44"/>
+      <c r="B315" s="45"/>
+      <c r="C315" s="46"/>
+      <c r="D315" s="44"/>
+      <c r="E315" s="46"/>
+      <c r="F315" s="47"/>
+      <c r="G315" s="46"/>
+    </row>
+    <row r="316" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="44"/>
+      <c r="B316" s="45"/>
+      <c r="C316" s="46"/>
+      <c r="D316" s="44"/>
+      <c r="E316" s="46"/>
+      <c r="F316" s="47"/>
+      <c r="G316" s="46"/>
+    </row>
+    <row r="317" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="44"/>
+      <c r="B317" s="45"/>
+      <c r="C317" s="46"/>
+      <c r="D317" s="44"/>
+      <c r="E317" s="46"/>
+      <c r="F317" s="47"/>
+      <c r="G317" s="46"/>
+    </row>
+    <row r="318" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="44"/>
+      <c r="B318" s="44"/>
+      <c r="C318" s="46"/>
+      <c r="D318" s="44"/>
+      <c r="E318" s="46"/>
+      <c r="F318" s="46"/>
+      <c r="G318" s="46"/>
+    </row>
+    <row r="319" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="44"/>
+      <c r="B319" s="44"/>
+      <c r="C319" s="48"/>
+      <c r="D319" s="44"/>
+      <c r="E319" s="46"/>
+      <c r="F319" s="46"/>
+      <c r="G319" s="46"/>
+    </row>
+    <row r="320" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="46"/>
+      <c r="B320" s="46"/>
+      <c r="C320" s="46"/>
+      <c r="D320" s="46"/>
+      <c r="E320" s="46"/>
+      <c r="F320" s="46"/>
+      <c r="G320" s="46"/>
     </row>
     <row r="379" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion WEB 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9397BEC-D398-334A-9E1F-622E1C60E6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8709D4-10B0-EF4F-ABBA-41F1D483CEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="31120" windowHeight="15860" activeTab="1" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="31120" windowHeight="15860" activeTab="2" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ENERO!$C$1:$C$423</definedName>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4784" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5201" uniqueCount="1437">
   <si>
     <t>Nombre</t>
   </si>
@@ -4062,13 +4061,313 @@
   </si>
   <si>
     <t>EXTERNO</t>
+  </si>
+  <si>
+    <t>TNM-054-58-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-59-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-60-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-61-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-62-2025</t>
+  </si>
+  <si>
+    <t>RAUL AMADOR VÁZQUEZ</t>
+  </si>
+  <si>
+    <t>TNM-054-63-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HÉCTOR RAMÓN RUANO ESQUIVEL </t>
+  </si>
+  <si>
+    <t>TNM-054-64-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-65-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-66-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO ANTONIO VELÁZQUEZ VENTURA </t>
+  </si>
+  <si>
+    <t>TNM-054-67-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-68-2025</t>
+  </si>
+  <si>
+    <t>JAIME CRISTOBAL ROJAS MONTES</t>
+  </si>
+  <si>
+    <t>TNM-054-69-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-70-2025</t>
+  </si>
+  <si>
+    <t>JOSÉ GERARDO IGNACIO GÓMEZ ROMERO</t>
+  </si>
+  <si>
+    <t>TNM-054-71-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-72-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-73-2025</t>
+  </si>
+  <si>
+    <t>KARLA SELENE ARELLANO HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>TNM-054-74-2025-II</t>
+  </si>
+  <si>
+    <t>ADRIANA ERENDIRA MURILLO</t>
+  </si>
+  <si>
+    <t>TNM-054-74-2025-I</t>
+  </si>
+  <si>
+    <t>TNM-054-75-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-76-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-77-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-78-2025</t>
+  </si>
+  <si>
+    <t>NURIA ELIZABETH ROCHA GUZMÁN</t>
+  </si>
+  <si>
+    <t>TNM-054-79-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-80-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-81-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-82-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-83-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-84-2025</t>
+  </si>
+  <si>
+    <t>EFRAIM CASTELLANOS FRAIRE</t>
+  </si>
+  <si>
+    <t>TNM-054-85-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-86-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-87-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-88-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-89-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-90-2025-I</t>
+  </si>
+  <si>
+    <t>TNM-054-90-2025-II</t>
+  </si>
+  <si>
+    <t>TNM-054-91-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-92-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGUEL ÁNGEL SALAZAR LOZANO </t>
+  </si>
+  <si>
+    <t>TNM-054-93-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMELDA SALAZAR MENDÍA </t>
+  </si>
+  <si>
+    <t>TNM-054-94-2025</t>
+  </si>
+  <si>
+    <t>INNOVACION Y ESTRATEGIA EN LA PLANIFICACIÓN DE ACTIVIDADES PARA TUTORIAS GRUPALES</t>
+  </si>
+  <si>
+    <t>ANALISIS DEL PROCESO DE DESARROLLO DE PROYECTOS INNOVADORES</t>
+  </si>
+  <si>
+    <t>CURSO INTRODUCTORIO SOBRE PROTOCOLO O DISEÑO DE INVESTIGACIÓN</t>
+  </si>
+  <si>
+    <t>USO DE HERRAMIENTAS DE INTELIGENCIA ARTIFICIAL EN EL AULA</t>
+  </si>
+  <si>
+    <t>SIMULACIÓN Y MAQUINADO CON POST-PROCESADORES FANUC</t>
+  </si>
+  <si>
+    <t>USO DE ACCITRADE COACH PARA COMPRAR Y VENDER ACCIONES DE LA BOLSA MEXICANA DE VALORES</t>
+  </si>
+  <si>
+    <t>INTEGRACIÓN DE INTELIGENCIA ARTIFICIAL EN ESCENARIOS DE APRENDIZAJE</t>
+  </si>
+  <si>
+    <t>DISEÑO CURRICULAR DE MÓDULOS DE ESPECIALIDAD PARA INGENIERÍA BIOQUÍMICA PARTE II</t>
+  </si>
+  <si>
+    <t>CURSO-TALLER, REVISIÓN DE CIEES 2026</t>
+  </si>
+  <si>
+    <t>PLATAFORMA MOODLE BÁSICO PARA SGI</t>
+  </si>
+  <si>
+    <t>ENFOQUES DE MEJORA DE LA MAESTRÍA EN SISTEMAS AMBIENTALES</t>
+  </si>
+  <si>
+    <t>DISEÑO DE LAS ESPECIALIDADES DE LA CARRERA DE INGENIERIA INDUSTRIAL PRIMERA PARTE</t>
+  </si>
+  <si>
+    <t>APRENDER A INVESTIGAR PARA MEJORAR LA CALIDAD EDUCATIVA PARTE 1</t>
+  </si>
+  <si>
+    <t>ANÁLISIS DE LOS ATRIBUTOS DE EGRESO Y OBJETIVOS EDUCACIONALES EN LA CARRERA DE INGENIERÍA QUÍMICA PARTE II</t>
+  </si>
+  <si>
+    <t>SGI, PROCEDIMIENTO ACADÉMICO, VINCULACIÓN, CALIDAD, AMBIENTE, SEGURIDAD E HIGIENE Y ENERGÍA; REGLAMENTO INTERIOR DE TRABAJO DEL PERSONAL DOCENTE</t>
+  </si>
+  <si>
+    <t>DISEÑO DE MODULOS DE ESPECIALIDAD DEL PROGRAMA EDUCATIVO DE LA CARRERA DE ARQUITECTURA</t>
+  </si>
+  <si>
+    <t>CURSO-TALLER PARA JEFES DE DEPARTAMENTO ACADEMICO: GESTION ACADEMICA Y ADMINISTRATIVA INTEGRAL</t>
+  </si>
+  <si>
+    <t>INTEGRACIÓN DE LA INTELIGENCIA ARTIFICIAL GENERATIVA EN EL AULA</t>
+  </si>
+  <si>
+    <t>REOMETRÍA DE LÍQUIDOS</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS PARA LA ENSEÑANZA DE LA MATERIA DE "ECUACIONES DIFERENCIALES" (PARTE 1)</t>
+  </si>
+  <si>
+    <t>MARCO LEGAL EN LA ETICA EN LA INVESTIGACIÓN</t>
+  </si>
+  <si>
+    <t>PREPARACIÓN PARA LA APERTURA DE LA INGNIERÍA EN INTELIGENCIA ARTIFICIAL</t>
+  </si>
+  <si>
+    <t>TALLER DE CONSTRUCCION</t>
+  </si>
+  <si>
+    <t>DISEÑO E IMPRESIÓN EN PCB</t>
+  </si>
+  <si>
+    <t>APRENDER A INVESTIGAR PARA MEJORAR LA CALIDAD EDUCATIVA PARTE 2</t>
+  </si>
+  <si>
+    <t>DISEÑO DE LAS ESPECIALIDADES DE LA CARRERA DE INGENIERIA INDUSTRIAL SEGUNDA PARTE</t>
+  </si>
+  <si>
+    <t>ANALISIS EN SISTEMAS ELECTRICOS CON SOFTWARE ETAP</t>
+  </si>
+  <si>
+    <t>FORTALECIMIENTO DEL MODULO DE ESPECIALIDAD MEDIANTE SOFTWARE DE DISEÑO PARA INGENIERÍA QUÍMICA</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO DE LA EVALUACIÓN DE LOS INDICADORES DE INCIDENCIA DEL SNP</t>
+  </si>
+  <si>
+    <t>CURSO-TALLER DE NIVELACIÓN EN MATEMÁTICAS PARA ALUMNOS DE NUEVO INGRESO (PARTE 2)</t>
+  </si>
+  <si>
+    <t>METODOLOGIA DE EDUCACION VIRTUAL | ITDed</t>
+  </si>
+  <si>
+    <t>ELABORACIÓN DE INSTRUMENTACIONES DIDÁCTICAS CON EL APOYO Y USO DE INTELIGENCIA ARTIFICIAL</t>
+  </si>
+  <si>
+    <t>DESARROLLO DE ESTRATEGIAS APLICADAS AL PLAN DE ESTUDIOS DE LA MCIBO, PARA ALINEARLO CON LOS INDICADORES DEL SNP</t>
+  </si>
+  <si>
+    <t>ANÁLISIS Y DISEÑO DE ESPECIALIDAD PARA EL PROGRAMA EDUCATIVO DE INGENIERÍA MECÁNICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANÁLISIS Y DISEÑO DE ESPECIALIDAD PARA EL PROGRAMA EDUCATIVO DE INGENIERÍA MECATRONICA </t>
+  </si>
+  <si>
+    <t>ESTRATEGIAS INNOVADORAS DE ACOMPAÑAMIENTO TUTORIAL PARA LA PERMANENCIA Y ÉXITO ESTUDIANTIL EN EL ITD</t>
+  </si>
+  <si>
+    <t>EFECTOS DEL ESTRÉS SOBRE EL RENDIMIENTO ESCOLAR Y UNA PROPUESTA DE SOLUCIÓN</t>
+  </si>
+  <si>
+    <t>DIVISION DE ESTUDIOS DE POSGRADO E INVESTIGACIÓN</t>
+  </si>
+  <si>
+    <t>DEL 4 AL 8 DE AGOSTO DEL 2025</t>
+  </si>
+  <si>
+    <t>DEL 11 AL 15 DE AGOSTO DEL 2025</t>
+  </si>
+  <si>
+    <t>DEL 18 AL 22 DE AGOSTO DEL 2025</t>
+  </si>
+  <si>
+    <t>32 HORAS</t>
+  </si>
+  <si>
+    <t>ISRAEL IVAN GUTIÉRREZ MUÑOZ</t>
+  </si>
+  <si>
+    <t>JOSUÉ ORTÍZ MEDINA</t>
+  </si>
+  <si>
+    <t>IVAN GONZÁLEZ LAZALDE</t>
+  </si>
+  <si>
+    <t>LORENA DE LA BARRERA RIVAS</t>
+  </si>
+  <si>
+    <t>HECTOR SOLÍS FLORES</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL RIVERA SÁNCHEZ</t>
+  </si>
+  <si>
+    <t>ANÁLISIS DEL PROGRAMA EDUCATIVO DE LA CARRERA DE ARQUITECTURA / TALLERES DE DISEÑO I AL VI</t>
+  </si>
+  <si>
+    <t>ANÁLISIS DEL PROGRAMA EDUCATIVO DE LA CARRERA DE ARQUITECTURA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4140,8 +4439,45 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1A1C1E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4178,8 +4514,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -4307,18 +4655,105 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4358,9 +4793,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -4392,24 +4824,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -4624,20 +5101,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -4942,48 +5405,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="PARTICIPANTES Enero"/>
-      <sheetName val="PARTICIPANTES Junio"/>
-      <sheetName val="CURSOS e INSTRUCTORES"/>
-      <sheetName val="BD DOCENTES"/>
-      <sheetName val="CHECK LIST"/>
-      <sheetName val="MIN-MAY"/>
-      <sheetName val="BD mail"/>
-      <sheetName val="CHECK DEPTOS"/>
-      <sheetName val="CURSOS ago24-ene25"/>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Hoja4"/>
-      <sheetName val="Hoja2"/>
-      <sheetName val="Concentrado de cursos 2025"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27943D54-4A32-B44A-9589-52B75777226A}" name="PARTICIPANTES1618" displayName="PARTICIPANTES1618" ref="A1:F319" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27943D54-4A32-B44A-9589-52B75777226A}" name="PARTICIPANTES1618" displayName="PARTICIPANTES1618" ref="A1:F345" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <tableColumns count="6">
     <tableColumn id="17" xr3:uid="{43E7D114-76C6-9847-831D-9DE65D5C1D35}" name="Folio" dataDxfId="22"/>
     <tableColumn id="6" xr3:uid="{F906E5A4-7672-0045-A8E7-A254C92ED30E}" name="Nombre" dataDxfId="21" totalsRowDxfId="20"/>
@@ -4997,16 +5420,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B508AFF-503A-7943-8DD5-D06EBFCC8B62}" name="PARTICIPANTES16183" displayName="PARTICIPANTES16183" ref="A1:F2" insertRow="1" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B508AFF-503A-7943-8DD5-D06EBFCC8B62}" name="PARTICIPANTES16183" displayName="PARTICIPANTES16183" ref="A1:F40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <tableColumns count="6">
-    <tableColumn id="17" xr3:uid="{81EB27DA-9005-8343-8270-24F41F32CD2D}" name="Folio" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{783F0072-DA7B-3140-83D6-27D662F54BBB}" name="Nombre" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{D0D33A24-B6D2-2541-8F70-5398A340F57E}" name="Curso" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{AB02D729-8232-8643-B88A-00257BFDD549}" name="Departamento" dataDxfId="5" totalsRowDxfId="4">
-      <calculatedColumnFormula>IF(PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP(PARTICIPANTES16183[[#This Row],[Nombre]],[2]!BD_DOCENTES[#Data],2,FALSE))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{DF3AACD7-1A51-AB47-9454-2F951F317051}" name="Fecha" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{88C52EF0-15CE-8445-A82B-DCF650F2DA69}" name="Duracion" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{81EB27DA-9005-8343-8270-24F41F32CD2D}" name="Folio" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{783F0072-DA7B-3140-83D6-27D662F54BBB}" name="Nombre" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{D0D33A24-B6D2-2541-8F70-5398A340F57E}" name="Curso" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{AB02D729-8232-8643-B88A-00257BFDD549}" name="Departamento" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{DF3AACD7-1A51-AB47-9454-2F951F317051}" name="Fecha" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{88C52EF0-15CE-8445-A82B-DCF650F2DA69}" name="Duracion" dataDxfId="2" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5332,7 +5753,7 @@
   <dimension ref="A1:F455"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="B149" sqref="B149"/>
     </sheetView>
@@ -13807,7 +14228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="424" spans="1:6" s="21" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" spans="1:6" s="20" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="425" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>825</v>
@@ -13821,7 +14242,7 @@
       <c r="D425" t="s">
         <v>870</v>
       </c>
-      <c r="E425" s="25" t="s">
+      <c r="E425" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F425" t="s">
@@ -13841,7 +14262,7 @@
       <c r="D426" t="s">
         <v>871</v>
       </c>
-      <c r="E426" s="25" t="s">
+      <c r="E426" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F426" t="s">
@@ -13861,7 +14282,7 @@
       <c r="D427" t="s">
         <v>871</v>
       </c>
-      <c r="E427" s="25" t="s">
+      <c r="E427" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F427" t="s">
@@ -13881,7 +14302,7 @@
       <c r="D428" t="s">
         <v>872</v>
       </c>
-      <c r="E428" s="25" t="s">
+      <c r="E428" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F428" t="s">
@@ -13901,7 +14322,7 @@
       <c r="D429" t="s">
         <v>873</v>
       </c>
-      <c r="E429" s="25" t="s">
+      <c r="E429" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F429" t="s">
@@ -13921,7 +14342,7 @@
       <c r="D430" t="s">
         <v>874</v>
       </c>
-      <c r="E430" s="25" t="s">
+      <c r="E430" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F430" t="s">
@@ -13932,7 +14353,7 @@
       <c r="A431" t="s">
         <v>831</v>
       </c>
-      <c r="B431" s="22" t="s">
+      <c r="B431" s="21" t="s">
         <v>270</v>
       </c>
       <c r="C431" t="s">
@@ -13941,7 +14362,7 @@
       <c r="D431" t="s">
         <v>872</v>
       </c>
-      <c r="E431" s="25" t="s">
+      <c r="E431" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F431" t="s">
@@ -13961,7 +14382,7 @@
       <c r="D432" t="s">
         <v>17</v>
       </c>
-      <c r="E432" s="25" t="s">
+      <c r="E432" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F432" t="s">
@@ -13981,7 +14402,7 @@
       <c r="D433" t="s">
         <v>15</v>
       </c>
-      <c r="E433" s="25" t="s">
+      <c r="E433" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F433" t="s">
@@ -14001,7 +14422,7 @@
       <c r="D434" t="s">
         <v>21</v>
       </c>
-      <c r="E434" s="25" t="s">
+      <c r="E434" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F434" t="s">
@@ -14021,7 +14442,7 @@
       <c r="D435" t="s">
         <v>875</v>
       </c>
-      <c r="E435" s="25" t="s">
+      <c r="E435" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F435" t="s">
@@ -14041,10 +14462,10 @@
       <c r="D436" t="s">
         <v>12</v>
       </c>
-      <c r="E436" s="25" t="s">
+      <c r="E436" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F436" s="28" t="s">
+      <c r="F436" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14061,7 +14482,7 @@
       <c r="D437" s="13" t="s">
         <v>876</v>
       </c>
-      <c r="E437" s="26" t="s">
+      <c r="E437" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F437" s="13" t="s">
@@ -14081,7 +14502,7 @@
       <c r="D438" t="s">
         <v>871</v>
       </c>
-      <c r="E438" s="25" t="s">
+      <c r="E438" s="24" t="s">
         <v>255</v>
       </c>
       <c r="F438" t="s">
@@ -14101,7 +14522,7 @@
       <c r="D439" t="s">
         <v>872</v>
       </c>
-      <c r="E439" s="25" t="s">
+      <c r="E439" s="24" t="s">
         <v>255</v>
       </c>
       <c r="F439" t="s">
@@ -14121,7 +14542,7 @@
       <c r="D440" t="s">
         <v>874</v>
       </c>
-      <c r="E440" s="25" t="s">
+      <c r="E440" s="24" t="s">
         <v>255</v>
       </c>
       <c r="F440" t="s">
@@ -14141,7 +14562,7 @@
       <c r="D441" t="s">
         <v>873</v>
       </c>
-      <c r="E441" s="25" t="s">
+      <c r="E441" s="24" t="s">
         <v>255</v>
       </c>
       <c r="F441" t="s">
@@ -14161,7 +14582,7 @@
       <c r="D442" t="s">
         <v>17</v>
       </c>
-      <c r="E442" s="25" t="s">
+      <c r="E442" s="24" t="s">
         <v>255</v>
       </c>
       <c r="F442" t="s">
@@ -14181,7 +14602,7 @@
       <c r="D443" t="s">
         <v>17</v>
       </c>
-      <c r="E443" s="25" t="s">
+      <c r="E443" s="24" t="s">
         <v>255</v>
       </c>
       <c r="F443" t="s">
@@ -14201,7 +14622,7 @@
       <c r="D444" t="s">
         <v>15</v>
       </c>
-      <c r="E444" s="25" t="s">
+      <c r="E444" s="24" t="s">
         <v>255</v>
       </c>
       <c r="F444" t="s">
@@ -14221,7 +14642,7 @@
       <c r="D445" t="s">
         <v>15</v>
       </c>
-      <c r="E445" s="25" t="s">
+      <c r="E445" s="24" t="s">
         <v>255</v>
       </c>
       <c r="F445" t="s">
@@ -14241,7 +14662,7 @@
       <c r="D446" t="s">
         <v>875</v>
       </c>
-      <c r="E446" s="25" t="s">
+      <c r="E446" s="24" t="s">
         <v>255</v>
       </c>
       <c r="F446" t="s">
@@ -14261,7 +14682,7 @@
       <c r="D447" t="s">
         <v>877</v>
       </c>
-      <c r="E447" s="25" t="s">
+      <c r="E447" s="24" t="s">
         <v>255</v>
       </c>
       <c r="F447" t="s">
@@ -14281,7 +14702,7 @@
       <c r="D448" t="s">
         <v>877</v>
       </c>
-      <c r="E448" s="25" t="s">
+      <c r="E448" s="24" t="s">
         <v>255</v>
       </c>
       <c r="F448" t="s">
@@ -14301,7 +14722,7 @@
       <c r="D449" t="s">
         <v>877</v>
       </c>
-      <c r="E449" s="25" t="s">
+      <c r="E449" s="24" t="s">
         <v>255</v>
       </c>
       <c r="F449" t="s">
@@ -14315,10 +14736,10 @@
       <c r="B450" t="s">
         <v>216</v>
       </c>
-      <c r="C450" s="24" t="s">
+      <c r="C450" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="E450" s="25" t="s">
+      <c r="E450" s="24" t="s">
         <v>255</v>
       </c>
       <c r="F450" t="s">
@@ -14332,13 +14753,13 @@
       <c r="B451" t="s">
         <v>867</v>
       </c>
-      <c r="C451" s="24" t="s">
+      <c r="C451" s="23" t="s">
         <v>326</v>
       </c>
       <c r="D451" t="s">
         <v>12</v>
       </c>
-      <c r="E451" s="25" t="s">
+      <c r="E451" s="24" t="s">
         <v>255</v>
       </c>
       <c r="F451" t="s">
@@ -14352,13 +14773,13 @@
       <c r="B452" t="s">
         <v>97</v>
       </c>
-      <c r="C452" s="24" t="s">
+      <c r="C452" s="23" t="s">
         <v>335</v>
       </c>
       <c r="D452" t="s">
         <v>15</v>
       </c>
-      <c r="E452" s="25" t="s">
+      <c r="E452" s="24" t="s">
         <v>255</v>
       </c>
       <c r="F452" t="s">
@@ -14378,7 +14799,7 @@
       <c r="D453" t="s">
         <v>12</v>
       </c>
-      <c r="E453" s="25" t="s">
+      <c r="E453" s="24" t="s">
         <v>255</v>
       </c>
       <c r="F453" t="s">
@@ -14398,7 +14819,7 @@
       <c r="D454" t="s">
         <v>21</v>
       </c>
-      <c r="E454" s="25" t="s">
+      <c r="E454" s="24" t="s">
         <v>255</v>
       </c>
       <c r="F454" t="s">
@@ -14409,19 +14830,19 @@
       <c r="A455" t="s">
         <v>852</v>
       </c>
-      <c r="B455" s="23" t="s">
+      <c r="B455" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="C455" s="23" t="s">
+      <c r="C455" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="D455" s="23" t="s">
+      <c r="D455" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E455" s="27" t="s">
+      <c r="E455" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="F455" s="23" t="s">
+      <c r="F455" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14439,10 +14860,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E4E2C6-ECF6-8E42-BACE-6A57540CDA47}">
   <dimension ref="A1:G409"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C321" sqref="C321"/>
+      <selection pane="bottomLeft" activeCell="I312" sqref="I312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14456,22 +14877,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14479,7 +14900,7 @@
       <c r="A2" s="14" t="s">
         <v>939</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>1247</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -14499,7 +14920,7 @@
       <c r="A3" s="14" t="s">
         <v>940</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>246</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -14519,7 +14940,7 @@
       <c r="A4" s="14" t="s">
         <v>941</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>266</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -14539,7 +14960,7 @@
       <c r="A5" s="14" t="s">
         <v>942</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>1248</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -14559,7 +14980,7 @@
       <c r="A6" s="14" t="s">
         <v>943</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>1249</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -14579,7 +15000,7 @@
       <c r="A7" s="14" t="s">
         <v>944</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>913</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -14599,7 +15020,7 @@
       <c r="A8" s="14" t="s">
         <v>945</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>248</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -14619,7 +15040,7 @@
       <c r="A9" s="14" t="s">
         <v>946</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>223</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -14639,7 +15060,7 @@
       <c r="A10" s="14" t="s">
         <v>947</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>1250</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -14659,7 +15080,7 @@
       <c r="A11" s="14" t="s">
         <v>948</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>253</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -14679,7 +15100,7 @@
       <c r="A12" s="14" t="s">
         <v>949</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>239</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -14699,7 +15120,7 @@
       <c r="A13" s="14" t="s">
         <v>950</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>247</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -14719,7 +15140,7 @@
       <c r="A14" s="14" t="s">
         <v>951</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>249</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -14739,7 +15160,7 @@
       <c r="A15" s="14" t="s">
         <v>952</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C15" t="s">
@@ -14759,7 +15180,7 @@
       <c r="A16" s="14" t="s">
         <v>953</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>123</v>
       </c>
       <c r="C16" t="s">
@@ -14779,7 +15200,7 @@
       <c r="A17" s="14" t="s">
         <v>954</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>261</v>
       </c>
       <c r="C17" t="s">
@@ -14799,7 +15220,7 @@
       <c r="A18" s="14" t="s">
         <v>955</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>1251</v>
       </c>
       <c r="C18" t="s">
@@ -14819,7 +15240,7 @@
       <c r="A19" s="14" t="s">
         <v>956</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>93</v>
       </c>
       <c r="C19" t="s">
@@ -14839,7 +15260,7 @@
       <c r="A20" s="14" t="s">
         <v>957</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>109</v>
       </c>
       <c r="C20" t="s">
@@ -14879,7 +15300,7 @@
       <c r="A22" s="14" t="s">
         <v>959</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>1252</v>
       </c>
       <c r="C22" t="s">
@@ -14899,7 +15320,7 @@
       <c r="A23" s="14" t="s">
         <v>960</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>114</v>
       </c>
       <c r="C23" t="s">
@@ -14939,7 +15360,7 @@
       <c r="A25" s="14" t="s">
         <v>962</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>1254</v>
       </c>
       <c r="C25" t="s">
@@ -14959,7 +15380,7 @@
       <c r="A26" s="14" t="s">
         <v>963</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>92</v>
       </c>
       <c r="C26" t="s">
@@ -14979,7 +15400,7 @@
       <c r="A27" s="14" t="s">
         <v>964</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>90</v>
       </c>
       <c r="C27" t="s">
@@ -14999,7 +15420,7 @@
       <c r="A28" s="14" t="s">
         <v>965</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>1255</v>
       </c>
       <c r="C28" t="s">
@@ -15019,7 +15440,7 @@
       <c r="A29" s="14" t="s">
         <v>966</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>1256</v>
       </c>
       <c r="C29" t="s">
@@ -15039,7 +15460,7 @@
       <c r="A30" s="14" t="s">
         <v>967</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C30" t="s">
@@ -15059,7 +15480,7 @@
       <c r="A31" s="14" t="s">
         <v>968</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>139</v>
       </c>
       <c r="C31" t="s">
@@ -15079,7 +15500,7 @@
       <c r="A32" s="14" t="s">
         <v>969</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C32" t="s">
@@ -15099,7 +15520,7 @@
       <c r="A33" s="14" t="s">
         <v>970</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="33" t="s">
         <v>1257</v>
       </c>
       <c r="C33" t="s">
@@ -15119,7 +15540,7 @@
       <c r="A34" s="14" t="s">
         <v>971</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>173</v>
       </c>
       <c r="C34" t="s">
@@ -15139,7 +15560,7 @@
       <c r="A35" s="14" t="s">
         <v>972</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C35" t="s">
@@ -15159,7 +15580,7 @@
       <c r="A36" s="14" t="s">
         <v>973</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C36" t="s">
@@ -15179,7 +15600,7 @@
       <c r="A37" s="14" t="s">
         <v>974</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="33" t="s">
         <v>161</v>
       </c>
       <c r="C37" t="s">
@@ -15199,7 +15620,7 @@
       <c r="A38" s="14" t="s">
         <v>975</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="33" t="s">
         <v>267</v>
       </c>
       <c r="C38" t="s">
@@ -15219,7 +15640,7 @@
       <c r="A39" s="14" t="s">
         <v>976</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>86</v>
       </c>
       <c r="C39" t="s">
@@ -15239,7 +15660,7 @@
       <c r="A40" s="14" t="s">
         <v>977</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="33" t="s">
         <v>268</v>
       </c>
       <c r="C40" t="s">
@@ -15259,7 +15680,7 @@
       <c r="A41" s="14" t="s">
         <v>978</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="34" t="s">
         <v>1258</v>
       </c>
       <c r="C41" t="s">
@@ -15279,7 +15700,7 @@
       <c r="A42" s="14" t="s">
         <v>979</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>252</v>
       </c>
       <c r="C42" t="s">
@@ -15299,7 +15720,7 @@
       <c r="A43" s="14" t="s">
         <v>980</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>166</v>
       </c>
       <c r="C43" t="s">
@@ -15319,7 +15740,7 @@
       <c r="A44" s="14" t="s">
         <v>981</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="33" t="s">
         <v>38</v>
       </c>
       <c r="C44" t="s">
@@ -15339,7 +15760,7 @@
       <c r="A45" s="14" t="s">
         <v>982</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="33" t="s">
         <v>1259</v>
       </c>
       <c r="C45" t="s">
@@ -15359,7 +15780,7 @@
       <c r="A46" s="14" t="s">
         <v>983</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="33" t="s">
         <v>386</v>
       </c>
       <c r="C46" t="s">
@@ -15379,7 +15800,7 @@
       <c r="A47" s="14" t="s">
         <v>984</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="33" t="s">
         <v>353</v>
       </c>
       <c r="C47" t="s">
@@ -15399,7 +15820,7 @@
       <c r="A48" s="14" t="s">
         <v>985</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="33" t="s">
         <v>1260</v>
       </c>
       <c r="C48" t="s">
@@ -15419,7 +15840,7 @@
       <c r="A49" s="14" t="s">
         <v>986</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="33" t="s">
         <v>213</v>
       </c>
       <c r="C49" t="s">
@@ -15439,7 +15860,7 @@
       <c r="A50" s="14" t="s">
         <v>987</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="33" t="s">
         <v>1261</v>
       </c>
       <c r="C50" t="s">
@@ -15459,7 +15880,7 @@
       <c r="A51" s="14" t="s">
         <v>988</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="33" t="s">
         <v>1262</v>
       </c>
       <c r="C51" t="s">
@@ -15479,7 +15900,7 @@
       <c r="A52" s="14" t="s">
         <v>989</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="33" t="s">
         <v>1263</v>
       </c>
       <c r="C52" t="s">
@@ -15499,7 +15920,7 @@
       <c r="A53" s="14" t="s">
         <v>990</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="33" t="s">
         <v>99</v>
       </c>
       <c r="C53" t="s">
@@ -15519,7 +15940,7 @@
       <c r="A54" s="14" t="s">
         <v>991</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="33" t="s">
         <v>323</v>
       </c>
       <c r="C54" t="s">
@@ -15539,7 +15960,7 @@
       <c r="A55" s="14" t="s">
         <v>992</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="33" t="s">
         <v>212</v>
       </c>
       <c r="C55" t="s">
@@ -15559,7 +15980,7 @@
       <c r="A56" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="33" t="s">
         <v>355</v>
       </c>
       <c r="C56" t="s">
@@ -15579,7 +16000,7 @@
       <c r="A57" s="14" t="s">
         <v>994</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="33" t="s">
         <v>216</v>
       </c>
       <c r="C57" t="s">
@@ -15599,7 +16020,7 @@
       <c r="A58" s="14" t="s">
         <v>995</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="33" t="s">
         <v>860</v>
       </c>
       <c r="C58" t="s">
@@ -15619,7 +16040,7 @@
       <c r="A59" s="14" t="s">
         <v>996</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="33" t="s">
         <v>209</v>
       </c>
       <c r="C59" t="s">
@@ -15639,7 +16060,7 @@
       <c r="A60" s="14" t="s">
         <v>997</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="33" t="s">
         <v>1264</v>
       </c>
       <c r="C60" t="s">
@@ -15659,7 +16080,7 @@
       <c r="A61" s="14" t="s">
         <v>998</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="33" t="s">
         <v>321</v>
       </c>
       <c r="C61" t="s">
@@ -15679,7 +16100,7 @@
       <c r="A62" s="14" t="s">
         <v>999</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="33" t="s">
         <v>1265</v>
       </c>
       <c r="C62" t="s">
@@ -15699,7 +16120,7 @@
       <c r="A63" s="14" t="s">
         <v>1000</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="33" t="s">
         <v>317</v>
       </c>
       <c r="C63" t="s">
@@ -15719,7 +16140,7 @@
       <c r="A64" s="14" t="s">
         <v>1001</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C64" t="s">
@@ -15739,7 +16160,7 @@
       <c r="A65" s="14" t="s">
         <v>1002</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="33" t="s">
         <v>332</v>
       </c>
       <c r="C65" t="s">
@@ -15759,7 +16180,7 @@
       <c r="A66" s="14" t="s">
         <v>1003</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="33" t="s">
         <v>934</v>
       </c>
       <c r="C66" t="s">
@@ -15779,7 +16200,7 @@
       <c r="A67" s="14" t="s">
         <v>1004</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="33" t="s">
         <v>1266</v>
       </c>
       <c r="C67" t="s">
@@ -15799,7 +16220,7 @@
       <c r="A68" s="14" t="s">
         <v>1005</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="33" t="s">
         <v>1267</v>
       </c>
       <c r="C68" t="s">
@@ -15819,7 +16240,7 @@
       <c r="A69" s="14" t="s">
         <v>1006</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="33" t="s">
         <v>294</v>
       </c>
       <c r="C69" t="s">
@@ -15839,7 +16260,7 @@
       <c r="A70" s="14" t="s">
         <v>1007</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="33" t="s">
         <v>251</v>
       </c>
       <c r="C70" t="s">
@@ -15859,7 +16280,7 @@
       <c r="A71" s="14" t="s">
         <v>1008</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="33" t="s">
         <v>853</v>
       </c>
       <c r="C71" t="s">
@@ -15879,7 +16300,7 @@
       <c r="A72" s="14" t="s">
         <v>1009</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
@@ -15899,7 +16320,7 @@
       <c r="A73" s="14" t="s">
         <v>1010</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="33" t="s">
         <v>1268</v>
       </c>
       <c r="C73" t="s">
@@ -15919,7 +16340,7 @@
       <c r="A74" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="33" t="s">
         <v>128</v>
       </c>
       <c r="C74" t="s">
@@ -15939,7 +16360,7 @@
       <c r="A75" s="14" t="s">
         <v>1012</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C75" t="s">
@@ -15959,7 +16380,7 @@
       <c r="A76" s="14" t="s">
         <v>1013</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="33" t="s">
         <v>136</v>
       </c>
       <c r="C76" t="s">
@@ -15979,7 +16400,7 @@
       <c r="A77" s="14" t="s">
         <v>1014</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="33" t="s">
         <v>357</v>
       </c>
       <c r="C77" t="s">
@@ -15999,7 +16420,7 @@
       <c r="A78" s="14" t="s">
         <v>1015</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="33" t="s">
         <v>1269</v>
       </c>
       <c r="C78" t="s">
@@ -16019,7 +16440,7 @@
       <c r="A79" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="33" t="s">
         <v>358</v>
       </c>
       <c r="C79" t="s">
@@ -16039,7 +16460,7 @@
       <c r="A80" s="14" t="s">
         <v>1017</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="33" t="s">
         <v>1270</v>
       </c>
       <c r="C80" t="s">
@@ -16059,7 +16480,7 @@
       <c r="A81" s="14" t="s">
         <v>1018</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="33" t="s">
         <v>227</v>
       </c>
       <c r="C81" t="s">
@@ -16079,7 +16500,7 @@
       <c r="A82" s="14" t="s">
         <v>1019</v>
       </c>
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="33" t="s">
         <v>359</v>
       </c>
       <c r="C82" t="s">
@@ -16099,7 +16520,7 @@
       <c r="A83" s="14" t="s">
         <v>1020</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="s">
@@ -16119,7 +16540,7 @@
       <c r="A84" s="14" t="s">
         <v>1021</v>
       </c>
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="33" t="s">
         <v>45</v>
       </c>
       <c r="C84" t="s">
@@ -16139,7 +16560,7 @@
       <c r="A85" s="14" t="s">
         <v>1022</v>
       </c>
-      <c r="B85" s="34" t="s">
+      <c r="B85" s="33" t="s">
         <v>43</v>
       </c>
       <c r="C85" t="s">
@@ -16151,7 +16572,7 @@
       <c r="E85" t="s">
         <v>351</v>
       </c>
-      <c r="F85" s="41" t="s">
+      <c r="F85" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16159,7 +16580,7 @@
       <c r="A86" s="14" t="s">
         <v>1023</v>
       </c>
-      <c r="B86" s="34" t="s">
+      <c r="B86" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C86" t="s">
@@ -16171,7 +16592,7 @@
       <c r="E86" t="s">
         <v>351</v>
       </c>
-      <c r="F86" s="41" t="s">
+      <c r="F86" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16179,7 +16600,7 @@
       <c r="A87" s="14" t="s">
         <v>1024</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="33" t="s">
         <v>79</v>
       </c>
       <c r="C87" t="s">
@@ -16191,7 +16612,7 @@
       <c r="E87" t="s">
         <v>351</v>
       </c>
-      <c r="F87" s="41" t="s">
+      <c r="F87" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16199,7 +16620,7 @@
       <c r="A88" s="14" t="s">
         <v>1025</v>
       </c>
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="33" t="s">
         <v>63</v>
       </c>
       <c r="C88" t="s">
@@ -16211,7 +16632,7 @@
       <c r="E88" t="s">
         <v>351</v>
       </c>
-      <c r="F88" s="41" t="s">
+      <c r="F88" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16219,7 +16640,7 @@
       <c r="A89" s="14" t="s">
         <v>1026</v>
       </c>
-      <c r="B89" s="34" t="s">
+      <c r="B89" s="33" t="s">
         <v>257</v>
       </c>
       <c r="C89" t="s">
@@ -16231,7 +16652,7 @@
       <c r="E89" t="s">
         <v>351</v>
       </c>
-      <c r="F89" s="41" t="s">
+      <c r="F89" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16239,7 +16660,7 @@
       <c r="A90" s="14" t="s">
         <v>1027</v>
       </c>
-      <c r="B90" s="34" t="s">
+      <c r="B90" s="33" t="s">
         <v>1298</v>
       </c>
       <c r="C90" t="s">
@@ -16251,7 +16672,7 @@
       <c r="E90" t="s">
         <v>351</v>
       </c>
-      <c r="F90" s="41" t="s">
+      <c r="F90" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16259,7 +16680,7 @@
       <c r="A91" s="14" t="s">
         <v>1028</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="33" t="s">
         <v>1271</v>
       </c>
       <c r="C91" t="s">
@@ -16271,7 +16692,7 @@
       <c r="E91" t="s">
         <v>351</v>
       </c>
-      <c r="F91" s="41" t="s">
+      <c r="F91" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16279,7 +16700,7 @@
       <c r="A92" s="14" t="s">
         <v>1029</v>
       </c>
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C92" t="s">
@@ -16291,7 +16712,7 @@
       <c r="E92" t="s">
         <v>351</v>
       </c>
-      <c r="F92" s="41" t="s">
+      <c r="F92" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16299,7 +16720,7 @@
       <c r="A93" s="14" t="s">
         <v>1030</v>
       </c>
-      <c r="B93" s="34" t="s">
+      <c r="B93" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C93" t="s">
@@ -16311,7 +16732,7 @@
       <c r="E93" t="s">
         <v>351</v>
       </c>
-      <c r="F93" s="41" t="s">
+      <c r="F93" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16319,7 +16740,7 @@
       <c r="A94" s="14" t="s">
         <v>1031</v>
       </c>
-      <c r="B94" s="34" t="s">
+      <c r="B94" s="33" t="s">
         <v>75</v>
       </c>
       <c r="C94" t="s">
@@ -16331,7 +16752,7 @@
       <c r="E94" t="s">
         <v>351</v>
       </c>
-      <c r="F94" s="41" t="s">
+      <c r="F94" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16339,7 +16760,7 @@
       <c r="A95" s="14" t="s">
         <v>1032</v>
       </c>
-      <c r="B95" s="34" t="s">
+      <c r="B95" s="33" t="s">
         <v>1272</v>
       </c>
       <c r="C95" t="s">
@@ -16351,7 +16772,7 @@
       <c r="E95" t="s">
         <v>351</v>
       </c>
-      <c r="F95" s="41" t="s">
+      <c r="F95" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16359,7 +16780,7 @@
       <c r="A96" s="14" t="s">
         <v>1033</v>
       </c>
-      <c r="B96" s="34" t="s">
+      <c r="B96" s="33" t="s">
         <v>361</v>
       </c>
       <c r="C96" t="s">
@@ -16371,7 +16792,7 @@
       <c r="E96" t="s">
         <v>351</v>
       </c>
-      <c r="F96" s="41" t="s">
+      <c r="F96" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16379,7 +16800,7 @@
       <c r="A97" s="14" t="s">
         <v>1034</v>
       </c>
-      <c r="B97" s="34" t="s">
+      <c r="B97" s="33" t="s">
         <v>362</v>
       </c>
       <c r="C97" t="s">
@@ -16391,7 +16812,7 @@
       <c r="E97" t="s">
         <v>351</v>
       </c>
-      <c r="F97" s="41" t="s">
+      <c r="F97" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16399,7 +16820,7 @@
       <c r="A98" s="14" t="s">
         <v>1035</v>
       </c>
-      <c r="B98" s="34" t="s">
+      <c r="B98" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C98" t="s">
@@ -16411,7 +16832,7 @@
       <c r="E98" t="s">
         <v>351</v>
       </c>
-      <c r="F98" s="41" t="s">
+      <c r="F98" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16419,7 +16840,7 @@
       <c r="A99" s="14" t="s">
         <v>1036</v>
       </c>
-      <c r="B99" s="34" t="s">
+      <c r="B99" s="33" t="s">
         <v>1273</v>
       </c>
       <c r="C99" t="s">
@@ -16431,7 +16852,7 @@
       <c r="E99" t="s">
         <v>351</v>
       </c>
-      <c r="F99" s="41" t="s">
+      <c r="F99" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16439,7 +16860,7 @@
       <c r="A100" s="14" t="s">
         <v>1037</v>
       </c>
-      <c r="B100" s="34" t="s">
+      <c r="B100" s="33" t="s">
         <v>1274</v>
       </c>
       <c r="C100" t="s">
@@ -16451,7 +16872,7 @@
       <c r="E100" t="s">
         <v>351</v>
       </c>
-      <c r="F100" s="41" t="s">
+      <c r="F100" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16459,7 +16880,7 @@
       <c r="A101" s="14" t="s">
         <v>1038</v>
       </c>
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="33" t="s">
         <v>1275</v>
       </c>
       <c r="C101" t="s">
@@ -16471,7 +16892,7 @@
       <c r="E101" t="s">
         <v>351</v>
       </c>
-      <c r="F101" s="41" t="s">
+      <c r="F101" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16479,7 +16900,7 @@
       <c r="A102" s="14" t="s">
         <v>1039</v>
       </c>
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="33" t="s">
         <v>32</v>
       </c>
       <c r="C102" t="s">
@@ -16491,7 +16912,7 @@
       <c r="E102" t="s">
         <v>351</v>
       </c>
-      <c r="F102" s="41" t="s">
+      <c r="F102" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16499,7 +16920,7 @@
       <c r="A103" s="14" t="s">
         <v>1040</v>
       </c>
-      <c r="B103" s="34" t="s">
+      <c r="B103" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C103" t="s">
@@ -16511,7 +16932,7 @@
       <c r="E103" t="s">
         <v>351</v>
       </c>
-      <c r="F103" s="41" t="s">
+      <c r="F103" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16519,7 +16940,7 @@
       <c r="A104" s="14" t="s">
         <v>1041</v>
       </c>
-      <c r="B104" s="34" t="s">
+      <c r="B104" s="33" t="s">
         <v>1276</v>
       </c>
       <c r="C104" t="s">
@@ -16539,7 +16960,7 @@
       <c r="A105" s="14" t="s">
         <v>1042</v>
       </c>
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="33" t="s">
         <v>232</v>
       </c>
       <c r="C105" t="s">
@@ -16559,7 +16980,7 @@
       <c r="A106" s="14" t="s">
         <v>1043</v>
       </c>
-      <c r="B106" s="34" t="s">
+      <c r="B106" s="33" t="s">
         <v>1277</v>
       </c>
       <c r="C106" t="s">
@@ -16579,7 +17000,7 @@
       <c r="A107" s="14" t="s">
         <v>1044</v>
       </c>
-      <c r="B107" s="34" t="s">
+      <c r="B107" s="33" t="s">
         <v>1278</v>
       </c>
       <c r="C107" t="s">
@@ -16599,7 +17020,7 @@
       <c r="A108" s="14" t="s">
         <v>1045</v>
       </c>
-      <c r="B108" s="34" t="s">
+      <c r="B108" s="33" t="s">
         <v>230</v>
       </c>
       <c r="C108" t="s">
@@ -16619,7 +17040,7 @@
       <c r="A109" s="14" t="s">
         <v>1046</v>
       </c>
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="33" t="s">
         <v>231</v>
       </c>
       <c r="C109" t="s">
@@ -16639,7 +17060,7 @@
       <c r="A110" s="14" t="s">
         <v>1047</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="33" t="s">
         <v>234</v>
       </c>
       <c r="C110" t="s">
@@ -16659,7 +17080,7 @@
       <c r="A111" s="14" t="s">
         <v>1048</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="33" t="s">
         <v>1279</v>
       </c>
       <c r="C111" t="s">
@@ -16679,7 +17100,7 @@
       <c r="A112" s="14" t="s">
         <v>1049</v>
       </c>
-      <c r="B112" s="34" t="s">
+      <c r="B112" s="33" t="s">
         <v>865</v>
       </c>
       <c r="C112" t="s">
@@ -16696,22 +17117,22 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="33" t="s">
+      <c r="A113" s="32" t="s">
         <v>1050</v>
       </c>
       <c r="B113" t="s">
         <v>1333</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="D113" s="37" t="e">
+      <c r="D113" s="36" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E113" s="36" t="s">
+      <c r="E113" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="F113" s="37" t="s">
+      <c r="F113" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16719,7 +17140,7 @@
       <c r="A114" s="14" t="s">
         <v>1328</v>
       </c>
-      <c r="B114" s="34" t="s">
+      <c r="B114" s="33" t="s">
         <v>366</v>
       </c>
       <c r="C114" s="17" t="s">
@@ -16739,7 +17160,7 @@
       <c r="A115" s="14" t="s">
         <v>1051</v>
       </c>
-      <c r="B115" s="34" t="s">
+      <c r="B115" s="33" t="s">
         <v>1280</v>
       </c>
       <c r="C115" s="17" t="s">
@@ -16759,7 +17180,7 @@
       <c r="A116" s="14" t="s">
         <v>1052</v>
       </c>
-      <c r="B116" s="34" t="s">
+      <c r="B116" s="33" t="s">
         <v>1281</v>
       </c>
       <c r="C116" s="17" t="s">
@@ -16779,7 +17200,7 @@
       <c r="A117" s="14" t="s">
         <v>1053</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="33" t="s">
         <v>198</v>
       </c>
       <c r="C117" s="17" t="s">
@@ -16799,7 +17220,7 @@
       <c r="A118" s="14" t="s">
         <v>1054</v>
       </c>
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="33" t="s">
         <v>1282</v>
       </c>
       <c r="C118" s="17" t="s">
@@ -16819,7 +17240,7 @@
       <c r="A119" s="14" t="s">
         <v>1055</v>
       </c>
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C119" s="17" t="s">
@@ -16839,7 +17260,7 @@
       <c r="A120" s="14" t="s">
         <v>1056</v>
       </c>
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="33" t="s">
         <v>1283</v>
       </c>
       <c r="C120" s="17" t="s">
@@ -16859,7 +17280,7 @@
       <c r="A121" s="14" t="s">
         <v>1057</v>
       </c>
-      <c r="B121" s="34" t="s">
+      <c r="B121" s="33" t="s">
         <v>199</v>
       </c>
       <c r="C121" s="17" t="s">
@@ -16879,7 +17300,7 @@
       <c r="A122" s="14" t="s">
         <v>1058</v>
       </c>
-      <c r="B122" s="34" t="s">
+      <c r="B122" s="33" t="s">
         <v>206</v>
       </c>
       <c r="C122" s="17" t="s">
@@ -16899,7 +17320,7 @@
       <c r="A123" s="14" t="s">
         <v>1059</v>
       </c>
-      <c r="B123" s="34" t="s">
+      <c r="B123" s="33" t="s">
         <v>201</v>
       </c>
       <c r="C123" s="17" t="s">
@@ -16919,7 +17340,7 @@
       <c r="A124" s="14" t="s">
         <v>1060</v>
       </c>
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="33" t="s">
         <v>1284</v>
       </c>
       <c r="C124" s="17" t="s">
@@ -16939,7 +17360,7 @@
       <c r="A125" s="14" t="s">
         <v>1061</v>
       </c>
-      <c r="B125" s="34" t="s">
+      <c r="B125" s="33" t="s">
         <v>310</v>
       </c>
       <c r="C125" s="17" t="s">
@@ -16959,7 +17380,7 @@
       <c r="A126" s="14" t="s">
         <v>1062</v>
       </c>
-      <c r="B126" s="40" t="s">
+      <c r="B126" s="39" t="s">
         <v>1285</v>
       </c>
       <c r="C126" s="17" t="s">
@@ -16979,7 +17400,7 @@
       <c r="A127" s="14" t="s">
         <v>1063</v>
       </c>
-      <c r="B127" s="34" t="s">
+      <c r="B127" s="33" t="s">
         <v>305</v>
       </c>
       <c r="C127" s="17" t="s">
@@ -16999,7 +17420,7 @@
       <c r="A128" s="14" t="s">
         <v>1064</v>
       </c>
-      <c r="B128" s="34" t="s">
+      <c r="B128" s="33" t="s">
         <v>1286</v>
       </c>
       <c r="C128" s="17" t="s">
@@ -17019,7 +17440,7 @@
       <c r="A129" s="14" t="s">
         <v>1065</v>
       </c>
-      <c r="B129" s="34" t="s">
+      <c r="B129" s="33" t="s">
         <v>307</v>
       </c>
       <c r="C129" s="17" t="s">
@@ -17039,7 +17460,7 @@
       <c r="A130" s="14" t="s">
         <v>1066</v>
       </c>
-      <c r="B130" s="34" t="s">
+      <c r="B130" s="33" t="s">
         <v>97</v>
       </c>
       <c r="C130" s="17" t="s">
@@ -17059,7 +17480,7 @@
       <c r="A131" s="14" t="s">
         <v>1067</v>
       </c>
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="33" t="s">
         <v>1287</v>
       </c>
       <c r="C131" s="17" t="s">
@@ -17079,7 +17500,7 @@
       <c r="A132" s="14" t="s">
         <v>1068</v>
       </c>
-      <c r="B132" s="34" t="s">
+      <c r="B132" s="33" t="s">
         <v>94</v>
       </c>
       <c r="C132" s="17" t="s">
@@ -17099,7 +17520,7 @@
       <c r="A133" s="14" t="s">
         <v>1331</v>
       </c>
-      <c r="B133" s="34" t="s">
+      <c r="B133" s="33" t="s">
         <v>1288</v>
       </c>
       <c r="C133" s="17" t="s">
@@ -17119,7 +17540,7 @@
       <c r="A134" s="14" t="s">
         <v>1069</v>
       </c>
-      <c r="B134" s="34" t="s">
+      <c r="B134" s="33" t="s">
         <v>330</v>
       </c>
       <c r="C134" t="s">
@@ -17139,7 +17560,7 @@
       <c r="A135" s="14" t="s">
         <v>1070</v>
       </c>
-      <c r="B135" s="34" t="s">
+      <c r="B135" s="33" t="s">
         <v>1289</v>
       </c>
       <c r="C135" t="s">
@@ -17159,7 +17580,7 @@
       <c r="A136" s="14" t="s">
         <v>1071</v>
       </c>
-      <c r="B136" s="34" t="s">
+      <c r="B136" s="33" t="s">
         <v>370</v>
       </c>
       <c r="C136" t="s">
@@ -17179,7 +17600,7 @@
       <c r="A137" s="14" t="s">
         <v>1072</v>
       </c>
-      <c r="B137" s="34" t="s">
+      <c r="B137" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C137" t="s">
@@ -17199,7 +17620,7 @@
       <c r="A138" s="14" t="s">
         <v>1073</v>
       </c>
-      <c r="B138" s="34" t="s">
+      <c r="B138" s="33" t="s">
         <v>327</v>
       </c>
       <c r="C138" t="s">
@@ -17219,7 +17640,7 @@
       <c r="A139" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="B139" s="34" t="s">
+      <c r="B139" s="33" t="s">
         <v>1290</v>
       </c>
       <c r="C139" t="s">
@@ -17239,7 +17660,7 @@
       <c r="A140" s="14" t="s">
         <v>1075</v>
       </c>
-      <c r="B140" s="34" t="s">
+      <c r="B140" s="33" t="s">
         <v>371</v>
       </c>
       <c r="C140" t="s">
@@ -17259,7 +17680,7 @@
       <c r="A141" s="14" t="s">
         <v>1076</v>
       </c>
-      <c r="B141" s="34" t="s">
+      <c r="B141" s="33" t="s">
         <v>1291</v>
       </c>
       <c r="C141" t="s">
@@ -17279,7 +17700,7 @@
       <c r="A142" s="14" t="s">
         <v>1077</v>
       </c>
-      <c r="B142" s="34" t="s">
+      <c r="B142" s="33" t="s">
         <v>282</v>
       </c>
       <c r="C142" t="s">
@@ -17299,7 +17720,7 @@
       <c r="A143" s="14" t="s">
         <v>1078</v>
       </c>
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="33" t="s">
         <v>345</v>
       </c>
       <c r="C143" t="s">
@@ -17319,7 +17740,7 @@
       <c r="A144" s="14" t="s">
         <v>1079</v>
       </c>
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="33" t="s">
         <v>159</v>
       </c>
       <c r="C144" t="s">
@@ -17339,7 +17760,7 @@
       <c r="A145" s="14" t="s">
         <v>1080</v>
       </c>
-      <c r="B145" s="34" t="s">
+      <c r="B145" s="33" t="s">
         <v>372</v>
       </c>
       <c r="C145" t="s">
@@ -17359,7 +17780,7 @@
       <c r="A146" s="14" t="s">
         <v>1081</v>
       </c>
-      <c r="B146" s="34" t="s">
+      <c r="B146" s="33" t="s">
         <v>1292</v>
       </c>
       <c r="C146" t="s">
@@ -17379,7 +17800,7 @@
       <c r="A147" s="14" t="s">
         <v>1082</v>
       </c>
-      <c r="B147" s="34" t="s">
+      <c r="B147" s="33" t="s">
         <v>373</v>
       </c>
       <c r="C147" t="s">
@@ -17399,7 +17820,7 @@
       <c r="A148" s="14" t="s">
         <v>1083</v>
       </c>
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="33" t="s">
         <v>1293</v>
       </c>
       <c r="C148" t="s">
@@ -17419,7 +17840,7 @@
       <c r="A149" s="14" t="s">
         <v>1084</v>
       </c>
-      <c r="B149" s="34" t="s">
+      <c r="B149" s="33" t="s">
         <v>374</v>
       </c>
       <c r="C149" t="s">
@@ -17436,22 +17857,22 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="33" t="s">
+      <c r="A150" s="32" t="s">
         <v>1085</v>
       </c>
       <c r="B150" t="s">
         <v>1333</v>
       </c>
-      <c r="C150" s="36" t="s">
+      <c r="C150" s="35" t="s">
         <v>375</v>
       </c>
-      <c r="D150" s="37" t="e">
+      <c r="D150" s="36" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E150" s="36" t="s">
+      <c r="E150" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="F150" s="37" t="s">
+      <c r="F150" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17459,7 +17880,7 @@
       <c r="A151" s="14" t="s">
         <v>1086</v>
       </c>
-      <c r="B151" s="34" t="s">
+      <c r="B151" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C151" t="s">
@@ -17479,7 +17900,7 @@
       <c r="A152" s="14" t="s">
         <v>1087</v>
       </c>
-      <c r="B152" s="34" t="s">
+      <c r="B152" s="33" t="s">
         <v>123</v>
       </c>
       <c r="C152" t="s">
@@ -17499,7 +17920,7 @@
       <c r="A153" s="14" t="s">
         <v>1088</v>
       </c>
-      <c r="B153" s="34" t="s">
+      <c r="B153" s="33" t="s">
         <v>260</v>
       </c>
       <c r="C153" t="s">
@@ -17519,7 +17940,7 @@
       <c r="A154" s="14" t="s">
         <v>1089</v>
       </c>
-      <c r="B154" s="34" t="s">
+      <c r="B154" s="33" t="s">
         <v>165</v>
       </c>
       <c r="C154" t="s">
@@ -17539,7 +17960,7 @@
       <c r="A155" s="14" t="s">
         <v>1090</v>
       </c>
-      <c r="B155" s="34" t="s">
+      <c r="B155" s="33" t="s">
         <v>1294</v>
       </c>
       <c r="C155" t="s">
@@ -17559,7 +17980,7 @@
       <c r="A156" s="14" t="s">
         <v>1091</v>
       </c>
-      <c r="B156" s="34" t="s">
+      <c r="B156" s="33" t="s">
         <v>268</v>
       </c>
       <c r="C156" t="s">
@@ -17579,7 +18000,7 @@
       <c r="A157" s="14" t="s">
         <v>1092</v>
       </c>
-      <c r="B157" s="34" t="s">
+      <c r="B157" s="33" t="s">
         <v>1295</v>
       </c>
       <c r="C157" t="s">
@@ -17599,7 +18020,7 @@
       <c r="A158" s="14" t="s">
         <v>1093</v>
       </c>
-      <c r="B158" s="34" t="s">
+      <c r="B158" s="33" t="s">
         <v>93</v>
       </c>
       <c r="C158" t="s">
@@ -17619,7 +18040,7 @@
       <c r="A159" s="14" t="s">
         <v>1094</v>
       </c>
-      <c r="B159" s="34" t="s">
+      <c r="B159" s="33" t="s">
         <v>110</v>
       </c>
       <c r="C159" t="s">
@@ -17639,7 +18060,7 @@
       <c r="A160" s="14" t="s">
         <v>1095</v>
       </c>
-      <c r="B160" s="34" t="s">
+      <c r="B160" s="33" t="s">
         <v>1296</v>
       </c>
       <c r="C160" t="s">
@@ -17659,7 +18080,7 @@
       <c r="A161" s="14" t="s">
         <v>1096</v>
       </c>
-      <c r="B161" s="34" t="s">
+      <c r="B161" s="33" t="s">
         <v>90</v>
       </c>
       <c r="C161" t="s">
@@ -17679,7 +18100,7 @@
       <c r="A162" s="14" t="s">
         <v>1097</v>
       </c>
-      <c r="B162" s="34" t="s">
+      <c r="B162" s="33" t="s">
         <v>1253</v>
       </c>
       <c r="C162" t="s">
@@ -17699,7 +18120,7 @@
       <c r="A163" s="14" t="s">
         <v>1098</v>
       </c>
-      <c r="B163" s="34" t="s">
+      <c r="B163" s="33" t="s">
         <v>266</v>
       </c>
       <c r="C163" t="s">
@@ -17719,7 +18140,7 @@
       <c r="A164" s="14" t="s">
         <v>1099</v>
       </c>
-      <c r="B164" s="34" t="s">
+      <c r="B164" s="33" t="s">
         <v>92</v>
       </c>
       <c r="C164" t="s">
@@ -17739,7 +18160,7 @@
       <c r="A165" s="14" t="s">
         <v>1100</v>
       </c>
-      <c r="B165" s="34" t="s">
+      <c r="B165" s="33" t="s">
         <v>121</v>
       </c>
       <c r="C165" t="s">
@@ -17759,7 +18180,7 @@
       <c r="A166" s="14" t="s">
         <v>1101</v>
       </c>
-      <c r="B166" s="34" t="s">
+      <c r="B166" s="33" t="s">
         <v>86</v>
       </c>
       <c r="C166" t="s">
@@ -17779,7 +18200,7 @@
       <c r="A167" s="14" t="s">
         <v>1102</v>
       </c>
-      <c r="B167" s="34" t="s">
+      <c r="B167" s="33" t="s">
         <v>1297</v>
       </c>
       <c r="C167" t="s">
@@ -17799,7 +18220,7 @@
       <c r="A168" s="14" t="s">
         <v>1103</v>
       </c>
-      <c r="B168" s="34" t="s">
+      <c r="B168" s="33" t="s">
         <v>43</v>
       </c>
       <c r="C168" s="17" t="s">
@@ -17819,7 +18240,7 @@
       <c r="A169" s="14" t="s">
         <v>1104</v>
       </c>
-      <c r="B169" s="34" t="s">
+      <c r="B169" s="33" t="s">
         <v>257</v>
       </c>
       <c r="C169" s="17" t="s">
@@ -17839,7 +18260,7 @@
       <c r="A170" s="14" t="s">
         <v>1105</v>
       </c>
-      <c r="B170" s="34" t="s">
+      <c r="B170" s="33" t="s">
         <v>249</v>
       </c>
       <c r="C170" s="17" t="s">
@@ -17859,7 +18280,7 @@
       <c r="A171" s="14" t="s">
         <v>1106</v>
       </c>
-      <c r="B171" s="34" t="s">
+      <c r="B171" s="33" t="s">
         <v>79</v>
       </c>
       <c r="C171" s="17" t="s">
@@ -17879,7 +18300,7 @@
       <c r="A172" s="14" t="s">
         <v>1107</v>
       </c>
-      <c r="B172" s="34" t="s">
+      <c r="B172" s="33" t="s">
         <v>63</v>
       </c>
       <c r="C172" s="17" t="s">
@@ -17899,7 +18320,7 @@
       <c r="A173" s="14" t="s">
         <v>1108</v>
       </c>
-      <c r="B173" s="34" t="s">
+      <c r="B173" s="33" t="s">
         <v>1298</v>
       </c>
       <c r="C173" s="17" t="s">
@@ -17919,7 +18340,7 @@
       <c r="A174" s="14" t="s">
         <v>1109</v>
       </c>
-      <c r="B174" s="34" t="s">
+      <c r="B174" s="33" t="s">
         <v>69</v>
       </c>
       <c r="C174" s="17" t="s">
@@ -17939,7 +18360,7 @@
       <c r="A175" s="14" t="s">
         <v>1110</v>
       </c>
-      <c r="B175" s="34" t="s">
+      <c r="B175" s="33" t="s">
         <v>1299</v>
       </c>
       <c r="C175" s="17" t="s">
@@ -17959,7 +18380,7 @@
       <c r="A176" s="14" t="s">
         <v>1111</v>
       </c>
-      <c r="B176" s="34" t="s">
+      <c r="B176" s="33" t="s">
         <v>45</v>
       </c>
       <c r="C176" s="17" t="s">
@@ -17979,7 +18400,7 @@
       <c r="A177" s="14" t="s">
         <v>1112</v>
       </c>
-      <c r="B177" s="34" t="s">
+      <c r="B177" s="33" t="s">
         <v>379</v>
       </c>
       <c r="C177" s="17" t="s">
@@ -17999,7 +18420,7 @@
       <c r="A178" s="14" t="s">
         <v>1113</v>
       </c>
-      <c r="B178" s="34" t="s">
+      <c r="B178" s="33" t="s">
         <v>1300</v>
       </c>
       <c r="C178" s="17" t="s">
@@ -18019,7 +18440,7 @@
       <c r="A179" s="14" t="s">
         <v>1114</v>
       </c>
-      <c r="B179" s="34" t="s">
+      <c r="B179" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C179" s="17" t="s">
@@ -18039,7 +18460,7 @@
       <c r="A180" s="14" t="s">
         <v>1115</v>
       </c>
-      <c r="B180" s="34" t="s">
+      <c r="B180" s="33" t="s">
         <v>77</v>
       </c>
       <c r="C180" s="17" t="s">
@@ -18059,7 +18480,7 @@
       <c r="A181" s="14" t="s">
         <v>1116</v>
       </c>
-      <c r="B181" s="34" t="s">
+      <c r="B181" s="33" t="s">
         <v>65</v>
       </c>
       <c r="C181" s="17" t="s">
@@ -18079,7 +18500,7 @@
       <c r="A182" s="14" t="s">
         <v>1117</v>
       </c>
-      <c r="B182" s="34" t="s">
+      <c r="B182" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C182" s="17" t="s">
@@ -18099,7 +18520,7 @@
       <c r="A183" s="14" t="s">
         <v>1118</v>
       </c>
-      <c r="B183" s="34" t="s">
+      <c r="B183" s="33" t="s">
         <v>75</v>
       </c>
       <c r="C183" s="17" t="s">
@@ -18119,7 +18540,7 @@
       <c r="A184" s="14" t="s">
         <v>1119</v>
       </c>
-      <c r="B184" s="34" t="s">
+      <c r="B184" s="33" t="s">
         <v>59</v>
       </c>
       <c r="C184" s="17" t="s">
@@ -18139,7 +18560,7 @@
       <c r="A185" s="14" t="s">
         <v>1120</v>
       </c>
-      <c r="B185" s="34" t="s">
+      <c r="B185" s="33" t="s">
         <v>361</v>
       </c>
       <c r="C185" s="17" t="s">
@@ -18159,7 +18580,7 @@
       <c r="A186" s="14" t="s">
         <v>1121</v>
       </c>
-      <c r="B186" s="34" t="s">
+      <c r="B186" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C186" s="17" t="s">
@@ -18179,7 +18600,7 @@
       <c r="A187" s="14" t="s">
         <v>1122</v>
       </c>
-      <c r="B187" s="34" t="s">
+      <c r="B187" s="33" t="s">
         <v>32</v>
       </c>
       <c r="C187" s="17" t="s">
@@ -18199,7 +18620,7 @@
       <c r="A188" s="14" t="s">
         <v>1123</v>
       </c>
-      <c r="B188" s="34" t="s">
+      <c r="B188" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C188" s="17" t="s">
@@ -18219,7 +18640,7 @@
       <c r="A189" s="14" t="s">
         <v>1124</v>
       </c>
-      <c r="B189" s="34" t="s">
+      <c r="B189" s="33" t="s">
         <v>258</v>
       </c>
       <c r="C189" s="17" t="s">
@@ -18239,7 +18660,7 @@
       <c r="A190" s="14" t="s">
         <v>1125</v>
       </c>
-      <c r="B190" s="34" t="s">
+      <c r="B190" s="33" t="s">
         <v>1274</v>
       </c>
       <c r="C190" s="17" t="s">
@@ -18259,7 +18680,7 @@
       <c r="A191" s="14" t="s">
         <v>1126</v>
       </c>
-      <c r="B191" s="34" t="s">
+      <c r="B191" s="33" t="s">
         <v>81</v>
       </c>
       <c r="C191" t="s">
@@ -18279,7 +18700,7 @@
       <c r="A192" s="14" t="s">
         <v>1127</v>
       </c>
-      <c r="B192" s="34" t="s">
+      <c r="B192" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C192" t="s">
@@ -18299,7 +18720,7 @@
       <c r="A193" s="14" t="s">
         <v>1128</v>
       </c>
-      <c r="B193" s="34" t="s">
+      <c r="B193" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C193" t="s">
@@ -18319,7 +18740,7 @@
       <c r="A194" s="14" t="s">
         <v>1129</v>
       </c>
-      <c r="B194" s="34" t="s">
+      <c r="B194" s="33" t="s">
         <v>86</v>
       </c>
       <c r="C194" t="s">
@@ -18339,7 +18760,7 @@
       <c r="A195" s="14" t="s">
         <v>1329</v>
       </c>
-      <c r="B195" s="34" t="s">
+      <c r="B195" s="33" t="s">
         <v>85</v>
       </c>
       <c r="C195" t="s">
@@ -18359,7 +18780,7 @@
       <c r="A196" s="14" t="s">
         <v>1130</v>
       </c>
-      <c r="B196" s="34" t="s">
+      <c r="B196" s="33" t="s">
         <v>1301</v>
       </c>
       <c r="C196" s="17" t="s">
@@ -18379,7 +18800,7 @@
       <c r="A197" s="14" t="s">
         <v>1131</v>
       </c>
-      <c r="B197" s="34" t="s">
+      <c r="B197" s="33" t="s">
         <v>1259</v>
       </c>
       <c r="C197" s="17" t="s">
@@ -18419,7 +18840,7 @@
       <c r="A199" s="14" t="s">
         <v>1133</v>
       </c>
-      <c r="B199" s="34" t="s">
+      <c r="B199" s="33" t="s">
         <v>382</v>
       </c>
       <c r="C199" s="17" t="s">
@@ -18439,7 +18860,7 @@
       <c r="A200" s="14" t="s">
         <v>1134</v>
       </c>
-      <c r="B200" s="34" t="s">
+      <c r="B200" s="33" t="s">
         <v>159</v>
       </c>
       <c r="C200" s="17" t="s">
@@ -18459,7 +18880,7 @@
       <c r="A201" s="14" t="s">
         <v>1135</v>
       </c>
-      <c r="B201" s="34" t="s">
+      <c r="B201" s="33" t="s">
         <v>1302</v>
       </c>
       <c r="C201" s="17" t="s">
@@ -18479,7 +18900,7 @@
       <c r="A202" s="14" t="s">
         <v>1136</v>
       </c>
-      <c r="B202" s="34" t="s">
+      <c r="B202" s="33" t="s">
         <v>1303</v>
       </c>
       <c r="C202" s="17" t="s">
@@ -18499,7 +18920,7 @@
       <c r="A203" s="14" t="s">
         <v>1137</v>
       </c>
-      <c r="B203" s="34" t="s">
+      <c r="B203" s="33" t="s">
         <v>1304</v>
       </c>
       <c r="C203" s="17" t="s">
@@ -18519,7 +18940,7 @@
       <c r="A204" s="14" t="s">
         <v>1138</v>
       </c>
-      <c r="B204" s="34" t="s">
+      <c r="B204" s="33" t="s">
         <v>1305</v>
       </c>
       <c r="C204" s="17" t="s">
@@ -18539,7 +18960,7 @@
       <c r="A205" s="14" t="s">
         <v>1139</v>
       </c>
-      <c r="B205" s="34" t="s">
+      <c r="B205" s="33" t="s">
         <v>383</v>
       </c>
       <c r="C205" s="17" t="s">
@@ -18559,7 +18980,7 @@
       <c r="A206" s="14" t="s">
         <v>1140</v>
       </c>
-      <c r="B206" s="34" t="s">
+      <c r="B206" s="33" t="s">
         <v>1306</v>
       </c>
       <c r="C206" s="17" t="s">
@@ -18579,7 +19000,7 @@
       <c r="A207" s="14" t="s">
         <v>1141</v>
       </c>
-      <c r="B207" s="34" t="s">
+      <c r="B207" s="33" t="s">
         <v>384</v>
       </c>
       <c r="C207" s="17" t="s">
@@ -18599,7 +19020,7 @@
       <c r="A208" s="14" t="s">
         <v>1142</v>
       </c>
-      <c r="B208" s="34" t="s">
+      <c r="B208" s="33" t="s">
         <v>1272</v>
       </c>
       <c r="C208" s="17" t="s">
@@ -18619,7 +19040,7 @@
       <c r="A209" s="14" t="s">
         <v>1143</v>
       </c>
-      <c r="B209" s="34" t="s">
+      <c r="B209" s="33" t="s">
         <v>292</v>
       </c>
       <c r="C209" s="17" t="s">
@@ -18639,7 +19060,7 @@
       <c r="A210" s="14" t="s">
         <v>1144</v>
       </c>
-      <c r="B210" s="34" t="s">
+      <c r="B210" s="33" t="s">
         <v>1307</v>
       </c>
       <c r="C210" s="17" t="s">
@@ -18659,7 +19080,7 @@
       <c r="A211" s="14" t="s">
         <v>1145</v>
       </c>
-      <c r="B211" s="34" t="s">
+      <c r="B211" s="33" t="s">
         <v>385</v>
       </c>
       <c r="C211" s="17" t="s">
@@ -18679,7 +19100,7 @@
       <c r="A212" s="14" t="s">
         <v>1146</v>
       </c>
-      <c r="B212" s="34" t="s">
+      <c r="B212" s="33" t="s">
         <v>1308</v>
       </c>
       <c r="C212" s="17" t="s">
@@ -18699,7 +19120,7 @@
       <c r="A213" s="14" t="s">
         <v>1147</v>
       </c>
-      <c r="B213" s="34" t="s">
+      <c r="B213" s="33" t="s">
         <v>386</v>
       </c>
       <c r="C213" s="17" t="s">
@@ -18716,22 +19137,22 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="33" t="s">
+      <c r="A214" s="32" t="s">
         <v>1332</v>
       </c>
       <c r="B214" t="s">
         <v>1333</v>
       </c>
-      <c r="C214" s="36" t="s">
+      <c r="C214" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="D214" s="37" t="e">
+      <c r="D214" s="36" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E214" s="36" t="s">
+      <c r="E214" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="F214" s="37" t="s">
+      <c r="F214" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18739,7 +19160,7 @@
       <c r="A215" s="14" t="s">
         <v>1148</v>
       </c>
-      <c r="B215" s="34" t="s">
+      <c r="B215" s="33" t="s">
         <v>278</v>
       </c>
       <c r="C215" s="17" t="s">
@@ -18759,7 +19180,7 @@
       <c r="A216" s="14" t="s">
         <v>1149</v>
       </c>
-      <c r="B216" s="34" t="s">
+      <c r="B216" s="33" t="s">
         <v>1309</v>
       </c>
       <c r="C216" s="17" t="s">
@@ -18779,7 +19200,7 @@
       <c r="A217" s="14" t="s">
         <v>1150</v>
       </c>
-      <c r="B217" s="34" t="s">
+      <c r="B217" s="33" t="s">
         <v>1310</v>
       </c>
       <c r="C217" s="17" t="s">
@@ -18799,7 +19220,7 @@
       <c r="A218" s="14" t="s">
         <v>1151</v>
       </c>
-      <c r="B218" s="34" t="s">
+      <c r="B218" s="33" t="s">
         <v>1311</v>
       </c>
       <c r="C218" s="17" t="s">
@@ -18819,7 +19240,7 @@
       <c r="A219" s="14" t="s">
         <v>1152</v>
       </c>
-      <c r="B219" s="34" t="s">
+      <c r="B219" s="33" t="s">
         <v>224</v>
       </c>
       <c r="C219" s="17" t="s">
@@ -18839,7 +19260,7 @@
       <c r="A220" s="14" t="s">
         <v>1153</v>
       </c>
-      <c r="B220" s="34" t="s">
+      <c r="B220" s="33" t="s">
         <v>308</v>
       </c>
       <c r="C220" s="17" t="s">
@@ -18859,7 +19280,7 @@
       <c r="A221" s="14" t="s">
         <v>1154</v>
       </c>
-      <c r="B221" s="34" t="s">
+      <c r="B221" s="33" t="s">
         <v>1286</v>
       </c>
       <c r="C221" s="17" t="s">
@@ -18879,7 +19300,7 @@
       <c r="A222" s="14" t="s">
         <v>1155</v>
       </c>
-      <c r="B222" s="34" t="s">
+      <c r="B222" s="33" t="s">
         <v>307</v>
       </c>
       <c r="C222" s="17" t="s">
@@ -18899,7 +19320,7 @@
       <c r="A223" s="14" t="s">
         <v>1156</v>
       </c>
-      <c r="B223" s="34" t="s">
+      <c r="B223" s="33" t="s">
         <v>94</v>
       </c>
       <c r="C223" s="17" t="s">
@@ -18919,7 +19340,7 @@
       <c r="A224" s="14" t="s">
         <v>1157</v>
       </c>
-      <c r="B224" s="34" t="s">
+      <c r="B224" s="33" t="s">
         <v>905</v>
       </c>
       <c r="C224" s="17" t="s">
@@ -18959,7 +19380,7 @@
       <c r="A226" s="14" t="s">
         <v>1159</v>
       </c>
-      <c r="B226" s="34" t="s">
+      <c r="B226" s="33" t="s">
         <v>101</v>
       </c>
       <c r="C226" s="17" t="s">
@@ -18979,7 +19400,7 @@
       <c r="A227" s="14" t="s">
         <v>1160</v>
       </c>
-      <c r="B227" s="34" t="s">
+      <c r="B227" s="33" t="s">
         <v>310</v>
       </c>
       <c r="C227" s="17" t="s">
@@ -18999,7 +19420,7 @@
       <c r="A228" s="14" t="s">
         <v>1161</v>
       </c>
-      <c r="B228" s="34" t="s">
+      <c r="B228" s="33" t="s">
         <v>97</v>
       </c>
       <c r="C228" s="17" t="s">
@@ -19019,7 +19440,7 @@
       <c r="A229" s="14" t="s">
         <v>1162</v>
       </c>
-      <c r="B229" s="34" t="s">
+      <c r="B229" s="33" t="s">
         <v>1288</v>
       </c>
       <c r="C229" s="17" t="s">
@@ -19039,7 +19460,7 @@
       <c r="A230" s="14" t="s">
         <v>1163</v>
       </c>
-      <c r="B230" s="34" t="s">
+      <c r="B230" s="33" t="s">
         <v>389</v>
       </c>
       <c r="C230" s="17" t="s">
@@ -19059,7 +19480,7 @@
       <c r="A231" s="14" t="s">
         <v>1164</v>
       </c>
-      <c r="B231" s="34" t="s">
+      <c r="B231" s="33" t="s">
         <v>305</v>
       </c>
       <c r="C231" s="17" t="s">
@@ -19079,7 +19500,7 @@
       <c r="A232" s="14" t="s">
         <v>1165</v>
       </c>
-      <c r="B232" s="34" t="s">
+      <c r="B232" s="33" t="s">
         <v>223</v>
       </c>
       <c r="C232" s="17" t="s">
@@ -19099,7 +19520,7 @@
       <c r="A233" s="14" t="s">
         <v>1166</v>
       </c>
-      <c r="B233" s="34" t="s">
+      <c r="B233" s="33" t="s">
         <v>230</v>
       </c>
       <c r="C233" s="17" t="s">
@@ -19119,7 +19540,7 @@
       <c r="A234" s="14" t="s">
         <v>1167</v>
       </c>
-      <c r="B234" s="34" t="s">
+      <c r="B234" s="33" t="s">
         <v>231</v>
       </c>
       <c r="C234" s="17" t="s">
@@ -19139,7 +19560,7 @@
       <c r="A235" s="14" t="s">
         <v>1168</v>
       </c>
-      <c r="B235" s="34" t="s">
+      <c r="B235" s="33" t="s">
         <v>1312</v>
       </c>
       <c r="C235" s="17" t="s">
@@ -19159,7 +19580,7 @@
       <c r="A236" s="14" t="s">
         <v>1169</v>
       </c>
-      <c r="B236" s="34" t="s">
+      <c r="B236" s="33" t="s">
         <v>220</v>
       </c>
       <c r="C236" s="17" t="s">
@@ -19179,7 +19600,7 @@
       <c r="A237" s="14" t="s">
         <v>1170</v>
       </c>
-      <c r="B237" s="34" t="s">
+      <c r="B237" s="33" t="s">
         <v>232</v>
       </c>
       <c r="C237" s="17" t="s">
@@ -19199,7 +19620,7 @@
       <c r="A238" s="14" t="s">
         <v>1171</v>
       </c>
-      <c r="B238" s="34" t="s">
+      <c r="B238" s="33" t="s">
         <v>1313</v>
       </c>
       <c r="C238" s="17" t="s">
@@ -19219,7 +19640,7 @@
       <c r="A239" s="14" t="s">
         <v>1172</v>
       </c>
-      <c r="B239" s="34" t="s">
+      <c r="B239" s="33" t="s">
         <v>1277</v>
       </c>
       <c r="C239" s="17" t="s">
@@ -19239,7 +19660,7 @@
       <c r="A240" s="14" t="s">
         <v>1173</v>
       </c>
-      <c r="B240" s="34" t="s">
+      <c r="B240" s="33" t="s">
         <v>1276</v>
       </c>
       <c r="C240" s="17" t="s">
@@ -19259,7 +19680,7 @@
       <c r="A241" s="14" t="s">
         <v>1174</v>
       </c>
-      <c r="B241" s="34" t="s">
+      <c r="B241" s="33" t="s">
         <v>234</v>
       </c>
       <c r="C241" s="17" t="s">
@@ -19279,7 +19700,7 @@
       <c r="A242" s="14" t="s">
         <v>1175</v>
       </c>
-      <c r="B242" s="34" t="s">
+      <c r="B242" s="33" t="s">
         <v>1278</v>
       </c>
       <c r="C242" s="17" t="s">
@@ -19299,7 +19720,7 @@
       <c r="A243" s="14" t="s">
         <v>1176</v>
       </c>
-      <c r="B243" s="34" t="s">
+      <c r="B243" s="33" t="s">
         <v>1279</v>
       </c>
       <c r="C243" s="17" t="s">
@@ -19319,7 +19740,7 @@
       <c r="A244" s="14" t="s">
         <v>1177</v>
       </c>
-      <c r="B244" s="34" t="s">
+      <c r="B244" s="33" t="s">
         <v>391</v>
       </c>
       <c r="C244" s="17" t="s">
@@ -19339,7 +19760,7 @@
       <c r="A245" s="14" t="s">
         <v>1178</v>
       </c>
-      <c r="B245" s="34" t="s">
+      <c r="B245" s="33" t="s">
         <v>1291</v>
       </c>
       <c r="C245" s="17" t="s">
@@ -19359,7 +19780,7 @@
       <c r="A246" s="14" t="s">
         <v>1179</v>
       </c>
-      <c r="B246" s="34" t="s">
+      <c r="B246" s="33" t="s">
         <v>860</v>
       </c>
       <c r="C246" t="s">
@@ -19379,7 +19800,7 @@
       <c r="A247" s="14" t="s">
         <v>1180</v>
       </c>
-      <c r="B247" s="34" t="s">
+      <c r="B247" s="33" t="s">
         <v>1262</v>
       </c>
       <c r="C247" t="s">
@@ -19399,7 +19820,7 @@
       <c r="A248" s="14" t="s">
         <v>1181</v>
       </c>
-      <c r="B248" s="34" t="s">
+      <c r="B248" s="33" t="s">
         <v>1264</v>
       </c>
       <c r="C248" t="s">
@@ -19419,7 +19840,7 @@
       <c r="A249" s="14" t="s">
         <v>1182</v>
       </c>
-      <c r="B249" s="34" t="s">
+      <c r="B249" s="33" t="s">
         <v>1261</v>
       </c>
       <c r="C249" t="s">
@@ -19439,7 +19860,7 @@
       <c r="A250" s="14" t="s">
         <v>1183</v>
       </c>
-      <c r="B250" s="34" t="s">
+      <c r="B250" s="33" t="s">
         <v>353</v>
       </c>
       <c r="C250" t="s">
@@ -19459,7 +19880,7 @@
       <c r="A251" s="14" t="s">
         <v>1184</v>
       </c>
-      <c r="B251" s="34" t="s">
+      <c r="B251" s="33" t="s">
         <v>209</v>
       </c>
       <c r="C251" t="s">
@@ -19479,7 +19900,7 @@
       <c r="A252" s="14" t="s">
         <v>1185</v>
       </c>
-      <c r="B252" s="34" t="s">
+      <c r="B252" s="33" t="s">
         <v>215</v>
       </c>
       <c r="C252" t="s">
@@ -19499,7 +19920,7 @@
       <c r="A253" s="14" t="s">
         <v>1186</v>
       </c>
-      <c r="B253" s="34" t="s">
+      <c r="B253" s="33" t="s">
         <v>1263</v>
       </c>
       <c r="C253" t="s">
@@ -19519,7 +19940,7 @@
       <c r="A254" s="14" t="s">
         <v>1187</v>
       </c>
-      <c r="B254" s="34" t="s">
+      <c r="B254" s="33" t="s">
         <v>247</v>
       </c>
       <c r="C254" t="s">
@@ -19539,7 +19960,7 @@
       <c r="A255" s="14" t="s">
         <v>1188</v>
       </c>
-      <c r="B255" s="34" t="s">
+      <c r="B255" s="33" t="s">
         <v>355</v>
       </c>
       <c r="C255" t="s">
@@ -19559,7 +19980,7 @@
       <c r="A256" s="14" t="s">
         <v>1189</v>
       </c>
-      <c r="B256" s="34" t="s">
+      <c r="B256" s="33" t="s">
         <v>324</v>
       </c>
       <c r="C256" t="s">
@@ -19579,7 +20000,7 @@
       <c r="A257" s="14" t="s">
         <v>1190</v>
       </c>
-      <c r="B257" s="34" t="s">
+      <c r="B257" s="33" t="s">
         <v>323</v>
       </c>
       <c r="C257" t="s">
@@ -19599,7 +20020,7 @@
       <c r="A258" s="14" t="s">
         <v>1191</v>
       </c>
-      <c r="B258" s="34" t="s">
+      <c r="B258" s="33" t="s">
         <v>216</v>
       </c>
       <c r="C258" t="s">
@@ -19619,7 +20040,7 @@
       <c r="A259" s="14" t="s">
         <v>1192</v>
       </c>
-      <c r="B259" s="34" t="s">
+      <c r="B259" s="33" t="s">
         <v>213</v>
       </c>
       <c r="C259" t="s">
@@ -19639,7 +20060,7 @@
       <c r="A260" s="14" t="s">
         <v>1193</v>
       </c>
-      <c r="B260" s="34" t="s">
+      <c r="B260" s="33" t="s">
         <v>89</v>
       </c>
       <c r="C260" s="15" t="s">
@@ -19659,7 +20080,7 @@
       <c r="A261" s="14" t="s">
         <v>1194</v>
       </c>
-      <c r="B261" s="34" t="s">
+      <c r="B261" s="33" t="s">
         <v>1275</v>
       </c>
       <c r="C261" s="15" t="s">
@@ -19679,7 +20100,7 @@
       <c r="A262" s="14" t="s">
         <v>1195</v>
       </c>
-      <c r="B262" s="34" t="s">
+      <c r="B262" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C262" s="15" t="s">
@@ -19699,7 +20120,7 @@
       <c r="A263" s="14" t="s">
         <v>1196</v>
       </c>
-      <c r="B263" s="34" t="s">
+      <c r="B263" s="33" t="s">
         <v>1271</v>
       </c>
       <c r="C263" s="15" t="s">
@@ -19719,7 +20140,7 @@
       <c r="A264" s="14" t="s">
         <v>1197</v>
       </c>
-      <c r="B264" s="34" t="s">
+      <c r="B264" s="33" t="s">
         <v>1314</v>
       </c>
       <c r="C264" s="15" t="s">
@@ -19739,7 +20160,7 @@
       <c r="A265" s="14" t="s">
         <v>1198</v>
       </c>
-      <c r="B265" s="34" t="s">
+      <c r="B265" s="33" t="s">
         <v>1315</v>
       </c>
       <c r="C265" s="15" t="s">
@@ -19759,7 +20180,7 @@
       <c r="A266" s="14" t="s">
         <v>1199</v>
       </c>
-      <c r="B266" s="34" t="s">
+      <c r="B266" s="33" t="s">
         <v>394</v>
       </c>
       <c r="C266" s="15" t="s">
@@ -19779,7 +20200,7 @@
       <c r="A267" s="14" t="s">
         <v>1200</v>
       </c>
-      <c r="B267" s="34" t="s">
+      <c r="B267" s="33" t="s">
         <v>1316</v>
       </c>
       <c r="C267" s="15" t="s">
@@ -19799,7 +20220,7 @@
       <c r="A268" s="14" t="s">
         <v>1201</v>
       </c>
-      <c r="B268" s="34" t="s">
+      <c r="B268" s="33" t="s">
         <v>1317</v>
       </c>
       <c r="C268" s="15" t="s">
@@ -19819,7 +20240,7 @@
       <c r="A269" s="14" t="s">
         <v>1202</v>
       </c>
-      <c r="B269" s="34" t="s">
+      <c r="B269" s="33" t="s">
         <v>395</v>
       </c>
       <c r="C269" s="15" t="s">
@@ -19839,7 +20260,7 @@
       <c r="A270" s="14" t="s">
         <v>1203</v>
       </c>
-      <c r="B270" s="34" t="s">
+      <c r="B270" s="33" t="s">
         <v>1318</v>
       </c>
       <c r="C270" s="15" t="s">
@@ -19859,7 +20280,7 @@
       <c r="A271" s="14" t="s">
         <v>1204</v>
       </c>
-      <c r="B271" s="34" t="s">
+      <c r="B271" s="33" t="s">
         <v>176</v>
       </c>
       <c r="C271" s="15" t="s">
@@ -19879,7 +20300,7 @@
       <c r="A272" s="14" t="s">
         <v>1205</v>
       </c>
-      <c r="B272" s="34" t="s">
+      <c r="B272" s="33" t="s">
         <v>1319</v>
       </c>
       <c r="C272" s="15" t="s">
@@ -19899,7 +20320,7 @@
       <c r="A273" s="14" t="s">
         <v>1206</v>
       </c>
-      <c r="B273" s="34" t="s">
+      <c r="B273" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C273" s="15" t="s">
@@ -19919,7 +20340,7 @@
       <c r="A274" s="14" t="s">
         <v>1207</v>
       </c>
-      <c r="B274" s="34" t="s">
+      <c r="B274" s="33" t="s">
         <v>256</v>
       </c>
       <c r="C274" s="15" t="s">
@@ -19939,7 +20360,7 @@
       <c r="A275" s="14" t="s">
         <v>1208</v>
       </c>
-      <c r="B275" s="34" t="s">
+      <c r="B275" s="33" t="s">
         <v>139</v>
       </c>
       <c r="C275" s="15" t="s">
@@ -19959,7 +20380,7 @@
       <c r="A276" s="14" t="s">
         <v>1209</v>
       </c>
-      <c r="B276" s="34" t="s">
+      <c r="B276" s="33" t="s">
         <v>1249</v>
       </c>
       <c r="C276" s="15" t="s">
@@ -19979,7 +20400,7 @@
       <c r="A277" s="14" t="s">
         <v>1210</v>
       </c>
-      <c r="B277" s="34" t="s">
+      <c r="B277" s="33" t="s">
         <v>1320</v>
       </c>
       <c r="C277" s="15" t="s">
@@ -19999,7 +20420,7 @@
       <c r="A278" s="14" t="s">
         <v>1211</v>
       </c>
-      <c r="B278" s="34" t="s">
+      <c r="B278" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C278" t="s">
@@ -20019,7 +20440,7 @@
       <c r="A279" s="14" t="s">
         <v>1212</v>
       </c>
-      <c r="B279" s="34" t="s">
+      <c r="B279" s="33" t="s">
         <v>1282</v>
       </c>
       <c r="C279" t="s">
@@ -20039,7 +20460,7 @@
       <c r="A280" s="14" t="s">
         <v>1213</v>
       </c>
-      <c r="B280" s="34" t="s">
+      <c r="B280" s="33" t="s">
         <v>1281</v>
       </c>
       <c r="C280" t="s">
@@ -20059,7 +20480,7 @@
       <c r="A281" s="14" t="s">
         <v>1214</v>
       </c>
-      <c r="B281" s="34" t="s">
+      <c r="B281" s="33" t="s">
         <v>194</v>
       </c>
       <c r="C281" t="s">
@@ -20079,7 +20500,7 @@
       <c r="A282" s="14" t="s">
         <v>1215</v>
       </c>
-      <c r="B282" s="34" t="s">
+      <c r="B282" s="33" t="s">
         <v>203</v>
       </c>
       <c r="C282" t="s">
@@ -20099,7 +20520,7 @@
       <c r="A283" s="14" t="s">
         <v>1216</v>
       </c>
-      <c r="B283" s="34" t="s">
+      <c r="B283" s="33" t="s">
         <v>192</v>
       </c>
       <c r="C283" t="s">
@@ -20119,7 +20540,7 @@
       <c r="A284" s="14" t="s">
         <v>1217</v>
       </c>
-      <c r="B284" s="34" t="s">
+      <c r="B284" s="33" t="s">
         <v>397</v>
       </c>
       <c r="C284" t="s">
@@ -20139,7 +20560,7 @@
       <c r="A285" s="14" t="s">
         <v>1218</v>
       </c>
-      <c r="B285" s="34" t="s">
+      <c r="B285" s="33" t="s">
         <v>1280</v>
       </c>
       <c r="C285" t="s">
@@ -20159,7 +20580,7 @@
       <c r="A286" s="14" t="s">
         <v>1219</v>
       </c>
-      <c r="B286" s="34" t="s">
+      <c r="B286" s="33" t="s">
         <v>1284</v>
       </c>
       <c r="C286" t="s">
@@ -20179,7 +20600,7 @@
       <c r="A287" s="14" t="s">
         <v>1220</v>
       </c>
-      <c r="B287" s="34" t="s">
+      <c r="B287" s="33" t="s">
         <v>158</v>
       </c>
       <c r="C287" t="s">
@@ -20199,7 +20620,7 @@
       <c r="A288" s="14" t="s">
         <v>1221</v>
       </c>
-      <c r="B288" s="34" t="s">
+      <c r="B288" s="33" t="s">
         <v>198</v>
       </c>
       <c r="C288" t="s">
@@ -20219,7 +20640,7 @@
       <c r="A289" s="14" t="s">
         <v>1222</v>
       </c>
-      <c r="B289" s="34" t="s">
+      <c r="B289" s="33" t="s">
         <v>366</v>
       </c>
       <c r="C289" t="s">
@@ -20239,7 +20660,7 @@
       <c r="A290" s="14" t="s">
         <v>1223</v>
       </c>
-      <c r="B290" s="34" t="s">
+      <c r="B290" s="33" t="s">
         <v>859</v>
       </c>
       <c r="C290" t="s">
@@ -20259,7 +20680,7 @@
       <c r="A291" s="14" t="s">
         <v>1224</v>
       </c>
-      <c r="B291" s="34" t="s">
+      <c r="B291" s="33" t="s">
         <v>201</v>
       </c>
       <c r="C291" t="s">
@@ -20279,7 +20700,7 @@
       <c r="A292" s="14" t="s">
         <v>1330</v>
       </c>
-      <c r="B292" s="34" t="s">
+      <c r="B292" s="33" t="s">
         <v>904</v>
       </c>
       <c r="C292" t="s">
@@ -20299,7 +20720,7 @@
       <c r="A293" s="16" t="s">
         <v>1225</v>
       </c>
-      <c r="B293" s="34" t="s">
+      <c r="B293" s="33" t="s">
         <v>121</v>
       </c>
       <c r="C293" t="s">
@@ -20319,7 +20740,7 @@
       <c r="A294" s="16" t="s">
         <v>1226</v>
       </c>
-      <c r="B294" s="34" t="s">
+      <c r="B294" s="33" t="s">
         <v>262</v>
       </c>
       <c r="C294" t="s">
@@ -20339,7 +20760,7 @@
       <c r="A295" s="16" t="s">
         <v>1227</v>
       </c>
-      <c r="B295" s="34" t="s">
+      <c r="B295" s="33" t="s">
         <v>189</v>
       </c>
       <c r="C295" t="s">
@@ -20359,7 +20780,7 @@
       <c r="A296" s="16" t="s">
         <v>1228</v>
       </c>
-      <c r="B296" s="34" t="s">
+      <c r="B296" s="33" t="s">
         <v>261</v>
       </c>
       <c r="C296" t="s">
@@ -20379,7 +20800,7 @@
       <c r="A297" s="16" t="s">
         <v>1229</v>
       </c>
-      <c r="B297" s="34" t="s">
+      <c r="B297" s="33" t="s">
         <v>267</v>
       </c>
       <c r="C297" t="s">
@@ -20399,7 +20820,7 @@
       <c r="A298" s="16" t="s">
         <v>1230</v>
       </c>
-      <c r="B298" s="34" t="s">
+      <c r="B298" s="33" t="s">
         <v>1251</v>
       </c>
       <c r="C298" t="s">
@@ -20419,7 +20840,7 @@
       <c r="A299" s="16" t="s">
         <v>1231</v>
       </c>
-      <c r="B299" s="34" t="s">
+      <c r="B299" s="33" t="s">
         <v>109</v>
       </c>
       <c r="C299" t="s">
@@ -20439,7 +20860,7 @@
       <c r="A300" s="16" t="s">
         <v>1232</v>
       </c>
-      <c r="B300" s="34" t="s">
+      <c r="B300" s="33" t="s">
         <v>1321</v>
       </c>
       <c r="C300" t="s">
@@ -20459,7 +20880,7 @@
       <c r="A301" s="16" t="s">
         <v>1233</v>
       </c>
-      <c r="B301" s="34" t="s">
+      <c r="B301" s="33" t="s">
         <v>114</v>
       </c>
       <c r="C301" t="s">
@@ -20479,7 +20900,7 @@
       <c r="A302" s="16" t="s">
         <v>1234</v>
       </c>
-      <c r="B302" s="34" t="s">
+      <c r="B302" s="33" t="s">
         <v>856</v>
       </c>
       <c r="C302" t="s">
@@ -20499,13 +20920,13 @@
       <c r="A303" s="16" t="s">
         <v>1235</v>
       </c>
-      <c r="B303" s="34" t="s">
+      <c r="B303" s="33" t="s">
         <v>1322</v>
       </c>
       <c r="C303" t="s">
         <v>399</v>
       </c>
-      <c r="D303" s="38" t="s">
+      <c r="D303" s="37" t="s">
         <v>14</v>
       </c>
       <c r="E303" t="s">
@@ -20516,10 +20937,10 @@
       </c>
     </row>
     <row r="304" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="39" t="s">
+      <c r="A304" s="38" t="s">
         <v>1236</v>
       </c>
-      <c r="B304" s="34" t="s">
+      <c r="B304" s="33" t="s">
         <v>1323</v>
       </c>
       <c r="C304" t="s">
@@ -20536,10 +20957,10 @@
       </c>
     </row>
     <row r="305" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="39" t="s">
+      <c r="A305" s="38" t="s">
         <v>1237</v>
       </c>
-      <c r="B305" s="34" t="s">
+      <c r="B305" s="33" t="s">
         <v>1324</v>
       </c>
       <c r="C305" t="s">
@@ -20556,10 +20977,10 @@
       </c>
     </row>
     <row r="306" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="39" t="s">
+      <c r="A306" s="38" t="s">
         <v>1238</v>
       </c>
-      <c r="B306" s="34" t="s">
+      <c r="B306" s="33" t="s">
         <v>400</v>
       </c>
       <c r="C306" t="s">
@@ -20576,10 +20997,10 @@
       </c>
     </row>
     <row r="307" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="39" t="s">
+      <c r="A307" s="38" t="s">
         <v>1239</v>
       </c>
-      <c r="B307" s="34" t="s">
+      <c r="B307" s="33" t="s">
         <v>1325</v>
       </c>
       <c r="C307" t="s">
@@ -20596,10 +21017,10 @@
       </c>
     </row>
     <row r="308" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="39" t="s">
+      <c r="A308" s="38" t="s">
         <v>1240</v>
       </c>
-      <c r="B308" s="34" t="s">
+      <c r="B308" s="33" t="s">
         <v>401</v>
       </c>
       <c r="C308" t="s">
@@ -20616,10 +21037,10 @@
       </c>
     </row>
     <row r="309" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="39" t="s">
+      <c r="A309" s="38" t="s">
         <v>1241</v>
       </c>
-      <c r="B309" s="34" t="s">
+      <c r="B309" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C309" t="s">
@@ -20636,10 +21057,10 @@
       </c>
     </row>
     <row r="310" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="39" t="s">
+      <c r="A310" s="38" t="s">
         <v>1242</v>
       </c>
-      <c r="B310" s="34" t="s">
+      <c r="B310" s="33" t="s">
         <v>402</v>
       </c>
       <c r="C310" t="s">
@@ -20656,10 +21077,10 @@
       </c>
     </row>
     <row r="311" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="39" t="s">
+      <c r="A311" s="38" t="s">
         <v>1243</v>
       </c>
-      <c r="B311" s="34" t="s">
+      <c r="B311" s="33" t="s">
         <v>1326</v>
       </c>
       <c r="C311" t="s">
@@ -20676,10 +21097,10 @@
       </c>
     </row>
     <row r="312" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="39" t="s">
+      <c r="A312" s="38" t="s">
         <v>1244</v>
       </c>
-      <c r="B312" s="34" t="s">
+      <c r="B312" s="33" t="s">
         <v>329</v>
       </c>
       <c r="C312" t="s">
@@ -20696,10 +21117,10 @@
       </c>
     </row>
     <row r="313" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="39" t="s">
+      <c r="A313" s="38" t="s">
         <v>1245</v>
       </c>
-      <c r="B313" s="34" t="s">
+      <c r="B313" s="33" t="s">
         <v>248</v>
       </c>
       <c r="C313" t="s">
@@ -20716,78 +21137,648 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="42" t="s">
+      <c r="A314" s="56" t="s">
         <v>1246</v>
       </c>
-      <c r="B314" s="34" t="s">
+      <c r="B314" s="57" t="s">
         <v>1327</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C314" s="58" t="s">
         <v>399</v>
       </c>
-      <c r="D314" s="43" t="s">
+      <c r="D314" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E314" t="s">
+      <c r="E314" s="60" t="s">
         <v>376</v>
       </c>
-      <c r="F314" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="F314" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G314" s="62"/>
     </row>
     <row r="315" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="44"/>
-      <c r="B315" s="45"/>
-      <c r="C315" s="46"/>
-      <c r="D315" s="44"/>
-      <c r="E315" s="46"/>
-      <c r="F315" s="47"/>
-      <c r="G315" s="46"/>
+      <c r="A315" s="41" t="s">
+        <v>878</v>
+      </c>
+      <c r="B315" t="s">
+        <v>235</v>
+      </c>
+      <c r="C315" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="D315" t="s">
+        <v>876</v>
+      </c>
+      <c r="E315" t="s">
+        <v>351</v>
+      </c>
+      <c r="F315" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="316" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="44"/>
-      <c r="B316" s="45"/>
-      <c r="C316" s="46"/>
-      <c r="D316" s="44"/>
-      <c r="E316" s="46"/>
-      <c r="F316" s="47"/>
-      <c r="G316" s="46"/>
+      <c r="A316" s="41" t="s">
+        <v>879</v>
+      </c>
+      <c r="B316" t="s">
+        <v>856</v>
+      </c>
+      <c r="C316" t="s">
+        <v>352</v>
+      </c>
+      <c r="D316" t="s">
+        <v>872</v>
+      </c>
+      <c r="E316" t="s">
+        <v>351</v>
+      </c>
+      <c r="F316" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="317" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="44"/>
-      <c r="B317" s="45"/>
-      <c r="C317" s="46"/>
-      <c r="D317" s="44"/>
-      <c r="E317" s="46"/>
-      <c r="F317" s="47"/>
-      <c r="G317" s="46"/>
+      <c r="A317" s="41" t="s">
+        <v>880</v>
+      </c>
+      <c r="B317" t="s">
+        <v>324</v>
+      </c>
+      <c r="C317" t="s">
+        <v>354</v>
+      </c>
+      <c r="D317" t="s">
+        <v>21</v>
+      </c>
+      <c r="E317" t="s">
+        <v>351</v>
+      </c>
+      <c r="F317" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="318" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="44"/>
-      <c r="B318" s="44"/>
-      <c r="C318" s="46"/>
-      <c r="D318" s="44"/>
-      <c r="E318" s="46"/>
-      <c r="F318" s="46"/>
-      <c r="G318" s="46"/>
+      <c r="A318" s="41" t="s">
+        <v>881</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C318" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E318" t="s">
+        <v>351</v>
+      </c>
+      <c r="F318" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="319" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="44"/>
-      <c r="B319" s="44"/>
-      <c r="C319" s="48"/>
-      <c r="D319" s="44"/>
-      <c r="E319" s="46"/>
-      <c r="F319" s="46"/>
-      <c r="G319" s="46"/>
+      <c r="A319" s="41" t="s">
+        <v>882</v>
+      </c>
+      <c r="B319" s="28" t="s">
+        <v>901</v>
+      </c>
+      <c r="C319" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="D319" t="s">
+        <v>871</v>
+      </c>
+      <c r="E319" t="s">
+        <v>351</v>
+      </c>
+      <c r="F319" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="320" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="46"/>
-      <c r="B320" s="46"/>
-      <c r="C320" s="46"/>
-      <c r="D320" s="46"/>
-      <c r="E320" s="46"/>
-      <c r="F320" s="46"/>
-      <c r="G320" s="46"/>
+      <c r="A320" s="41" t="s">
+        <v>883</v>
+      </c>
+      <c r="B320" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="C320" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="D320" t="s">
+        <v>12</v>
+      </c>
+      <c r="E320" t="s">
+        <v>351</v>
+      </c>
+      <c r="F320" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="41" t="s">
+        <v>884</v>
+      </c>
+      <c r="B321" t="s">
+        <v>903</v>
+      </c>
+      <c r="C321" t="s">
+        <v>365</v>
+      </c>
+      <c r="D321" t="s">
+        <v>15</v>
+      </c>
+      <c r="E321" t="s">
+        <v>351</v>
+      </c>
+      <c r="F321" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="41" t="s">
+        <v>885</v>
+      </c>
+      <c r="B322" s="63" t="s">
+        <v>904</v>
+      </c>
+      <c r="C322" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="D322" t="s">
+        <v>15</v>
+      </c>
+      <c r="E322" t="s">
+        <v>351</v>
+      </c>
+      <c r="F322" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="41" t="s">
+        <v>886</v>
+      </c>
+      <c r="B323" s="15" t="s">
+        <v>905</v>
+      </c>
+      <c r="C323" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="D323" t="s">
+        <v>15</v>
+      </c>
+      <c r="E323" t="s">
+        <v>351</v>
+      </c>
+      <c r="F323" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="41" t="s">
+        <v>919</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C324" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D324" t="s">
+        <v>12</v>
+      </c>
+      <c r="E324" t="s">
+        <v>351</v>
+      </c>
+      <c r="F324" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="41" t="s">
+        <v>926</v>
+      </c>
+      <c r="B325" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="C325" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E325" t="s">
+        <v>376</v>
+      </c>
+      <c r="F325" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="41" t="s">
+        <v>925</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>923</v>
+      </c>
+      <c r="C326" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E326" t="s">
+        <v>376</v>
+      </c>
+      <c r="F326" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="41" t="s">
+        <v>927</v>
+      </c>
+      <c r="B327" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="C327" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E327" t="s">
+        <v>376</v>
+      </c>
+      <c r="F327" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="41" t="s">
+        <v>928</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="C328" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E328" t="s">
+        <v>376</v>
+      </c>
+      <c r="F328" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="41" t="s">
+        <v>929</v>
+      </c>
+      <c r="B329" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="C329" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E329" t="s">
+        <v>376</v>
+      </c>
+      <c r="F329" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="41" t="s">
+        <v>887</v>
+      </c>
+      <c r="B330" t="s">
+        <v>91</v>
+      </c>
+      <c r="C330" t="s">
+        <v>377</v>
+      </c>
+      <c r="D330" t="s">
+        <v>872</v>
+      </c>
+      <c r="E330" t="s">
+        <v>376</v>
+      </c>
+      <c r="F330" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="41" t="s">
+        <v>888</v>
+      </c>
+      <c r="B331" t="s">
+        <v>907</v>
+      </c>
+      <c r="C331" t="s">
+        <v>378</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E331" t="s">
+        <v>376</v>
+      </c>
+      <c r="F331" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C332" t="s">
+        <v>380</v>
+      </c>
+      <c r="D332" t="s">
+        <v>871</v>
+      </c>
+      <c r="E332" t="s">
+        <v>376</v>
+      </c>
+      <c r="F332" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="41" t="s">
+        <v>890</v>
+      </c>
+      <c r="B333" t="s">
+        <v>166</v>
+      </c>
+      <c r="C333" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="D333" t="s">
+        <v>917</v>
+      </c>
+      <c r="E333" t="s">
+        <v>376</v>
+      </c>
+      <c r="F333" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="41" t="s">
+        <v>891</v>
+      </c>
+      <c r="B334" t="s">
+        <v>155</v>
+      </c>
+      <c r="C334" t="s">
+        <v>387</v>
+      </c>
+      <c r="D334" t="s">
+        <v>15</v>
+      </c>
+      <c r="E334" t="s">
+        <v>376</v>
+      </c>
+      <c r="F334" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="41" t="s">
+        <v>892</v>
+      </c>
+      <c r="B335" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C335" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D335" t="s">
+        <v>15</v>
+      </c>
+      <c r="E335" t="s">
+        <v>376</v>
+      </c>
+      <c r="F335" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="41" t="s">
+        <v>893</v>
+      </c>
+      <c r="B336" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="C336" t="s">
+        <v>914</v>
+      </c>
+      <c r="D336" t="s">
+        <v>12</v>
+      </c>
+      <c r="E336" t="s">
+        <v>376</v>
+      </c>
+      <c r="F336" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="41" t="s">
+        <v>894</v>
+      </c>
+      <c r="B337" t="s">
+        <v>321</v>
+      </c>
+      <c r="C337" t="s">
+        <v>392</v>
+      </c>
+      <c r="D337" t="s">
+        <v>21</v>
+      </c>
+      <c r="E337" t="s">
+        <v>376</v>
+      </c>
+      <c r="F337" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="41" t="s">
+        <v>895</v>
+      </c>
+      <c r="B338" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C338" t="s">
+        <v>915</v>
+      </c>
+      <c r="D338" t="s">
+        <v>21</v>
+      </c>
+      <c r="E338" t="s">
+        <v>376</v>
+      </c>
+      <c r="F338" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="41" t="s">
+        <v>896</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C339" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="D339" t="s">
+        <v>870</v>
+      </c>
+      <c r="E339" t="s">
+        <v>376</v>
+      </c>
+      <c r="F339" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="41" t="s">
+        <v>897</v>
+      </c>
+      <c r="B340" t="s">
+        <v>912</v>
+      </c>
+      <c r="C340" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="D340" t="s">
+        <v>15</v>
+      </c>
+      <c r="E340" t="s">
+        <v>376</v>
+      </c>
+      <c r="F340" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="41" t="s">
+        <v>898</v>
+      </c>
+      <c r="B341" t="s">
+        <v>108</v>
+      </c>
+      <c r="C341" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="D341" t="s">
+        <v>872</v>
+      </c>
+      <c r="E341" t="s">
+        <v>376</v>
+      </c>
+      <c r="F341" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="41" t="s">
+        <v>899</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C342" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="D342" t="s">
+        <v>918</v>
+      </c>
+      <c r="E342" t="s">
+        <v>376</v>
+      </c>
+      <c r="F342" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="49" t="e">
+        <f t="shared" ref="A343:A345" si="0">_xlfn.CONCAT("TNM-054-",#REF!, "-2025")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B343" s="28" t="s">
+        <v>936</v>
+      </c>
+      <c r="C343" t="s">
+        <v>938</v>
+      </c>
+      <c r="D343" t="s">
+        <v>17</v>
+      </c>
+      <c r="E343" t="s">
+        <v>376</v>
+      </c>
+      <c r="F343" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="49" t="e">
+        <f t="shared" ref="A344:A345" si="1">_xlfn.CONCAT("TNM-054-",#REF!, "-2025")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B344" s="28" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C344" s="30" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D344" t="s">
+        <v>17</v>
+      </c>
+      <c r="E344" t="s">
+        <v>376</v>
+      </c>
+      <c r="F344" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="49" t="e">
+        <f t="shared" ref="A345" si="2">_xlfn.CONCAT("TNM-054-",#REF!, "-2025")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B345" s="28" t="s">
+        <v>858</v>
+      </c>
+      <c r="C345" s="28" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D345" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E345" t="s">
+        <v>351</v>
+      </c>
+      <c r="F345" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="379" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
@@ -21350,10 +22341,10 @@
       </c>
     </row>
     <row r="407" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A407" s="30" t="s">
+      <c r="A407" s="29" t="s">
         <v>937</v>
       </c>
-      <c r="B407" s="29" t="s">
+      <c r="B407" s="28" t="s">
         <v>936</v>
       </c>
       <c r="C407" t="s">
@@ -21370,13 +22361,13 @@
       </c>
     </row>
     <row r="408" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B408" s="29"/>
-      <c r="C408" s="31"/>
+      <c r="B408" s="28"/>
+      <c r="C408" s="30"/>
     </row>
     <row r="409" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B409" s="29"/>
-      <c r="C409" s="29"/>
-      <c r="D409" s="25"/>
+      <c r="B409" s="28"/>
+      <c r="C409" s="28"/>
+      <c r="D409" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21389,18 +22380,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BB4C77-EC78-E54B-9F74-171DAF10810C}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.83203125" customWidth="1"/>
     <col min="4" max="4" width="63.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.83203125" customWidth="1"/>
@@ -21408,32 +22399,804 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="55" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="15"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="41" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D3" t="s">
+        <v>872</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D5" t="s">
+        <v>870</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D7" t="s">
+        <v>870</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>918</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D13" t="s">
+        <v>871</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D14" t="s">
+        <v>870</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D18" t="s">
+        <v>871</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B19" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>918</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>872</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="41" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>918</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="41" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D24" t="s">
+        <v>872</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="41" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D27" t="s">
+        <v>870</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="41" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D28" t="s">
+        <v>871</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="49" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B30" t="s">
+        <v>366</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="49" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="49" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>913</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D32" t="s">
+        <v>918</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="50" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B33" t="s">
+        <v>857</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D33" t="s">
+        <v>873</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="50" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>856</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="50" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="50" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B36" t="s">
+        <v>384</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="50" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B37" t="s">
+        <v>324</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="50" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="50" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="50" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B40" t="s">
+        <v>370</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion WEB 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8709D4-10B0-EF4F-ABBA-41F1D483CEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EF8B45-D8A4-C84F-9649-1833172B7403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="31120" windowHeight="15860" activeTab="2" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5201" uniqueCount="1437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="1435">
   <si>
     <t>Nombre</t>
   </si>
@@ -2750,9 +2750,6 @@
     <t>TNM-054-53-2025</t>
   </si>
   <si>
-    <t>ALBERTO RAMIREZ MARQUEZ</t>
-  </si>
-  <si>
     <t>JUANA HERNÁNDEZ CHAVARRÍA</t>
   </si>
   <si>
@@ -2853,9 +2850,6 @@
   </si>
   <si>
     <t>SUSANA ELIZABETH MONTES MARRERO</t>
-  </si>
-  <si>
-    <t>ISRAEL IVAN GUTIÈRREZ MUÑOZ</t>
   </si>
   <si>
     <t>JOSÉ ANTONIO MARTÍNEZ LÓPEZ</t>
@@ -4367,7 +4361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4441,24 +4435,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1A1C1E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4476,8 +4452,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1A1C1E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4516,18 +4498,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -4749,11 +4725,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4827,28 +4825,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -4860,32 +4844,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5104,6 +5139,19 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color rgb="FF000000"/>
@@ -5125,14 +5173,6 @@
           <color rgb="FF000000"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5406,7 +5446,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27943D54-4A32-B44A-9589-52B75777226A}" name="PARTICIPANTES1618" displayName="PARTICIPANTES1618" ref="A1:F345" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27943D54-4A32-B44A-9589-52B75777226A}" name="PARTICIPANTES1618" displayName="PARTICIPANTES1618" ref="A1:F384" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <tableColumns count="6">
     <tableColumn id="17" xr3:uid="{43E7D114-76C6-9847-831D-9DE65D5C1D35}" name="Folio" dataDxfId="22"/>
     <tableColumn id="6" xr3:uid="{F906E5A4-7672-0045-A8E7-A254C92ED30E}" name="Nombre" dataDxfId="21" totalsRowDxfId="20"/>
@@ -5420,9 +5460,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B508AFF-503A-7943-8DD5-D06EBFCC8B62}" name="PARTICIPANTES16183" displayName="PARTICIPANTES16183" ref="A1:F40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B508AFF-503A-7943-8DD5-D06EBFCC8B62}" name="PARTICIPANTES16183" displayName="PARTICIPANTES16183" ref="A1:F40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="6">
-    <tableColumn id="17" xr3:uid="{81EB27DA-9005-8343-8270-24F41F32CD2D}" name="Folio" dataDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{81EB27DA-9005-8343-8270-24F41F32CD2D}" name="Folio" dataDxfId="10"/>
     <tableColumn id="6" xr3:uid="{783F0072-DA7B-3140-83D6-27D662F54BBB}" name="Nombre" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="8" xr3:uid="{D0D33A24-B6D2-2541-8F70-5398A340F57E}" name="Curso" dataDxfId="7"/>
     <tableColumn id="9" xr3:uid="{AB02D729-8232-8643-B88A-00257BFDD549}" name="Departamento" dataDxfId="6" totalsRowDxfId="5"/>
@@ -5853,7 +5893,7 @@
         <v>406</v>
       </c>
       <c r="B5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -9713,7 +9753,7 @@
         <v>599</v>
       </c>
       <c r="B198" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C198" t="s">
         <v>236</v>
@@ -14671,7 +14711,7 @@
     </row>
     <row r="447" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B447" t="s">
         <v>866</v>
@@ -14691,7 +14731,7 @@
     </row>
     <row r="448" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B448" t="s">
         <v>5</v>
@@ -14711,7 +14751,7 @@
     </row>
     <row r="449" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B449" t="s">
         <v>24</v>
@@ -14861,9 +14901,9 @@
   <dimension ref="A1:G409"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="I312" sqref="I312"/>
+      <selection pane="bottomLeft" activeCell="H351" sqref="H351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14897,791 +14937,791 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="56" t="s">
+        <v>937</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>939</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B4" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>940</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>941</v>
+      </c>
+      <c r="B6" s="57" t="s">
         <v>1247</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C6" s="58" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D6" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>942</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>912</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>943</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>944</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>945</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>946</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>947</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>948</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>949</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D14" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E14" s="59" t="s">
         <v>351</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>940</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="F14" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>950</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>951</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>952</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F17" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>953</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F18" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>954</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>955</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>956</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>957</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>958</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>959</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>960</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>961</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F26" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>962</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F27" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>963</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D28" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E28" s="59" t="s">
         <v>351</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>941</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="F28" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>964</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F29" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>965</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>966</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D32" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>968</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>969</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>970</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F35" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F36" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>872</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F37" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D38" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E38" s="59" t="s">
         <v>351</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>942</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F38" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="59" t="s">
         <v>351</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>943</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F39" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>975</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="59" t="s">
         <v>351</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>944</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>913</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>945</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>351</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>946</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>947</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>351</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>948</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>351</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>949</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>351</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>950</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>351</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>951</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>351</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>952</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" t="s">
-        <v>352</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>351</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>953</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" t="s">
-        <v>352</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>351</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>954</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" t="s">
-        <v>352</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>351</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C18" t="s">
-        <v>352</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>351</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>956</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" t="s">
-        <v>352</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>351</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>957</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" t="s">
-        <v>352</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>351</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>958</v>
-      </c>
-      <c r="B21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" t="s">
-        <v>352</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>351</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>959</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C22" t="s">
-        <v>352</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>351</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>960</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" t="s">
-        <v>352</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>351</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>961</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C24" t="s">
-        <v>352</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>351</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>962</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C25" t="s">
-        <v>352</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>351</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>963</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>352</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>351</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>964</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" t="s">
-        <v>352</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>351</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>965</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C28" t="s">
-        <v>352</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>351</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>966</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C29" t="s">
-        <v>352</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" t="s">
-        <v>351</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>967</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" t="s">
-        <v>352</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>351</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>968</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" t="s">
-        <v>352</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" t="s">
-        <v>351</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>969</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>352</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>351</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>970</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C33" t="s">
-        <v>352</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>351</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>971</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34" t="s">
-        <v>352</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s">
-        <v>351</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>972</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" t="s">
-        <v>352</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" t="s">
-        <v>351</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>973</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
-        <v>352</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" t="s">
-        <v>351</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>974</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C37" t="s">
-        <v>352</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>872</v>
-      </c>
-      <c r="E37" t="s">
-        <v>351</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>975</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="C38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
-        <v>351</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>976</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>352</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" t="s">
-        <v>351</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>977</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C40" t="s">
-        <v>352</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
-        <v>351</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C41" t="s">
         <v>352</v>
@@ -15698,7 +15738,7 @@
     </row>
     <row r="42" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B42" s="33" t="s">
         <v>252</v>
@@ -15718,7 +15758,7 @@
     </row>
     <row r="43" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B43" s="33" t="s">
         <v>166</v>
@@ -15738,7 +15778,7 @@
     </row>
     <row r="44" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B44" s="33" t="s">
         <v>38</v>
@@ -15758,10 +15798,10 @@
     </row>
     <row r="45" spans="1:6" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C45" t="s">
         <v>352</v>
@@ -15778,7 +15818,7 @@
     </row>
     <row r="46" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B46" s="33" t="s">
         <v>386</v>
@@ -15798,7 +15838,7 @@
     </row>
     <row r="47" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B47" s="33" t="s">
         <v>353</v>
@@ -15818,10 +15858,10 @@
     </row>
     <row r="48" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C48" t="s">
         <v>354</v>
@@ -15838,7 +15878,7 @@
     </row>
     <row r="49" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B49" s="33" t="s">
         <v>213</v>
@@ -15858,10 +15898,10 @@
     </row>
     <row r="50" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C50" t="s">
         <v>354</v>
@@ -15878,10 +15918,10 @@
     </row>
     <row r="51" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C51" t="s">
         <v>354</v>
@@ -15898,10 +15938,10 @@
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C52" t="s">
         <v>354</v>
@@ -15918,7 +15958,7 @@
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B53" s="33" t="s">
         <v>99</v>
@@ -15938,7 +15978,7 @@
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B54" s="33" t="s">
         <v>323</v>
@@ -15958,7 +15998,7 @@
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B55" s="33" t="s">
         <v>212</v>
@@ -15978,7 +16018,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B56" s="33" t="s">
         <v>355</v>
@@ -15998,7 +16038,7 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B57" s="33" t="s">
         <v>216</v>
@@ -16018,7 +16058,7 @@
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B58" s="33" t="s">
         <v>860</v>
@@ -16038,7 +16078,7 @@
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B59" s="33" t="s">
         <v>209</v>
@@ -16058,10 +16098,10 @@
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C60" t="s">
         <v>354</v>
@@ -16078,7 +16118,7 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B61" s="33" t="s">
         <v>321</v>
@@ -16098,10 +16138,10 @@
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C62" t="s">
         <v>354</v>
@@ -16118,7 +16158,7 @@
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B63" s="33" t="s">
         <v>317</v>
@@ -16138,7 +16178,7 @@
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B64" s="33" t="s">
         <v>30</v>
@@ -16158,7 +16198,7 @@
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B65" s="33" t="s">
         <v>332</v>
@@ -16178,10 +16218,10 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C66" t="s">
         <v>356</v>
@@ -16198,10 +16238,10 @@
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C67" t="s">
         <v>356</v>
@@ -16218,10 +16258,10 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C68" t="s">
         <v>356</v>
@@ -16238,7 +16278,7 @@
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B69" s="33" t="s">
         <v>294</v>
@@ -16258,7 +16298,7 @@
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B70" s="33" t="s">
         <v>251</v>
@@ -16278,7 +16318,7 @@
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B71" s="33" t="s">
         <v>853</v>
@@ -16298,7 +16338,7 @@
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B72" s="33" t="s">
         <v>16</v>
@@ -16318,10 +16358,10 @@
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C73" t="s">
         <v>356</v>
@@ -16338,7 +16378,7 @@
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B74" s="33" t="s">
         <v>128</v>
@@ -16358,7 +16398,7 @@
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B75" s="33" t="s">
         <v>25</v>
@@ -16378,7 +16418,7 @@
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B76" s="33" t="s">
         <v>136</v>
@@ -16398,7 +16438,7 @@
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B77" s="33" t="s">
         <v>357</v>
@@ -16418,10 +16458,10 @@
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C78" t="s">
         <v>356</v>
@@ -16438,7 +16478,7 @@
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B79" s="33" t="s">
         <v>358</v>
@@ -16458,10 +16498,10 @@
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C80" t="s">
         <v>356</v>
@@ -16478,7 +16518,7 @@
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B81" s="33" t="s">
         <v>227</v>
@@ -16498,7 +16538,7 @@
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B82" s="33" t="s">
         <v>359</v>
@@ -16518,7 +16558,7 @@
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B83" s="33" t="s">
         <v>5</v>
@@ -16538,7 +16578,7 @@
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B84" s="33" t="s">
         <v>45</v>
@@ -16558,7 +16598,7 @@
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B85" s="33" t="s">
         <v>43</v>
@@ -16578,7 +16618,7 @@
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B86" s="33" t="s">
         <v>84</v>
@@ -16598,7 +16638,7 @@
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B87" s="33" t="s">
         <v>79</v>
@@ -16618,7 +16658,7 @@
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B88" s="33" t="s">
         <v>63</v>
@@ -16638,7 +16678,7 @@
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B89" s="33" t="s">
         <v>257</v>
@@ -16658,10 +16698,10 @@
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C90" t="s">
         <v>360</v>
@@ -16678,10 +16718,10 @@
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C91" t="s">
         <v>360</v>
@@ -16698,7 +16738,7 @@
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B92" s="33" t="s">
         <v>49</v>
@@ -16718,7 +16758,7 @@
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B93" s="33" t="s">
         <v>47</v>
@@ -16738,7 +16778,7 @@
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B94" s="33" t="s">
         <v>75</v>
@@ -16758,10 +16798,10 @@
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C95" t="s">
         <v>360</v>
@@ -16778,7 +16818,7 @@
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B96" s="33" t="s">
         <v>361</v>
@@ -16798,7 +16838,7 @@
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B97" s="33" t="s">
         <v>362</v>
@@ -16818,7 +16858,7 @@
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B98" s="33" t="s">
         <v>57</v>
@@ -16838,10 +16878,10 @@
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C99" t="s">
         <v>360</v>
@@ -16858,10 +16898,10 @@
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C100" t="s">
         <v>360</v>
@@ -16878,10 +16918,10 @@
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C101" t="s">
         <v>360</v>
@@ -16898,7 +16938,7 @@
     </row>
     <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B102" s="33" t="s">
         <v>32</v>
@@ -16918,7 +16958,7 @@
     </row>
     <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B103" s="33" t="s">
         <v>73</v>
@@ -16938,10 +16978,10 @@
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C104" t="s">
         <v>364</v>
@@ -16958,7 +16998,7 @@
     </row>
     <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B105" s="33" t="s">
         <v>232</v>
@@ -16978,10 +17018,10 @@
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B106" s="33" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C106" t="s">
         <v>364</v>
@@ -16998,10 +17038,10 @@
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C107" t="s">
         <v>364</v>
@@ -17018,7 +17058,7 @@
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B108" s="33" t="s">
         <v>230</v>
@@ -17038,7 +17078,7 @@
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B109" s="33" t="s">
         <v>231</v>
@@ -17058,7 +17098,7 @@
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B110" s="33" t="s">
         <v>234</v>
@@ -17078,10 +17118,10 @@
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B111" s="33" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C111" t="s">
         <v>364</v>
@@ -17098,7 +17138,7 @@
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B112" s="33" t="s">
         <v>865</v>
@@ -17118,10 +17158,10 @@
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="32" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B113" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C113" s="35" t="s">
         <v>365</v>
@@ -17138,7 +17178,7 @@
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B114" s="33" t="s">
         <v>366</v>
@@ -17158,10 +17198,10 @@
     </row>
     <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C115" s="17" t="s">
         <v>367</v>
@@ -17178,10 +17218,10 @@
     </row>
     <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C116" s="17" t="s">
         <v>367</v>
@@ -17198,7 +17238,7 @@
     </row>
     <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B117" s="33" t="s">
         <v>198</v>
@@ -17218,10 +17258,10 @@
     </row>
     <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C118" s="17" t="s">
         <v>367</v>
@@ -17238,7 +17278,7 @@
     </row>
     <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B119" s="33" t="s">
         <v>200</v>
@@ -17258,10 +17298,10 @@
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C120" s="17" t="s">
         <v>367</v>
@@ -17278,7 +17318,7 @@
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B121" s="33" t="s">
         <v>199</v>
@@ -17298,7 +17338,7 @@
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B122" s="33" t="s">
         <v>206</v>
@@ -17318,7 +17358,7 @@
     </row>
     <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B123" s="33" t="s">
         <v>201</v>
@@ -17338,10 +17378,10 @@
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C124" s="17" t="s">
         <v>367</v>
@@ -17358,7 +17398,7 @@
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B125" s="33" t="s">
         <v>310</v>
@@ -17378,10 +17418,10 @@
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B126" s="39" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C126" s="17" t="s">
         <v>368</v>
@@ -17398,7 +17438,7 @@
     </row>
     <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B127" s="33" t="s">
         <v>305</v>
@@ -17418,10 +17458,10 @@
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C128" s="17" t="s">
         <v>368</v>
@@ -17438,7 +17478,7 @@
     </row>
     <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B129" s="33" t="s">
         <v>307</v>
@@ -17458,7 +17498,7 @@
     </row>
     <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B130" s="33" t="s">
         <v>97</v>
@@ -17478,10 +17518,10 @@
     </row>
     <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>368</v>
@@ -17498,7 +17538,7 @@
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B132" s="33" t="s">
         <v>94</v>
@@ -17518,10 +17558,10 @@
     </row>
     <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C133" s="17" t="s">
         <v>368</v>
@@ -17538,7 +17578,7 @@
     </row>
     <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B134" s="33" t="s">
         <v>330</v>
@@ -17558,10 +17598,10 @@
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C135" t="s">
         <v>369</v>
@@ -17578,7 +17618,7 @@
     </row>
     <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B136" s="33" t="s">
         <v>370</v>
@@ -17598,7 +17638,7 @@
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B137" s="33" t="s">
         <v>51</v>
@@ -17618,7 +17658,7 @@
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B138" s="33" t="s">
         <v>327</v>
@@ -17638,10 +17678,10 @@
     </row>
     <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C139" t="s">
         <v>369</v>
@@ -17658,7 +17698,7 @@
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B140" s="33" t="s">
         <v>371</v>
@@ -17678,10 +17718,10 @@
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C141" t="s">
         <v>369</v>
@@ -17698,7 +17738,7 @@
     </row>
     <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B142" s="33" t="s">
         <v>282</v>
@@ -17718,7 +17758,7 @@
     </row>
     <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B143" s="33" t="s">
         <v>345</v>
@@ -17738,7 +17778,7 @@
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B144" s="33" t="s">
         <v>159</v>
@@ -17758,7 +17798,7 @@
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B145" s="33" t="s">
         <v>372</v>
@@ -17778,10 +17818,10 @@
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C146" t="s">
         <v>369</v>
@@ -17798,7 +17838,7 @@
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B147" s="33" t="s">
         <v>373</v>
@@ -17818,10 +17858,10 @@
     </row>
     <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C148" t="s">
         <v>369</v>
@@ -17838,7 +17878,7 @@
     </row>
     <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B149" s="33" t="s">
         <v>374</v>
@@ -17858,10 +17898,10 @@
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="32" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B150" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C150" s="35" t="s">
         <v>375</v>
@@ -17878,7 +17918,7 @@
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B151" s="33" t="s">
         <v>122</v>
@@ -17898,7 +17938,7 @@
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B152" s="33" t="s">
         <v>123</v>
@@ -17918,7 +17958,7 @@
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B153" s="33" t="s">
         <v>260</v>
@@ -17938,7 +17978,7 @@
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B154" s="33" t="s">
         <v>165</v>
@@ -17958,10 +17998,10 @@
     </row>
     <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B155" s="33" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C155" t="s">
         <v>377</v>
@@ -17978,7 +18018,7 @@
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B156" s="33" t="s">
         <v>268</v>
@@ -17998,10 +18038,10 @@
     </row>
     <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C157" t="s">
         <v>377</v>
@@ -18018,7 +18058,7 @@
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B158" s="33" t="s">
         <v>93</v>
@@ -18038,7 +18078,7 @@
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B159" s="33" t="s">
         <v>110</v>
@@ -18058,10 +18098,10 @@
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B160" s="33" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C160" t="s">
         <v>377</v>
@@ -18078,7 +18118,7 @@
     </row>
     <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B161" s="33" t="s">
         <v>90</v>
@@ -18098,10 +18138,10 @@
     </row>
     <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C162" t="s">
         <v>377</v>
@@ -18118,7 +18158,7 @@
     </row>
     <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B163" s="33" t="s">
         <v>266</v>
@@ -18138,7 +18178,7 @@
     </row>
     <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B164" s="33" t="s">
         <v>92</v>
@@ -18158,7 +18198,7 @@
     </row>
     <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B165" s="33" t="s">
         <v>121</v>
@@ -18178,7 +18218,7 @@
     </row>
     <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B166" s="33" t="s">
         <v>86</v>
@@ -18198,10 +18238,10 @@
     </row>
     <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B167" s="33" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C167" t="s">
         <v>377</v>
@@ -18218,7 +18258,7 @@
     </row>
     <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="14" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B168" s="33" t="s">
         <v>43</v>
@@ -18238,7 +18278,7 @@
     </row>
     <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B169" s="33" t="s">
         <v>257</v>
@@ -18258,7 +18298,7 @@
     </row>
     <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B170" s="33" t="s">
         <v>249</v>
@@ -18278,7 +18318,7 @@
     </row>
     <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B171" s="33" t="s">
         <v>79</v>
@@ -18298,7 +18338,7 @@
     </row>
     <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="14" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B172" s="33" t="s">
         <v>63</v>
@@ -18318,10 +18358,10 @@
     </row>
     <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="14" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B173" s="33" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C173" s="17" t="s">
         <v>378</v>
@@ -18338,7 +18378,7 @@
     </row>
     <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="14" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B174" s="33" t="s">
         <v>69</v>
@@ -18358,10 +18398,10 @@
     </row>
     <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="14" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B175" s="33" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C175" s="17" t="s">
         <v>378</v>
@@ -18378,7 +18418,7 @@
     </row>
     <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B176" s="33" t="s">
         <v>45</v>
@@ -18398,7 +18438,7 @@
     </row>
     <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="14" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B177" s="33" t="s">
         <v>379</v>
@@ -18418,10 +18458,10 @@
     </row>
     <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B178" s="33" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C178" s="17" t="s">
         <v>378</v>
@@ -18438,7 +18478,7 @@
     </row>
     <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="14" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B179" s="33" t="s">
         <v>57</v>
@@ -18458,7 +18498,7 @@
     </row>
     <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="14" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B180" s="33" t="s">
         <v>77</v>
@@ -18478,7 +18518,7 @@
     </row>
     <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="14" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B181" s="33" t="s">
         <v>65</v>
@@ -18498,7 +18538,7 @@
     </row>
     <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="14" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B182" s="33" t="s">
         <v>47</v>
@@ -18518,7 +18558,7 @@
     </row>
     <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B183" s="33" t="s">
         <v>75</v>
@@ -18538,7 +18578,7 @@
     </row>
     <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B184" s="33" t="s">
         <v>59</v>
@@ -18558,7 +18598,7 @@
     </row>
     <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B185" s="33" t="s">
         <v>361</v>
@@ -18578,7 +18618,7 @@
     </row>
     <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="14" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B186" s="33" t="s">
         <v>73</v>
@@ -18598,7 +18638,7 @@
     </row>
     <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="14" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B187" s="33" t="s">
         <v>32</v>
@@ -18618,7 +18658,7 @@
     </row>
     <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="14" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B188" s="33" t="s">
         <v>53</v>
@@ -18638,7 +18678,7 @@
     </row>
     <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B189" s="33" t="s">
         <v>258</v>
@@ -18658,10 +18698,10 @@
     </row>
     <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="14" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B190" s="33" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C190" s="17" t="s">
         <v>378</v>
@@ -18678,7 +18718,7 @@
     </row>
     <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="14" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B191" s="33" t="s">
         <v>81</v>
@@ -18698,7 +18738,7 @@
     </row>
     <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="14" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B192" s="33" t="s">
         <v>84</v>
@@ -18718,7 +18758,7 @@
     </row>
     <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="14" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B193" s="33" t="s">
         <v>83</v>
@@ -18738,7 +18778,7 @@
     </row>
     <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="14" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B194" s="33" t="s">
         <v>86</v>
@@ -18758,7 +18798,7 @@
     </row>
     <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="14" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B195" s="33" t="s">
         <v>85</v>
@@ -18778,10 +18818,10 @@
     </row>
     <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="14" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B196" s="33" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C196" s="17" t="s">
         <v>381</v>
@@ -18798,10 +18838,10 @@
     </row>
     <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="14" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B197" s="33" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C197" s="17" t="s">
         <v>381</v>
@@ -18818,10 +18858,10 @@
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="14" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B198" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C198" s="17" t="s">
         <v>381</v>
@@ -18838,7 +18878,7 @@
     </row>
     <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B199" s="33" t="s">
         <v>382</v>
@@ -18858,7 +18898,7 @@
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B200" s="33" t="s">
         <v>159</v>
@@ -18878,10 +18918,10 @@
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="14" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B201" s="33" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C201" s="17" t="s">
         <v>381</v>
@@ -18898,10 +18938,10 @@
     </row>
     <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="14" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B202" s="33" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C202" s="17" t="s">
         <v>381</v>
@@ -18918,10 +18958,10 @@
     </row>
     <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="14" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B203" s="33" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C203" s="17" t="s">
         <v>381</v>
@@ -18938,10 +18978,10 @@
     </row>
     <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="14" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B204" s="33" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C204" s="17" t="s">
         <v>381</v>
@@ -18958,7 +18998,7 @@
     </row>
     <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="14" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B205" s="33" t="s">
         <v>383</v>
@@ -18978,10 +19018,10 @@
     </row>
     <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="14" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B206" s="33" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C206" s="17" t="s">
         <v>381</v>
@@ -18998,7 +19038,7 @@
     </row>
     <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="14" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B207" s="33" t="s">
         <v>384</v>
@@ -19018,10 +19058,10 @@
     </row>
     <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="14" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B208" s="33" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C208" s="17" t="s">
         <v>381</v>
@@ -19038,7 +19078,7 @@
     </row>
     <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B209" s="33" t="s">
         <v>292</v>
@@ -19058,10 +19098,10 @@
     </row>
     <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="14" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B210" s="33" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C210" s="17" t="s">
         <v>381</v>
@@ -19078,7 +19118,7 @@
     </row>
     <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="14" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B211" s="33" t="s">
         <v>385</v>
@@ -19098,10 +19138,10 @@
     </row>
     <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="14" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B212" s="33" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C212" s="17" t="s">
         <v>381</v>
@@ -19118,7 +19158,7 @@
     </row>
     <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="14" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B213" s="33" t="s">
         <v>386</v>
@@ -19138,10 +19178,10 @@
     </row>
     <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="32" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B214" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C214" s="35" t="s">
         <v>387</v>
@@ -19158,7 +19198,7 @@
     </row>
     <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="14" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B215" s="33" t="s">
         <v>278</v>
@@ -19178,10 +19218,10 @@
     </row>
     <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="14" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B216" s="33" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C216" s="17" t="s">
         <v>388</v>
@@ -19198,10 +19238,10 @@
     </row>
     <row r="217" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="14" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B217" s="33" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C217" s="17" t="s">
         <v>388</v>
@@ -19218,10 +19258,10 @@
     </row>
     <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="14" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B218" s="33" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C218" s="17" t="s">
         <v>388</v>
@@ -19238,7 +19278,7 @@
     </row>
     <row r="219" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="14" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B219" s="33" t="s">
         <v>224</v>
@@ -19258,7 +19298,7 @@
     </row>
     <row r="220" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="14" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B220" s="33" t="s">
         <v>308</v>
@@ -19278,10 +19318,10 @@
     </row>
     <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="14" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B221" s="33" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C221" s="17" t="s">
         <v>388</v>
@@ -19298,7 +19338,7 @@
     </row>
     <row r="222" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="14" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B222" s="33" t="s">
         <v>307</v>
@@ -19318,7 +19358,7 @@
     </row>
     <row r="223" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="14" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B223" s="33" t="s">
         <v>94</v>
@@ -19338,10 +19378,10 @@
     </row>
     <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="14" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B224" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C224" s="17" t="s">
         <v>388</v>
@@ -19358,16 +19398,16 @@
     </row>
     <row r="225" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="14" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C225" s="17" t="s">
         <v>388</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="E225" t="s">
         <v>376</v>
@@ -19378,7 +19418,7 @@
     </row>
     <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="14" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B226" s="33" t="s">
         <v>101</v>
@@ -19398,7 +19438,7 @@
     </row>
     <row r="227" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="14" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B227" s="33" t="s">
         <v>310</v>
@@ -19418,7 +19458,7 @@
     </row>
     <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="14" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B228" s="33" t="s">
         <v>97</v>
@@ -19438,10 +19478,10 @@
     </row>
     <row r="229" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="14" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B229" s="33" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C229" s="17" t="s">
         <v>388</v>
@@ -19458,7 +19498,7 @@
     </row>
     <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="14" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B230" s="33" t="s">
         <v>389</v>
@@ -19478,7 +19518,7 @@
     </row>
     <row r="231" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B231" s="33" t="s">
         <v>305</v>
@@ -19498,7 +19538,7 @@
     </row>
     <row r="232" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="14" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B232" s="33" t="s">
         <v>223</v>
@@ -19518,7 +19558,7 @@
     </row>
     <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="14" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B233" s="33" t="s">
         <v>230</v>
@@ -19538,7 +19578,7 @@
     </row>
     <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="14" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B234" s="33" t="s">
         <v>231</v>
@@ -19558,10 +19598,10 @@
     </row>
     <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="14" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B235" s="33" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C235" s="17" t="s">
         <v>390</v>
@@ -19578,7 +19618,7 @@
     </row>
     <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="14" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B236" s="33" t="s">
         <v>220</v>
@@ -19598,7 +19638,7 @@
     </row>
     <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="14" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B237" s="33" t="s">
         <v>232</v>
@@ -19618,16 +19658,16 @@
     </row>
     <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="14" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B238" s="33" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C238" s="17" t="s">
         <v>390</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E238" t="s">
         <v>376</v>
@@ -19638,10 +19678,10 @@
     </row>
     <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="14" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B239" s="33" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C239" s="17" t="s">
         <v>390</v>
@@ -19658,10 +19698,10 @@
     </row>
     <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="14" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B240" s="33" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C240" s="17" t="s">
         <v>390</v>
@@ -19678,7 +19718,7 @@
     </row>
     <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="14" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B241" s="33" t="s">
         <v>234</v>
@@ -19698,10 +19738,10 @@
     </row>
     <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="14" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B242" s="33" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C242" s="17" t="s">
         <v>390</v>
@@ -19718,10 +19758,10 @@
     </row>
     <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="14" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B243" s="33" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C243" s="17" t="s">
         <v>390</v>
@@ -19738,7 +19778,7 @@
     </row>
     <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="14" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B244" s="33" t="s">
         <v>391</v>
@@ -19758,10 +19798,10 @@
     </row>
     <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="14" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B245" s="33" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C245" s="17" t="s">
         <v>390</v>
@@ -19778,7 +19818,7 @@
     </row>
     <row r="246" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="14" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B246" s="33" t="s">
         <v>860</v>
@@ -19798,10 +19838,10 @@
     </row>
     <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="14" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B247" s="33" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C247" t="s">
         <v>392</v>
@@ -19818,10 +19858,10 @@
     </row>
     <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="14" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B248" s="33" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C248" t="s">
         <v>392</v>
@@ -19838,10 +19878,10 @@
     </row>
     <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="14" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B249" s="33" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C249" t="s">
         <v>392</v>
@@ -19858,7 +19898,7 @@
     </row>
     <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="14" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B250" s="33" t="s">
         <v>353</v>
@@ -19878,7 +19918,7 @@
     </row>
     <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="14" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B251" s="33" t="s">
         <v>209</v>
@@ -19898,7 +19938,7 @@
     </row>
     <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="14" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B252" s="33" t="s">
         <v>215</v>
@@ -19918,10 +19958,10 @@
     </row>
     <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="14" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B253" s="33" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C253" t="s">
         <v>392</v>
@@ -19938,7 +19978,7 @@
     </row>
     <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="14" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B254" s="33" t="s">
         <v>247</v>
@@ -19958,7 +19998,7 @@
     </row>
     <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="14" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B255" s="33" t="s">
         <v>355</v>
@@ -19978,7 +20018,7 @@
     </row>
     <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="14" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B256" s="33" t="s">
         <v>324</v>
@@ -19998,7 +20038,7 @@
     </row>
     <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="14" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B257" s="33" t="s">
         <v>323</v>
@@ -20018,7 +20058,7 @@
     </row>
     <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="14" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B258" s="33" t="s">
         <v>216</v>
@@ -20038,7 +20078,7 @@
     </row>
     <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="14" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B259" s="33" t="s">
         <v>213</v>
@@ -20058,7 +20098,7 @@
     </row>
     <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="14" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B260" s="33" t="s">
         <v>89</v>
@@ -20078,10 +20118,10 @@
     </row>
     <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="14" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B261" s="33" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C261" s="15" t="s">
         <v>393</v>
@@ -20098,7 +20138,7 @@
     </row>
     <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="14" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B262" s="33" t="s">
         <v>13</v>
@@ -20118,10 +20158,10 @@
     </row>
     <row r="263" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="14" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B263" s="33" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C263" s="15" t="s">
         <v>393</v>
@@ -20138,10 +20178,10 @@
     </row>
     <row r="264" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="14" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B264" s="33" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C264" s="15" t="s">
         <v>393</v>
@@ -20158,10 +20198,10 @@
     </row>
     <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="14" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B265" s="33" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C265" s="15" t="s">
         <v>393</v>
@@ -20178,7 +20218,7 @@
     </row>
     <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="14" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B266" s="33" t="s">
         <v>394</v>
@@ -20198,10 +20238,10 @@
     </row>
     <row r="267" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="14" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B267" s="33" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C267" s="15" t="s">
         <v>393</v>
@@ -20218,10 +20258,10 @@
     </row>
     <row r="268" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="14" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B268" s="33" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C268" s="15" t="s">
         <v>393</v>
@@ -20238,7 +20278,7 @@
     </row>
     <row r="269" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="14" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B269" s="33" t="s">
         <v>395</v>
@@ -20258,10 +20298,10 @@
     </row>
     <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="14" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B270" s="33" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C270" s="15" t="s">
         <v>393</v>
@@ -20278,7 +20318,7 @@
     </row>
     <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="14" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B271" s="33" t="s">
         <v>176</v>
@@ -20298,10 +20338,10 @@
     </row>
     <row r="272" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="14" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B272" s="33" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C272" s="15" t="s">
         <v>393</v>
@@ -20318,7 +20358,7 @@
     </row>
     <row r="273" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="14" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B273" s="33" t="s">
         <v>118</v>
@@ -20338,7 +20378,7 @@
     </row>
     <row r="274" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="14" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B274" s="33" t="s">
         <v>256</v>
@@ -20358,7 +20398,7 @@
     </row>
     <row r="275" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="14" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B275" s="33" t="s">
         <v>139</v>
@@ -20378,10 +20418,10 @@
     </row>
     <row r="276" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="14" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B276" s="33" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C276" s="15" t="s">
         <v>393</v>
@@ -20398,10 +20438,10 @@
     </row>
     <row r="277" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="14" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B277" s="33" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C277" s="15" t="s">
         <v>393</v>
@@ -20418,7 +20458,7 @@
     </row>
     <row r="278" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="14" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B278" s="33" t="s">
         <v>200</v>
@@ -20438,10 +20478,10 @@
     </row>
     <row r="279" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="14" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B279" s="33" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C279" t="s">
         <v>396</v>
@@ -20458,10 +20498,10 @@
     </row>
     <row r="280" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="14" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B280" s="33" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C280" t="s">
         <v>396</v>
@@ -20478,7 +20518,7 @@
     </row>
     <row r="281" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="14" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B281" s="33" t="s">
         <v>194</v>
@@ -20498,7 +20538,7 @@
     </row>
     <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="14" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B282" s="33" t="s">
         <v>203</v>
@@ -20518,7 +20558,7 @@
     </row>
     <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="14" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B283" s="33" t="s">
         <v>192</v>
@@ -20538,7 +20578,7 @@
     </row>
     <row r="284" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="14" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B284" s="33" t="s">
         <v>397</v>
@@ -20558,10 +20598,10 @@
     </row>
     <row r="285" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="14" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B285" s="33" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C285" t="s">
         <v>396</v>
@@ -20578,10 +20618,10 @@
     </row>
     <row r="286" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="14" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B286" s="33" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C286" t="s">
         <v>396</v>
@@ -20598,7 +20638,7 @@
     </row>
     <row r="287" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="14" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B287" s="33" t="s">
         <v>158</v>
@@ -20618,7 +20658,7 @@
     </row>
     <row r="288" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="14" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B288" s="33" t="s">
         <v>198</v>
@@ -20638,7 +20678,7 @@
     </row>
     <row r="289" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="14" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B289" s="33" t="s">
         <v>366</v>
@@ -20658,7 +20698,7 @@
     </row>
     <row r="290" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="14" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B290" s="33" t="s">
         <v>859</v>
@@ -20678,7 +20718,7 @@
     </row>
     <row r="291" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="14" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B291" s="33" t="s">
         <v>201</v>
@@ -20698,10 +20738,10 @@
     </row>
     <row r="292" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="14" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B292" s="33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C292" t="s">
         <v>396</v>
@@ -20718,7 +20758,7 @@
     </row>
     <row r="293" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="16" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B293" s="33" t="s">
         <v>121</v>
@@ -20738,7 +20778,7 @@
     </row>
     <row r="294" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="16" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B294" s="33" t="s">
         <v>262</v>
@@ -20758,7 +20798,7 @@
     </row>
     <row r="295" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="16" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B295" s="33" t="s">
         <v>189</v>
@@ -20778,7 +20818,7 @@
     </row>
     <row r="296" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="16" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B296" s="33" t="s">
         <v>261</v>
@@ -20798,7 +20838,7 @@
     </row>
     <row r="297" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="16" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B297" s="33" t="s">
         <v>267</v>
@@ -20818,10 +20858,10 @@
     </row>
     <row r="298" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="16" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B298" s="33" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C298" t="s">
         <v>398</v>
@@ -20838,7 +20878,7 @@
     </row>
     <row r="299" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="16" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B299" s="33" t="s">
         <v>109</v>
@@ -20858,10 +20898,10 @@
     </row>
     <row r="300" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="16" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B300" s="33" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C300" t="s">
         <v>398</v>
@@ -20878,7 +20918,7 @@
     </row>
     <row r="301" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="16" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B301" s="33" t="s">
         <v>114</v>
@@ -20898,7 +20938,7 @@
     </row>
     <row r="302" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="16" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B302" s="33" t="s">
         <v>856</v>
@@ -20918,10 +20958,10 @@
     </row>
     <row r="303" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="16" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B303" s="33" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C303" t="s">
         <v>399</v>
@@ -20938,10 +20978,10 @@
     </row>
     <row r="304" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="38" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B304" s="33" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C304" t="s">
         <v>399</v>
@@ -20958,10 +20998,10 @@
     </row>
     <row r="305" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="38" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B305" s="33" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C305" t="s">
         <v>399</v>
@@ -20978,7 +21018,7 @@
     </row>
     <row r="306" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="38" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B306" s="33" t="s">
         <v>400</v>
@@ -20998,10 +21038,10 @@
     </row>
     <row r="307" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="38" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B307" s="33" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C307" t="s">
         <v>399</v>
@@ -21018,7 +21058,7 @@
     </row>
     <row r="308" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="38" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B308" s="33" t="s">
         <v>401</v>
@@ -21038,7 +21078,7 @@
     </row>
     <row r="309" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="38" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B309" s="33" t="s">
         <v>49</v>
@@ -21058,7 +21098,7 @@
     </row>
     <row r="310" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="38" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B310" s="33" t="s">
         <v>402</v>
@@ -21078,10 +21118,10 @@
     </row>
     <row r="311" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="38" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B311" s="33" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C311" t="s">
         <v>399</v>
@@ -21098,7 +21138,7 @@
     </row>
     <row r="312" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="38" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B312" s="33" t="s">
         <v>329</v>
@@ -21118,7 +21158,7 @@
     </row>
     <row r="313" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="38" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B313" s="33" t="s">
         <v>248</v>
@@ -21137,25 +21177,25 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="56" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B314" s="57" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C314" s="58" t="s">
+      <c r="A314" s="46" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B314" s="47" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C314" s="48" t="s">
         <v>399</v>
       </c>
-      <c r="D314" s="59" t="s">
+      <c r="D314" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E314" s="60" t="s">
+      <c r="E314" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="F314" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="G314" s="62"/>
+      <c r="F314" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G314" s="52"/>
     </row>
     <row r="315" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="41" t="s">
@@ -21222,13 +21262,13 @@
         <v>881</v>
       </c>
       <c r="B318" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C318" s="50" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C318" s="44" t="s">
         <v>356</v>
       </c>
       <c r="D318" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E318" t="s">
         <v>351</v>
@@ -21242,9 +21282,9 @@
         <v>882</v>
       </c>
       <c r="B319" s="28" t="s">
-        <v>901</v>
-      </c>
-      <c r="C319" s="45" t="s">
+        <v>900</v>
+      </c>
+      <c r="C319" s="42" t="s">
         <v>360</v>
       </c>
       <c r="D319" t="s">
@@ -21262,7 +21302,7 @@
         <v>883</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C320" s="15" t="s">
         <v>364</v>
@@ -21282,7 +21322,7 @@
         <v>884</v>
       </c>
       <c r="B321" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C321" t="s">
         <v>365</v>
@@ -21301,8 +21341,8 @@
       <c r="A322" s="41" t="s">
         <v>885</v>
       </c>
-      <c r="B322" s="63" t="s">
-        <v>904</v>
+      <c r="B322" s="53" t="s">
+        <v>903</v>
       </c>
       <c r="C322" s="15" t="s">
         <v>367</v>
@@ -21322,7 +21362,7 @@
         <v>886</v>
       </c>
       <c r="B323" s="15" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C323" s="15" t="s">
         <v>368</v>
@@ -21339,10 +21379,10 @@
     </row>
     <row r="324" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="41" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B324" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C324" s="15" t="s">
         <v>369</v>
@@ -21359,16 +21399,16 @@
     </row>
     <row r="325" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="41" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>924</v>
-      </c>
-      <c r="C325" s="64" t="s">
+        <v>923</v>
+      </c>
+      <c r="C325" s="54" t="s">
         <v>375</v>
       </c>
       <c r="D325" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E325" t="s">
         <v>376</v>
@@ -21379,16 +21419,16 @@
     </row>
     <row r="326" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="41" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>923</v>
-      </c>
-      <c r="C326" s="64" t="s">
+        <v>922</v>
+      </c>
+      <c r="C326" s="54" t="s">
         <v>375</v>
       </c>
       <c r="D326" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E326" t="s">
         <v>376</v>
@@ -21399,16 +21439,16 @@
     </row>
     <row r="327" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="41" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>922</v>
-      </c>
-      <c r="C327" s="64" t="s">
+        <v>921</v>
+      </c>
+      <c r="C327" s="54" t="s">
         <v>375</v>
       </c>
       <c r="D327" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E327" t="s">
         <v>376</v>
@@ -21419,16 +21459,16 @@
     </row>
     <row r="328" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="41" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>921</v>
-      </c>
-      <c r="C328" s="64" t="s">
+        <v>920</v>
+      </c>
+      <c r="C328" s="54" t="s">
         <v>375</v>
       </c>
       <c r="D328" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E328" t="s">
         <v>376</v>
@@ -21439,16 +21479,16 @@
     </row>
     <row r="329" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="41" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>920</v>
-      </c>
-      <c r="C329" s="64" t="s">
+        <v>919</v>
+      </c>
+      <c r="C329" s="54" t="s">
         <v>375</v>
       </c>
       <c r="D329" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E329" t="s">
         <v>376</v>
@@ -21482,13 +21522,13 @@
         <v>888</v>
       </c>
       <c r="B331" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C331" t="s">
         <v>378</v>
       </c>
       <c r="D331" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E331" t="s">
         <v>376</v>
@@ -21502,7 +21542,7 @@
         <v>889</v>
       </c>
       <c r="B332" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C332" t="s">
         <v>380</v>
@@ -21524,11 +21564,11 @@
       <c r="B333" t="s">
         <v>166</v>
       </c>
-      <c r="C333" s="65" t="s">
+      <c r="C333" s="55" t="s">
         <v>381</v>
       </c>
       <c r="D333" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E333" t="s">
         <v>376</v>
@@ -21582,10 +21622,10 @@
         <v>893</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C336" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D336" t="s">
         <v>12</v>
@@ -21597,7 +21637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="41" t="s">
         <v>894</v>
       </c>
@@ -21617,7 +21657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="41" t="s">
         <v>895</v>
       </c>
@@ -21625,7 +21665,7 @@
         <v>126</v>
       </c>
       <c r="C338" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D338" t="s">
         <v>21</v>
@@ -21637,12 +21677,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="41" t="s">
         <v>896</v>
       </c>
       <c r="B339" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="C339" s="15" t="s">
         <v>393</v>
@@ -21657,12 +21697,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="41" t="s">
         <v>897</v>
       </c>
       <c r="B340" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C340" s="15" t="s">
         <v>396</v>
@@ -21677,7 +21717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="41" t="s">
         <v>898</v>
       </c>
@@ -21697,18 +21737,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="41" t="s">
         <v>899</v>
       </c>
       <c r="B342" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C342" s="30" t="s">
         <v>399</v>
       </c>
       <c r="D342" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E342" t="s">
         <v>376</v>
@@ -21717,16 +21757,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="49" t="e">
-        <f t="shared" ref="A343:A345" si="0">_xlfn.CONCAT("TNM-054-",#REF!, "-2025")</f>
-        <v>#REF!</v>
-      </c>
+    <row r="343" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="43"/>
       <c r="B343" s="28" t="s">
+        <v>934</v>
+      </c>
+      <c r="C343" t="s">
         <v>936</v>
-      </c>
-      <c r="C343" t="s">
-        <v>938</v>
       </c>
       <c r="D343" t="s">
         <v>17</v>
@@ -21738,16 +21775,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="49" t="e">
-        <f t="shared" ref="A344:A345" si="1">_xlfn.CONCAT("TNM-054-",#REF!, "-2025")</f>
-        <v>#REF!</v>
-      </c>
+    <row r="344" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="43"/>
       <c r="B344" s="28" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C344" s="30" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="D344" t="s">
         <v>17</v>
@@ -21759,144 +21793,802 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="49" t="e">
-        <f t="shared" ref="A345" si="2">_xlfn.CONCAT("TNM-054-",#REF!, "-2025")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B345" s="28" t="s">
+    <row r="345" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="50"/>
+      <c r="B345" s="81" t="s">
         <v>858</v>
       </c>
-      <c r="C345" s="28" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D345" s="24" t="s">
+      <c r="C345" s="81" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D345" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E345" t="s">
+      <c r="E345" s="83" t="s">
         <v>351</v>
       </c>
-      <c r="F345" t="s">
+      <c r="F345" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G345" s="83"/>
+    </row>
+    <row r="346" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="80" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B346" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C346" s="59" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D346" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E346" s="59" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F346" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="63" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B347" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C347" s="59" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D347" s="60" t="s">
+        <v>872</v>
+      </c>
+      <c r="E347" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F347" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="63" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B348" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="C348" s="59" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D348" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E348" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F348" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="63" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B349" s="57" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C349" s="59" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D349" s="60" t="s">
+        <v>870</v>
+      </c>
+      <c r="E349" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F349" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="63" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B350" s="57" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C350" s="59" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D350" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E350" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F350" s="59" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="63" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B351" s="57" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C351" s="59" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D351" s="60" t="s">
+        <v>870</v>
+      </c>
+      <c r="E351" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F351" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="63" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B352" s="57" t="s">
+        <v>401</v>
+      </c>
+      <c r="C352" s="59" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D352" s="73" t="s">
+        <v>917</v>
+      </c>
+      <c r="E352" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F352" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="63" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B353" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="C353" s="59" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D353" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E353" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F353" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="63" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B354" s="57" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C354" s="59" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D354" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E354" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F354" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="63" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B355" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="C355" s="59" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D355" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E355" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F355" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="63" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B356" s="57" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C356" s="59" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D356" s="60" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E356" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F356" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="63" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B357" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C357" s="59" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D357" s="60" t="s">
+        <v>871</v>
+      </c>
+      <c r="E357" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F357" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="63" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B358" s="57" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C358" s="59" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D358" s="60" t="s">
+        <v>870</v>
+      </c>
+      <c r="E358" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F358" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="63" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B359" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="C359" s="68" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D359" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E359" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F359" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="63" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B360" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="C360" s="59" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D360" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E360" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F360" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="63" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B361" s="57" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C361" s="59" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D361" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E361" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F361" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="63" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B362" s="57" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C362" s="59" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D362" s="60" t="s">
+        <v>871</v>
+      </c>
+      <c r="E362" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F362" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="63" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B363" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="C363" s="59" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D363" s="73" t="s">
+        <v>917</v>
+      </c>
+      <c r="E363" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F363" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="63" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B364" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="C364" s="69" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D364" s="60" t="s">
+        <v>872</v>
+      </c>
+      <c r="E364" s="69" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F364" s="69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="63" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B365" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C365" s="70" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D365" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E365" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F365" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="63" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B366" s="57" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C366" s="59" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D366" s="73" t="s">
+        <v>917</v>
+      </c>
+      <c r="E366" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F366" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="63" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B367" s="57" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C367" s="59" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D367" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E367" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F367" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="63" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B368" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="C368" s="59" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D368" s="60" t="s">
+        <v>872</v>
+      </c>
+      <c r="E368" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F368" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="63" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B369" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C369" s="59" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D369" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E369" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F369" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="63" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B370" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="C370" s="59" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D370" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E370" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F370" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="63" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B371" s="57" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C371" s="59" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D371" s="60" t="s">
+        <v>870</v>
+      </c>
+      <c r="E371" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F371" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="63" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B372" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C372" s="59" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D372" s="60" t="s">
+        <v>871</v>
+      </c>
+      <c r="E372" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F372" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="63" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B373" s="57" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C373" s="59" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D373" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E373" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F373" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B374" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="C374" s="59" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D374" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E374" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F374" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="16" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B375" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="C375" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D375" s="60" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E375" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F375" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="16" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B376" s="57" t="s">
+        <v>912</v>
+      </c>
+      <c r="C376" s="59" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D376" s="60" t="s">
+        <v>917</v>
+      </c>
+      <c r="E376" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F376" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="16" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B377" s="57" t="s">
+        <v>857</v>
+      </c>
+      <c r="C377" s="59" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D377" s="60" t="s">
+        <v>873</v>
+      </c>
+      <c r="E377" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F377" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="16" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B378" s="57" t="s">
+        <v>856</v>
+      </c>
+      <c r="C378" s="71" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D378" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E378" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F378" s="59" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
-        <v>878</v>
-      </c>
-      <c r="B379" t="s">
-        <v>235</v>
-      </c>
-      <c r="C379" t="s">
-        <v>350</v>
-      </c>
-      <c r="D379" t="s">
-        <v>876</v>
-      </c>
-      <c r="E379" t="s">
-        <v>351</v>
-      </c>
-      <c r="F379" t="s">
+      <c r="A379" s="16" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B379" s="57" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C379" s="59" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D379" s="60" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E379" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F379" s="59" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
-        <v>879</v>
-      </c>
-      <c r="B380" t="s">
-        <v>856</v>
-      </c>
-      <c r="C380" t="s">
-        <v>352</v>
-      </c>
-      <c r="D380" t="s">
-        <v>872</v>
-      </c>
-      <c r="E380" t="s">
-        <v>351</v>
-      </c>
-      <c r="F380" t="s">
+      <c r="A380" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B380" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="C380" s="59" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D380" s="60" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E380" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F380" s="59" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
-        <v>880</v>
-      </c>
-      <c r="B381" t="s">
-        <v>900</v>
-      </c>
-      <c r="C381" t="s">
-        <v>354</v>
-      </c>
-      <c r="D381" t="s">
+      <c r="A381" s="16" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B381" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="C381" s="59" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D381" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="E381" t="s">
-        <v>351</v>
-      </c>
-      <c r="F381" t="s">
+      <c r="E381" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F381" s="59" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
-        <v>881</v>
-      </c>
-      <c r="B382" t="s">
-        <v>935</v>
-      </c>
-      <c r="C382" t="s">
-        <v>356</v>
-      </c>
-      <c r="D382" t="s">
-        <v>870</v>
-      </c>
-      <c r="E382" t="s">
-        <v>351</v>
-      </c>
-      <c r="F382" t="s">
+      <c r="A382" s="16" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B382" s="57" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C382" s="59" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D382" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E382" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F382" s="59" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
-        <v>882</v>
-      </c>
-      <c r="B383" t="s">
-        <v>901</v>
-      </c>
-      <c r="C383" t="s">
-        <v>360</v>
-      </c>
-      <c r="D383" t="s">
-        <v>871</v>
-      </c>
-      <c r="E383" t="s">
-        <v>351</v>
-      </c>
-      <c r="F383" t="s">
+      <c r="A383" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B383" s="57" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C383" s="72" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D383" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E383" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F383" s="59" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="384" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
-        <v>883</v>
-      </c>
-      <c r="B384" t="s">
-        <v>902</v>
-      </c>
-      <c r="C384" t="s">
-        <v>364</v>
-      </c>
-      <c r="D384" t="s">
+      <c r="A384" s="76" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B384" s="77" t="s">
+        <v>370</v>
+      </c>
+      <c r="C384" s="78" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D384" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E384" t="s">
-        <v>351</v>
-      </c>
-      <c r="F384" t="s">
+      <c r="E384" s="78" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F384" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21905,7 +22597,7 @@
         <v>884</v>
       </c>
       <c r="B385" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C385" t="s">
         <v>365</v>
@@ -21925,7 +22617,7 @@
         <v>885</v>
       </c>
       <c r="B386" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C386" t="s">
         <v>367</v>
@@ -21945,7 +22637,7 @@
         <v>886</v>
       </c>
       <c r="B387" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C387" t="s">
         <v>368</v>
@@ -21962,10 +22654,10 @@
     </row>
     <row r="388" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B388" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C388" t="s">
         <v>369</v>
@@ -21982,16 +22674,16 @@
     </row>
     <row r="389" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B389" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C389" t="s">
         <v>375</v>
       </c>
       <c r="D389" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E389" t="s">
         <v>376</v>
@@ -22002,16 +22694,16 @@
     </row>
     <row r="390" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B390" s="11" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C390" t="s">
         <v>375</v>
       </c>
       <c r="D390" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E390" t="s">
         <v>376</v>
@@ -22022,16 +22714,16 @@
     </row>
     <row r="391" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B391" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C391" t="s">
         <v>375</v>
       </c>
       <c r="D391" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E391" t="s">
         <v>376</v>
@@ -22042,16 +22734,16 @@
     </row>
     <row r="392" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B392" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C392" t="s">
         <v>375</v>
       </c>
       <c r="D392" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E392" t="s">
         <v>376</v>
@@ -22062,16 +22754,16 @@
     </row>
     <row r="393" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B393" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C393" t="s">
         <v>375</v>
       </c>
       <c r="D393" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E393" t="s">
         <v>376</v>
@@ -22105,7 +22797,7 @@
         <v>888</v>
       </c>
       <c r="B395" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C395" t="s">
         <v>378</v>
@@ -22125,7 +22817,7 @@
         <v>889</v>
       </c>
       <c r="B396" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C396" t="s">
         <v>380</v>
@@ -22145,13 +22837,13 @@
         <v>890</v>
       </c>
       <c r="B397" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C397" t="s">
         <v>381</v>
       </c>
       <c r="D397" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E397" t="s">
         <v>376</v>
@@ -22205,10 +22897,10 @@
         <v>893</v>
       </c>
       <c r="B400" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C400" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D400" t="s">
         <v>12</v>
@@ -22248,7 +22940,7 @@
         <v>126</v>
       </c>
       <c r="C402" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D402" t="s">
         <v>21</v>
@@ -22265,7 +22957,7 @@
         <v>896</v>
       </c>
       <c r="B403" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C403" t="s">
         <v>393</v>
@@ -22285,7 +22977,7 @@
         <v>897</v>
       </c>
       <c r="B404" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C404" t="s">
         <v>396</v>
@@ -22325,13 +23017,13 @@
         <v>899</v>
       </c>
       <c r="B406" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C406" t="s">
         <v>399</v>
       </c>
       <c r="D406" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E406" t="s">
         <v>376</v>
@@ -22342,13 +23034,13 @@
     </row>
     <row r="407" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="29" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B407" s="28" t="s">
+        <v>934</v>
+      </c>
+      <c r="C407" t="s">
         <v>936</v>
-      </c>
-      <c r="C407" t="s">
-        <v>938</v>
       </c>
       <c r="D407" t="s">
         <v>17</v>
@@ -22380,12 +23072,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BB4C77-EC78-E54B-9F74-171DAF10810C}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22399,805 +23091,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="45" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D3" t="s">
-        <v>872</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D5" t="s">
-        <v>870</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D7" t="s">
-        <v>870</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>918</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D13" t="s">
-        <v>871</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D14" t="s">
-        <v>870</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B16" t="s">
-        <v>321</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D18" t="s">
-        <v>871</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B19" t="s">
-        <v>319</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>918</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>872</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>918</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B24" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D24" t="s">
-        <v>872</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D27" t="s">
-        <v>870</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D28" t="s">
-        <v>871</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B30" t="s">
-        <v>366</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="49" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B31" t="s">
-        <v>237</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="49" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>913</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D32" t="s">
-        <v>918</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="50" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B33" t="s">
-        <v>857</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D33" t="s">
-        <v>873</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="50" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>856</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B36" t="s">
-        <v>384</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B37" t="s">
-        <v>324</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="50" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B40" t="s">
-        <v>370</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1423</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion WEB 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EF8B45-D8A4-C84F-9649-1833172B7403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F06FE5C-0614-2F43-89FA-A5048C1EF422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="31120" windowHeight="15860" activeTab="2" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="1435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5028" uniqueCount="1430">
   <si>
     <t>Nombre</t>
   </si>
@@ -2765,24 +2765,12 @@
     <t>MARÍA INÉS GUERRA ROSAS</t>
   </si>
   <si>
-    <t>JOSUÉ ORTIZ MEDINA</t>
-  </si>
-  <si>
     <t>LUIS ANTONIO CARRILLO CRUZ</t>
   </si>
   <si>
-    <t xml:space="preserve">IVAN GONZALEZ LAZALDE </t>
-  </si>
-  <si>
-    <t>JOSE GABRIEL RODRIGUEZ RIVAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAMILO ENRIQUE CONDE LIMÓN </t>
   </si>
   <si>
-    <t>LORENA DE LA BARERA RIVAS</t>
-  </si>
-  <si>
     <t>KAREN DEYANIRA MALDONADO ROCHA</t>
   </si>
   <si>
@@ -2793,9 +2781,6 @@
   </si>
   <si>
     <t>ANALISIS DE LA INGENIERIA ECONOMICA EN MEXICO</t>
-  </si>
-  <si>
-    <t>IGUALDAD DE  GENERO Y NO DESCRIMINACION</t>
   </si>
   <si>
     <t>DEPARTAMENTO DE DESARROLLO ACADEMICO</t>
@@ -4459,7 +4444,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4499,6 +4484,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4751,7 +4742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4856,51 +4847,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4909,11 +4886,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -4923,13 +4905,15 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -4939,7 +4923,56 @@
         <top style="thin">
           <color auto="1"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1A1C1E"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -4991,34 +5024,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -5035,118 +5040,6 @@
         </right>
         <top style="thin">
           <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
         </top>
         <bottom/>
       </border>
@@ -5206,6 +5099,62 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -5446,28 +5395,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27943D54-4A32-B44A-9589-52B75777226A}" name="PARTICIPANTES1618" displayName="PARTICIPANTES1618" ref="A1:F384" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27943D54-4A32-B44A-9589-52B75777226A}" name="PARTICIPANTES1618" displayName="PARTICIPANTES1618" ref="A1:F345" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="6">
-    <tableColumn id="17" xr3:uid="{43E7D114-76C6-9847-831D-9DE65D5C1D35}" name="Folio" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{F906E5A4-7672-0045-A8E7-A254C92ED30E}" name="Nombre" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{4A683C6F-BAFD-E243-ABD1-562B8EC53E99}" name="Curso" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{F9AD31F0-2006-9845-9571-7C0934CB1B4F}" name="Departamento" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{02A925E6-86CF-F047-A7F5-1C0D19B09CCA}" name="Fecha" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{800F1D14-514D-D049-8526-0A01081A9CA0}" name="Duracion" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{43E7D114-76C6-9847-831D-9DE65D5C1D35}" name="Folio" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{F906E5A4-7672-0045-A8E7-A254C92ED30E}" name="Nombre" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{4A683C6F-BAFD-E243-ABD1-562B8EC53E99}" name="Curso" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{F9AD31F0-2006-9845-9571-7C0934CB1B4F}" name="Departamento" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{02A925E6-86CF-F047-A7F5-1C0D19B09CCA}" name="Fecha" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{800F1D14-514D-D049-8526-0A01081A9CA0}" name="Duracion" dataDxfId="13" totalsRowDxfId="12"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B508AFF-503A-7943-8DD5-D06EBFCC8B62}" name="PARTICIPANTES16183" displayName="PARTICIPANTES16183" ref="A1:F40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B508AFF-503A-7943-8DD5-D06EBFCC8B62}" name="PARTICIPANTES16183" displayName="PARTICIPANTES16183" ref="A1:F40" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <tableColumns count="6">
-    <tableColumn id="17" xr3:uid="{81EB27DA-9005-8343-8270-24F41F32CD2D}" name="Folio" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{783F0072-DA7B-3140-83D6-27D662F54BBB}" name="Nombre" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{D0D33A24-B6D2-2541-8F70-5398A340F57E}" name="Curso" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{AB02D729-8232-8643-B88A-00257BFDD549}" name="Departamento" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{DF3AACD7-1A51-AB47-9454-2F951F317051}" name="Fecha" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{88C52EF0-15CE-8445-A82B-DCF650F2DA69}" name="Duracion" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{81EB27DA-9005-8343-8270-24F41F32CD2D}" name="Folio" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{783F0072-DA7B-3140-83D6-27D662F54BBB}" name="Nombre" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{D0D33A24-B6D2-2541-8F70-5398A340F57E}" name="Curso" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{AB02D729-8232-8643-B88A-00257BFDD549}" name="Departamento" dataDxfId="1" totalsRowDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{DF3AACD7-1A51-AB47-9454-2F951F317051}" name="Fecha" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{88C52EF0-15CE-8445-A82B-DCF650F2DA69}" name="Duracion" dataDxfId="4" totalsRowDxfId="5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5893,7 +5842,7 @@
         <v>406</v>
       </c>
       <c r="B5" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -9753,7 +9702,7 @@
         <v>599</v>
       </c>
       <c r="B198" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="C198" t="s">
         <v>236</v>
@@ -14711,7 +14660,7 @@
     </row>
     <row r="447" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="B447" t="s">
         <v>866</v>
@@ -14731,7 +14680,7 @@
     </row>
     <row r="448" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="B448" t="s">
         <v>5</v>
@@ -14751,7 +14700,7 @@
     </row>
     <row r="449" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="B449" t="s">
         <v>24</v>
@@ -14898,12 +14847,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E4E2C6-ECF6-8E42-BACE-6A57540CDA47}">
-  <dimension ref="A1:G409"/>
+  <dimension ref="A1:G347"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="H351" sqref="H351"/>
+      <selection pane="bottomLeft" activeCell="G321" sqref="G321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14938,790 +14887,790 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
-        <v>937</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C2" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" t="s">
         <v>351</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>938</v>
-      </c>
-      <c r="B3" s="57" t="s">
+        <v>933</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" t="s">
         <v>351</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>939</v>
-      </c>
-      <c r="B4" s="57" t="s">
+        <v>934</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" t="s">
         <v>351</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>940</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C5" s="58" t="s">
+        <v>935</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" t="s">
         <v>351</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>941</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C6" s="58" t="s">
+        <v>936</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" t="s">
         <v>351</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>942</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>912</v>
-      </c>
-      <c r="C7" s="58" t="s">
+        <v>937</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>908</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" t="s">
         <v>351</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>943</v>
-      </c>
-      <c r="B8" s="57" t="s">
+        <v>938</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" t="s">
         <v>351</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>944</v>
-      </c>
-      <c r="B9" s="57" t="s">
+        <v>939</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" t="s">
         <v>351</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>945</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C10" s="58" t="s">
+        <v>940</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" t="s">
         <v>351</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>946</v>
-      </c>
-      <c r="B11" s="57" t="s">
+        <v>941</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" t="s">
         <v>351</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>947</v>
-      </c>
-      <c r="B12" s="57" t="s">
+        <v>942</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" t="s">
         <v>351</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>948</v>
-      </c>
-      <c r="B13" s="57" t="s">
+        <v>943</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" t="s">
         <v>351</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>949</v>
-      </c>
-      <c r="B14" s="57" t="s">
+        <v>944</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" t="s">
         <v>351</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>950</v>
-      </c>
-      <c r="B15" s="57" t="s">
+        <v>945</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" t="s">
         <v>352</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" t="s">
         <v>351</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>951</v>
-      </c>
-      <c r="B16" s="57" t="s">
+        <v>946</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" t="s">
         <v>352</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" t="s">
         <v>351</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>952</v>
-      </c>
-      <c r="B17" s="57" t="s">
+        <v>947</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" t="s">
         <v>352</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" t="s">
         <v>351</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>953</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C18" s="59" t="s">
+        <v>948</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C18" t="s">
         <v>352</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" t="s">
         <v>351</v>
       </c>
-      <c r="F18" s="62" t="s">
+      <c r="F18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>954</v>
-      </c>
-      <c r="B19" s="57" t="s">
+        <v>949</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" t="s">
         <v>352</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" t="s">
         <v>351</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>955</v>
-      </c>
-      <c r="B20" s="57" t="s">
+        <v>950</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" t="s">
         <v>352</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" t="s">
         <v>351</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>956</v>
-      </c>
-      <c r="B21" s="57" t="s">
+        <v>951</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" t="s">
         <v>352</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" t="s">
         <v>351</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>957</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C22" s="59" t="s">
+        <v>952</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C22" t="s">
         <v>352</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" t="s">
         <v>351</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>958</v>
-      </c>
-      <c r="B23" s="57" t="s">
+        <v>953</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" t="s">
         <v>352</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" t="s">
         <v>351</v>
       </c>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>959</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C24" s="59" t="s">
+        <v>954</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C24" t="s">
         <v>352</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" t="s">
         <v>351</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>960</v>
-      </c>
-      <c r="B25" s="57" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C25" s="59" t="s">
+        <v>955</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C25" t="s">
         <v>352</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" t="s">
         <v>351</v>
       </c>
-      <c r="F25" s="62" t="s">
+      <c r="F25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>961</v>
-      </c>
-      <c r="B26" s="57" t="s">
+        <v>956</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" t="s">
         <v>352</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" t="s">
         <v>351</v>
       </c>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>962</v>
-      </c>
-      <c r="B27" s="57" t="s">
+        <v>957</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" t="s">
         <v>352</v>
       </c>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" t="s">
         <v>351</v>
       </c>
-      <c r="F27" s="62" t="s">
+      <c r="F27" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>963</v>
-      </c>
-      <c r="B28" s="57" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C28" s="59" t="s">
+        <v>958</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C28" t="s">
         <v>352</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" t="s">
         <v>351</v>
       </c>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>964</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C29" s="59" t="s">
+        <v>959</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C29" t="s">
         <v>352</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" t="s">
         <v>351</v>
       </c>
-      <c r="F29" s="62" t="s">
+      <c r="F29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>965</v>
-      </c>
-      <c r="B30" s="57" t="s">
+        <v>960</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" t="s">
         <v>352</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" t="s">
         <v>351</v>
       </c>
-      <c r="F30" s="62" t="s">
+      <c r="F30" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>966</v>
-      </c>
-      <c r="B31" s="57" t="s">
+        <v>961</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" t="s">
         <v>352</v>
       </c>
-      <c r="D31" s="60" t="s">
+      <c r="D31" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" t="s">
         <v>351</v>
       </c>
-      <c r="F31" s="62" t="s">
+      <c r="F31" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="B32" s="57" t="s">
+        <v>962</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" t="s">
         <v>352</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" t="s">
         <v>351</v>
       </c>
-      <c r="F32" s="62" t="s">
+      <c r="F32" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>968</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C33" s="59" t="s">
+        <v>963</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C33" t="s">
         <v>352</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" t="s">
         <v>351</v>
       </c>
-      <c r="F33" s="62" t="s">
+      <c r="F33" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>969</v>
-      </c>
-      <c r="B34" s="57" t="s">
+        <v>964</v>
+      </c>
+      <c r="B34" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" t="s">
         <v>352</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" t="s">
         <v>351</v>
       </c>
-      <c r="F34" s="62" t="s">
+      <c r="F34" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>970</v>
-      </c>
-      <c r="B35" s="57" t="s">
+        <v>965</v>
+      </c>
+      <c r="B35" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" t="s">
         <v>352</v>
       </c>
-      <c r="D35" s="60" t="s">
+      <c r="D35" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" t="s">
         <v>351</v>
       </c>
-      <c r="F35" s="62" t="s">
+      <c r="F35" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>971</v>
-      </c>
-      <c r="B36" s="57" t="s">
+        <v>966</v>
+      </c>
+      <c r="B36" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" t="s">
         <v>352</v>
       </c>
-      <c r="D36" s="60" t="s">
+      <c r="D36" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" t="s">
         <v>351</v>
       </c>
-      <c r="F36" s="62" t="s">
+      <c r="F36" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>972</v>
-      </c>
-      <c r="B37" s="57" t="s">
+        <v>967</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" t="s">
         <v>352</v>
       </c>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="14" t="s">
         <v>872</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" t="s">
         <v>351</v>
       </c>
-      <c r="F37" s="62" t="s">
+      <c r="F37" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>973</v>
-      </c>
-      <c r="B38" s="57" t="s">
+        <v>968</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" t="s">
         <v>352</v>
       </c>
-      <c r="D38" s="60" t="s">
+      <c r="D38" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" t="s">
         <v>351</v>
       </c>
-      <c r="F38" s="62" t="s">
+      <c r="F38" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>974</v>
-      </c>
-      <c r="B39" s="57" t="s">
+        <v>969</v>
+      </c>
+      <c r="B39" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" t="s">
         <v>352</v>
       </c>
-      <c r="D39" s="60" t="s">
+      <c r="D39" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" t="s">
         <v>351</v>
       </c>
-      <c r="F39" s="62" t="s">
+      <c r="F39" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>975</v>
-      </c>
-      <c r="B40" s="57" t="s">
+        <v>970</v>
+      </c>
+      <c r="B40" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" t="s">
         <v>352</v>
       </c>
-      <c r="D40" s="60" t="s">
+      <c r="D40" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" t="s">
         <v>351</v>
       </c>
-      <c r="F40" s="62" t="s">
+      <c r="F40" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="C41" t="s">
         <v>352</v>
@@ -15738,7 +15687,7 @@
     </row>
     <row r="42" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B42" s="33" t="s">
         <v>252</v>
@@ -15758,7 +15707,7 @@
     </row>
     <row r="43" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="B43" s="33" t="s">
         <v>166</v>
@@ -15778,7 +15727,7 @@
     </row>
     <row r="44" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B44" s="33" t="s">
         <v>38</v>
@@ -15798,10 +15747,10 @@
     </row>
     <row r="45" spans="1:6" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="C45" t="s">
         <v>352</v>
@@ -15818,7 +15767,7 @@
     </row>
     <row r="46" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B46" s="33" t="s">
         <v>386</v>
@@ -15838,7 +15787,7 @@
     </row>
     <row r="47" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="B47" s="33" t="s">
         <v>353</v>
@@ -15858,10 +15807,10 @@
     </row>
     <row r="48" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="C48" t="s">
         <v>354</v>
@@ -15878,7 +15827,7 @@
     </row>
     <row r="49" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="B49" s="33" t="s">
         <v>213</v>
@@ -15898,10 +15847,10 @@
     </row>
     <row r="50" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="C50" t="s">
         <v>354</v>
@@ -15918,10 +15867,10 @@
     </row>
     <row r="51" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="C51" t="s">
         <v>354</v>
@@ -15938,10 +15887,10 @@
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="C52" t="s">
         <v>354</v>
@@ -15958,7 +15907,7 @@
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B53" s="33" t="s">
         <v>99</v>
@@ -15978,7 +15927,7 @@
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B54" s="33" t="s">
         <v>323</v>
@@ -15998,7 +15947,7 @@
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B55" s="33" t="s">
         <v>212</v>
@@ -16018,7 +15967,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="B56" s="33" t="s">
         <v>355</v>
@@ -16038,7 +15987,7 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="B57" s="33" t="s">
         <v>216</v>
@@ -16058,7 +16007,7 @@
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B58" s="33" t="s">
         <v>860</v>
@@ -16078,7 +16027,7 @@
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="B59" s="33" t="s">
         <v>209</v>
@@ -16098,10 +16047,10 @@
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="C60" t="s">
         <v>354</v>
@@ -16118,7 +16067,7 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B61" s="33" t="s">
         <v>321</v>
@@ -16138,10 +16087,10 @@
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="C62" t="s">
         <v>354</v>
@@ -16158,7 +16107,7 @@
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="B63" s="33" t="s">
         <v>317</v>
@@ -16178,7 +16127,7 @@
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="B64" s="33" t="s">
         <v>30</v>
@@ -16198,7 +16147,7 @@
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="B65" s="33" t="s">
         <v>332</v>
@@ -16218,10 +16167,10 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C66" t="s">
         <v>356</v>
@@ -16238,10 +16187,10 @@
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="C67" t="s">
         <v>356</v>
@@ -16258,10 +16207,10 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="C68" t="s">
         <v>356</v>
@@ -16278,7 +16227,7 @@
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="B69" s="33" t="s">
         <v>294</v>
@@ -16298,7 +16247,7 @@
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B70" s="33" t="s">
         <v>251</v>
@@ -16318,7 +16267,7 @@
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B71" s="33" t="s">
         <v>853</v>
@@ -16338,7 +16287,7 @@
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B72" s="33" t="s">
         <v>16</v>
@@ -16358,10 +16307,10 @@
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="C73" t="s">
         <v>356</v>
@@ -16378,7 +16327,7 @@
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B74" s="33" t="s">
         <v>128</v>
@@ -16398,7 +16347,7 @@
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B75" s="33" t="s">
         <v>25</v>
@@ -16418,7 +16367,7 @@
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B76" s="33" t="s">
         <v>136</v>
@@ -16438,7 +16387,7 @@
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="B77" s="33" t="s">
         <v>357</v>
@@ -16458,10 +16407,10 @@
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="C78" t="s">
         <v>356</v>
@@ -16478,7 +16427,7 @@
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="B79" s="33" t="s">
         <v>358</v>
@@ -16498,10 +16447,10 @@
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="C80" t="s">
         <v>356</v>
@@ -16518,7 +16467,7 @@
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B81" s="33" t="s">
         <v>227</v>
@@ -16538,7 +16487,7 @@
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B82" s="33" t="s">
         <v>359</v>
@@ -16558,7 +16507,7 @@
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B83" s="33" t="s">
         <v>5</v>
@@ -16578,7 +16527,7 @@
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B84" s="33" t="s">
         <v>45</v>
@@ -16598,7 +16547,7 @@
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B85" s="33" t="s">
         <v>43</v>
@@ -16618,7 +16567,7 @@
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B86" s="33" t="s">
         <v>84</v>
@@ -16638,7 +16587,7 @@
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B87" s="33" t="s">
         <v>79</v>
@@ -16658,7 +16607,7 @@
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B88" s="33" t="s">
         <v>63</v>
@@ -16678,7 +16627,7 @@
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B89" s="33" t="s">
         <v>257</v>
@@ -16698,10 +16647,10 @@
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C90" t="s">
         <v>360</v>
@@ -16718,10 +16667,10 @@
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="C91" t="s">
         <v>360</v>
@@ -16738,7 +16687,7 @@
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B92" s="33" t="s">
         <v>49</v>
@@ -16758,7 +16707,7 @@
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="B93" s="33" t="s">
         <v>47</v>
@@ -16778,7 +16727,7 @@
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="B94" s="33" t="s">
         <v>75</v>
@@ -16798,10 +16747,10 @@
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="C95" t="s">
         <v>360</v>
@@ -16818,7 +16767,7 @@
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B96" s="33" t="s">
         <v>361</v>
@@ -16838,7 +16787,7 @@
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B97" s="33" t="s">
         <v>362</v>
@@ -16858,7 +16807,7 @@
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="B98" s="33" t="s">
         <v>57</v>
@@ -16878,10 +16827,10 @@
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="C99" t="s">
         <v>360</v>
@@ -16898,10 +16847,10 @@
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="C100" t="s">
         <v>360</v>
@@ -16918,10 +16867,10 @@
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="C101" t="s">
         <v>360</v>
@@ -16938,7 +16887,7 @@
     </row>
     <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="B102" s="33" t="s">
         <v>32</v>
@@ -16958,7 +16907,7 @@
     </row>
     <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B103" s="33" t="s">
         <v>73</v>
@@ -16978,10 +16927,10 @@
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="C104" t="s">
         <v>364</v>
@@ -16998,7 +16947,7 @@
     </row>
     <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B105" s="33" t="s">
         <v>232</v>
@@ -17018,10 +16967,10 @@
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B106" s="33" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="C106" t="s">
         <v>364</v>
@@ -17038,10 +16987,10 @@
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="C107" t="s">
         <v>364</v>
@@ -17058,7 +17007,7 @@
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B108" s="33" t="s">
         <v>230</v>
@@ -17078,7 +17027,7 @@
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="B109" s="33" t="s">
         <v>231</v>
@@ -17098,7 +17047,7 @@
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B110" s="33" t="s">
         <v>234</v>
@@ -17118,10 +17067,10 @@
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B111" s="33" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="C111" t="s">
         <v>364</v>
@@ -17138,7 +17087,7 @@
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="B112" s="33" t="s">
         <v>865</v>
@@ -17158,10 +17107,10 @@
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="32" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="B113" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="C113" s="35" t="s">
         <v>365</v>
@@ -17178,7 +17127,7 @@
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="B114" s="33" t="s">
         <v>366</v>
@@ -17198,10 +17147,10 @@
     </row>
     <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="C115" s="17" t="s">
         <v>367</v>
@@ -17218,10 +17167,10 @@
     </row>
     <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="C116" s="17" t="s">
         <v>367</v>
@@ -17238,7 +17187,7 @@
     </row>
     <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B117" s="33" t="s">
         <v>198</v>
@@ -17258,10 +17207,10 @@
     </row>
     <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="C118" s="17" t="s">
         <v>367</v>
@@ -17278,7 +17227,7 @@
     </row>
     <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="B119" s="33" t="s">
         <v>200</v>
@@ -17298,10 +17247,10 @@
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="C120" s="17" t="s">
         <v>367</v>
@@ -17318,7 +17267,7 @@
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="B121" s="33" t="s">
         <v>199</v>
@@ -17338,7 +17287,7 @@
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B122" s="33" t="s">
         <v>206</v>
@@ -17358,7 +17307,7 @@
     </row>
     <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="B123" s="33" t="s">
         <v>201</v>
@@ -17378,10 +17327,10 @@
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="C124" s="17" t="s">
         <v>367</v>
@@ -17398,7 +17347,7 @@
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="B125" s="33" t="s">
         <v>310</v>
@@ -17418,10 +17367,10 @@
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="B126" s="39" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="C126" s="17" t="s">
         <v>368</v>
@@ -17438,7 +17387,7 @@
     </row>
     <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="B127" s="33" t="s">
         <v>305</v>
@@ -17458,10 +17407,10 @@
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="C128" s="17" t="s">
         <v>368</v>
@@ -17478,7 +17427,7 @@
     </row>
     <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="B129" s="33" t="s">
         <v>307</v>
@@ -17498,7 +17447,7 @@
     </row>
     <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="B130" s="33" t="s">
         <v>97</v>
@@ -17518,10 +17467,10 @@
     </row>
     <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>368</v>
@@ -17538,7 +17487,7 @@
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="B132" s="33" t="s">
         <v>94</v>
@@ -17558,10 +17507,10 @@
     </row>
     <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="C133" s="17" t="s">
         <v>368</v>
@@ -17578,7 +17527,7 @@
     </row>
     <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="B134" s="33" t="s">
         <v>330</v>
@@ -17598,10 +17547,10 @@
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="C135" t="s">
         <v>369</v>
@@ -17618,7 +17567,7 @@
     </row>
     <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="B136" s="33" t="s">
         <v>370</v>
@@ -17638,7 +17587,7 @@
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="B137" s="33" t="s">
         <v>51</v>
@@ -17658,7 +17607,7 @@
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="B138" s="33" t="s">
         <v>327</v>
@@ -17678,10 +17627,10 @@
     </row>
     <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="C139" t="s">
         <v>369</v>
@@ -17698,7 +17647,7 @@
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="B140" s="33" t="s">
         <v>371</v>
@@ -17718,10 +17667,10 @@
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="C141" t="s">
         <v>369</v>
@@ -17738,7 +17687,7 @@
     </row>
     <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="B142" s="33" t="s">
         <v>282</v>
@@ -17758,7 +17707,7 @@
     </row>
     <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="B143" s="33" t="s">
         <v>345</v>
@@ -17778,7 +17727,7 @@
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="B144" s="33" t="s">
         <v>159</v>
@@ -17798,7 +17747,7 @@
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B145" s="33" t="s">
         <v>372</v>
@@ -17818,10 +17767,10 @@
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="C146" t="s">
         <v>369</v>
@@ -17838,7 +17787,7 @@
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="B147" s="33" t="s">
         <v>373</v>
@@ -17858,10 +17807,10 @@
     </row>
     <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="C148" t="s">
         <v>369</v>
@@ -17878,7 +17827,7 @@
     </row>
     <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="B149" s="33" t="s">
         <v>374</v>
@@ -17898,10 +17847,10 @@
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="32" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="B150" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="C150" s="35" t="s">
         <v>375</v>
@@ -17918,7 +17867,7 @@
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="B151" s="33" t="s">
         <v>122</v>
@@ -17938,7 +17887,7 @@
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="B152" s="33" t="s">
         <v>123</v>
@@ -17958,7 +17907,7 @@
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="B153" s="33" t="s">
         <v>260</v>
@@ -17978,7 +17927,7 @@
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="B154" s="33" t="s">
         <v>165</v>
@@ -17998,10 +17947,10 @@
     </row>
     <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="B155" s="33" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="C155" t="s">
         <v>377</v>
@@ -18018,7 +17967,7 @@
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="B156" s="33" t="s">
         <v>268</v>
@@ -18038,10 +17987,10 @@
     </row>
     <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="C157" t="s">
         <v>377</v>
@@ -18058,7 +18007,7 @@
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="B158" s="33" t="s">
         <v>93</v>
@@ -18078,7 +18027,7 @@
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="B159" s="33" t="s">
         <v>110</v>
@@ -18098,10 +18047,10 @@
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B160" s="33" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C160" t="s">
         <v>377</v>
@@ -18118,7 +18067,7 @@
     </row>
     <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B161" s="33" t="s">
         <v>90</v>
@@ -18138,10 +18087,10 @@
     </row>
     <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="C162" t="s">
         <v>377</v>
@@ -18158,7 +18107,7 @@
     </row>
     <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="B163" s="33" t="s">
         <v>266</v>
@@ -18178,7 +18127,7 @@
     </row>
     <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="B164" s="33" t="s">
         <v>92</v>
@@ -18198,7 +18147,7 @@
     </row>
     <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="B165" s="33" t="s">
         <v>121</v>
@@ -18218,7 +18167,7 @@
     </row>
     <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="B166" s="33" t="s">
         <v>86</v>
@@ -18238,10 +18187,10 @@
     </row>
     <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="B167" s="33" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="C167" t="s">
         <v>377</v>
@@ -18258,7 +18207,7 @@
     </row>
     <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="14" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="B168" s="33" t="s">
         <v>43</v>
@@ -18278,7 +18227,7 @@
     </row>
     <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="B169" s="33" t="s">
         <v>257</v>
@@ -18298,7 +18247,7 @@
     </row>
     <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="B170" s="33" t="s">
         <v>249</v>
@@ -18318,7 +18267,7 @@
     </row>
     <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B171" s="33" t="s">
         <v>79</v>
@@ -18338,7 +18287,7 @@
     </row>
     <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="14" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="B172" s="33" t="s">
         <v>63</v>
@@ -18358,10 +18307,10 @@
     </row>
     <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="14" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="B173" s="33" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C173" s="17" t="s">
         <v>378</v>
@@ -18378,7 +18327,7 @@
     </row>
     <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="14" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="B174" s="33" t="s">
         <v>69</v>
@@ -18398,10 +18347,10 @@
     </row>
     <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="14" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="B175" s="33" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C175" s="17" t="s">
         <v>378</v>
@@ -18418,7 +18367,7 @@
     </row>
     <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="14" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="B176" s="33" t="s">
         <v>45</v>
@@ -18438,7 +18387,7 @@
     </row>
     <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="14" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="B177" s="33" t="s">
         <v>379</v>
@@ -18458,10 +18407,10 @@
     </row>
     <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="14" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="B178" s="33" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="C178" s="17" t="s">
         <v>378</v>
@@ -18478,7 +18427,7 @@
     </row>
     <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="14" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="B179" s="33" t="s">
         <v>57</v>
@@ -18498,7 +18447,7 @@
     </row>
     <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="14" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="B180" s="33" t="s">
         <v>77</v>
@@ -18518,7 +18467,7 @@
     </row>
     <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="14" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="B181" s="33" t="s">
         <v>65</v>
@@ -18538,7 +18487,7 @@
     </row>
     <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="14" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="B182" s="33" t="s">
         <v>47</v>
@@ -18558,7 +18507,7 @@
     </row>
     <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="B183" s="33" t="s">
         <v>75</v>
@@ -18578,7 +18527,7 @@
     </row>
     <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="B184" s="33" t="s">
         <v>59</v>
@@ -18598,7 +18547,7 @@
     </row>
     <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="B185" s="33" t="s">
         <v>361</v>
@@ -18618,7 +18567,7 @@
     </row>
     <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="14" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B186" s="33" t="s">
         <v>73</v>
@@ -18638,7 +18587,7 @@
     </row>
     <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="14" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="B187" s="33" t="s">
         <v>32</v>
@@ -18658,7 +18607,7 @@
     </row>
     <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="14" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="B188" s="33" t="s">
         <v>53</v>
@@ -18678,7 +18627,7 @@
     </row>
     <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="B189" s="33" t="s">
         <v>258</v>
@@ -18698,10 +18647,10 @@
     </row>
     <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="14" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="B190" s="33" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="C190" s="17" t="s">
         <v>378</v>
@@ -18718,7 +18667,7 @@
     </row>
     <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="14" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="B191" s="33" t="s">
         <v>81</v>
@@ -18738,7 +18687,7 @@
     </row>
     <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="14" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="B192" s="33" t="s">
         <v>84</v>
@@ -18758,7 +18707,7 @@
     </row>
     <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="14" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="B193" s="33" t="s">
         <v>83</v>
@@ -18778,7 +18727,7 @@
     </row>
     <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="14" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="B194" s="33" t="s">
         <v>86</v>
@@ -18798,7 +18747,7 @@
     </row>
     <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="14" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="B195" s="33" t="s">
         <v>85</v>
@@ -18818,10 +18767,10 @@
     </row>
     <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="14" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B196" s="33" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C196" s="17" t="s">
         <v>381</v>
@@ -18838,10 +18787,10 @@
     </row>
     <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="14" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="B197" s="33" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="C197" s="17" t="s">
         <v>381</v>
@@ -18858,10 +18807,10 @@
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="14" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="B198" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C198" s="17" t="s">
         <v>381</v>
@@ -18878,7 +18827,7 @@
     </row>
     <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="B199" s="33" t="s">
         <v>382</v>
@@ -18898,7 +18847,7 @@
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="B200" s="33" t="s">
         <v>159</v>
@@ -18918,10 +18867,10 @@
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="14" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="B201" s="33" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="C201" s="17" t="s">
         <v>381</v>
@@ -18938,10 +18887,10 @@
     </row>
     <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="14" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="B202" s="33" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="C202" s="17" t="s">
         <v>381</v>
@@ -18958,10 +18907,10 @@
     </row>
     <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="14" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="B203" s="33" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C203" s="17" t="s">
         <v>381</v>
@@ -18978,10 +18927,10 @@
     </row>
     <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="14" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="B204" s="33" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="C204" s="17" t="s">
         <v>381</v>
@@ -18998,7 +18947,7 @@
     </row>
     <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="14" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="B205" s="33" t="s">
         <v>383</v>
@@ -19018,10 +18967,10 @@
     </row>
     <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="14" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="B206" s="33" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="C206" s="17" t="s">
         <v>381</v>
@@ -19038,7 +18987,7 @@
     </row>
     <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="14" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="B207" s="33" t="s">
         <v>384</v>
@@ -19058,10 +19007,10 @@
     </row>
     <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="14" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="B208" s="33" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="C208" s="17" t="s">
         <v>381</v>
@@ -19078,7 +19027,7 @@
     </row>
     <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="B209" s="33" t="s">
         <v>292</v>
@@ -19098,10 +19047,10 @@
     </row>
     <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="14" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="B210" s="33" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="C210" s="17" t="s">
         <v>381</v>
@@ -19118,7 +19067,7 @@
     </row>
     <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="14" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="B211" s="33" t="s">
         <v>385</v>
@@ -19138,10 +19087,10 @@
     </row>
     <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="14" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="B212" s="33" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="C212" s="17" t="s">
         <v>381</v>
@@ -19158,7 +19107,7 @@
     </row>
     <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="14" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="B213" s="33" t="s">
         <v>386</v>
@@ -19178,10 +19127,10 @@
     </row>
     <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="32" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="B214" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="C214" s="35" t="s">
         <v>387</v>
@@ -19198,7 +19147,7 @@
     </row>
     <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="14" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="B215" s="33" t="s">
         <v>278</v>
@@ -19218,10 +19167,10 @@
     </row>
     <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="14" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="B216" s="33" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="C216" s="17" t="s">
         <v>388</v>
@@ -19238,10 +19187,10 @@
     </row>
     <row r="217" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="14" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="B217" s="33" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="C217" s="17" t="s">
         <v>388</v>
@@ -19258,10 +19207,10 @@
     </row>
     <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="14" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="B218" s="33" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="C218" s="17" t="s">
         <v>388</v>
@@ -19278,7 +19227,7 @@
     </row>
     <row r="219" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="14" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="B219" s="33" t="s">
         <v>224</v>
@@ -19298,7 +19247,7 @@
     </row>
     <row r="220" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="14" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="B220" s="33" t="s">
         <v>308</v>
@@ -19318,10 +19267,10 @@
     </row>
     <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="14" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="B221" s="33" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="C221" s="17" t="s">
         <v>388</v>
@@ -19338,7 +19287,7 @@
     </row>
     <row r="222" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="14" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="B222" s="33" t="s">
         <v>307</v>
@@ -19358,7 +19307,7 @@
     </row>
     <row r="223" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="14" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="B223" s="33" t="s">
         <v>94</v>
@@ -19378,7 +19327,7 @@
     </row>
     <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="14" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="B224" s="33" t="s">
         <v>904</v>
@@ -19398,16 +19347,16 @@
     </row>
     <row r="225" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="14" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="C225" s="17" t="s">
         <v>388</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="E225" t="s">
         <v>376</v>
@@ -19418,7 +19367,7 @@
     </row>
     <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="14" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="B226" s="33" t="s">
         <v>101</v>
@@ -19438,7 +19387,7 @@
     </row>
     <row r="227" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="14" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="B227" s="33" t="s">
         <v>310</v>
@@ -19458,7 +19407,7 @@
     </row>
     <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="14" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="B228" s="33" t="s">
         <v>97</v>
@@ -19478,10 +19427,10 @@
     </row>
     <row r="229" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="14" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="B229" s="33" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="C229" s="17" t="s">
         <v>388</v>
@@ -19498,7 +19447,7 @@
     </row>
     <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="14" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="B230" s="33" t="s">
         <v>389</v>
@@ -19518,7 +19467,7 @@
     </row>
     <row r="231" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="B231" s="33" t="s">
         <v>305</v>
@@ -19538,7 +19487,7 @@
     </row>
     <row r="232" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="14" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="B232" s="33" t="s">
         <v>223</v>
@@ -19558,7 +19507,7 @@
     </row>
     <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="14" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="B233" s="33" t="s">
         <v>230</v>
@@ -19578,7 +19527,7 @@
     </row>
     <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="14" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="B234" s="33" t="s">
         <v>231</v>
@@ -19598,10 +19547,10 @@
     </row>
     <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="14" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="B235" s="33" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="C235" s="17" t="s">
         <v>390</v>
@@ -19618,7 +19567,7 @@
     </row>
     <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="14" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="B236" s="33" t="s">
         <v>220</v>
@@ -19638,7 +19587,7 @@
     </row>
     <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="14" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="B237" s="33" t="s">
         <v>232</v>
@@ -19658,16 +19607,16 @@
     </row>
     <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="14" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="B238" s="33" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="C238" s="17" t="s">
         <v>390</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="E238" t="s">
         <v>376</v>
@@ -19678,10 +19627,10 @@
     </row>
     <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="14" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="B239" s="33" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="C239" s="17" t="s">
         <v>390</v>
@@ -19698,10 +19647,10 @@
     </row>
     <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="14" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="B240" s="33" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="C240" s="17" t="s">
         <v>390</v>
@@ -19718,7 +19667,7 @@
     </row>
     <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="14" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B241" s="33" t="s">
         <v>234</v>
@@ -19738,10 +19687,10 @@
     </row>
     <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="14" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="B242" s="33" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="C242" s="17" t="s">
         <v>390</v>
@@ -19758,10 +19707,10 @@
     </row>
     <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="14" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="B243" s="33" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="C243" s="17" t="s">
         <v>390</v>
@@ -19778,7 +19727,7 @@
     </row>
     <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="14" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="B244" s="33" t="s">
         <v>391</v>
@@ -19798,10 +19747,10 @@
     </row>
     <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="14" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="B245" s="33" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="C245" s="17" t="s">
         <v>390</v>
@@ -19818,7 +19767,7 @@
     </row>
     <row r="246" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="14" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="B246" s="33" t="s">
         <v>860</v>
@@ -19838,10 +19787,10 @@
     </row>
     <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="14" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="B247" s="33" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="C247" t="s">
         <v>392</v>
@@ -19858,10 +19807,10 @@
     </row>
     <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="14" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="B248" s="33" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="C248" t="s">
         <v>392</v>
@@ -19878,10 +19827,10 @@
     </row>
     <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="14" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="B249" s="33" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="C249" t="s">
         <v>392</v>
@@ -19898,7 +19847,7 @@
     </row>
     <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="14" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="B250" s="33" t="s">
         <v>353</v>
@@ -19918,7 +19867,7 @@
     </row>
     <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="14" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="B251" s="33" t="s">
         <v>209</v>
@@ -19938,7 +19887,7 @@
     </row>
     <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="14" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="B252" s="33" t="s">
         <v>215</v>
@@ -19958,10 +19907,10 @@
     </row>
     <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="14" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="B253" s="33" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="C253" t="s">
         <v>392</v>
@@ -19978,7 +19927,7 @@
     </row>
     <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="14" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="B254" s="33" t="s">
         <v>247</v>
@@ -19998,7 +19947,7 @@
     </row>
     <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="14" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="B255" s="33" t="s">
         <v>355</v>
@@ -20018,7 +19967,7 @@
     </row>
     <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="14" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="B256" s="33" t="s">
         <v>324</v>
@@ -20038,7 +19987,7 @@
     </row>
     <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="14" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="B257" s="33" t="s">
         <v>323</v>
@@ -20058,7 +20007,7 @@
     </row>
     <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="14" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="B258" s="33" t="s">
         <v>216</v>
@@ -20078,7 +20027,7 @@
     </row>
     <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="14" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="B259" s="33" t="s">
         <v>213</v>
@@ -20098,7 +20047,7 @@
     </row>
     <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="14" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="B260" s="33" t="s">
         <v>89</v>
@@ -20118,10 +20067,10 @@
     </row>
     <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="14" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="B261" s="33" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="C261" s="15" t="s">
         <v>393</v>
@@ -20138,7 +20087,7 @@
     </row>
     <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="14" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="B262" s="33" t="s">
         <v>13</v>
@@ -20158,10 +20107,10 @@
     </row>
     <row r="263" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="14" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="B263" s="33" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="C263" s="15" t="s">
         <v>393</v>
@@ -20178,10 +20127,10 @@
     </row>
     <row r="264" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="14" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="B264" s="33" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="C264" s="15" t="s">
         <v>393</v>
@@ -20198,10 +20147,10 @@
     </row>
     <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="14" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="B265" s="33" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="C265" s="15" t="s">
         <v>393</v>
@@ -20218,7 +20167,7 @@
     </row>
     <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="14" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B266" s="33" t="s">
         <v>394</v>
@@ -20238,10 +20187,10 @@
     </row>
     <row r="267" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="14" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="B267" s="33" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="C267" s="15" t="s">
         <v>393</v>
@@ -20258,10 +20207,10 @@
     </row>
     <row r="268" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="14" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="B268" s="33" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="C268" s="15" t="s">
         <v>393</v>
@@ -20278,7 +20227,7 @@
     </row>
     <row r="269" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="14" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="B269" s="33" t="s">
         <v>395</v>
@@ -20298,10 +20247,10 @@
     </row>
     <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="14" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="B270" s="33" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="C270" s="15" t="s">
         <v>393</v>
@@ -20318,7 +20267,7 @@
     </row>
     <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="14" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="B271" s="33" t="s">
         <v>176</v>
@@ -20338,10 +20287,10 @@
     </row>
     <row r="272" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="14" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="B272" s="33" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="C272" s="15" t="s">
         <v>393</v>
@@ -20358,7 +20307,7 @@
     </row>
     <row r="273" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="14" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="B273" s="33" t="s">
         <v>118</v>
@@ -20378,7 +20327,7 @@
     </row>
     <row r="274" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="14" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="B274" s="33" t="s">
         <v>256</v>
@@ -20398,7 +20347,7 @@
     </row>
     <row r="275" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="14" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="B275" s="33" t="s">
         <v>139</v>
@@ -20418,10 +20367,10 @@
     </row>
     <row r="276" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="14" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="B276" s="33" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="C276" s="15" t="s">
         <v>393</v>
@@ -20438,10 +20387,10 @@
     </row>
     <row r="277" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="14" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="B277" s="33" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="C277" s="15" t="s">
         <v>393</v>
@@ -20458,7 +20407,7 @@
     </row>
     <row r="278" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="14" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="B278" s="33" t="s">
         <v>200</v>
@@ -20478,10 +20427,10 @@
     </row>
     <row r="279" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="14" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="B279" s="33" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="C279" t="s">
         <v>396</v>
@@ -20498,10 +20447,10 @@
     </row>
     <row r="280" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="14" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="B280" s="33" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="C280" t="s">
         <v>396</v>
@@ -20518,7 +20467,7 @@
     </row>
     <row r="281" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="14" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="B281" s="33" t="s">
         <v>194</v>
@@ -20538,7 +20487,7 @@
     </row>
     <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="14" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="B282" s="33" t="s">
         <v>203</v>
@@ -20558,7 +20507,7 @@
     </row>
     <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="14" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="B283" s="33" t="s">
         <v>192</v>
@@ -20578,7 +20527,7 @@
     </row>
     <row r="284" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="14" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="B284" s="33" t="s">
         <v>397</v>
@@ -20598,10 +20547,10 @@
     </row>
     <row r="285" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="14" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="B285" s="33" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="C285" t="s">
         <v>396</v>
@@ -20618,10 +20567,10 @@
     </row>
     <row r="286" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="14" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="B286" s="33" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="C286" t="s">
         <v>396</v>
@@ -20638,7 +20587,7 @@
     </row>
     <row r="287" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="14" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="B287" s="33" t="s">
         <v>158</v>
@@ -20658,7 +20607,7 @@
     </row>
     <row r="288" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="14" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="B288" s="33" t="s">
         <v>198</v>
@@ -20678,7 +20627,7 @@
     </row>
     <row r="289" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="14" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="B289" s="33" t="s">
         <v>366</v>
@@ -20698,7 +20647,7 @@
     </row>
     <row r="290" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="14" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="B290" s="33" t="s">
         <v>859</v>
@@ -20718,7 +20667,7 @@
     </row>
     <row r="291" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="14" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="B291" s="33" t="s">
         <v>201</v>
@@ -20738,7 +20687,7 @@
     </row>
     <row r="292" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="14" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="B292" s="33" t="s">
         <v>903</v>
@@ -20758,7 +20707,7 @@
     </row>
     <row r="293" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="16" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="B293" s="33" t="s">
         <v>121</v>
@@ -20778,7 +20727,7 @@
     </row>
     <row r="294" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="16" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="B294" s="33" t="s">
         <v>262</v>
@@ -20798,7 +20747,7 @@
     </row>
     <row r="295" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="16" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="B295" s="33" t="s">
         <v>189</v>
@@ -20818,7 +20767,7 @@
     </row>
     <row r="296" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="16" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="B296" s="33" t="s">
         <v>261</v>
@@ -20838,7 +20787,7 @@
     </row>
     <row r="297" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="16" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="B297" s="33" t="s">
         <v>267</v>
@@ -20858,10 +20807,10 @@
     </row>
     <row r="298" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="16" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="B298" s="33" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="C298" t="s">
         <v>398</v>
@@ -20878,7 +20827,7 @@
     </row>
     <row r="299" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="16" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="B299" s="33" t="s">
         <v>109</v>
@@ -20898,10 +20847,10 @@
     </row>
     <row r="300" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="16" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="B300" s="33" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="C300" t="s">
         <v>398</v>
@@ -20918,7 +20867,7 @@
     </row>
     <row r="301" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="16" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="B301" s="33" t="s">
         <v>114</v>
@@ -20938,7 +20887,7 @@
     </row>
     <row r="302" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="16" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="B302" s="33" t="s">
         <v>856</v>
@@ -20958,10 +20907,10 @@
     </row>
     <row r="303" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="16" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="B303" s="33" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="C303" t="s">
         <v>399</v>
@@ -20978,10 +20927,10 @@
     </row>
     <row r="304" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="38" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="B304" s="33" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="C304" t="s">
         <v>399</v>
@@ -20998,10 +20947,10 @@
     </row>
     <row r="305" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="38" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="B305" s="33" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="C305" t="s">
         <v>399</v>
@@ -21018,7 +20967,7 @@
     </row>
     <row r="306" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="38" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="B306" s="33" t="s">
         <v>400</v>
@@ -21038,10 +20987,10 @@
     </row>
     <row r="307" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="38" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="B307" s="33" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="C307" t="s">
         <v>399</v>
@@ -21058,7 +21007,7 @@
     </row>
     <row r="308" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="38" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="B308" s="33" t="s">
         <v>401</v>
@@ -21078,7 +21027,7 @@
     </row>
     <row r="309" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="38" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="B309" s="33" t="s">
         <v>49</v>
@@ -21098,7 +21047,7 @@
     </row>
     <row r="310" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="38" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="B310" s="33" t="s">
         <v>402</v>
@@ -21118,10 +21067,10 @@
     </row>
     <row r="311" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="38" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="B311" s="33" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="C311" t="s">
         <v>399</v>
@@ -21138,7 +21087,7 @@
     </row>
     <row r="312" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="38" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="B312" s="33" t="s">
         <v>329</v>
@@ -21158,7 +21107,7 @@
     </row>
     <row r="313" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="38" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="B313" s="33" t="s">
         <v>248</v>
@@ -21178,10 +21127,10 @@
     </row>
     <row r="314" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="46" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B314" s="47" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="C314" s="48" t="s">
         <v>399</v>
@@ -21198,22 +21147,22 @@
       <c r="G314" s="52"/>
     </row>
     <row r="315" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="41" t="s">
+      <c r="A315" s="74" t="s">
         <v>878</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="C315" s="15" t="s">
+      <c r="C315" s="76" t="s">
         <v>350</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="75" t="s">
         <v>876</v>
       </c>
-      <c r="E315" t="s">
+      <c r="E315" s="75" t="s">
         <v>351</v>
       </c>
-      <c r="F315" t="s">
+      <c r="F315" s="75" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21262,13 +21211,13 @@
         <v>881</v>
       </c>
       <c r="B318" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="C318" s="44" t="s">
         <v>356</v>
       </c>
       <c r="D318" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="E318" t="s">
         <v>351</v>
@@ -21379,10 +21328,10 @@
     </row>
     <row r="324" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="41" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="B324" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="C324" s="15" t="s">
         <v>369</v>
@@ -21399,16 +21348,16 @@
     </row>
     <row r="325" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="41" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C325" s="54" t="s">
         <v>375</v>
       </c>
       <c r="D325" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="E325" t="s">
         <v>376</v>
@@ -21419,16 +21368,16 @@
     </row>
     <row r="326" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="41" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C326" s="54" t="s">
         <v>375</v>
       </c>
       <c r="D326" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="E326" t="s">
         <v>376</v>
@@ -21439,16 +21388,16 @@
     </row>
     <row r="327" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="41" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C327" s="54" t="s">
         <v>375</v>
       </c>
       <c r="D327" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="E327" t="s">
         <v>376</v>
@@ -21459,16 +21408,16 @@
     </row>
     <row r="328" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="41" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C328" s="54" t="s">
         <v>375</v>
       </c>
       <c r="D328" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="E328" t="s">
         <v>376</v>
@@ -21479,16 +21428,16 @@
     </row>
     <row r="329" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="41" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="C329" s="54" t="s">
         <v>375</v>
       </c>
       <c r="D329" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="E329" t="s">
         <v>376</v>
@@ -21522,13 +21471,13 @@
         <v>888</v>
       </c>
       <c r="B331" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C331" t="s">
         <v>378</v>
       </c>
       <c r="D331" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="E331" t="s">
         <v>376</v>
@@ -21542,7 +21491,7 @@
         <v>889</v>
       </c>
       <c r="B332" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="C332" t="s">
         <v>380</v>
@@ -21568,7 +21517,7 @@
         <v>381</v>
       </c>
       <c r="D333" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="E333" t="s">
         <v>376</v>
@@ -21622,10 +21571,10 @@
         <v>893</v>
       </c>
       <c r="B336" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="C336" t="s">
         <v>909</v>
-      </c>
-      <c r="C336" t="s">
-        <v>913</v>
       </c>
       <c r="D336" t="s">
         <v>12</v>
@@ -21665,7 +21614,7 @@
         <v>126</v>
       </c>
       <c r="C338" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D338" t="s">
         <v>21</v>
@@ -21682,7 +21631,7 @@
         <v>896</v>
       </c>
       <c r="B339" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="C339" s="15" t="s">
         <v>393</v>
@@ -21702,7 +21651,7 @@
         <v>897</v>
       </c>
       <c r="B340" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C340" s="15" t="s">
         <v>396</v>
@@ -21742,13 +21691,13 @@
         <v>899</v>
       </c>
       <c r="B342" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="C342" s="30" t="s">
         <v>399</v>
       </c>
       <c r="D342" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="E342" t="s">
         <v>376</v>
@@ -21758,12 +21707,14 @@
       </c>
     </row>
     <row r="343" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="43"/>
+      <c r="A343" s="29" t="s">
+        <v>930</v>
+      </c>
       <c r="B343" s="28" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="C343" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="D343" t="s">
         <v>17</v>
@@ -21778,10 +21729,10 @@
     <row r="344" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="43"/>
       <c r="B344" s="28" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="C344" s="30" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="D344" t="s">
         <v>17</v>
@@ -21795,1271 +21746,31 @@
     </row>
     <row r="345" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="50"/>
-      <c r="B345" s="81" t="s">
+      <c r="B345" s="71" t="s">
         <v>858</v>
       </c>
-      <c r="C345" s="81" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D345" s="82" t="s">
+      <c r="C345" s="71" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D345" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="E345" s="83" t="s">
+      <c r="E345" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="F345" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="G345" s="83"/>
+      <c r="F345" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G345" s="73"/>
     </row>
     <row r="346" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="80" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B346" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="C346" s="59" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D346" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E346" s="59" t="s">
-        <v>1423</v>
-      </c>
-      <c r="F346" s="59" t="s">
-        <v>9</v>
-      </c>
+      <c r="B346" s="28"/>
+      <c r="C346" s="30"/>
     </row>
     <row r="347" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="63" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B347" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="C347" s="59" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D347" s="60" t="s">
-        <v>872</v>
-      </c>
-      <c r="E347" s="59" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F347" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="63" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B348" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="C348" s="59" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D348" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E348" s="59" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F348" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="63" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B349" s="57" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C349" s="59" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D349" s="60" t="s">
-        <v>870</v>
-      </c>
-      <c r="E349" s="59" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F349" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="63" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B350" s="57" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C350" s="59" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D350" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="E350" s="59" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F350" s="59" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="63" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B351" s="57" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C351" s="59" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D351" s="60" t="s">
-        <v>870</v>
-      </c>
-      <c r="E351" s="59" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F351" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="63" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B352" s="57" t="s">
-        <v>401</v>
-      </c>
-      <c r="C352" s="59" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D352" s="73" t="s">
-        <v>917</v>
-      </c>
-      <c r="E352" s="59" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F352" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="63" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B353" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="C353" s="59" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D353" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E353" s="59" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F353" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="63" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B354" s="57" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C354" s="59" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D354" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E354" s="59" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F354" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="63" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B355" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="C355" s="59" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D355" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E355" s="59" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F355" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="63" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B356" s="57" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C356" s="59" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D356" s="60" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E356" s="59" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F356" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="63" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B357" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C357" s="59" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D357" s="60" t="s">
-        <v>871</v>
-      </c>
-      <c r="E357" s="59" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F357" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="63" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B358" s="57" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C358" s="59" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D358" s="60" t="s">
-        <v>870</v>
-      </c>
-      <c r="E358" s="59" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F358" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="63" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B359" s="64" t="s">
-        <v>304</v>
-      </c>
-      <c r="C359" s="68" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D359" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E359" s="59" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F359" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="63" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B360" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="C360" s="59" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D360" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="E360" s="59" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F360" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="63" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B361" s="57" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C361" s="59" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D361" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="E361" s="59" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F361" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="63" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B362" s="57" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C362" s="59" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D362" s="60" t="s">
-        <v>871</v>
-      </c>
-      <c r="E362" s="59" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F362" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="63" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B363" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="C363" s="59" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D363" s="73" t="s">
-        <v>917</v>
-      </c>
-      <c r="E363" s="59" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F363" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="63" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B364" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="C364" s="69" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D364" s="60" t="s">
-        <v>872</v>
-      </c>
-      <c r="E364" s="69" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F364" s="69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="63" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B365" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="C365" s="70" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D365" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E365" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F365" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="63" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B366" s="57" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C366" s="59" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D366" s="73" t="s">
-        <v>917</v>
-      </c>
-      <c r="E366" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F366" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="63" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B367" s="57" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C367" s="59" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D367" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E367" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F367" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="63" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B368" s="57" t="s">
-        <v>260</v>
-      </c>
-      <c r="C368" s="59" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D368" s="60" t="s">
-        <v>872</v>
-      </c>
-      <c r="E368" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F368" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="63" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B369" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="C369" s="59" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D369" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E369" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F369" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="63" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B370" s="67" t="s">
-        <v>332</v>
-      </c>
-      <c r="C370" s="59" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D370" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E370" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F370" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="63" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B371" s="57" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C371" s="59" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D371" s="60" t="s">
-        <v>870</v>
-      </c>
-      <c r="E371" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F371" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="63" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B372" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C372" s="59" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D372" s="60" t="s">
-        <v>871</v>
-      </c>
-      <c r="E372" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F372" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="63" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B373" s="57" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C373" s="59" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D373" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E373" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F373" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="16" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B374" s="57" t="s">
-        <v>366</v>
-      </c>
-      <c r="C374" s="59" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D374" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E374" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F374" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="16" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B375" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="C375" s="59" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D375" s="60" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E375" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F375" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="16" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B376" s="57" t="s">
-        <v>912</v>
-      </c>
-      <c r="C376" s="59" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D376" s="60" t="s">
-        <v>917</v>
-      </c>
-      <c r="E376" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F376" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="16" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B377" s="57" t="s">
-        <v>857</v>
-      </c>
-      <c r="C377" s="59" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D377" s="60" t="s">
-        <v>873</v>
-      </c>
-      <c r="E377" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F377" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="16" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B378" s="57" t="s">
-        <v>856</v>
-      </c>
-      <c r="C378" s="71" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D378" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="E378" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F378" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B379" s="57" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C379" s="59" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D379" s="60" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E379" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F379" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="16" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B380" s="57" t="s">
-        <v>384</v>
-      </c>
-      <c r="C380" s="59" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D380" s="60" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E380" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F380" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="16" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B381" s="57" t="s">
-        <v>324</v>
-      </c>
-      <c r="C381" s="59" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D381" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="E381" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F381" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="16" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B382" s="57" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C382" s="59" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D382" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="E382" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F382" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="16" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B383" s="57" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C383" s="72" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D383" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E383" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F383" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="76" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B384" s="77" t="s">
-        <v>370</v>
-      </c>
-      <c r="C384" s="78" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D384" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E384" s="78" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F384" s="78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
-        <v>884</v>
-      </c>
-      <c r="B385" t="s">
-        <v>902</v>
-      </c>
-      <c r="C385" t="s">
-        <v>365</v>
-      </c>
-      <c r="D385" t="s">
-        <v>15</v>
-      </c>
-      <c r="E385" t="s">
-        <v>351</v>
-      </c>
-      <c r="F385" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
-        <v>885</v>
-      </c>
-      <c r="B386" t="s">
-        <v>903</v>
-      </c>
-      <c r="C386" t="s">
-        <v>367</v>
-      </c>
-      <c r="D386" t="s">
-        <v>15</v>
-      </c>
-      <c r="E386" t="s">
-        <v>351</v>
-      </c>
-      <c r="F386" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
-        <v>886</v>
-      </c>
-      <c r="B387" t="s">
-        <v>904</v>
-      </c>
-      <c r="C387" t="s">
-        <v>368</v>
-      </c>
-      <c r="D387" t="s">
-        <v>15</v>
-      </c>
-      <c r="E387" t="s">
-        <v>351</v>
-      </c>
-      <c r="F387" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
-        <v>918</v>
-      </c>
-      <c r="B388" t="s">
-        <v>905</v>
-      </c>
-      <c r="C388" t="s">
-        <v>369</v>
-      </c>
-      <c r="D388" t="s">
-        <v>12</v>
-      </c>
-      <c r="E388" t="s">
-        <v>351</v>
-      </c>
-      <c r="F388" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
-        <v>925</v>
-      </c>
-      <c r="B389" s="11" t="s">
-        <v>923</v>
-      </c>
-      <c r="C389" t="s">
-        <v>375</v>
-      </c>
-      <c r="D389" t="s">
-        <v>915</v>
-      </c>
-      <c r="E389" t="s">
-        <v>376</v>
-      </c>
-      <c r="F389" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
-        <v>924</v>
-      </c>
-      <c r="B390" s="11" t="s">
-        <v>919</v>
-      </c>
-      <c r="C390" t="s">
-        <v>375</v>
-      </c>
-      <c r="D390" t="s">
-        <v>915</v>
-      </c>
-      <c r="E390" t="s">
-        <v>376</v>
-      </c>
-      <c r="F390" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
-        <v>926</v>
-      </c>
-      <c r="B391" s="11" t="s">
-        <v>920</v>
-      </c>
-      <c r="C391" t="s">
-        <v>375</v>
-      </c>
-      <c r="D391" t="s">
-        <v>915</v>
-      </c>
-      <c r="E391" t="s">
-        <v>376</v>
-      </c>
-      <c r="F391" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
-        <v>927</v>
-      </c>
-      <c r="B392" s="11" t="s">
-        <v>921</v>
-      </c>
-      <c r="C392" t="s">
-        <v>375</v>
-      </c>
-      <c r="D392" t="s">
-        <v>915</v>
-      </c>
-      <c r="E392" t="s">
-        <v>376</v>
-      </c>
-      <c r="F392" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
-        <v>928</v>
-      </c>
-      <c r="B393" s="11" t="s">
-        <v>922</v>
-      </c>
-      <c r="C393" t="s">
-        <v>375</v>
-      </c>
-      <c r="D393" t="s">
-        <v>915</v>
-      </c>
-      <c r="E393" t="s">
-        <v>376</v>
-      </c>
-      <c r="F393" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
-        <v>887</v>
-      </c>
-      <c r="B394" t="s">
-        <v>862</v>
-      </c>
-      <c r="C394" t="s">
-        <v>377</v>
-      </c>
-      <c r="D394" t="s">
-        <v>872</v>
-      </c>
-      <c r="E394" t="s">
-        <v>376</v>
-      </c>
-      <c r="F394" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
-        <v>888</v>
-      </c>
-      <c r="B395" t="s">
-        <v>906</v>
-      </c>
-      <c r="C395" t="s">
-        <v>378</v>
-      </c>
-      <c r="D395" t="s">
-        <v>871</v>
-      </c>
-      <c r="E395" t="s">
-        <v>376</v>
-      </c>
-      <c r="F395" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
-        <v>889</v>
-      </c>
-      <c r="B396" t="s">
-        <v>907</v>
-      </c>
-      <c r="C396" t="s">
-        <v>380</v>
-      </c>
-      <c r="D396" t="s">
-        <v>871</v>
-      </c>
-      <c r="E396" t="s">
-        <v>376</v>
-      </c>
-      <c r="F396" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
-        <v>890</v>
-      </c>
-      <c r="B397" t="s">
-        <v>908</v>
-      </c>
-      <c r="C397" t="s">
-        <v>381</v>
-      </c>
-      <c r="D397" t="s">
-        <v>916</v>
-      </c>
-      <c r="E397" t="s">
-        <v>376</v>
-      </c>
-      <c r="F397" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
-        <v>891</v>
-      </c>
-      <c r="B398" t="s">
-        <v>155</v>
-      </c>
-      <c r="C398" t="s">
-        <v>387</v>
-      </c>
-      <c r="D398" t="s">
-        <v>15</v>
-      </c>
-      <c r="E398" t="s">
-        <v>376</v>
-      </c>
-      <c r="F398" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
-        <v>892</v>
-      </c>
-      <c r="B399" t="s">
-        <v>309</v>
-      </c>
-      <c r="C399" t="s">
-        <v>388</v>
-      </c>
-      <c r="D399" t="s">
-        <v>15</v>
-      </c>
-      <c r="E399" t="s">
-        <v>376</v>
-      </c>
-      <c r="F399" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
-        <v>893</v>
-      </c>
-      <c r="B400" t="s">
-        <v>909</v>
-      </c>
-      <c r="C400" t="s">
-        <v>913</v>
-      </c>
-      <c r="D400" t="s">
-        <v>12</v>
-      </c>
-      <c r="E400" t="s">
-        <v>376</v>
-      </c>
-      <c r="F400" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
-        <v>894</v>
-      </c>
-      <c r="B401" t="s">
-        <v>321</v>
-      </c>
-      <c r="C401" t="s">
-        <v>392</v>
-      </c>
-      <c r="D401" t="s">
-        <v>21</v>
-      </c>
-      <c r="E401" t="s">
-        <v>376</v>
-      </c>
-      <c r="F401" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
-        <v>895</v>
-      </c>
-      <c r="B402" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C402" t="s">
-        <v>914</v>
-      </c>
-      <c r="D402" t="s">
-        <v>21</v>
-      </c>
-      <c r="E402" t="s">
-        <v>376</v>
-      </c>
-      <c r="F402" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A403" t="s">
-        <v>896</v>
-      </c>
-      <c r="B403" t="s">
-        <v>910</v>
-      </c>
-      <c r="C403" t="s">
-        <v>393</v>
-      </c>
-      <c r="D403" t="s">
-        <v>870</v>
-      </c>
-      <c r="E403" t="s">
-        <v>376</v>
-      </c>
-      <c r="F403" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
-        <v>897</v>
-      </c>
-      <c r="B404" t="s">
-        <v>911</v>
-      </c>
-      <c r="C404" t="s">
-        <v>396</v>
-      </c>
-      <c r="D404" t="s">
-        <v>15</v>
-      </c>
-      <c r="E404" t="s">
-        <v>376</v>
-      </c>
-      <c r="F404" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
-        <v>898</v>
-      </c>
-      <c r="B405" t="s">
-        <v>108</v>
-      </c>
-      <c r="C405" t="s">
-        <v>398</v>
-      </c>
-      <c r="D405" t="s">
-        <v>872</v>
-      </c>
-      <c r="E405" t="s">
-        <v>376</v>
-      </c>
-      <c r="F405" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
-        <v>899</v>
-      </c>
-      <c r="B406" t="s">
-        <v>912</v>
-      </c>
-      <c r="C406" t="s">
-        <v>399</v>
-      </c>
-      <c r="D406" t="s">
-        <v>917</v>
-      </c>
-      <c r="E406" t="s">
-        <v>376</v>
-      </c>
-      <c r="F406" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A407" s="29" t="s">
-        <v>935</v>
-      </c>
-      <c r="B407" s="28" t="s">
-        <v>934</v>
-      </c>
-      <c r="C407" t="s">
-        <v>936</v>
-      </c>
-      <c r="D407" t="s">
-        <v>17</v>
-      </c>
-      <c r="E407" t="s">
-        <v>376</v>
-      </c>
-      <c r="F407" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B408" s="28"/>
-      <c r="C408" s="30"/>
-    </row>
-    <row r="409" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B409" s="28"/>
-      <c r="C409" s="28"/>
-      <c r="D409" s="24"/>
+      <c r="B347" s="28"/>
+      <c r="C347" s="28"/>
+      <c r="D347" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23072,12 +21783,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BB4C77-EC78-E54B-9F74-171DAF10810C}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23110,7 +21821,786 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="70" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>872</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="58" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="58" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="58" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="58" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>912</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="58" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="58" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="58" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="58" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="58" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="58" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="58" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="58" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="58" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="58" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="58" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>912</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="58" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>872</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="58" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="58" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>912</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="58" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="58" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>872</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="58" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="58" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="58" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="58" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="58" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>908</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>912</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D34" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="68" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D40" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion WEB 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998E0546-725B-E547-BA0F-3BCAFDCA8D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0403AAA5-4A70-374E-A58C-4F9B5F8C44BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="31120" windowHeight="15860" activeTab="2" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="31120" windowHeight="15860" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5030" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5036" uniqueCount="1436">
   <si>
     <t>Nombre</t>
   </si>
@@ -4350,6 +4350,18 @@
     <t>TNM-054-56-2025
 TNM-054-55-2025
 TNM-054-56-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-29-2025-4</t>
+  </si>
+  <si>
+    <t>ALEJANDRO CALDERON RENTERIIA</t>
+  </si>
+  <si>
+    <t>TALLER DE BASE DE DATOS</t>
+  </si>
+  <si>
+    <t>100 HORAS</t>
   </si>
 </sst>
 </file>
@@ -4741,7 +4753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4892,6 +4904,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5740,12 +5753,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BE329E-0C32-C347-895C-9B9ADC4E5E27}">
-  <dimension ref="A1:F455"/>
+  <dimension ref="A1:F456"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="B149" sqref="B149"/>
+      <selection pane="bottomLeft" activeCell="H455" sqref="H455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14834,6 +14847,26 @@
       </c>
       <c r="F455" s="22" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B456" s="77" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C456" s="77" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D456" s="77" t="s">
+        <v>872</v>
+      </c>
+      <c r="E456" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="F456" s="77" t="s">
+        <v>1435</v>
       </c>
     </row>
   </sheetData>
@@ -21790,7 +21823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BB4C77-EC78-E54B-9F74-171DAF10810C}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion WEB 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0403AAA5-4A70-374E-A58C-4F9B5F8C44BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6E4A4C-963A-4349-A890-A7BBC5EDA6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="31120" windowHeight="15860" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="31120" windowHeight="15860" activeTab="1" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5036" uniqueCount="1436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5270" uniqueCount="1436">
   <si>
     <t>Nombre</t>
   </si>
@@ -4753,7 +4753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4904,7 +4904,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5409,7 +5444,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27943D54-4A32-B44A-9589-52B75777226A}" name="PARTICIPANTES1618" displayName="PARTICIPANTES1618" ref="A1:F345" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27943D54-4A32-B44A-9589-52B75777226A}" name="PARTICIPANTES1618" displayName="PARTICIPANTES1618" ref="A1:F384" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="6">
     <tableColumn id="17" xr3:uid="{43E7D114-76C6-9847-831D-9DE65D5C1D35}" name="Folio" dataDxfId="20"/>
     <tableColumn id="6" xr3:uid="{F906E5A4-7672-0045-A8E7-A254C92ED30E}" name="Nombre" dataDxfId="19" totalsRowDxfId="18"/>
@@ -5755,7 +5790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BE329E-0C32-C347-895C-9B9ADC4E5E27}">
   <dimension ref="A1:F456"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="H455" sqref="H455"/>
@@ -14853,19 +14888,19 @@
       <c r="A456" t="s">
         <v>1432</v>
       </c>
-      <c r="B456" s="77" t="s">
+      <c r="B456" t="s">
         <v>1433</v>
       </c>
-      <c r="C456" s="77" t="s">
+      <c r="C456" t="s">
         <v>1434</v>
       </c>
-      <c r="D456" s="77" t="s">
+      <c r="D456" t="s">
         <v>872</v>
       </c>
       <c r="E456" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="F456" s="77" t="s">
+      <c r="F456" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -14881,12 +14916,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E4E2C6-ECF6-8E42-BACE-6A57540CDA47}">
-  <dimension ref="A1:G347"/>
+  <dimension ref="A1:G384"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A346" sqref="A346"/>
+      <selection pane="bottomLeft" activeCell="H356" sqref="H356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21802,13 +21837,784 @@
       <c r="G345" s="71"/>
     </row>
     <row r="346" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B346" s="28"/>
-      <c r="C346" s="30"/>
+      <c r="A346" s="57" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B346" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C346" s="82" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D346" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E346" s="82" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F346" s="82" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="347" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B347" s="28"/>
-      <c r="C347" s="28"/>
-      <c r="D347" s="24"/>
+      <c r="A347" s="57" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B347" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C347" s="82" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D347" s="88" t="s">
+        <v>872</v>
+      </c>
+      <c r="E347" s="82" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F347" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="57" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B348" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="C348" s="82" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D348" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="E348" s="82" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F348" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="57" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B349" s="77" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C349" s="82" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D349" s="88" t="s">
+        <v>870</v>
+      </c>
+      <c r="E349" s="82" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F349" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="57" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B350" s="77" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C350" s="82" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D350" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E350" s="82" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F350" s="82" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="57" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B351" s="77" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C351" s="82" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D351" s="88" t="s">
+        <v>870</v>
+      </c>
+      <c r="E351" s="82" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F351" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="57" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B352" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="C352" s="82" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D352" s="89" t="s">
+        <v>912</v>
+      </c>
+      <c r="E352" s="82" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F352" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="57" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B353" s="77" t="s">
+        <v>309</v>
+      </c>
+      <c r="C353" s="82" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D353" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E353" s="82" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F353" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="57" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B354" s="77" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C354" s="82" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D354" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E354" s="82" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F354" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="57" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B355" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="C355" s="82" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D355" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E355" s="82" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F355" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="57" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B356" s="77" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C356" s="82" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D356" s="88" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E356" s="82" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F356" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="57" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B357" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C357" s="82" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D357" s="88" t="s">
+        <v>871</v>
+      </c>
+      <c r="E357" s="82" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F357" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="57" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B358" s="77" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C358" s="82" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D358" s="88" t="s">
+        <v>870</v>
+      </c>
+      <c r="E358" s="82" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F358" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="57" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B359" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="C359" s="83" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D359" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E359" s="82" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F359" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="57" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B360" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="C360" s="82" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D360" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E360" s="82" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F360" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="57" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B361" s="77" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C361" s="82" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D361" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E361" s="82" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F361" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="57" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B362" s="77" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C362" s="82" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D362" s="88" t="s">
+        <v>871</v>
+      </c>
+      <c r="E362" s="82" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F362" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="57" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B363" s="77" t="s">
+        <v>319</v>
+      </c>
+      <c r="C363" s="82" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D363" s="89" t="s">
+        <v>912</v>
+      </c>
+      <c r="E363" s="82" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F363" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="57" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B364" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C364" s="84" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D364" s="88" t="s">
+        <v>872</v>
+      </c>
+      <c r="E364" s="84" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F364" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="57" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B365" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C365" s="85" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D365" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E365" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F365" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="57" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B366" s="77" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C366" s="82" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D366" s="89" t="s">
+        <v>912</v>
+      </c>
+      <c r="E366" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F366" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="57" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B367" s="77" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C367" s="82" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D367" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E367" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F367" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="57" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B368" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="C368" s="82" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D368" s="88" t="s">
+        <v>872</v>
+      </c>
+      <c r="E368" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F368" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="57" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B369" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="C369" s="82" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D369" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="E369" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F369" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="57" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B370" s="81" t="s">
+        <v>332</v>
+      </c>
+      <c r="C370" s="82" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D370" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E370" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F370" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="57" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B371" s="77" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C371" s="82" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D371" s="88" t="s">
+        <v>870</v>
+      </c>
+      <c r="E371" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F371" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="57" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B372" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C372" s="82" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D372" s="88" t="s">
+        <v>871</v>
+      </c>
+      <c r="E372" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F372" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="57" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B373" s="77" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C373" s="82" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D373" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E373" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F373" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="16" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B374" s="77" t="s">
+        <v>366</v>
+      </c>
+      <c r="C374" s="82" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D374" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E374" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F374" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="16" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B375" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="C375" s="82" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D375" s="88" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E375" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F375" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="16" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B376" s="77" t="s">
+        <v>908</v>
+      </c>
+      <c r="C376" s="82" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D376" s="88" t="s">
+        <v>912</v>
+      </c>
+      <c r="E376" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F376" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B377" s="77" t="s">
+        <v>857</v>
+      </c>
+      <c r="C377" s="82" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D377" s="88" t="s">
+        <v>873</v>
+      </c>
+      <c r="E377" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F377" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="16" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B378" s="77" t="s">
+        <v>856</v>
+      </c>
+      <c r="C378" s="86" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D378" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E378" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F378" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B379" s="77" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C379" s="82" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D379" s="88" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E379" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F379" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="16" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B380" s="77" t="s">
+        <v>384</v>
+      </c>
+      <c r="C380" s="82" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D380" s="88" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E380" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F380" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="16" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B381" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="C381" s="82" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D381" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E381" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F381" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="16" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B382" s="77" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C382" s="82" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D382" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E382" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F382" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="16" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B383" s="77" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C383" s="87" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D383" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E383" s="82" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F383" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="67" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B384" s="92" t="s">
+        <v>370</v>
+      </c>
+      <c r="C384" s="93" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D384" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E384" s="93" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F384" s="93" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21824,9 +22630,9 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,21 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF928D9-9AD3-8948-89A6-FF13F4853AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CD0FC2-69BC-2543-B71C-EFD079D34433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="820" windowWidth="27620" windowHeight="15860" activeTab="1" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
+    <workbookView xWindow="10540" yWindow="820" windowWidth="27620" windowHeight="15860" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="4" r:id="rId1"/>
     <sheet name="Junio" sheetId="3" r:id="rId2"/>
-    <sheet name="Agosto" sheetId="5" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Enero!$C$1:$C$423</definedName>
-    <definedName name="EDUCACION_A_DISTANCIA" localSheetId="2">'[1]BD DOCENTES'!#REF!</definedName>
     <definedName name="EDUCACION_A_DISTANCIA" localSheetId="0">#REF!</definedName>
     <definedName name="EDUCACION_A_DISTANCIA" localSheetId="1">'[1]BD DOCENTES'!#REF!</definedName>
     <definedName name="EDUCACION_A_DISTANCIA">#REF!</definedName>
@@ -48,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5270" uniqueCount="1436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5258" uniqueCount="1432">
   <si>
     <t>Nombre</t>
   </si>
@@ -4335,18 +4333,6 @@
   </si>
   <si>
     <t>ANÁLISIS DEL PROGRAMA EDUCATIVO DE LA CARRERA DE ARQUITECTURA</t>
-  </si>
-  <si>
-    <t>TNM-054-29-2025-4</t>
-  </si>
-  <si>
-    <t>ALEJANDRO CALDERON RENTERIIA</t>
-  </si>
-  <si>
-    <t>TALLER DE BASE DE DATOS</t>
-  </si>
-  <si>
-    <t>100 HORAS</t>
   </si>
   <si>
     <t>TNM-054-54-2025</t>
@@ -4460,7 +4446,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4491,14 +4477,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -4733,11 +4713,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4814,9 +4899,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4867,9 +4949,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4889,272 +4968,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1A1C1E"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -5393,28 +5234,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27943D54-4A32-B44A-9589-52B75777226A}" name="PARTICIPANTES1618" displayName="PARTICIPANTES1618" ref="A1:F384" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27943D54-4A32-B44A-9589-52B75777226A}" name="PARTICIPANTES1618" displayName="PARTICIPANTES1618" ref="A1:F384" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <tableColumns count="6">
-    <tableColumn id="17" xr3:uid="{43E7D114-76C6-9847-831D-9DE65D5C1D35}" name="Folio" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{F906E5A4-7672-0045-A8E7-A254C92ED30E}" name="Nombre" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{4A683C6F-BAFD-E243-ABD1-562B8EC53E99}" name="Curso" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{F9AD31F0-2006-9845-9571-7C0934CB1B4F}" name="Departamento" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{02A925E6-86CF-F047-A7F5-1C0D19B09CCA}" name="Fecha" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{800F1D14-514D-D049-8526-0A01081A9CA0}" name="Duracion" dataDxfId="13" totalsRowDxfId="12"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B508AFF-503A-7943-8DD5-D06EBFCC8B62}" name="PARTICIPANTES16183" displayName="PARTICIPANTES16183" ref="A1:F40" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <tableColumns count="6">
-    <tableColumn id="17" xr3:uid="{81EB27DA-9005-8343-8270-24F41F32CD2D}" name="Folio" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{783F0072-DA7B-3140-83D6-27D662F54BBB}" name="Nombre" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{D0D33A24-B6D2-2541-8F70-5398A340F57E}" name="Curso" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{AB02D729-8232-8643-B88A-00257BFDD549}" name="Departamento" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{DF3AACD7-1A51-AB47-9454-2F951F317051}" name="Fecha" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{88C52EF0-15CE-8445-A82B-DCF650F2DA69}" name="Duracion" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{43E7D114-76C6-9847-831D-9DE65D5C1D35}" name="Folio" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{F906E5A4-7672-0045-A8E7-A254C92ED30E}" name="Nombre" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{4A683C6F-BAFD-E243-ABD1-562B8EC53E99}" name="Curso" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{F9AD31F0-2006-9845-9571-7C0934CB1B4F}" name="Departamento" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{02A925E6-86CF-F047-A7F5-1C0D19B09CCA}" name="Fecha" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{800F1D14-514D-D049-8526-0A01081A9CA0}" name="Duracion" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5737,12 +5564,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BE329E-0C32-C347-895C-9B9ADC4E5E27}">
-  <dimension ref="A1:F455"/>
+  <dimension ref="A1:F493"/>
   <sheetViews>
-    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C457" sqref="C457"/>
+      <selection pane="bottomLeft" activeCell="B460" sqref="B460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14188,7 +14015,7 @@
       <c r="D422" t="s">
         <v>12</v>
       </c>
-      <c r="E422" s="64" t="s">
+      <c r="E422" s="62" t="s">
         <v>255</v>
       </c>
       <c r="F422" t="s">
@@ -14833,23 +14660,783 @@
       </c>
     </row>
     <row r="455" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A455" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1430</v>
+      <c r="A455" s="75" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B455" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="C455" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D455" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D455" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E455" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F455" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="76" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B456" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D456" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="E455" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="F455" t="s">
-        <v>1432</v>
+      <c r="E456" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F456" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="76" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B457" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D457" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E457" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F457" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="76" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B458" s="30" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D458" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="E458" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F458" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="76" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B459" s="30" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D459" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E459" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F459" s="73" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="76" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B460" s="30" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D460" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="E460" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F460" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="76" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B461" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D461" s="54" t="s">
+        <v>912</v>
+      </c>
+      <c r="E461" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F461" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="76" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B462" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D462" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E462" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F462" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="76" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B463" s="30" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D463" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E463" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F463" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="76" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B464" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D464" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E464" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F464" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="76" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B465" s="30" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D465" s="13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E465" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F465" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="76" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B466" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D466" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="E466" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F466" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="76" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B467" s="30" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D467" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="E467" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F467" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="76" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B468" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="C468" s="52" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D468" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E468" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F468" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="76" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B469" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D469" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E469" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F469" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="76" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B470" s="30" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D470" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E470" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F470" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="76" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B471" s="30" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D471" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="E471" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F471" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="76" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B472" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D472" s="54" t="s">
+        <v>912</v>
+      </c>
+      <c r="E472" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F472" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="77" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B473" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C473" s="20" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D473" s="64" t="s">
+        <v>872</v>
+      </c>
+      <c r="E473" s="20" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F473" s="78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="75" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B474" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C474" s="25" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D474" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E474" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F474" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="76" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B475" s="30" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D475" s="54" t="s">
+        <v>912</v>
+      </c>
+      <c r="E475" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F475" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="76" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B476" s="30" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D476" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E476" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F476" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="76" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B477" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D477" s="13" t="s">
+        <v>872</v>
+      </c>
+      <c r="E477" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F477" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="76" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B478" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D478" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E478" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F478" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="76" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B479" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D479" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E479" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F479" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="76" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B480" s="30" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D480" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="E480" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F480" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="76" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B481" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D481" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="E481" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F481" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="76" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B482" s="30" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D482" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E482" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F482" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="79" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B483" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D483" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E483" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F483" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="79" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B484" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D484" s="13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E484" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F484" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="79" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B485" s="30" t="s">
+        <v>908</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D485" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="E485" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F485" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="79" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B486" s="30" t="s">
+        <v>857</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D486" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="E486" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F486" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="79" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B487" s="30" t="s">
+        <v>856</v>
+      </c>
+      <c r="C487" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D487" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E487" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F487" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="79" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B488" s="30" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D488" s="13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E488" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F488" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="79" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B489" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D489" s="13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E489" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F489" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="79" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B490" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D490" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E490" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F490" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A491" s="79" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B491" s="30" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D491" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E491" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F491" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A492" s="79" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B492" s="30" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C492" s="39" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D492" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E492" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F492" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="80" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B493" s="81" t="s">
+        <v>370</v>
+      </c>
+      <c r="C493" s="72" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D493" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E493" s="72" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F493" s="74" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -14866,10 +15453,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E4E2C6-ECF6-8E42-BACE-6A57540CDA47}">
   <dimension ref="A1:G384"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A384"/>
+      <selection pane="bottomLeft" activeCell="A346" sqref="A346:F384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14903,7 +15490,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>931</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -14912,7 +15499,7 @@
       <c r="C2" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
@@ -21143,34 +21730,34 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="71" t="s">
+      <c r="A314" s="69" t="s">
         <v>1238</v>
       </c>
-      <c r="B314" s="50" t="s">
+      <c r="B314" s="49" t="s">
         <v>1319</v>
       </c>
-      <c r="C314" s="63" t="s">
+      <c r="C314" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="D314" s="66" t="s">
+      <c r="D314" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E314" s="72" t="s">
+      <c r="E314" s="70" t="s">
         <v>376</v>
       </c>
-      <c r="F314" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="G314" s="42"/>
+      <c r="F314" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G314" s="41"/>
     </row>
     <row r="315" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="69" t="s">
+      <c r="A315" s="67" t="s">
         <v>878</v>
       </c>
       <c r="B315" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="C315" s="70" t="s">
+      <c r="C315" s="68" t="s">
         <v>350</v>
       </c>
       <c r="D315" s="20" t="s">
@@ -21307,7 +21894,7 @@
       <c r="A322" s="38" t="s">
         <v>885</v>
       </c>
-      <c r="B322" s="43" t="s">
+      <c r="B322" s="42" t="s">
         <v>903</v>
       </c>
       <c r="C322" s="14" t="s">
@@ -21324,13 +21911,13 @@
       </c>
     </row>
     <row r="323" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="69" t="s">
+      <c r="A323" s="67" t="s">
         <v>886</v>
       </c>
-      <c r="B323" s="70" t="s">
+      <c r="B323" s="68" t="s">
         <v>904</v>
       </c>
-      <c r="C323" s="70" t="s">
+      <c r="C323" s="68" t="s">
         <v>368</v>
       </c>
       <c r="D323" s="20" t="s">
@@ -21370,7 +21957,7 @@
       <c r="B325" s="11" t="s">
         <v>918</v>
       </c>
-      <c r="C325" s="44" t="s">
+      <c r="C325" s="43" t="s">
         <v>375</v>
       </c>
       <c r="D325" t="s">
@@ -21390,7 +21977,7 @@
       <c r="B326" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="C326" s="44" t="s">
+      <c r="C326" s="43" t="s">
         <v>375</v>
       </c>
       <c r="D326" t="s">
@@ -21410,7 +21997,7 @@
       <c r="B327" s="11" t="s">
         <v>916</v>
       </c>
-      <c r="C327" s="44" t="s">
+      <c r="C327" s="43" t="s">
         <v>375</v>
       </c>
       <c r="D327" t="s">
@@ -21430,7 +22017,7 @@
       <c r="B328" s="11" t="s">
         <v>915</v>
       </c>
-      <c r="C328" s="44" t="s">
+      <c r="C328" s="43" t="s">
         <v>375</v>
       </c>
       <c r="D328" t="s">
@@ -21450,7 +22037,7 @@
       <c r="B329" s="11" t="s">
         <v>914</v>
       </c>
-      <c r="C329" s="44" t="s">
+      <c r="C329" s="43" t="s">
         <v>375</v>
       </c>
       <c r="D329" t="s">
@@ -21530,7 +22117,7 @@
       <c r="B333" t="s">
         <v>166</v>
       </c>
-      <c r="C333" s="45" t="s">
+      <c r="C333" s="44" t="s">
         <v>381</v>
       </c>
       <c r="D333" t="s">
@@ -21725,7 +22312,7 @@
     </row>
     <row r="343" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="26" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="B343" s="25" t="s">
         <v>929</v>
@@ -21745,7 +22332,7 @@
     </row>
     <row r="344" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="26" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="B344" s="25" t="s">
         <v>1426</v>
@@ -21764,13 +22351,13 @@
       </c>
     </row>
     <row r="345" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="67" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B345" s="68" t="s">
+      <c r="A345" s="65" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B345" s="66" t="s">
         <v>858</v>
       </c>
-      <c r="C345" s="68" t="s">
+      <c r="C345" s="66" t="s">
         <v>1428</v>
       </c>
       <c r="D345" s="23" t="s">
@@ -21782,10 +22369,10 @@
       <c r="F345" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G345" s="60"/>
+      <c r="G345" s="59"/>
     </row>
     <row r="346" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="61" t="s">
+      <c r="A346" s="60" t="s">
         <v>1329</v>
       </c>
       <c r="B346" s="30" t="s">
@@ -21794,7 +22381,7 @@
       <c r="C346" t="s">
         <v>1379</v>
       </c>
-      <c r="D346" s="47" t="s">
+      <c r="D346" s="46" t="s">
         <v>12</v>
       </c>
       <c r="E346" t="s">
@@ -21805,7 +22392,7 @@
       </c>
     </row>
     <row r="347" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="48" t="s">
+      <c r="A347" s="47" t="s">
         <v>1330</v>
       </c>
       <c r="B347" s="30" t="s">
@@ -21825,7 +22412,7 @@
       </c>
     </row>
     <row r="348" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="48" t="s">
+      <c r="A348" s="47" t="s">
         <v>1331</v>
       </c>
       <c r="B348" s="30" t="s">
@@ -21845,7 +22432,7 @@
       </c>
     </row>
     <row r="349" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="48" t="s">
+      <c r="A349" s="47" t="s">
         <v>1332</v>
       </c>
       <c r="B349" s="30" t="s">
@@ -21865,7 +22452,7 @@
       </c>
     </row>
     <row r="350" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="48" t="s">
+      <c r="A350" s="47" t="s">
         <v>1333</v>
       </c>
       <c r="B350" s="30" t="s">
@@ -21885,7 +22472,7 @@
       </c>
     </row>
     <row r="351" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="48" t="s">
+      <c r="A351" s="47" t="s">
         <v>1335</v>
       </c>
       <c r="B351" s="30" t="s">
@@ -21905,7 +22492,7 @@
       </c>
     </row>
     <row r="352" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="48" t="s">
+      <c r="A352" s="47" t="s">
         <v>1337</v>
       </c>
       <c r="B352" s="30" t="s">
@@ -21914,7 +22501,7 @@
       <c r="C352" t="s">
         <v>1385</v>
       </c>
-      <c r="D352" s="55" t="s">
+      <c r="D352" s="54" t="s">
         <v>912</v>
       </c>
       <c r="E352" t="s">
@@ -21925,7 +22512,7 @@
       </c>
     </row>
     <row r="353" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="48" t="s">
+      <c r="A353" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="B353" s="30" t="s">
@@ -21945,7 +22532,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="48" t="s">
+      <c r="A354" s="47" t="s">
         <v>1339</v>
       </c>
       <c r="B354" s="30" t="s">
@@ -21965,7 +22552,7 @@
       </c>
     </row>
     <row r="355" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="48" t="s">
+      <c r="A355" s="47" t="s">
         <v>1341</v>
       </c>
       <c r="B355" s="30" t="s">
@@ -21985,7 +22572,7 @@
       </c>
     </row>
     <row r="356" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="48" t="s">
+      <c r="A356" s="47" t="s">
         <v>1342</v>
       </c>
       <c r="B356" s="30" t="s">
@@ -22005,7 +22592,7 @@
       </c>
     </row>
     <row r="357" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="48" t="s">
+      <c r="A357" s="47" t="s">
         <v>1344</v>
       </c>
       <c r="B357" s="30" t="s">
@@ -22025,7 +22612,7 @@
       </c>
     </row>
     <row r="358" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="48" t="s">
+      <c r="A358" s="47" t="s">
         <v>1345</v>
       </c>
       <c r="B358" s="30" t="s">
@@ -22045,13 +22632,13 @@
       </c>
     </row>
     <row r="359" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="48" t="s">
+      <c r="A359" s="47" t="s">
         <v>1347</v>
       </c>
-      <c r="B359" s="49" t="s">
+      <c r="B359" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="C359" s="53" t="s">
+      <c r="C359" s="52" t="s">
         <v>1392</v>
       </c>
       <c r="D359" s="13" t="s">
@@ -22065,7 +22652,7 @@
       </c>
     </row>
     <row r="360" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="48" t="s">
+      <c r="A360" s="47" t="s">
         <v>1348</v>
       </c>
       <c r="B360" s="30" t="s">
@@ -22074,7 +22661,7 @@
       <c r="C360" t="s">
         <v>1393</v>
       </c>
-      <c r="D360" s="56" t="s">
+      <c r="D360" s="55" t="s">
         <v>17</v>
       </c>
       <c r="E360" t="s">
@@ -22085,7 +22672,7 @@
       </c>
     </row>
     <row r="361" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="48" t="s">
+      <c r="A361" s="47" t="s">
         <v>1349</v>
       </c>
       <c r="B361" s="30" t="s">
@@ -22094,7 +22681,7 @@
       <c r="C361" t="s">
         <v>1394</v>
       </c>
-      <c r="D361" s="56" t="s">
+      <c r="D361" s="55" t="s">
         <v>17</v>
       </c>
       <c r="E361" t="s">
@@ -22105,7 +22692,7 @@
       </c>
     </row>
     <row r="362" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="48" t="s">
+      <c r="A362" s="47" t="s">
         <v>1351</v>
       </c>
       <c r="B362" s="30" t="s">
@@ -22125,7 +22712,7 @@
       </c>
     </row>
     <row r="363" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="48" t="s">
+      <c r="A363" s="47" t="s">
         <v>1353</v>
       </c>
       <c r="B363" s="30" t="s">
@@ -22134,7 +22721,7 @@
       <c r="C363" t="s">
         <v>1395</v>
       </c>
-      <c r="D363" s="55" t="s">
+      <c r="D363" s="54" t="s">
         <v>912</v>
       </c>
       <c r="E363" t="s">
@@ -22145,16 +22732,16 @@
       </c>
     </row>
     <row r="364" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="65" t="s">
+      <c r="A364" s="63" t="s">
         <v>1354</v>
       </c>
-      <c r="B364" s="50" t="s">
+      <c r="B364" s="49" t="s">
         <v>161</v>
       </c>
       <c r="C364" s="20" t="s">
         <v>1396</v>
       </c>
-      <c r="D364" s="66" t="s">
+      <c r="D364" s="64" t="s">
         <v>872</v>
       </c>
       <c r="E364" s="20" t="s">
@@ -22165,16 +22752,16 @@
       </c>
     </row>
     <row r="365" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="61" t="s">
+      <c r="A365" s="60" t="s">
         <v>1355</v>
       </c>
-      <c r="B365" s="51" t="s">
+      <c r="B365" s="50" t="s">
         <v>95</v>
       </c>
       <c r="C365" s="25" t="s">
         <v>1397</v>
       </c>
-      <c r="D365" s="47" t="s">
+      <c r="D365" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E365" t="s">
@@ -22185,7 +22772,7 @@
       </c>
     </row>
     <row r="366" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="48" t="s">
+      <c r="A366" s="47" t="s">
         <v>1356</v>
       </c>
       <c r="B366" s="30" t="s">
@@ -22194,7 +22781,7 @@
       <c r="C366" t="s">
         <v>1398</v>
       </c>
-      <c r="D366" s="55" t="s">
+      <c r="D366" s="54" t="s">
         <v>912</v>
       </c>
       <c r="E366" t="s">
@@ -22205,7 +22792,7 @@
       </c>
     </row>
     <row r="367" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="48" t="s">
+      <c r="A367" s="47" t="s">
         <v>1357</v>
       </c>
       <c r="B367" s="30" t="s">
@@ -22214,7 +22801,7 @@
       <c r="C367" t="s">
         <v>1399</v>
       </c>
-      <c r="D367" s="57" t="s">
+      <c r="D367" s="56" t="s">
         <v>31</v>
       </c>
       <c r="E367" t="s">
@@ -22225,7 +22812,7 @@
       </c>
     </row>
     <row r="368" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="48" t="s">
+      <c r="A368" s="47" t="s">
         <v>1359</v>
       </c>
       <c r="B368" s="30" t="s">
@@ -22245,7 +22832,7 @@
       </c>
     </row>
     <row r="369" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="48" t="s">
+      <c r="A369" s="47" t="s">
         <v>1360</v>
       </c>
       <c r="B369" s="30" t="s">
@@ -22265,10 +22852,10 @@
       </c>
     </row>
     <row r="370" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="48" t="s">
+      <c r="A370" s="47" t="s">
         <v>1361</v>
       </c>
-      <c r="B370" s="52" t="s">
+      <c r="B370" s="51" t="s">
         <v>332</v>
       </c>
       <c r="C370" t="s">
@@ -22285,7 +22872,7 @@
       </c>
     </row>
     <row r="371" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="48" t="s">
+      <c r="A371" s="47" t="s">
         <v>1362</v>
       </c>
       <c r="B371" s="30" t="s">
@@ -22305,7 +22892,7 @@
       </c>
     </row>
     <row r="372" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="48" t="s">
+      <c r="A372" s="47" t="s">
         <v>1363</v>
       </c>
       <c r="B372" s="30" t="s">
@@ -22325,7 +22912,7 @@
       </c>
     </row>
     <row r="373" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="48" t="s">
+      <c r="A373" s="47" t="s">
         <v>1364</v>
       </c>
       <c r="B373" s="30" t="s">
@@ -22431,10 +23018,10 @@
       <c r="B378" s="30" t="s">
         <v>856</v>
       </c>
-      <c r="C378" s="54" t="s">
+      <c r="C378" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="D378" s="56" t="s">
+      <c r="D378" s="55" t="s">
         <v>17</v>
       </c>
       <c r="E378" t="s">
@@ -22534,7 +23121,7 @@
       <c r="C383" s="39" t="s">
         <v>1414</v>
       </c>
-      <c r="D383" s="57" t="s">
+      <c r="D383" s="56" t="s">
         <v>31</v>
       </c>
       <c r="E383" t="s">
@@ -22545,7 +23132,7 @@
       </c>
     </row>
     <row r="384" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="58" t="s">
+      <c r="A384" s="57" t="s">
         <v>1378</v>
       </c>
       <c r="B384" s="30" t="s">
@@ -22554,842 +23141,13 @@
       <c r="C384" t="s">
         <v>1415</v>
       </c>
-      <c r="D384" s="59" t="s">
+      <c r="D384" s="58" t="s">
         <v>12</v>
       </c>
       <c r="E384" t="s">
         <v>1419</v>
       </c>
       <c r="F384" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BB4C77-EC78-E54B-9F74-171DAF10810C}">
-  <dimension ref="A1:F40"/>
-  <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.83203125" customWidth="1"/>
-    <col min="4" max="4" width="63.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="62" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1417</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>912</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>1416</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>871</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>871</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>912</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>912</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>332</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>871</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>1416</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>908</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>912</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>857</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>873</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>856</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>1416</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>1416</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="58" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D40" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F40" t="s">
         <v>9</v>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CD0FC2-69BC-2543-B71C-EFD079D34433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9C5E1B-81FF-4A4A-9BDF-D203E7F173C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10540" yWindow="820" windowWidth="27620" windowHeight="15860" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5258" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5024" uniqueCount="1432">
   <si>
     <t>Nombre</t>
   </si>
@@ -4478,7 +4478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -4622,17 +4622,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -4822,7 +4811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4915,9 +4904,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4939,22 +4925,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4965,32 +4939,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5234,7 +5209,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27943D54-4A32-B44A-9589-52B75777226A}" name="PARTICIPANTES1618" displayName="PARTICIPANTES1618" ref="A1:F384" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27943D54-4A32-B44A-9589-52B75777226A}" name="PARTICIPANTES1618" displayName="PARTICIPANTES1618" ref="A1:F345" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <tableColumns count="6">
     <tableColumn id="17" xr3:uid="{43E7D114-76C6-9847-831D-9DE65D5C1D35}" name="Folio" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{F906E5A4-7672-0045-A8E7-A254C92ED30E}" name="Nombre" dataDxfId="7" totalsRowDxfId="6"/>
@@ -5567,9 +5542,9 @@
   <dimension ref="A1:F493"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="B460" sqref="B460"/>
+      <selection pane="bottomLeft" activeCell="B462" sqref="B462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14015,7 +13990,7 @@
       <c r="D422" t="s">
         <v>12</v>
       </c>
-      <c r="E422" s="62" t="s">
+      <c r="E422" s="58" t="s">
         <v>255</v>
       </c>
       <c r="F422" t="s">
@@ -14660,7 +14635,7 @@
       </c>
     </row>
     <row r="455" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="75" t="s">
+      <c r="A455" s="70" t="s">
         <v>1329</v>
       </c>
       <c r="B455" s="30" t="s">
@@ -14675,12 +14650,12 @@
       <c r="E455" t="s">
         <v>1417</v>
       </c>
-      <c r="F455" s="73" t="s">
+      <c r="F455" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="76" t="s">
+      <c r="A456" s="71" t="s">
         <v>1330</v>
       </c>
       <c r="B456" s="30" t="s">
@@ -14695,12 +14670,12 @@
       <c r="E456" t="s">
         <v>1418</v>
       </c>
-      <c r="F456" s="73" t="s">
+      <c r="F456" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="76" t="s">
+      <c r="A457" s="71" t="s">
         <v>1331</v>
       </c>
       <c r="B457" s="30" t="s">
@@ -14715,12 +14690,12 @@
       <c r="E457" t="s">
         <v>1418</v>
       </c>
-      <c r="F457" s="73" t="s">
+      <c r="F457" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="76" t="s">
+      <c r="A458" s="71" t="s">
         <v>1332</v>
       </c>
       <c r="B458" s="30" t="s">
@@ -14735,12 +14710,12 @@
       <c r="E458" t="s">
         <v>1418</v>
       </c>
-      <c r="F458" s="73" t="s">
+      <c r="F458" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="459" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="76" t="s">
+      <c r="A459" s="71" t="s">
         <v>1333</v>
       </c>
       <c r="B459" s="30" t="s">
@@ -14755,15 +14730,15 @@
       <c r="E459" t="s">
         <v>1418</v>
       </c>
-      <c r="F459" s="73" t="s">
+      <c r="F459" s="68" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="460" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="76" t="s">
+      <c r="A460" s="71" t="s">
         <v>1335</v>
       </c>
-      <c r="B460" s="30" t="s">
+      <c r="B460" s="78" t="s">
         <v>1336</v>
       </c>
       <c r="C460" t="s">
@@ -14775,12 +14750,12 @@
       <c r="E460" t="s">
         <v>1418</v>
       </c>
-      <c r="F460" s="73" t="s">
+      <c r="F460" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="76" t="s">
+      <c r="A461" s="71" t="s">
         <v>1337</v>
       </c>
       <c r="B461" s="30" t="s">
@@ -14789,18 +14764,18 @@
       <c r="C461" t="s">
         <v>1385</v>
       </c>
-      <c r="D461" s="54" t="s">
+      <c r="D461" s="53" t="s">
         <v>912</v>
       </c>
       <c r="E461" t="s">
         <v>1418</v>
       </c>
-      <c r="F461" s="73" t="s">
+      <c r="F461" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="462" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="76" t="s">
+      <c r="A462" s="71" t="s">
         <v>1338</v>
       </c>
       <c r="B462" s="30" t="s">
@@ -14815,12 +14790,12 @@
       <c r="E462" t="s">
         <v>1418</v>
       </c>
-      <c r="F462" s="73" t="s">
+      <c r="F462" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="463" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="76" t="s">
+      <c r="A463" s="71" t="s">
         <v>1339</v>
       </c>
       <c r="B463" s="30" t="s">
@@ -14835,12 +14810,12 @@
       <c r="E463" t="s">
         <v>1418</v>
       </c>
-      <c r="F463" s="73" t="s">
+      <c r="F463" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="76" t="s">
+      <c r="A464" s="71" t="s">
         <v>1341</v>
       </c>
       <c r="B464" s="30" t="s">
@@ -14855,12 +14830,12 @@
       <c r="E464" t="s">
         <v>1418</v>
       </c>
-      <c r="F464" s="73" t="s">
+      <c r="F464" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="76" t="s">
+      <c r="A465" s="71" t="s">
         <v>1342</v>
       </c>
       <c r="B465" s="30" t="s">
@@ -14875,12 +14850,12 @@
       <c r="E465" t="s">
         <v>1418</v>
       </c>
-      <c r="F465" s="73" t="s">
+      <c r="F465" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="76" t="s">
+      <c r="A466" s="71" t="s">
         <v>1344</v>
       </c>
       <c r="B466" s="30" t="s">
@@ -14895,12 +14870,12 @@
       <c r="E466" t="s">
         <v>1418</v>
       </c>
-      <c r="F466" s="73" t="s">
+      <c r="F466" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="76" t="s">
+      <c r="A467" s="71" t="s">
         <v>1345</v>
       </c>
       <c r="B467" s="30" t="s">
@@ -14915,18 +14890,18 @@
       <c r="E467" t="s">
         <v>1418</v>
       </c>
-      <c r="F467" s="73" t="s">
+      <c r="F467" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="76" t="s">
+      <c r="A468" s="71" t="s">
         <v>1347</v>
       </c>
-      <c r="B468" s="48" t="s">
+      <c r="B468" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="C468" s="52" t="s">
+      <c r="C468" s="51" t="s">
         <v>1392</v>
       </c>
       <c r="D468" s="13" t="s">
@@ -14935,12 +14910,12 @@
       <c r="E468" t="s">
         <v>1418</v>
       </c>
-      <c r="F468" s="73" t="s">
+      <c r="F468" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="76" t="s">
+      <c r="A469" s="71" t="s">
         <v>1348</v>
       </c>
       <c r="B469" s="30" t="s">
@@ -14949,18 +14924,18 @@
       <c r="C469" t="s">
         <v>1393</v>
       </c>
-      <c r="D469" s="55" t="s">
+      <c r="D469" s="54" t="s">
         <v>17</v>
       </c>
       <c r="E469" t="s">
         <v>1418</v>
       </c>
-      <c r="F469" s="73" t="s">
+      <c r="F469" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="76" t="s">
+      <c r="A470" s="71" t="s">
         <v>1349</v>
       </c>
       <c r="B470" s="30" t="s">
@@ -14969,18 +14944,18 @@
       <c r="C470" t="s">
         <v>1394</v>
       </c>
-      <c r="D470" s="55" t="s">
+      <c r="D470" s="54" t="s">
         <v>17</v>
       </c>
       <c r="E470" t="s">
         <v>1418</v>
       </c>
-      <c r="F470" s="73" t="s">
+      <c r="F470" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="471" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="76" t="s">
+      <c r="A471" s="71" t="s">
         <v>1351</v>
       </c>
       <c r="B471" s="30" t="s">
@@ -14995,12 +14970,12 @@
       <c r="E471" t="s">
         <v>1418</v>
       </c>
-      <c r="F471" s="73" t="s">
+      <c r="F471" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="76" t="s">
+      <c r="A472" s="71" t="s">
         <v>1353</v>
       </c>
       <c r="B472" s="30" t="s">
@@ -15009,41 +14984,41 @@
       <c r="C472" t="s">
         <v>1395</v>
       </c>
-      <c r="D472" s="54" t="s">
+      <c r="D472" s="53" t="s">
         <v>912</v>
       </c>
       <c r="E472" t="s">
         <v>1418</v>
       </c>
-      <c r="F472" s="73" t="s">
+      <c r="F472" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="77" t="s">
+      <c r="A473" s="72" t="s">
         <v>1354</v>
       </c>
-      <c r="B473" s="49" t="s">
+      <c r="B473" s="48" t="s">
         <v>161</v>
       </c>
       <c r="C473" s="20" t="s">
         <v>1396</v>
       </c>
-      <c r="D473" s="64" t="s">
+      <c r="D473" s="59" t="s">
         <v>872</v>
       </c>
       <c r="E473" s="20" t="s">
         <v>1418</v>
       </c>
-      <c r="F473" s="78" t="s">
+      <c r="F473" s="73" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="75" t="s">
+      <c r="A474" s="70" t="s">
         <v>1355</v>
       </c>
-      <c r="B474" s="50" t="s">
+      <c r="B474" s="49" t="s">
         <v>95</v>
       </c>
       <c r="C474" s="25" t="s">
@@ -15055,12 +15030,12 @@
       <c r="E474" t="s">
         <v>1419</v>
       </c>
-      <c r="F474" s="73" t="s">
+      <c r="F474" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="76" t="s">
+      <c r="A475" s="71" t="s">
         <v>1356</v>
       </c>
       <c r="B475" s="30" t="s">
@@ -15069,18 +15044,18 @@
       <c r="C475" t="s">
         <v>1398</v>
       </c>
-      <c r="D475" s="54" t="s">
+      <c r="D475" s="53" t="s">
         <v>912</v>
       </c>
       <c r="E475" t="s">
         <v>1419</v>
       </c>
-      <c r="F475" s="73" t="s">
+      <c r="F475" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A476" s="76" t="s">
+      <c r="A476" s="71" t="s">
         <v>1357</v>
       </c>
       <c r="B476" s="30" t="s">
@@ -15089,18 +15064,18 @@
       <c r="C476" t="s">
         <v>1399</v>
       </c>
-      <c r="D476" s="56" t="s">
+      <c r="D476" s="55" t="s">
         <v>31</v>
       </c>
       <c r="E476" t="s">
         <v>1419</v>
       </c>
-      <c r="F476" s="73" t="s">
+      <c r="F476" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A477" s="76" t="s">
+      <c r="A477" s="71" t="s">
         <v>1359</v>
       </c>
       <c r="B477" s="30" t="s">
@@ -15115,12 +15090,12 @@
       <c r="E477" t="s">
         <v>1419</v>
       </c>
-      <c r="F477" s="73" t="s">
+      <c r="F477" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="478" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A478" s="76" t="s">
+      <c r="A478" s="71" t="s">
         <v>1360</v>
       </c>
       <c r="B478" s="30" t="s">
@@ -15135,15 +15110,15 @@
       <c r="E478" t="s">
         <v>1419</v>
       </c>
-      <c r="F478" s="73" t="s">
+      <c r="F478" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="479" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A479" s="76" t="s">
+      <c r="A479" s="71" t="s">
         <v>1361</v>
       </c>
-      <c r="B479" s="51" t="s">
+      <c r="B479" s="50" t="s">
         <v>332</v>
       </c>
       <c r="C479" t="s">
@@ -15155,12 +15130,12 @@
       <c r="E479" t="s">
         <v>1419</v>
       </c>
-      <c r="F479" s="73" t="s">
+      <c r="F479" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A480" s="76" t="s">
+      <c r="A480" s="71" t="s">
         <v>1362</v>
       </c>
       <c r="B480" s="30" t="s">
@@ -15175,12 +15150,12 @@
       <c r="E480" t="s">
         <v>1419</v>
       </c>
-      <c r="F480" s="73" t="s">
+      <c r="F480" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="76" t="s">
+      <c r="A481" s="71" t="s">
         <v>1363</v>
       </c>
       <c r="B481" s="30" t="s">
@@ -15195,12 +15170,12 @@
       <c r="E481" t="s">
         <v>1419</v>
       </c>
-      <c r="F481" s="73" t="s">
+      <c r="F481" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A482" s="76" t="s">
+      <c r="A482" s="71" t="s">
         <v>1364</v>
       </c>
       <c r="B482" s="30" t="s">
@@ -15215,12 +15190,12 @@
       <c r="E482" t="s">
         <v>1419</v>
       </c>
-      <c r="F482" s="73" t="s">
+      <c r="F482" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="483" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="79" t="s">
+      <c r="A483" s="74" t="s">
         <v>1366</v>
       </c>
       <c r="B483" s="30" t="s">
@@ -15235,12 +15210,12 @@
       <c r="E483" t="s">
         <v>1419</v>
       </c>
-      <c r="F483" s="73" t="s">
+      <c r="F483" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="484" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A484" s="79" t="s">
+      <c r="A484" s="74" t="s">
         <v>1367</v>
       </c>
       <c r="B484" s="30" t="s">
@@ -15255,12 +15230,12 @@
       <c r="E484" t="s">
         <v>1419</v>
       </c>
-      <c r="F484" s="73" t="s">
+      <c r="F484" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A485" s="79" t="s">
+      <c r="A485" s="74" t="s">
         <v>1368</v>
       </c>
       <c r="B485" s="30" t="s">
@@ -15275,12 +15250,12 @@
       <c r="E485" t="s">
         <v>1419</v>
       </c>
-      <c r="F485" s="73" t="s">
+      <c r="F485" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A486" s="79" t="s">
+      <c r="A486" s="74" t="s">
         <v>1369</v>
       </c>
       <c r="B486" s="30" t="s">
@@ -15295,32 +15270,32 @@
       <c r="E486" t="s">
         <v>1419</v>
       </c>
-      <c r="F486" s="73" t="s">
+      <c r="F486" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A487" s="79" t="s">
+      <c r="A487" s="74" t="s">
         <v>1370</v>
       </c>
       <c r="B487" s="30" t="s">
         <v>856</v>
       </c>
-      <c r="C487" s="53" t="s">
+      <c r="C487" s="52" t="s">
         <v>1410</v>
       </c>
-      <c r="D487" s="55" t="s">
+      <c r="D487" s="54" t="s">
         <v>17</v>
       </c>
       <c r="E487" t="s">
         <v>1419</v>
       </c>
-      <c r="F487" s="73" t="s">
+      <c r="F487" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A488" s="79" t="s">
+      <c r="A488" s="74" t="s">
         <v>1371</v>
       </c>
       <c r="B488" s="30" t="s">
@@ -15335,12 +15310,12 @@
       <c r="E488" t="s">
         <v>1419</v>
       </c>
-      <c r="F488" s="73" t="s">
+      <c r="F488" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A489" s="79" t="s">
+      <c r="A489" s="74" t="s">
         <v>1372</v>
       </c>
       <c r="B489" s="30" t="s">
@@ -15355,12 +15330,12 @@
       <c r="E489" t="s">
         <v>1419</v>
       </c>
-      <c r="F489" s="73" t="s">
+      <c r="F489" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="79" t="s">
+      <c r="A490" s="74" t="s">
         <v>1373</v>
       </c>
       <c r="B490" s="30" t="s">
@@ -15375,12 +15350,12 @@
       <c r="E490" t="s">
         <v>1419</v>
       </c>
-      <c r="F490" s="73" t="s">
+      <c r="F490" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="79" t="s">
+      <c r="A491" s="74" t="s">
         <v>1374</v>
       </c>
       <c r="B491" s="30" t="s">
@@ -15395,12 +15370,12 @@
       <c r="E491" t="s">
         <v>1419</v>
       </c>
-      <c r="F491" s="73" t="s">
+      <c r="F491" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="492" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A492" s="79" t="s">
+      <c r="A492" s="74" t="s">
         <v>1376</v>
       </c>
       <c r="B492" s="30" t="s">
@@ -15409,33 +15384,33 @@
       <c r="C492" s="39" t="s">
         <v>1414</v>
       </c>
-      <c r="D492" s="56" t="s">
+      <c r="D492" s="55" t="s">
         <v>31</v>
       </c>
       <c r="E492" t="s">
         <v>1419</v>
       </c>
-      <c r="F492" s="73" t="s">
+      <c r="F492" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="80" t="s">
+      <c r="A493" s="75" t="s">
         <v>1378</v>
       </c>
-      <c r="B493" s="81" t="s">
+      <c r="B493" s="76" t="s">
         <v>370</v>
       </c>
-      <c r="C493" s="72" t="s">
+      <c r="C493" s="67" t="s">
         <v>1415</v>
       </c>
-      <c r="D493" s="82" t="s">
+      <c r="D493" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="E493" s="72" t="s">
+      <c r="E493" s="67" t="s">
         <v>1419</v>
       </c>
-      <c r="F493" s="74" t="s">
+      <c r="F493" s="69" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15451,12 +15426,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E4E2C6-ECF6-8E42-BACE-6A57540CDA47}">
-  <dimension ref="A1:G384"/>
+  <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A346" sqref="A346:F384"/>
+      <selection pane="bottomLeft" activeCell="B369" sqref="B369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21730,34 +21705,34 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="69" t="s">
+      <c r="A314" s="64" t="s">
         <v>1238</v>
       </c>
-      <c r="B314" s="49" t="s">
+      <c r="B314" s="48" t="s">
         <v>1319</v>
       </c>
-      <c r="C314" s="61" t="s">
+      <c r="C314" s="57" t="s">
         <v>399</v>
       </c>
-      <c r="D314" s="64" t="s">
+      <c r="D314" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E314" s="70" t="s">
+      <c r="E314" s="65" t="s">
         <v>376</v>
       </c>
-      <c r="F314" s="71" t="s">
+      <c r="F314" s="66" t="s">
         <v>9</v>
       </c>
       <c r="G314" s="41"/>
     </row>
     <row r="315" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="67" t="s">
+      <c r="A315" s="62" t="s">
         <v>878</v>
       </c>
       <c r="B315" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="C315" s="68" t="s">
+      <c r="C315" s="63" t="s">
         <v>350</v>
       </c>
       <c r="D315" s="20" t="s">
@@ -21911,13 +21886,13 @@
       </c>
     </row>
     <row r="323" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="67" t="s">
+      <c r="A323" s="62" t="s">
         <v>886</v>
       </c>
-      <c r="B323" s="68" t="s">
+      <c r="B323" s="63" t="s">
         <v>904</v>
       </c>
-      <c r="C323" s="68" t="s">
+      <c r="C323" s="63" t="s">
         <v>368</v>
       </c>
       <c r="D323" s="20" t="s">
@@ -22351,13 +22326,13 @@
       </c>
     </row>
     <row r="345" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="65" t="s">
+      <c r="A345" s="60" t="s">
         <v>1431</v>
       </c>
-      <c r="B345" s="66" t="s">
+      <c r="B345" s="61" t="s">
         <v>858</v>
       </c>
-      <c r="C345" s="66" t="s">
+      <c r="C345" s="61" t="s">
         <v>1428</v>
       </c>
       <c r="D345" s="23" t="s">
@@ -22369,787 +22344,7 @@
       <c r="F345" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G345" s="59"/>
-    </row>
-    <row r="346" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="60" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B346" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="C346" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D346" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E346" t="s">
-        <v>1417</v>
-      </c>
-      <c r="F346" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="47" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B347" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D347" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="E347" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F347" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="47" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B348" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="C348" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D348" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E348" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F348" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="47" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B349" s="30" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C349" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D349" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="E349" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F349" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="47" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B350" s="30" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D350" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E350" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F350" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="47" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B351" s="30" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C351" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D351" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="E351" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F351" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="47" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B352" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D352" s="54" t="s">
-        <v>912</v>
-      </c>
-      <c r="E352" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F352" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="47" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B353" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D353" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E353" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F353" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="47" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B354" s="30" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D354" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E354" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F354" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="47" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B355" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D355" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E355" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F355" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="47" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B356" s="30" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D356" s="13" t="s">
-        <v>1416</v>
-      </c>
-      <c r="E356" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F356" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="47" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B357" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C357" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D357" s="13" t="s">
-        <v>871</v>
-      </c>
-      <c r="E357" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F357" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="47" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B358" s="30" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D358" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="E358" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F358" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="47" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B359" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="C359" s="52" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D359" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E359" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F359" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="47" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B360" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D360" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="E360" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F360" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="47" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B361" s="30" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C361" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D361" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="E361" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F361" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="47" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B362" s="30" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C362" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D362" s="13" t="s">
-        <v>871</v>
-      </c>
-      <c r="E362" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F362" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="47" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B363" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D363" s="54" t="s">
-        <v>912</v>
-      </c>
-      <c r="E363" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F363" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="63" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B364" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="C364" s="20" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D364" s="64" t="s">
-        <v>872</v>
-      </c>
-      <c r="E364" s="20" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F364" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="60" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B365" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C365" s="25" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D365" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E365" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F365" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="47" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B366" s="30" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D366" s="54" t="s">
-        <v>912</v>
-      </c>
-      <c r="E366" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F366" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="47" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B367" s="30" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C367" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D367" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="E367" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F367" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="47" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B368" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="C368" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D368" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="E368" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F368" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="47" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B369" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C369" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D369" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E369" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F369" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="47" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B370" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D370" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E370" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F370" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="47" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B371" s="30" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C371" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D371" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="E371" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F371" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="47" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B372" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C372" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D372" s="13" t="s">
-        <v>871</v>
-      </c>
-      <c r="E372" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F372" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="47" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B373" s="30" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D373" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E373" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F373" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="15" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B374" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="C374" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D374" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E374" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F374" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="15" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B375" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="C375" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D375" s="13" t="s">
-        <v>1416</v>
-      </c>
-      <c r="E375" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F375" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="15" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B376" s="30" t="s">
-        <v>908</v>
-      </c>
-      <c r="C376" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D376" s="13" t="s">
-        <v>912</v>
-      </c>
-      <c r="E376" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F376" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="15" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B377" s="30" t="s">
-        <v>857</v>
-      </c>
-      <c r="C377" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D377" s="13" t="s">
-        <v>873</v>
-      </c>
-      <c r="E377" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F377" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="15" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B378" s="30" t="s">
-        <v>856</v>
-      </c>
-      <c r="C378" s="53" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D378" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="E378" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F378" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="15" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B379" s="30" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C379" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D379" s="13" t="s">
-        <v>1416</v>
-      </c>
-      <c r="E379" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F379" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="15" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B380" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="C380" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D380" s="13" t="s">
-        <v>1416</v>
-      </c>
-      <c r="E380" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F380" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="15" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B381" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="C381" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D381" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E381" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F381" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="15" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B382" s="30" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C382" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D382" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E382" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F382" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="15" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B383" s="30" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C383" s="39" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D383" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="E383" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F383" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="57" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B384" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="C384" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D384" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E384" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F384" t="s">
-        <v>9</v>
-      </c>
+      <c r="G345" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9F2983-9E21-614D-9577-DD1392C43A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D501B2-A3F1-034D-AA0E-CE521F9A7FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="1160" windowWidth="33740" windowHeight="15860" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
+    <workbookView xWindow="4660" yWindow="1160" windowWidth="33740" windowHeight="15860" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="4" r:id="rId1"/>
@@ -4348,7 +4348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4426,12 +4426,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1A1C1E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4465,7 +4459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -4689,51 +4683,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4826,15 +4780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -4852,11 +4798,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5433,9 +5374,9 @@
   <dimension ref="A1:F493"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5468,11 +5409,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1329</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" t="s">
         <v>154</v>
       </c>
       <c r="C2" t="s">
@@ -5481,18 +5422,18 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>1417</v>
       </c>
-      <c r="F2" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1330</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" t="s">
         <v>93</v>
       </c>
       <c r="C3" t="s">
@@ -5501,18 +5442,18 @@
       <c r="D3" t="s">
         <v>872</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F3" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1331</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" t="s">
         <v>334</v>
       </c>
       <c r="C4" t="s">
@@ -5521,18 +5462,18 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F4" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1332</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" t="s">
         <v>1313</v>
       </c>
       <c r="C5" t="s">
@@ -5541,18 +5482,18 @@
       <c r="D5" t="s">
         <v>870</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F5" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1333</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" t="s">
         <v>1334</v>
       </c>
       <c r="C6" t="s">
@@ -5561,18 +5502,18 @@
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1335</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" t="s">
         <v>1336</v>
       </c>
       <c r="C7" t="s">
@@ -5581,18 +5522,18 @@
       <c r="D7" t="s">
         <v>870</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F7" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1337</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" t="s">
         <v>401</v>
       </c>
       <c r="C8" t="s">
@@ -5601,18 +5542,18 @@
       <c r="D8" t="s">
         <v>912</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F8" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1338</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" t="s">
         <v>309</v>
       </c>
       <c r="C9" t="s">
@@ -5621,18 +5562,18 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F9" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1339</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" t="s">
         <v>1340</v>
       </c>
       <c r="C10" t="s">
@@ -5641,18 +5582,18 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F10" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1341</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" t="s">
         <v>230</v>
       </c>
       <c r="C11" t="s">
@@ -5661,18 +5602,18 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F11" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1342</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" t="s">
         <v>1343</v>
       </c>
       <c r="C12" t="s">
@@ -5681,18 +5622,18 @@
       <c r="D12" t="s">
         <v>1416</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F12" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1344</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" t="s">
         <v>63</v>
       </c>
       <c r="C13" t="s">
@@ -5701,18 +5642,18 @@
       <c r="D13" t="s">
         <v>871</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F13" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1345</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" t="s">
         <v>1346</v>
       </c>
       <c r="C14" t="s">
@@ -5721,18 +5662,18 @@
       <c r="D14" t="s">
         <v>870</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F14" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1347</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" t="s">
         <v>304</v>
       </c>
       <c r="C15" t="s">
@@ -5741,18 +5682,18 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F15" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1348</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" t="s">
         <v>321</v>
       </c>
       <c r="C16" t="s">
@@ -5761,18 +5702,18 @@
       <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F16" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1349</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" t="s">
         <v>1350</v>
       </c>
       <c r="C17" t="s">
@@ -5781,18 +5722,18 @@
       <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F17" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1351</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" t="s">
         <v>1352</v>
       </c>
       <c r="C18" t="s">
@@ -5801,18 +5742,18 @@
       <c r="D18" t="s">
         <v>871</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F18" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1353</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" t="s">
         <v>319</v>
       </c>
       <c r="C19" t="s">
@@ -5821,58 +5762,58 @@
       <c r="D19" t="s">
         <v>912</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F19" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1354</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" t="s">
         <v>1396</v>
       </c>
       <c r="D20" t="s">
         <v>872</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="F20" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1355</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" t="s">
         <v>1397</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F21" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1356</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" t="s">
         <v>1318</v>
       </c>
       <c r="C22" t="s">
@@ -5881,18 +5822,18 @@
       <c r="D22" t="s">
         <v>912</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F22" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1357</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" t="s">
         <v>1358</v>
       </c>
       <c r="C23" t="s">
@@ -5901,18 +5842,18 @@
       <c r="D23" t="s">
         <v>31</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F23" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1359</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" t="s">
         <v>260</v>
       </c>
       <c r="C24" t="s">
@@ -5921,18 +5862,18 @@
       <c r="D24" t="s">
         <v>872</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F24" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1360</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" t="s">
         <v>174</v>
       </c>
       <c r="C25" t="s">
@@ -5941,18 +5882,18 @@
       <c r="D25" t="s">
         <v>17</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F25" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1361</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" t="s">
         <v>332</v>
       </c>
       <c r="C26" t="s">
@@ -5961,18 +5902,18 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F26" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1362</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" t="s">
         <v>1346</v>
       </c>
       <c r="C27" t="s">
@@ -5981,18 +5922,18 @@
       <c r="D27" t="s">
         <v>870</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F27" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1363</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
@@ -6001,18 +5942,18 @@
       <c r="D28" t="s">
         <v>871</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F28" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1364</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" t="s">
         <v>1365</v>
       </c>
       <c r="C29" t="s">
@@ -6021,18 +5962,18 @@
       <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F29" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1366</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" t="s">
         <v>366</v>
       </c>
       <c r="C30" t="s">
@@ -6041,18 +5982,18 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F30" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1367</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" t="s">
         <v>237</v>
       </c>
       <c r="C31" t="s">
@@ -6061,18 +6002,18 @@
       <c r="D31" t="s">
         <v>1416</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F31" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1368</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" t="s">
         <v>908</v>
       </c>
       <c r="C32" t="s">
@@ -6081,18 +6022,18 @@
       <c r="D32" t="s">
         <v>912</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F32" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1369</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" t="s">
         <v>857</v>
       </c>
       <c r="C33" t="s">
@@ -6101,38 +6042,38 @@
       <c r="D33" t="s">
         <v>873</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F33" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1370</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" t="s">
         <v>856</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" t="s">
         <v>1410</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F34" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1371</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" t="s">
         <v>1299</v>
       </c>
       <c r="C35" t="s">
@@ -6141,18 +6082,18 @@
       <c r="D35" t="s">
         <v>1416</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F35" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1372</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" t="s">
         <v>384</v>
       </c>
       <c r="C36" t="s">
@@ -6161,18 +6102,18 @@
       <c r="D36" t="s">
         <v>1416</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F36" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1373</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" t="s">
         <v>324</v>
       </c>
       <c r="C37" t="s">
@@ -6181,18 +6122,18 @@
       <c r="D37" t="s">
         <v>21</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F37" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1374</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" t="s">
         <v>1375</v>
       </c>
       <c r="C38" t="s">
@@ -6201,50 +6142,50 @@
       <c r="D38" t="s">
         <v>21</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F38" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1376</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" t="s">
         <v>1377</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" t="s">
         <v>1414</v>
       </c>
       <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F39" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1378</v>
       </c>
-      <c r="B40" s="67" t="s">
+      <c r="B40" t="s">
         <v>370</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" t="s">
         <v>1415</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="63" t="s">
+      <c r="E40" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F40" s="65" t="s">
+      <c r="F40" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14661,7 +14602,7 @@
       <c r="D461" t="s">
         <v>12</v>
       </c>
-      <c r="E461" s="54" t="s">
+      <c r="E461" s="50" t="s">
         <v>255</v>
       </c>
       <c r="F461" t="s">
@@ -21596,34 +21537,34 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="60" t="s">
+      <c r="A314" s="56" t="s">
         <v>1238</v>
       </c>
-      <c r="B314" s="48" t="s">
+      <c r="B314" s="47" t="s">
         <v>1319</v>
       </c>
-      <c r="C314" s="53" t="s">
+      <c r="C314" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="D314" s="55" t="s">
+      <c r="D314" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E314" s="61" t="s">
+      <c r="E314" s="57" t="s">
         <v>376</v>
       </c>
-      <c r="F314" s="62" t="s">
+      <c r="F314" s="58" t="s">
         <v>9</v>
       </c>
       <c r="G314" s="41"/>
     </row>
     <row r="315" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="58" t="s">
+      <c r="A315" s="54" t="s">
         <v>878</v>
       </c>
       <c r="B315" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="C315" s="59" t="s">
+      <c r="C315" s="55" t="s">
         <v>350</v>
       </c>
       <c r="D315" s="20" t="s">
@@ -21777,13 +21718,13 @@
       </c>
     </row>
     <row r="323" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="58" t="s">
+      <c r="A323" s="54" t="s">
         <v>886</v>
       </c>
-      <c r="B323" s="59" t="s">
+      <c r="B323" s="55" t="s">
         <v>904</v>
       </c>
-      <c r="C323" s="59" t="s">
+      <c r="C323" s="55" t="s">
         <v>368</v>
       </c>
       <c r="D323" s="20" t="s">
@@ -22217,13 +22158,13 @@
       </c>
     </row>
     <row r="345" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="56" t="s">
+      <c r="A345" s="52" t="s">
         <v>1431</v>
       </c>
-      <c r="B345" s="57" t="s">
+      <c r="B345" s="53" t="s">
         <v>858</v>
       </c>
-      <c r="C345" s="57" t="s">
+      <c r="C345" s="53" t="s">
         <v>1428</v>
       </c>
       <c r="D345" s="23" t="s">
@@ -22235,7 +22176,7 @@
       <c r="F345" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G345" s="52"/>
+      <c r="G345" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA722E7-7CD4-3743-8CC3-071B5785F001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E76CDE0-FD64-544C-82CB-D54E4B20C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="32000" windowHeight="15860" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
+    <workbookView xWindow="-20" yWindow="640" windowWidth="32000" windowHeight="9160" activeTab="1" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5030" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5048" uniqueCount="1433">
   <si>
     <t>Nombre</t>
   </si>
@@ -4338,13 +4338,16 @@
     <t>ANÁLISIS DEL PROGRAMA EDUCATIVO DE LA CARRERA DE ARQUITECTURA</t>
   </si>
   <si>
-    <t>TNM-054-54-2025</t>
-  </si>
-  <si>
-    <t>TNM-054-55-2025</t>
-  </si>
-  <si>
-    <t>TNM-054-56-2025</t>
+    <t>TNM-054-60.2025</t>
+  </si>
+  <si>
+    <t>TNM-054-XX-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-XI-2025</t>
+  </si>
+  <si>
+    <t>TNM-054-XV-2025</t>
   </si>
 </sst>
 </file>
@@ -4462,7 +4465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -4686,11 +4689,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4742,9 +4756,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4801,11 +4812,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -4978,40 +5034,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5044,14 +5066,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27943D54-4A32-B44A-9589-52B75777226A}" name="PARTICIPANTES1618" displayName="PARTICIPANTES1618" ref="A1:F345" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27943D54-4A32-B44A-9589-52B75777226A}" name="PARTICIPANTES1618" displayName="PARTICIPANTES1618" ref="A1:F348" totalsRowShown="0" headerRowDxfId="0" dataDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <tableColumns count="6">
-    <tableColumn id="17" xr3:uid="{43E7D114-76C6-9847-831D-9DE65D5C1D35}" name="Folio" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{F906E5A4-7672-0045-A8E7-A254C92ED30E}" name="Nombre" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{4A683C6F-BAFD-E243-ABD1-562B8EC53E99}" name="Curso" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{F9AD31F0-2006-9845-9571-7C0934CB1B4F}" name="Departamento" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{02A925E6-86CF-F047-A7F5-1C0D19B09CCA}" name="Fecha" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{800F1D14-514D-D049-8526-0A01081A9CA0}" name="Duracion" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{43E7D114-76C6-9847-831D-9DE65D5C1D35}" name="Folio" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{F906E5A4-7672-0045-A8E7-A254C92ED30E}" name="Nombre" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{4A683C6F-BAFD-E243-ABD1-562B8EC53E99}" name="Curso" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{F9AD31F0-2006-9845-9571-7C0934CB1B4F}" name="Departamento" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{02A925E6-86CF-F047-A7F5-1C0D19B09CCA}" name="Fecha" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{800F1D14-514D-D049-8526-0A01081A9CA0}" name="Duracion" dataDxfId="2" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5376,10 +5398,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BE329E-0C32-C347-895C-9B9ADC4E5E27}">
   <dimension ref="A1:F454"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13825,7 +13847,7 @@
       <c r="D422" t="s">
         <v>12</v>
       </c>
-      <c r="E422" s="50" t="s">
+      <c r="E422" s="49" t="s">
         <v>255</v>
       </c>
       <c r="F422" t="s">
@@ -14481,12 +14503,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E4E2C6-ECF6-8E42-BACE-6A57540CDA47}">
-  <dimension ref="A1:G345"/>
+  <dimension ref="A1:G348"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="B349" sqref="B349"/>
+      <selection pane="bottomLeft" activeCell="A348" sqref="A348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14499,37 +14521,37 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" s="58" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="58" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>931</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>1239</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
@@ -14543,7 +14565,7 @@
       <c r="A3" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>246</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -14563,7 +14585,7 @@
       <c r="A4" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>266</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -14583,7 +14605,7 @@
       <c r="A5" s="15" t="s">
         <v>934</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>1240</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -14603,7 +14625,7 @@
       <c r="A6" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>1241</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -14623,7 +14645,7 @@
       <c r="A7" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>908</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -14643,7 +14665,7 @@
       <c r="A8" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>248</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -14663,7 +14685,7 @@
       <c r="A9" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>223</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -14683,7 +14705,7 @@
       <c r="A10" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>1242</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -14703,7 +14725,7 @@
       <c r="A11" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>253</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -14723,7 +14745,7 @@
       <c r="A12" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>239</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -14743,7 +14765,7 @@
       <c r="A13" s="15" t="s">
         <v>942</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>247</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -14763,7 +14785,7 @@
       <c r="A14" s="15" t="s">
         <v>943</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>249</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -14783,7 +14805,7 @@
       <c r="A15" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C15" t="s">
@@ -14803,7 +14825,7 @@
       <c r="A16" s="15" t="s">
         <v>945</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>123</v>
       </c>
       <c r="C16" t="s">
@@ -14823,7 +14845,7 @@
       <c r="A17" s="15" t="s">
         <v>946</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>261</v>
       </c>
       <c r="C17" t="s">
@@ -14843,7 +14865,7 @@
       <c r="A18" s="15" t="s">
         <v>947</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>1243</v>
       </c>
       <c r="C18" t="s">
@@ -14863,7 +14885,7 @@
       <c r="A19" s="15" t="s">
         <v>948</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>93</v>
       </c>
       <c r="C19" t="s">
@@ -14883,7 +14905,7 @@
       <c r="A20" s="15" t="s">
         <v>949</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>109</v>
       </c>
       <c r="C20" t="s">
@@ -14903,7 +14925,7 @@
       <c r="A21" s="15" t="s">
         <v>950</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>110</v>
       </c>
       <c r="C21" t="s">
@@ -14923,7 +14945,7 @@
       <c r="A22" s="15" t="s">
         <v>951</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>1244</v>
       </c>
       <c r="C22" t="s">
@@ -14943,7 +14965,7 @@
       <c r="A23" s="15" t="s">
         <v>952</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>114</v>
       </c>
       <c r="C23" t="s">
@@ -14963,7 +14985,7 @@
       <c r="A24" s="15" t="s">
         <v>953</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>1245</v>
       </c>
       <c r="C24" t="s">
@@ -14983,7 +15005,7 @@
       <c r="A25" s="15" t="s">
         <v>954</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>1246</v>
       </c>
       <c r="C25" t="s">
@@ -15003,7 +15025,7 @@
       <c r="A26" s="15" t="s">
         <v>955</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>92</v>
       </c>
       <c r="C26" t="s">
@@ -15023,7 +15045,7 @@
       <c r="A27" s="15" t="s">
         <v>956</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>90</v>
       </c>
       <c r="C27" t="s">
@@ -15043,7 +15065,7 @@
       <c r="A28" s="15" t="s">
         <v>957</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>1247</v>
       </c>
       <c r="C28" t="s">
@@ -15063,7 +15085,7 @@
       <c r="A29" s="15" t="s">
         <v>958</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>1248</v>
       </c>
       <c r="C29" t="s">
@@ -15083,7 +15105,7 @@
       <c r="A30" s="15" t="s">
         <v>959</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>124</v>
       </c>
       <c r="C30" t="s">
@@ -15103,7 +15125,7 @@
       <c r="A31" s="15" t="s">
         <v>960</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>139</v>
       </c>
       <c r="C31" t="s">
@@ -15123,7 +15145,7 @@
       <c r="A32" s="15" t="s">
         <v>961</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C32" t="s">
@@ -15143,7 +15165,7 @@
       <c r="A33" s="15" t="s">
         <v>962</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>1249</v>
       </c>
       <c r="C33" t="s">
@@ -15163,7 +15185,7 @@
       <c r="A34" s="15" t="s">
         <v>963</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>173</v>
       </c>
       <c r="C34" t="s">
@@ -15183,7 +15205,7 @@
       <c r="A35" s="15" t="s">
         <v>964</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="29" t="s">
         <v>116</v>
       </c>
       <c r="C35" t="s">
@@ -15203,7 +15225,7 @@
       <c r="A36" s="15" t="s">
         <v>965</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C36" t="s">
@@ -15223,7 +15245,7 @@
       <c r="A37" s="15" t="s">
         <v>966</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="29" t="s">
         <v>161</v>
       </c>
       <c r="C37" t="s">
@@ -15243,7 +15265,7 @@
       <c r="A38" s="15" t="s">
         <v>967</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="29" t="s">
         <v>267</v>
       </c>
       <c r="C38" t="s">
@@ -15263,7 +15285,7 @@
       <c r="A39" s="15" t="s">
         <v>968</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="29" t="s">
         <v>86</v>
       </c>
       <c r="C39" t="s">
@@ -15283,7 +15305,7 @@
       <c r="A40" s="15" t="s">
         <v>969</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="29" t="s">
         <v>268</v>
       </c>
       <c r="C40" t="s">
@@ -15303,7 +15325,7 @@
       <c r="A41" s="13" t="s">
         <v>970</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="30" t="s">
         <v>1250</v>
       </c>
       <c r="C41" t="s">
@@ -15323,7 +15345,7 @@
       <c r="A42" s="13" t="s">
         <v>971</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="29" t="s">
         <v>252</v>
       </c>
       <c r="C42" t="s">
@@ -15343,7 +15365,7 @@
       <c r="A43" s="13" t="s">
         <v>972</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="29" t="s">
         <v>166</v>
       </c>
       <c r="C43" t="s">
@@ -15363,7 +15385,7 @@
       <c r="A44" s="13" t="s">
         <v>973</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="29" t="s">
         <v>38</v>
       </c>
       <c r="C44" t="s">
@@ -15383,7 +15405,7 @@
       <c r="A45" s="13" t="s">
         <v>974</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="29" t="s">
         <v>1251</v>
       </c>
       <c r="C45" t="s">
@@ -15403,7 +15425,7 @@
       <c r="A46" s="13" t="s">
         <v>975</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="29" t="s">
         <v>386</v>
       </c>
       <c r="C46" t="s">
@@ -15423,7 +15445,7 @@
       <c r="A47" s="13" t="s">
         <v>976</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="29" t="s">
         <v>353</v>
       </c>
       <c r="C47" t="s">
@@ -15443,7 +15465,7 @@
       <c r="A48" s="13" t="s">
         <v>977</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="29" t="s">
         <v>1252</v>
       </c>
       <c r="C48" t="s">
@@ -15463,7 +15485,7 @@
       <c r="A49" s="13" t="s">
         <v>978</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="29" t="s">
         <v>213</v>
       </c>
       <c r="C49" t="s">
@@ -15483,7 +15505,7 @@
       <c r="A50" s="13" t="s">
         <v>979</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="29" t="s">
         <v>1253</v>
       </c>
       <c r="C50" t="s">
@@ -15503,7 +15525,7 @@
       <c r="A51" s="13" t="s">
         <v>980</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="29" t="s">
         <v>1254</v>
       </c>
       <c r="C51" t="s">
@@ -15523,7 +15545,7 @@
       <c r="A52" s="13" t="s">
         <v>981</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="29" t="s">
         <v>1255</v>
       </c>
       <c r="C52" t="s">
@@ -15543,7 +15565,7 @@
       <c r="A53" s="13" t="s">
         <v>982</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="29" t="s">
         <v>99</v>
       </c>
       <c r="C53" t="s">
@@ -15563,7 +15585,7 @@
       <c r="A54" s="13" t="s">
         <v>983</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>323</v>
       </c>
       <c r="C54" t="s">
@@ -15583,7 +15605,7 @@
       <c r="A55" s="13" t="s">
         <v>984</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="29" t="s">
         <v>212</v>
       </c>
       <c r="C55" t="s">
@@ -15603,7 +15625,7 @@
       <c r="A56" s="13" t="s">
         <v>985</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="29" t="s">
         <v>355</v>
       </c>
       <c r="C56" t="s">
@@ -15623,7 +15645,7 @@
       <c r="A57" s="13" t="s">
         <v>986</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="29" t="s">
         <v>216</v>
       </c>
       <c r="C57" t="s">
@@ -15643,7 +15665,7 @@
       <c r="A58" s="13" t="s">
         <v>987</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="29" t="s">
         <v>860</v>
       </c>
       <c r="C58" t="s">
@@ -15663,7 +15685,7 @@
       <c r="A59" s="13" t="s">
         <v>988</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="29" t="s">
         <v>209</v>
       </c>
       <c r="C59" t="s">
@@ -15683,7 +15705,7 @@
       <c r="A60" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="29" t="s">
         <v>1256</v>
       </c>
       <c r="C60" t="s">
@@ -15703,7 +15725,7 @@
       <c r="A61" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="29" t="s">
         <v>321</v>
       </c>
       <c r="C61" t="s">
@@ -15723,7 +15745,7 @@
       <c r="A62" s="13" t="s">
         <v>991</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="29" t="s">
         <v>1257</v>
       </c>
       <c r="C62" t="s">
@@ -15743,7 +15765,7 @@
       <c r="A63" s="13" t="s">
         <v>992</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="29" t="s">
         <v>317</v>
       </c>
       <c r="C63" t="s">
@@ -15763,7 +15785,7 @@
       <c r="A64" s="13" t="s">
         <v>993</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="29" t="s">
         <v>30</v>
       </c>
       <c r="C64" t="s">
@@ -15783,7 +15805,7 @@
       <c r="A65" s="13" t="s">
         <v>994</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="29" t="s">
         <v>332</v>
       </c>
       <c r="C65" t="s">
@@ -15803,7 +15825,7 @@
       <c r="A66" s="13" t="s">
         <v>995</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="29" t="s">
         <v>928</v>
       </c>
       <c r="C66" t="s">
@@ -15823,7 +15845,7 @@
       <c r="A67" s="13" t="s">
         <v>996</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="29" t="s">
         <v>1258</v>
       </c>
       <c r="C67" t="s">
@@ -15843,7 +15865,7 @@
       <c r="A68" s="13" t="s">
         <v>997</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="29" t="s">
         <v>1259</v>
       </c>
       <c r="C68" t="s">
@@ -15863,7 +15885,7 @@
       <c r="A69" s="13" t="s">
         <v>998</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="29" t="s">
         <v>294</v>
       </c>
       <c r="C69" t="s">
@@ -15883,7 +15905,7 @@
       <c r="A70" s="13" t="s">
         <v>999</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="29" t="s">
         <v>251</v>
       </c>
       <c r="C70" t="s">
@@ -15903,7 +15925,7 @@
       <c r="A71" s="13" t="s">
         <v>1000</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="29" t="s">
         <v>853</v>
       </c>
       <c r="C71" t="s">
@@ -15923,7 +15945,7 @@
       <c r="A72" s="13" t="s">
         <v>1001</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
@@ -15943,7 +15965,7 @@
       <c r="A73" s="13" t="s">
         <v>1002</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="29" t="s">
         <v>1260</v>
       </c>
       <c r="C73" t="s">
@@ -15963,7 +15985,7 @@
       <c r="A74" s="13" t="s">
         <v>1003</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="29" t="s">
         <v>128</v>
       </c>
       <c r="C74" t="s">
@@ -15983,7 +16005,7 @@
       <c r="A75" s="13" t="s">
         <v>1004</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C75" t="s">
@@ -16003,7 +16025,7 @@
       <c r="A76" s="13" t="s">
         <v>1005</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="29" t="s">
         <v>136</v>
       </c>
       <c r="C76" t="s">
@@ -16023,7 +16045,7 @@
       <c r="A77" s="13" t="s">
         <v>1006</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="29" t="s">
         <v>357</v>
       </c>
       <c r="C77" t="s">
@@ -16043,7 +16065,7 @@
       <c r="A78" s="13" t="s">
         <v>1007</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="29" t="s">
         <v>1261</v>
       </c>
       <c r="C78" t="s">
@@ -16063,7 +16085,7 @@
       <c r="A79" s="13" t="s">
         <v>1008</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="29" t="s">
         <v>358</v>
       </c>
       <c r="C79" t="s">
@@ -16083,7 +16105,7 @@
       <c r="A80" s="13" t="s">
         <v>1009</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="29" t="s">
         <v>1262</v>
       </c>
       <c r="C80" t="s">
@@ -16103,7 +16125,7 @@
       <c r="A81" s="13" t="s">
         <v>1010</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="29" t="s">
         <v>227</v>
       </c>
       <c r="C81" t="s">
@@ -16123,7 +16145,7 @@
       <c r="A82" s="13" t="s">
         <v>1011</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="29" t="s">
         <v>359</v>
       </c>
       <c r="C82" t="s">
@@ -16143,7 +16165,7 @@
       <c r="A83" s="13" t="s">
         <v>1012</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="s">
@@ -16163,7 +16185,7 @@
       <c r="A84" s="13" t="s">
         <v>1013</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C84" t="s">
@@ -16183,7 +16205,7 @@
       <c r="A85" s="13" t="s">
         <v>1014</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C85" t="s">
@@ -16195,7 +16217,7 @@
       <c r="E85" t="s">
         <v>351</v>
       </c>
-      <c r="F85" s="37" t="s">
+      <c r="F85" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16203,7 +16225,7 @@
       <c r="A86" s="13" t="s">
         <v>1015</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="29" t="s">
         <v>84</v>
       </c>
       <c r="C86" t="s">
@@ -16215,7 +16237,7 @@
       <c r="E86" t="s">
         <v>351</v>
       </c>
-      <c r="F86" s="37" t="s">
+      <c r="F86" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16223,7 +16245,7 @@
       <c r="A87" s="13" t="s">
         <v>1016</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="29" t="s">
         <v>79</v>
       </c>
       <c r="C87" t="s">
@@ -16235,7 +16257,7 @@
       <c r="E87" t="s">
         <v>351</v>
       </c>
-      <c r="F87" s="37" t="s">
+      <c r="F87" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16243,7 +16265,7 @@
       <c r="A88" s="13" t="s">
         <v>1017</v>
       </c>
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C88" t="s">
@@ -16255,7 +16277,7 @@
       <c r="E88" t="s">
         <v>351</v>
       </c>
-      <c r="F88" s="37" t="s">
+      <c r="F88" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16263,7 +16285,7 @@
       <c r="A89" s="13" t="s">
         <v>1018</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="29" t="s">
         <v>257</v>
       </c>
       <c r="C89" t="s">
@@ -16275,7 +16297,7 @@
       <c r="E89" t="s">
         <v>351</v>
       </c>
-      <c r="F89" s="37" t="s">
+      <c r="F89" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16283,7 +16305,7 @@
       <c r="A90" s="13" t="s">
         <v>1019</v>
       </c>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="29" t="s">
         <v>1290</v>
       </c>
       <c r="C90" t="s">
@@ -16295,7 +16317,7 @@
       <c r="E90" t="s">
         <v>351</v>
       </c>
-      <c r="F90" s="37" t="s">
+      <c r="F90" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16303,7 +16325,7 @@
       <c r="A91" s="13" t="s">
         <v>1020</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="29" t="s">
         <v>1263</v>
       </c>
       <c r="C91" t="s">
@@ -16315,7 +16337,7 @@
       <c r="E91" t="s">
         <v>351</v>
       </c>
-      <c r="F91" s="37" t="s">
+      <c r="F91" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16323,7 +16345,7 @@
       <c r="A92" s="13" t="s">
         <v>1021</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C92" t="s">
@@ -16335,7 +16357,7 @@
       <c r="E92" t="s">
         <v>351</v>
       </c>
-      <c r="F92" s="37" t="s">
+      <c r="F92" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16343,7 +16365,7 @@
       <c r="A93" s="13" t="s">
         <v>1022</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C93" t="s">
@@ -16355,7 +16377,7 @@
       <c r="E93" t="s">
         <v>351</v>
       </c>
-      <c r="F93" s="37" t="s">
+      <c r="F93" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16363,7 +16385,7 @@
       <c r="A94" s="13" t="s">
         <v>1023</v>
       </c>
-      <c r="B94" s="30" t="s">
+      <c r="B94" s="29" t="s">
         <v>75</v>
       </c>
       <c r="C94" t="s">
@@ -16375,7 +16397,7 @@
       <c r="E94" t="s">
         <v>351</v>
       </c>
-      <c r="F94" s="37" t="s">
+      <c r="F94" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16383,7 +16405,7 @@
       <c r="A95" s="13" t="s">
         <v>1024</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="29" t="s">
         <v>1264</v>
       </c>
       <c r="C95" t="s">
@@ -16395,7 +16417,7 @@
       <c r="E95" t="s">
         <v>351</v>
       </c>
-      <c r="F95" s="37" t="s">
+      <c r="F95" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16403,7 +16425,7 @@
       <c r="A96" s="13" t="s">
         <v>1025</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="29" t="s">
         <v>361</v>
       </c>
       <c r="C96" t="s">
@@ -16415,7 +16437,7 @@
       <c r="E96" t="s">
         <v>351</v>
       </c>
-      <c r="F96" s="37" t="s">
+      <c r="F96" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16423,7 +16445,7 @@
       <c r="A97" s="13" t="s">
         <v>1026</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="29" t="s">
         <v>362</v>
       </c>
       <c r="C97" t="s">
@@ -16435,7 +16457,7 @@
       <c r="E97" t="s">
         <v>351</v>
       </c>
-      <c r="F97" s="37" t="s">
+      <c r="F97" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16443,7 +16465,7 @@
       <c r="A98" s="13" t="s">
         <v>1027</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C98" t="s">
@@ -16455,7 +16477,7 @@
       <c r="E98" t="s">
         <v>351</v>
       </c>
-      <c r="F98" s="37" t="s">
+      <c r="F98" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16463,7 +16485,7 @@
       <c r="A99" s="13" t="s">
         <v>1028</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="29" t="s">
         <v>1265</v>
       </c>
       <c r="C99" t="s">
@@ -16475,7 +16497,7 @@
       <c r="E99" t="s">
         <v>351</v>
       </c>
-      <c r="F99" s="37" t="s">
+      <c r="F99" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16483,7 +16505,7 @@
       <c r="A100" s="13" t="s">
         <v>1029</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="29" t="s">
         <v>1266</v>
       </c>
       <c r="C100" t="s">
@@ -16495,7 +16517,7 @@
       <c r="E100" t="s">
         <v>351</v>
       </c>
-      <c r="F100" s="37" t="s">
+      <c r="F100" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16503,7 +16525,7 @@
       <c r="A101" s="13" t="s">
         <v>1030</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="29" t="s">
         <v>1267</v>
       </c>
       <c r="C101" t="s">
@@ -16515,7 +16537,7 @@
       <c r="E101" t="s">
         <v>351</v>
       </c>
-      <c r="F101" s="37" t="s">
+      <c r="F101" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16523,7 +16545,7 @@
       <c r="A102" s="13" t="s">
         <v>1031</v>
       </c>
-      <c r="B102" s="30" t="s">
+      <c r="B102" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C102" t="s">
@@ -16535,7 +16557,7 @@
       <c r="E102" t="s">
         <v>351</v>
       </c>
-      <c r="F102" s="37" t="s">
+      <c r="F102" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16543,7 +16565,7 @@
       <c r="A103" s="13" t="s">
         <v>1032</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C103" t="s">
@@ -16555,7 +16577,7 @@
       <c r="E103" t="s">
         <v>351</v>
       </c>
-      <c r="F103" s="37" t="s">
+      <c r="F103" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16563,7 +16585,7 @@
       <c r="A104" s="13" t="s">
         <v>1033</v>
       </c>
-      <c r="B104" s="30" t="s">
+      <c r="B104" s="29" t="s">
         <v>1268</v>
       </c>
       <c r="C104" t="s">
@@ -16583,7 +16605,7 @@
       <c r="A105" s="13" t="s">
         <v>1034</v>
       </c>
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="29" t="s">
         <v>232</v>
       </c>
       <c r="C105" t="s">
@@ -16603,7 +16625,7 @@
       <c r="A106" s="13" t="s">
         <v>1035</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="29" t="s">
         <v>1269</v>
       </c>
       <c r="C106" t="s">
@@ -16623,7 +16645,7 @@
       <c r="A107" s="13" t="s">
         <v>1036</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="29" t="s">
         <v>1270</v>
       </c>
       <c r="C107" t="s">
@@ -16643,7 +16665,7 @@
       <c r="A108" s="13" t="s">
         <v>1037</v>
       </c>
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="29" t="s">
         <v>230</v>
       </c>
       <c r="C108" t="s">
@@ -16663,7 +16685,7 @@
       <c r="A109" s="13" t="s">
         <v>1038</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="29" t="s">
         <v>231</v>
       </c>
       <c r="C109" t="s">
@@ -16683,7 +16705,7 @@
       <c r="A110" s="13" t="s">
         <v>1039</v>
       </c>
-      <c r="B110" s="30" t="s">
+      <c r="B110" s="29" t="s">
         <v>234</v>
       </c>
       <c r="C110" t="s">
@@ -16703,7 +16725,7 @@
       <c r="A111" s="13" t="s">
         <v>1040</v>
       </c>
-      <c r="B111" s="30" t="s">
+      <c r="B111" s="29" t="s">
         <v>1271</v>
       </c>
       <c r="C111" t="s">
@@ -16723,7 +16745,7 @@
       <c r="A112" s="13" t="s">
         <v>1041</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="29" t="s">
         <v>865</v>
       </c>
       <c r="C112" t="s">
@@ -16740,22 +16762,22 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="29" t="s">
+      <c r="A113" s="28" t="s">
         <v>1042</v>
       </c>
       <c r="B113" t="s">
         <v>1325</v>
       </c>
-      <c r="C113" s="32" t="s">
+      <c r="C113" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="D113" s="33" t="e">
+      <c r="D113" s="32" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E113" s="32" t="s">
+      <c r="E113" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="F113" s="33" t="s">
+      <c r="F113" s="32" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16763,7 +16785,7 @@
       <c r="A114" s="13" t="s">
         <v>1320</v>
       </c>
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="29" t="s">
         <v>366</v>
       </c>
       <c r="C114" s="16" t="s">
@@ -16783,7 +16805,7 @@
       <c r="A115" s="13" t="s">
         <v>1043</v>
       </c>
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="29" t="s">
         <v>1272</v>
       </c>
       <c r="C115" s="16" t="s">
@@ -16803,7 +16825,7 @@
       <c r="A116" s="13" t="s">
         <v>1044</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="29" t="s">
         <v>1273</v>
       </c>
       <c r="C116" s="16" t="s">
@@ -16823,7 +16845,7 @@
       <c r="A117" s="13" t="s">
         <v>1045</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="29" t="s">
         <v>198</v>
       </c>
       <c r="C117" s="16" t="s">
@@ -16843,7 +16865,7 @@
       <c r="A118" s="13" t="s">
         <v>1046</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="29" t="s">
         <v>1274</v>
       </c>
       <c r="C118" s="16" t="s">
@@ -16863,7 +16885,7 @@
       <c r="A119" s="13" t="s">
         <v>1047</v>
       </c>
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="29" t="s">
         <v>200</v>
       </c>
       <c r="C119" s="16" t="s">
@@ -16883,7 +16905,7 @@
       <c r="A120" s="13" t="s">
         <v>1048</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="29" t="s">
         <v>1275</v>
       </c>
       <c r="C120" s="16" t="s">
@@ -16903,7 +16925,7 @@
       <c r="A121" s="13" t="s">
         <v>1049</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="29" t="s">
         <v>199</v>
       </c>
       <c r="C121" s="16" t="s">
@@ -16923,7 +16945,7 @@
       <c r="A122" s="13" t="s">
         <v>1050</v>
       </c>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="29" t="s">
         <v>206</v>
       </c>
       <c r="C122" s="16" t="s">
@@ -16943,7 +16965,7 @@
       <c r="A123" s="13" t="s">
         <v>1051</v>
       </c>
-      <c r="B123" s="30" t="s">
+      <c r="B123" s="29" t="s">
         <v>201</v>
       </c>
       <c r="C123" s="16" t="s">
@@ -16963,7 +16985,7 @@
       <c r="A124" s="13" t="s">
         <v>1052</v>
       </c>
-      <c r="B124" s="30" t="s">
+      <c r="B124" s="29" t="s">
         <v>1276</v>
       </c>
       <c r="C124" s="16" t="s">
@@ -16983,7 +17005,7 @@
       <c r="A125" s="13" t="s">
         <v>1053</v>
       </c>
-      <c r="B125" s="30" t="s">
+      <c r="B125" s="29" t="s">
         <v>310</v>
       </c>
       <c r="C125" s="16" t="s">
@@ -17003,7 +17025,7 @@
       <c r="A126" s="13" t="s">
         <v>1054</v>
       </c>
-      <c r="B126" s="36" t="s">
+      <c r="B126" s="35" t="s">
         <v>1277</v>
       </c>
       <c r="C126" s="16" t="s">
@@ -17023,7 +17045,7 @@
       <c r="A127" s="13" t="s">
         <v>1055</v>
       </c>
-      <c r="B127" s="30" t="s">
+      <c r="B127" s="29" t="s">
         <v>305</v>
       </c>
       <c r="C127" s="16" t="s">
@@ -17043,7 +17065,7 @@
       <c r="A128" s="13" t="s">
         <v>1056</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="29" t="s">
         <v>1278</v>
       </c>
       <c r="C128" s="16" t="s">
@@ -17063,7 +17085,7 @@
       <c r="A129" s="13" t="s">
         <v>1057</v>
       </c>
-      <c r="B129" s="30" t="s">
+      <c r="B129" s="29" t="s">
         <v>307</v>
       </c>
       <c r="C129" s="16" t="s">
@@ -17083,7 +17105,7 @@
       <c r="A130" s="13" t="s">
         <v>1058</v>
       </c>
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="29" t="s">
         <v>97</v>
       </c>
       <c r="C130" s="16" t="s">
@@ -17103,7 +17125,7 @@
       <c r="A131" s="13" t="s">
         <v>1059</v>
       </c>
-      <c r="B131" s="30" t="s">
+      <c r="B131" s="29" t="s">
         <v>1279</v>
       </c>
       <c r="C131" s="16" t="s">
@@ -17123,7 +17145,7 @@
       <c r="A132" s="13" t="s">
         <v>1060</v>
       </c>
-      <c r="B132" s="30" t="s">
+      <c r="B132" s="29" t="s">
         <v>94</v>
       </c>
       <c r="C132" s="16" t="s">
@@ -17143,7 +17165,7 @@
       <c r="A133" s="13" t="s">
         <v>1323</v>
       </c>
-      <c r="B133" s="30" t="s">
+      <c r="B133" s="29" t="s">
         <v>1280</v>
       </c>
       <c r="C133" s="16" t="s">
@@ -17163,7 +17185,7 @@
       <c r="A134" s="13" t="s">
         <v>1061</v>
       </c>
-      <c r="B134" s="30" t="s">
+      <c r="B134" s="29" t="s">
         <v>330</v>
       </c>
       <c r="C134" t="s">
@@ -17183,7 +17205,7 @@
       <c r="A135" s="13" t="s">
         <v>1062</v>
       </c>
-      <c r="B135" s="30" t="s">
+      <c r="B135" s="29" t="s">
         <v>1281</v>
       </c>
       <c r="C135" t="s">
@@ -17203,7 +17225,7 @@
       <c r="A136" s="13" t="s">
         <v>1063</v>
       </c>
-      <c r="B136" s="30" t="s">
+      <c r="B136" s="29" t="s">
         <v>370</v>
       </c>
       <c r="C136" t="s">
@@ -17223,7 +17245,7 @@
       <c r="A137" s="13" t="s">
         <v>1064</v>
       </c>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="29" t="s">
         <v>51</v>
       </c>
       <c r="C137" t="s">
@@ -17243,7 +17265,7 @@
       <c r="A138" s="13" t="s">
         <v>1065</v>
       </c>
-      <c r="B138" s="30" t="s">
+      <c r="B138" s="29" t="s">
         <v>327</v>
       </c>
       <c r="C138" t="s">
@@ -17263,7 +17285,7 @@
       <c r="A139" s="13" t="s">
         <v>1066</v>
       </c>
-      <c r="B139" s="30" t="s">
+      <c r="B139" s="29" t="s">
         <v>1282</v>
       </c>
       <c r="C139" t="s">
@@ -17283,7 +17305,7 @@
       <c r="A140" s="13" t="s">
         <v>1067</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="B140" s="29" t="s">
         <v>371</v>
       </c>
       <c r="C140" t="s">
@@ -17303,7 +17325,7 @@
       <c r="A141" s="13" t="s">
         <v>1068</v>
       </c>
-      <c r="B141" s="30" t="s">
+      <c r="B141" s="29" t="s">
         <v>1283</v>
       </c>
       <c r="C141" t="s">
@@ -17323,7 +17345,7 @@
       <c r="A142" s="13" t="s">
         <v>1069</v>
       </c>
-      <c r="B142" s="30" t="s">
+      <c r="B142" s="29" t="s">
         <v>282</v>
       </c>
       <c r="C142" t="s">
@@ -17343,7 +17365,7 @@
       <c r="A143" s="13" t="s">
         <v>1070</v>
       </c>
-      <c r="B143" s="30" t="s">
+      <c r="B143" s="29" t="s">
         <v>345</v>
       </c>
       <c r="C143" t="s">
@@ -17363,7 +17385,7 @@
       <c r="A144" s="13" t="s">
         <v>1071</v>
       </c>
-      <c r="B144" s="30" t="s">
+      <c r="B144" s="29" t="s">
         <v>159</v>
       </c>
       <c r="C144" t="s">
@@ -17383,7 +17405,7 @@
       <c r="A145" s="13" t="s">
         <v>1072</v>
       </c>
-      <c r="B145" s="30" t="s">
+      <c r="B145" s="29" t="s">
         <v>372</v>
       </c>
       <c r="C145" t="s">
@@ -17403,7 +17425,7 @@
       <c r="A146" s="13" t="s">
         <v>1073</v>
       </c>
-      <c r="B146" s="30" t="s">
+      <c r="B146" s="29" t="s">
         <v>1284</v>
       </c>
       <c r="C146" t="s">
@@ -17423,7 +17445,7 @@
       <c r="A147" s="13" t="s">
         <v>1074</v>
       </c>
-      <c r="B147" s="30" t="s">
+      <c r="B147" s="29" t="s">
         <v>373</v>
       </c>
       <c r="C147" t="s">
@@ -17443,7 +17465,7 @@
       <c r="A148" s="13" t="s">
         <v>1075</v>
       </c>
-      <c r="B148" s="30" t="s">
+      <c r="B148" s="29" t="s">
         <v>1285</v>
       </c>
       <c r="C148" t="s">
@@ -17463,7 +17485,7 @@
       <c r="A149" s="13" t="s">
         <v>1076</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="29" t="s">
         <v>374</v>
       </c>
       <c r="C149" t="s">
@@ -17480,22 +17502,22 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="29" t="s">
+      <c r="A150" s="28" t="s">
         <v>1077</v>
       </c>
       <c r="B150" t="s">
         <v>1325</v>
       </c>
-      <c r="C150" s="32" t="s">
+      <c r="C150" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="D150" s="33" t="e">
+      <c r="D150" s="32" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E150" s="32" t="s">
+      <c r="E150" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="F150" s="33" t="s">
+      <c r="F150" s="32" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17503,7 +17525,7 @@
       <c r="A151" s="13" t="s">
         <v>1078</v>
       </c>
-      <c r="B151" s="30" t="s">
+      <c r="B151" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C151" t="s">
@@ -17523,7 +17545,7 @@
       <c r="A152" s="13" t="s">
         <v>1079</v>
       </c>
-      <c r="B152" s="30" t="s">
+      <c r="B152" s="29" t="s">
         <v>123</v>
       </c>
       <c r="C152" t="s">
@@ -17543,7 +17565,7 @@
       <c r="A153" s="13" t="s">
         <v>1080</v>
       </c>
-      <c r="B153" s="30" t="s">
+      <c r="B153" s="29" t="s">
         <v>260</v>
       </c>
       <c r="C153" t="s">
@@ -17563,7 +17585,7 @@
       <c r="A154" s="13" t="s">
         <v>1081</v>
       </c>
-      <c r="B154" s="30" t="s">
+      <c r="B154" s="29" t="s">
         <v>165</v>
       </c>
       <c r="C154" t="s">
@@ -17583,7 +17605,7 @@
       <c r="A155" s="13" t="s">
         <v>1082</v>
       </c>
-      <c r="B155" s="30" t="s">
+      <c r="B155" s="29" t="s">
         <v>1286</v>
       </c>
       <c r="C155" t="s">
@@ -17603,7 +17625,7 @@
       <c r="A156" s="13" t="s">
         <v>1083</v>
       </c>
-      <c r="B156" s="30" t="s">
+      <c r="B156" s="29" t="s">
         <v>268</v>
       </c>
       <c r="C156" t="s">
@@ -17623,7 +17645,7 @@
       <c r="A157" s="13" t="s">
         <v>1084</v>
       </c>
-      <c r="B157" s="30" t="s">
+      <c r="B157" s="29" t="s">
         <v>1287</v>
       </c>
       <c r="C157" t="s">
@@ -17643,7 +17665,7 @@
       <c r="A158" s="13" t="s">
         <v>1085</v>
       </c>
-      <c r="B158" s="30" t="s">
+      <c r="B158" s="29" t="s">
         <v>93</v>
       </c>
       <c r="C158" t="s">
@@ -17663,7 +17685,7 @@
       <c r="A159" s="13" t="s">
         <v>1086</v>
       </c>
-      <c r="B159" s="30" t="s">
+      <c r="B159" s="29" t="s">
         <v>110</v>
       </c>
       <c r="C159" t="s">
@@ -17683,7 +17705,7 @@
       <c r="A160" s="13" t="s">
         <v>1087</v>
       </c>
-      <c r="B160" s="30" t="s">
+      <c r="B160" s="29" t="s">
         <v>1288</v>
       </c>
       <c r="C160" t="s">
@@ -17703,7 +17725,7 @@
       <c r="A161" s="13" t="s">
         <v>1088</v>
       </c>
-      <c r="B161" s="30" t="s">
+      <c r="B161" s="29" t="s">
         <v>90</v>
       </c>
       <c r="C161" t="s">
@@ -17723,7 +17745,7 @@
       <c r="A162" s="13" t="s">
         <v>1089</v>
       </c>
-      <c r="B162" s="30" t="s">
+      <c r="B162" s="29" t="s">
         <v>1245</v>
       </c>
       <c r="C162" t="s">
@@ -17743,7 +17765,7 @@
       <c r="A163" s="13" t="s">
         <v>1090</v>
       </c>
-      <c r="B163" s="30" t="s">
+      <c r="B163" s="29" t="s">
         <v>266</v>
       </c>
       <c r="C163" t="s">
@@ -17763,7 +17785,7 @@
       <c r="A164" s="13" t="s">
         <v>1091</v>
       </c>
-      <c r="B164" s="30" t="s">
+      <c r="B164" s="29" t="s">
         <v>92</v>
       </c>
       <c r="C164" t="s">
@@ -17783,7 +17805,7 @@
       <c r="A165" s="13" t="s">
         <v>1092</v>
       </c>
-      <c r="B165" s="30" t="s">
+      <c r="B165" s="29" t="s">
         <v>121</v>
       </c>
       <c r="C165" t="s">
@@ -17803,7 +17825,7 @@
       <c r="A166" s="13" t="s">
         <v>1093</v>
       </c>
-      <c r="B166" s="30" t="s">
+      <c r="B166" s="29" t="s">
         <v>86</v>
       </c>
       <c r="C166" t="s">
@@ -17823,7 +17845,7 @@
       <c r="A167" s="13" t="s">
         <v>1094</v>
       </c>
-      <c r="B167" s="30" t="s">
+      <c r="B167" s="29" t="s">
         <v>1289</v>
       </c>
       <c r="C167" t="s">
@@ -17843,7 +17865,7 @@
       <c r="A168" s="13" t="s">
         <v>1095</v>
       </c>
-      <c r="B168" s="30" t="s">
+      <c r="B168" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C168" s="16" t="s">
@@ -17863,7 +17885,7 @@
       <c r="A169" s="13" t="s">
         <v>1096</v>
       </c>
-      <c r="B169" s="30" t="s">
+      <c r="B169" s="29" t="s">
         <v>257</v>
       </c>
       <c r="C169" s="16" t="s">
@@ -17883,7 +17905,7 @@
       <c r="A170" s="13" t="s">
         <v>1097</v>
       </c>
-      <c r="B170" s="30" t="s">
+      <c r="B170" s="29" t="s">
         <v>249</v>
       </c>
       <c r="C170" s="16" t="s">
@@ -17903,7 +17925,7 @@
       <c r="A171" s="13" t="s">
         <v>1098</v>
       </c>
-      <c r="B171" s="30" t="s">
+      <c r="B171" s="29" t="s">
         <v>79</v>
       </c>
       <c r="C171" s="16" t="s">
@@ -17923,7 +17945,7 @@
       <c r="A172" s="13" t="s">
         <v>1099</v>
       </c>
-      <c r="B172" s="30" t="s">
+      <c r="B172" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C172" s="16" t="s">
@@ -17943,7 +17965,7 @@
       <c r="A173" s="13" t="s">
         <v>1100</v>
       </c>
-      <c r="B173" s="30" t="s">
+      <c r="B173" s="29" t="s">
         <v>1290</v>
       </c>
       <c r="C173" s="16" t="s">
@@ -17963,7 +17985,7 @@
       <c r="A174" s="13" t="s">
         <v>1101</v>
       </c>
-      <c r="B174" s="30" t="s">
+      <c r="B174" s="29" t="s">
         <v>69</v>
       </c>
       <c r="C174" s="16" t="s">
@@ -17983,7 +18005,7 @@
       <c r="A175" s="13" t="s">
         <v>1102</v>
       </c>
-      <c r="B175" s="30" t="s">
+      <c r="B175" s="29" t="s">
         <v>1291</v>
       </c>
       <c r="C175" s="16" t="s">
@@ -18003,7 +18025,7 @@
       <c r="A176" s="13" t="s">
         <v>1103</v>
       </c>
-      <c r="B176" s="30" t="s">
+      <c r="B176" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C176" s="16" t="s">
@@ -18023,7 +18045,7 @@
       <c r="A177" s="13" t="s">
         <v>1104</v>
       </c>
-      <c r="B177" s="30" t="s">
+      <c r="B177" s="29" t="s">
         <v>379</v>
       </c>
       <c r="C177" s="16" t="s">
@@ -18043,7 +18065,7 @@
       <c r="A178" s="13" t="s">
         <v>1105</v>
       </c>
-      <c r="B178" s="30" t="s">
+      <c r="B178" s="29" t="s">
         <v>1292</v>
       </c>
       <c r="C178" s="16" t="s">
@@ -18063,7 +18085,7 @@
       <c r="A179" s="13" t="s">
         <v>1106</v>
       </c>
-      <c r="B179" s="30" t="s">
+      <c r="B179" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C179" s="16" t="s">
@@ -18083,7 +18105,7 @@
       <c r="A180" s="13" t="s">
         <v>1107</v>
       </c>
-      <c r="B180" s="30" t="s">
+      <c r="B180" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C180" s="16" t="s">
@@ -18103,7 +18125,7 @@
       <c r="A181" s="13" t="s">
         <v>1108</v>
       </c>
-      <c r="B181" s="30" t="s">
+      <c r="B181" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C181" s="16" t="s">
@@ -18123,7 +18145,7 @@
       <c r="A182" s="13" t="s">
         <v>1109</v>
       </c>
-      <c r="B182" s="30" t="s">
+      <c r="B182" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C182" s="16" t="s">
@@ -18143,7 +18165,7 @@
       <c r="A183" s="13" t="s">
         <v>1110</v>
       </c>
-      <c r="B183" s="30" t="s">
+      <c r="B183" s="29" t="s">
         <v>75</v>
       </c>
       <c r="C183" s="16" t="s">
@@ -18163,7 +18185,7 @@
       <c r="A184" s="13" t="s">
         <v>1111</v>
       </c>
-      <c r="B184" s="30" t="s">
+      <c r="B184" s="29" t="s">
         <v>59</v>
       </c>
       <c r="C184" s="16" t="s">
@@ -18183,7 +18205,7 @@
       <c r="A185" s="13" t="s">
         <v>1112</v>
       </c>
-      <c r="B185" s="30" t="s">
+      <c r="B185" s="29" t="s">
         <v>361</v>
       </c>
       <c r="C185" s="16" t="s">
@@ -18203,7 +18225,7 @@
       <c r="A186" s="13" t="s">
         <v>1113</v>
       </c>
-      <c r="B186" s="30" t="s">
+      <c r="B186" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C186" s="16" t="s">
@@ -18223,7 +18245,7 @@
       <c r="A187" s="13" t="s">
         <v>1114</v>
       </c>
-      <c r="B187" s="30" t="s">
+      <c r="B187" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C187" s="16" t="s">
@@ -18243,7 +18265,7 @@
       <c r="A188" s="13" t="s">
         <v>1115</v>
       </c>
-      <c r="B188" s="30" t="s">
+      <c r="B188" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C188" s="16" t="s">
@@ -18263,7 +18285,7 @@
       <c r="A189" s="13" t="s">
         <v>1116</v>
       </c>
-      <c r="B189" s="30" t="s">
+      <c r="B189" s="29" t="s">
         <v>258</v>
       </c>
       <c r="C189" s="16" t="s">
@@ -18283,7 +18305,7 @@
       <c r="A190" s="13" t="s">
         <v>1117</v>
       </c>
-      <c r="B190" s="30" t="s">
+      <c r="B190" s="29" t="s">
         <v>1266</v>
       </c>
       <c r="C190" s="16" t="s">
@@ -18303,7 +18325,7 @@
       <c r="A191" s="13" t="s">
         <v>1118</v>
       </c>
-      <c r="B191" s="30" t="s">
+      <c r="B191" s="29" t="s">
         <v>81</v>
       </c>
       <c r="C191" t="s">
@@ -18323,7 +18345,7 @@
       <c r="A192" s="13" t="s">
         <v>1119</v>
       </c>
-      <c r="B192" s="30" t="s">
+      <c r="B192" s="29" t="s">
         <v>84</v>
       </c>
       <c r="C192" t="s">
@@ -18343,7 +18365,7 @@
       <c r="A193" s="13" t="s">
         <v>1120</v>
       </c>
-      <c r="B193" s="30" t="s">
+      <c r="B193" s="29" t="s">
         <v>83</v>
       </c>
       <c r="C193" t="s">
@@ -18363,7 +18385,7 @@
       <c r="A194" s="13" t="s">
         <v>1121</v>
       </c>
-      <c r="B194" s="30" t="s">
+      <c r="B194" s="29" t="s">
         <v>86</v>
       </c>
       <c r="C194" t="s">
@@ -18383,7 +18405,7 @@
       <c r="A195" s="13" t="s">
         <v>1321</v>
       </c>
-      <c r="B195" s="30" t="s">
+      <c r="B195" s="29" t="s">
         <v>85</v>
       </c>
       <c r="C195" t="s">
@@ -18403,7 +18425,7 @@
       <c r="A196" s="13" t="s">
         <v>1122</v>
       </c>
-      <c r="B196" s="30" t="s">
+      <c r="B196" s="29" t="s">
         <v>1293</v>
       </c>
       <c r="C196" s="16" t="s">
@@ -18423,7 +18445,7 @@
       <c r="A197" s="13" t="s">
         <v>1123</v>
       </c>
-      <c r="B197" s="30" t="s">
+      <c r="B197" s="29" t="s">
         <v>1251</v>
       </c>
       <c r="C197" s="16" t="s">
@@ -18463,7 +18485,7 @@
       <c r="A199" s="13" t="s">
         <v>1125</v>
       </c>
-      <c r="B199" s="30" t="s">
+      <c r="B199" s="29" t="s">
         <v>382</v>
       </c>
       <c r="C199" s="16" t="s">
@@ -18483,7 +18505,7 @@
       <c r="A200" s="13" t="s">
         <v>1126</v>
       </c>
-      <c r="B200" s="30" t="s">
+      <c r="B200" s="29" t="s">
         <v>159</v>
       </c>
       <c r="C200" s="16" t="s">
@@ -18503,7 +18525,7 @@
       <c r="A201" s="13" t="s">
         <v>1127</v>
       </c>
-      <c r="B201" s="30" t="s">
+      <c r="B201" s="29" t="s">
         <v>1294</v>
       </c>
       <c r="C201" s="16" t="s">
@@ -18523,7 +18545,7 @@
       <c r="A202" s="13" t="s">
         <v>1128</v>
       </c>
-      <c r="B202" s="30" t="s">
+      <c r="B202" s="29" t="s">
         <v>1295</v>
       </c>
       <c r="C202" s="16" t="s">
@@ -18543,7 +18565,7 @@
       <c r="A203" s="13" t="s">
         <v>1129</v>
       </c>
-      <c r="B203" s="30" t="s">
+      <c r="B203" s="29" t="s">
         <v>1296</v>
       </c>
       <c r="C203" s="16" t="s">
@@ -18563,7 +18585,7 @@
       <c r="A204" s="13" t="s">
         <v>1130</v>
       </c>
-      <c r="B204" s="30" t="s">
+      <c r="B204" s="29" t="s">
         <v>1297</v>
       </c>
       <c r="C204" s="16" t="s">
@@ -18583,7 +18605,7 @@
       <c r="A205" s="13" t="s">
         <v>1131</v>
       </c>
-      <c r="B205" s="30" t="s">
+      <c r="B205" s="29" t="s">
         <v>383</v>
       </c>
       <c r="C205" s="16" t="s">
@@ -18603,7 +18625,7 @@
       <c r="A206" s="13" t="s">
         <v>1132</v>
       </c>
-      <c r="B206" s="30" t="s">
+      <c r="B206" s="29" t="s">
         <v>1298</v>
       </c>
       <c r="C206" s="16" t="s">
@@ -18623,7 +18645,7 @@
       <c r="A207" s="13" t="s">
         <v>1133</v>
       </c>
-      <c r="B207" s="30" t="s">
+      <c r="B207" s="29" t="s">
         <v>384</v>
       </c>
       <c r="C207" s="16" t="s">
@@ -18643,7 +18665,7 @@
       <c r="A208" s="13" t="s">
         <v>1134</v>
       </c>
-      <c r="B208" s="30" t="s">
+      <c r="B208" s="29" t="s">
         <v>1264</v>
       </c>
       <c r="C208" s="16" t="s">
@@ -18663,7 +18685,7 @@
       <c r="A209" s="13" t="s">
         <v>1135</v>
       </c>
-      <c r="B209" s="30" t="s">
+      <c r="B209" s="29" t="s">
         <v>292</v>
       </c>
       <c r="C209" s="16" t="s">
@@ -18683,7 +18705,7 @@
       <c r="A210" s="13" t="s">
         <v>1136</v>
       </c>
-      <c r="B210" s="30" t="s">
+      <c r="B210" s="29" t="s">
         <v>1299</v>
       </c>
       <c r="C210" s="16" t="s">
@@ -18703,7 +18725,7 @@
       <c r="A211" s="13" t="s">
         <v>1137</v>
       </c>
-      <c r="B211" s="30" t="s">
+      <c r="B211" s="29" t="s">
         <v>385</v>
       </c>
       <c r="C211" s="16" t="s">
@@ -18723,7 +18745,7 @@
       <c r="A212" s="13" t="s">
         <v>1138</v>
       </c>
-      <c r="B212" s="30" t="s">
+      <c r="B212" s="29" t="s">
         <v>1300</v>
       </c>
       <c r="C212" s="16" t="s">
@@ -18743,7 +18765,7 @@
       <c r="A213" s="13" t="s">
         <v>1139</v>
       </c>
-      <c r="B213" s="30" t="s">
+      <c r="B213" s="29" t="s">
         <v>386</v>
       </c>
       <c r="C213" s="16" t="s">
@@ -18760,22 +18782,22 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="29" t="s">
+      <c r="A214" s="28" t="s">
         <v>1324</v>
       </c>
       <c r="B214" t="s">
         <v>1325</v>
       </c>
-      <c r="C214" s="32" t="s">
+      <c r="C214" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="D214" s="33" t="e">
+      <c r="D214" s="32" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E214" s="32" t="s">
+      <c r="E214" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="F214" s="33" t="s">
+      <c r="F214" s="32" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18783,7 +18805,7 @@
       <c r="A215" s="13" t="s">
         <v>1140</v>
       </c>
-      <c r="B215" s="30" t="s">
+      <c r="B215" s="29" t="s">
         <v>278</v>
       </c>
       <c r="C215" s="16" t="s">
@@ -18803,7 +18825,7 @@
       <c r="A216" s="13" t="s">
         <v>1141</v>
       </c>
-      <c r="B216" s="30" t="s">
+      <c r="B216" s="29" t="s">
         <v>1301</v>
       </c>
       <c r="C216" s="16" t="s">
@@ -18823,7 +18845,7 @@
       <c r="A217" s="13" t="s">
         <v>1142</v>
       </c>
-      <c r="B217" s="30" t="s">
+      <c r="B217" s="29" t="s">
         <v>1302</v>
       </c>
       <c r="C217" s="16" t="s">
@@ -18843,7 +18865,7 @@
       <c r="A218" s="13" t="s">
         <v>1143</v>
       </c>
-      <c r="B218" s="30" t="s">
+      <c r="B218" s="29" t="s">
         <v>1303</v>
       </c>
       <c r="C218" s="16" t="s">
@@ -18863,7 +18885,7 @@
       <c r="A219" s="13" t="s">
         <v>1144</v>
       </c>
-      <c r="B219" s="30" t="s">
+      <c r="B219" s="29" t="s">
         <v>224</v>
       </c>
       <c r="C219" s="16" t="s">
@@ -18883,7 +18905,7 @@
       <c r="A220" s="13" t="s">
         <v>1145</v>
       </c>
-      <c r="B220" s="30" t="s">
+      <c r="B220" s="29" t="s">
         <v>308</v>
       </c>
       <c r="C220" s="16" t="s">
@@ -18903,7 +18925,7 @@
       <c r="A221" s="13" t="s">
         <v>1146</v>
       </c>
-      <c r="B221" s="30" t="s">
+      <c r="B221" s="29" t="s">
         <v>1278</v>
       </c>
       <c r="C221" s="16" t="s">
@@ -18923,7 +18945,7 @@
       <c r="A222" s="13" t="s">
         <v>1147</v>
       </c>
-      <c r="B222" s="30" t="s">
+      <c r="B222" s="29" t="s">
         <v>307</v>
       </c>
       <c r="C222" s="16" t="s">
@@ -18943,7 +18965,7 @@
       <c r="A223" s="13" t="s">
         <v>1148</v>
       </c>
-      <c r="B223" s="30" t="s">
+      <c r="B223" s="29" t="s">
         <v>94</v>
       </c>
       <c r="C223" s="16" t="s">
@@ -18963,7 +18985,7 @@
       <c r="A224" s="13" t="s">
         <v>1149</v>
       </c>
-      <c r="B224" s="30" t="s">
+      <c r="B224" s="29" t="s">
         <v>904</v>
       </c>
       <c r="C224" s="16" t="s">
@@ -19003,7 +19025,7 @@
       <c r="A226" s="13" t="s">
         <v>1151</v>
       </c>
-      <c r="B226" s="30" t="s">
+      <c r="B226" s="29" t="s">
         <v>101</v>
       </c>
       <c r="C226" s="16" t="s">
@@ -19023,7 +19045,7 @@
       <c r="A227" s="13" t="s">
         <v>1152</v>
       </c>
-      <c r="B227" s="30" t="s">
+      <c r="B227" s="29" t="s">
         <v>310</v>
       </c>
       <c r="C227" s="16" t="s">
@@ -19043,7 +19065,7 @@
       <c r="A228" s="13" t="s">
         <v>1153</v>
       </c>
-      <c r="B228" s="30" t="s">
+      <c r="B228" s="29" t="s">
         <v>97</v>
       </c>
       <c r="C228" s="16" t="s">
@@ -19063,7 +19085,7 @@
       <c r="A229" s="13" t="s">
         <v>1154</v>
       </c>
-      <c r="B229" s="30" t="s">
+      <c r="B229" s="29" t="s">
         <v>1280</v>
       </c>
       <c r="C229" s="16" t="s">
@@ -19083,7 +19105,7 @@
       <c r="A230" s="13" t="s">
         <v>1155</v>
       </c>
-      <c r="B230" s="30" t="s">
+      <c r="B230" s="29" t="s">
         <v>389</v>
       </c>
       <c r="C230" s="16" t="s">
@@ -19103,7 +19125,7 @@
       <c r="A231" s="13" t="s">
         <v>1156</v>
       </c>
-      <c r="B231" s="30" t="s">
+      <c r="B231" s="29" t="s">
         <v>305</v>
       </c>
       <c r="C231" s="16" t="s">
@@ -19123,7 +19145,7 @@
       <c r="A232" s="13" t="s">
         <v>1157</v>
       </c>
-      <c r="B232" s="30" t="s">
+      <c r="B232" s="29" t="s">
         <v>223</v>
       </c>
       <c r="C232" s="16" t="s">
@@ -19143,7 +19165,7 @@
       <c r="A233" s="13" t="s">
         <v>1158</v>
       </c>
-      <c r="B233" s="30" t="s">
+      <c r="B233" s="29" t="s">
         <v>230</v>
       </c>
       <c r="C233" s="16" t="s">
@@ -19163,7 +19185,7 @@
       <c r="A234" s="13" t="s">
         <v>1159</v>
       </c>
-      <c r="B234" s="30" t="s">
+      <c r="B234" s="29" t="s">
         <v>231</v>
       </c>
       <c r="C234" s="16" t="s">
@@ -19183,7 +19205,7 @@
       <c r="A235" s="13" t="s">
         <v>1160</v>
       </c>
-      <c r="B235" s="30" t="s">
+      <c r="B235" s="29" t="s">
         <v>1304</v>
       </c>
       <c r="C235" s="16" t="s">
@@ -19203,7 +19225,7 @@
       <c r="A236" s="13" t="s">
         <v>1161</v>
       </c>
-      <c r="B236" s="30" t="s">
+      <c r="B236" s="29" t="s">
         <v>220</v>
       </c>
       <c r="C236" s="16" t="s">
@@ -19223,7 +19245,7 @@
       <c r="A237" s="13" t="s">
         <v>1162</v>
       </c>
-      <c r="B237" s="30" t="s">
+      <c r="B237" s="29" t="s">
         <v>232</v>
       </c>
       <c r="C237" s="16" t="s">
@@ -19243,7 +19265,7 @@
       <c r="A238" s="13" t="s">
         <v>1163</v>
       </c>
-      <c r="B238" s="30" t="s">
+      <c r="B238" s="29" t="s">
         <v>1305</v>
       </c>
       <c r="C238" s="16" t="s">
@@ -19263,7 +19285,7 @@
       <c r="A239" s="13" t="s">
         <v>1164</v>
       </c>
-      <c r="B239" s="30" t="s">
+      <c r="B239" s="29" t="s">
         <v>1269</v>
       </c>
       <c r="C239" s="16" t="s">
@@ -19283,7 +19305,7 @@
       <c r="A240" s="13" t="s">
         <v>1165</v>
       </c>
-      <c r="B240" s="30" t="s">
+      <c r="B240" s="29" t="s">
         <v>1268</v>
       </c>
       <c r="C240" s="16" t="s">
@@ -19303,7 +19325,7 @@
       <c r="A241" s="13" t="s">
         <v>1166</v>
       </c>
-      <c r="B241" s="30" t="s">
+      <c r="B241" s="29" t="s">
         <v>234</v>
       </c>
       <c r="C241" s="16" t="s">
@@ -19323,7 +19345,7 @@
       <c r="A242" s="13" t="s">
         <v>1167</v>
       </c>
-      <c r="B242" s="30" t="s">
+      <c r="B242" s="29" t="s">
         <v>1270</v>
       </c>
       <c r="C242" s="16" t="s">
@@ -19343,7 +19365,7 @@
       <c r="A243" s="13" t="s">
         <v>1168</v>
       </c>
-      <c r="B243" s="30" t="s">
+      <c r="B243" s="29" t="s">
         <v>1271</v>
       </c>
       <c r="C243" s="16" t="s">
@@ -19363,7 +19385,7 @@
       <c r="A244" s="13" t="s">
         <v>1169</v>
       </c>
-      <c r="B244" s="30" t="s">
+      <c r="B244" s="29" t="s">
         <v>391</v>
       </c>
       <c r="C244" s="16" t="s">
@@ -19383,7 +19405,7 @@
       <c r="A245" s="13" t="s">
         <v>1170</v>
       </c>
-      <c r="B245" s="30" t="s">
+      <c r="B245" s="29" t="s">
         <v>1283</v>
       </c>
       <c r="C245" s="16" t="s">
@@ -19403,7 +19425,7 @@
       <c r="A246" s="13" t="s">
         <v>1171</v>
       </c>
-      <c r="B246" s="30" t="s">
+      <c r="B246" s="29" t="s">
         <v>860</v>
       </c>
       <c r="C246" t="s">
@@ -19423,7 +19445,7 @@
       <c r="A247" s="13" t="s">
         <v>1172</v>
       </c>
-      <c r="B247" s="30" t="s">
+      <c r="B247" s="29" t="s">
         <v>1254</v>
       </c>
       <c r="C247" t="s">
@@ -19443,7 +19465,7 @@
       <c r="A248" s="13" t="s">
         <v>1173</v>
       </c>
-      <c r="B248" s="30" t="s">
+      <c r="B248" s="29" t="s">
         <v>1256</v>
       </c>
       <c r="C248" t="s">
@@ -19463,7 +19485,7 @@
       <c r="A249" s="13" t="s">
         <v>1174</v>
       </c>
-      <c r="B249" s="30" t="s">
+      <c r="B249" s="29" t="s">
         <v>1253</v>
       </c>
       <c r="C249" t="s">
@@ -19483,7 +19505,7 @@
       <c r="A250" s="13" t="s">
         <v>1175</v>
       </c>
-      <c r="B250" s="30" t="s">
+      <c r="B250" s="29" t="s">
         <v>353</v>
       </c>
       <c r="C250" t="s">
@@ -19503,7 +19525,7 @@
       <c r="A251" s="13" t="s">
         <v>1176</v>
       </c>
-      <c r="B251" s="30" t="s">
+      <c r="B251" s="29" t="s">
         <v>209</v>
       </c>
       <c r="C251" t="s">
@@ -19523,7 +19545,7 @@
       <c r="A252" s="13" t="s">
         <v>1177</v>
       </c>
-      <c r="B252" s="30" t="s">
+      <c r="B252" s="29" t="s">
         <v>215</v>
       </c>
       <c r="C252" t="s">
@@ -19543,7 +19565,7 @@
       <c r="A253" s="13" t="s">
         <v>1178</v>
       </c>
-      <c r="B253" s="30" t="s">
+      <c r="B253" s="29" t="s">
         <v>1255</v>
       </c>
       <c r="C253" t="s">
@@ -19563,7 +19585,7 @@
       <c r="A254" s="13" t="s">
         <v>1179</v>
       </c>
-      <c r="B254" s="30" t="s">
+      <c r="B254" s="29" t="s">
         <v>247</v>
       </c>
       <c r="C254" t="s">
@@ -19583,7 +19605,7 @@
       <c r="A255" s="13" t="s">
         <v>1180</v>
       </c>
-      <c r="B255" s="30" t="s">
+      <c r="B255" s="29" t="s">
         <v>355</v>
       </c>
       <c r="C255" t="s">
@@ -19603,7 +19625,7 @@
       <c r="A256" s="13" t="s">
         <v>1181</v>
       </c>
-      <c r="B256" s="30" t="s">
+      <c r="B256" s="29" t="s">
         <v>324</v>
       </c>
       <c r="C256" t="s">
@@ -19623,7 +19645,7 @@
       <c r="A257" s="13" t="s">
         <v>1182</v>
       </c>
-      <c r="B257" s="30" t="s">
+      <c r="B257" s="29" t="s">
         <v>323</v>
       </c>
       <c r="C257" t="s">
@@ -19643,7 +19665,7 @@
       <c r="A258" s="13" t="s">
         <v>1183</v>
       </c>
-      <c r="B258" s="30" t="s">
+      <c r="B258" s="29" t="s">
         <v>216</v>
       </c>
       <c r="C258" t="s">
@@ -19663,7 +19685,7 @@
       <c r="A259" s="13" t="s">
         <v>1184</v>
       </c>
-      <c r="B259" s="30" t="s">
+      <c r="B259" s="29" t="s">
         <v>213</v>
       </c>
       <c r="C259" t="s">
@@ -19683,7 +19705,7 @@
       <c r="A260" s="13" t="s">
         <v>1185</v>
       </c>
-      <c r="B260" s="30" t="s">
+      <c r="B260" s="29" t="s">
         <v>89</v>
       </c>
       <c r="C260" s="14" t="s">
@@ -19703,7 +19725,7 @@
       <c r="A261" s="13" t="s">
         <v>1186</v>
       </c>
-      <c r="B261" s="30" t="s">
+      <c r="B261" s="29" t="s">
         <v>1267</v>
       </c>
       <c r="C261" s="14" t="s">
@@ -19723,7 +19745,7 @@
       <c r="A262" s="13" t="s">
         <v>1187</v>
       </c>
-      <c r="B262" s="30" t="s">
+      <c r="B262" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C262" s="14" t="s">
@@ -19743,7 +19765,7 @@
       <c r="A263" s="13" t="s">
         <v>1188</v>
       </c>
-      <c r="B263" s="30" t="s">
+      <c r="B263" s="29" t="s">
         <v>1263</v>
       </c>
       <c r="C263" s="14" t="s">
@@ -19763,7 +19785,7 @@
       <c r="A264" s="13" t="s">
         <v>1189</v>
       </c>
-      <c r="B264" s="30" t="s">
+      <c r="B264" s="29" t="s">
         <v>1306</v>
       </c>
       <c r="C264" s="14" t="s">
@@ -19783,7 +19805,7 @@
       <c r="A265" s="13" t="s">
         <v>1190</v>
       </c>
-      <c r="B265" s="30" t="s">
+      <c r="B265" s="29" t="s">
         <v>1307</v>
       </c>
       <c r="C265" s="14" t="s">
@@ -19803,7 +19825,7 @@
       <c r="A266" s="13" t="s">
         <v>1191</v>
       </c>
-      <c r="B266" s="30" t="s">
+      <c r="B266" s="29" t="s">
         <v>394</v>
       </c>
       <c r="C266" s="14" t="s">
@@ -19823,7 +19845,7 @@
       <c r="A267" s="13" t="s">
         <v>1192</v>
       </c>
-      <c r="B267" s="30" t="s">
+      <c r="B267" s="29" t="s">
         <v>1308</v>
       </c>
       <c r="C267" s="14" t="s">
@@ -19843,7 +19865,7 @@
       <c r="A268" s="13" t="s">
         <v>1193</v>
       </c>
-      <c r="B268" s="30" t="s">
+      <c r="B268" s="29" t="s">
         <v>1309</v>
       </c>
       <c r="C268" s="14" t="s">
@@ -19863,7 +19885,7 @@
       <c r="A269" s="13" t="s">
         <v>1194</v>
       </c>
-      <c r="B269" s="30" t="s">
+      <c r="B269" s="29" t="s">
         <v>395</v>
       </c>
       <c r="C269" s="14" t="s">
@@ -19883,7 +19905,7 @@
       <c r="A270" s="13" t="s">
         <v>1195</v>
       </c>
-      <c r="B270" s="30" t="s">
+      <c r="B270" s="29" t="s">
         <v>1310</v>
       </c>
       <c r="C270" s="14" t="s">
@@ -19903,7 +19925,7 @@
       <c r="A271" s="13" t="s">
         <v>1196</v>
       </c>
-      <c r="B271" s="30" t="s">
+      <c r="B271" s="29" t="s">
         <v>176</v>
       </c>
       <c r="C271" s="14" t="s">
@@ -19923,7 +19945,7 @@
       <c r="A272" s="13" t="s">
         <v>1197</v>
       </c>
-      <c r="B272" s="30" t="s">
+      <c r="B272" s="29" t="s">
         <v>1311</v>
       </c>
       <c r="C272" s="14" t="s">
@@ -19943,7 +19965,7 @@
       <c r="A273" s="13" t="s">
         <v>1198</v>
       </c>
-      <c r="B273" s="30" t="s">
+      <c r="B273" s="29" t="s">
         <v>118</v>
       </c>
       <c r="C273" s="14" t="s">
@@ -19963,7 +19985,7 @@
       <c r="A274" s="13" t="s">
         <v>1199</v>
       </c>
-      <c r="B274" s="30" t="s">
+      <c r="B274" s="29" t="s">
         <v>256</v>
       </c>
       <c r="C274" s="14" t="s">
@@ -19983,7 +20005,7 @@
       <c r="A275" s="13" t="s">
         <v>1200</v>
       </c>
-      <c r="B275" s="30" t="s">
+      <c r="B275" s="29" t="s">
         <v>139</v>
       </c>
       <c r="C275" s="14" t="s">
@@ -20003,7 +20025,7 @@
       <c r="A276" s="13" t="s">
         <v>1201</v>
       </c>
-      <c r="B276" s="30" t="s">
+      <c r="B276" s="29" t="s">
         <v>1241</v>
       </c>
       <c r="C276" s="14" t="s">
@@ -20023,7 +20045,7 @@
       <c r="A277" s="13" t="s">
         <v>1202</v>
       </c>
-      <c r="B277" s="30" t="s">
+      <c r="B277" s="29" t="s">
         <v>1312</v>
       </c>
       <c r="C277" s="14" t="s">
@@ -20043,7 +20065,7 @@
       <c r="A278" s="13" t="s">
         <v>1203</v>
       </c>
-      <c r="B278" s="30" t="s">
+      <c r="B278" s="29" t="s">
         <v>200</v>
       </c>
       <c r="C278" t="s">
@@ -20063,7 +20085,7 @@
       <c r="A279" s="13" t="s">
         <v>1204</v>
       </c>
-      <c r="B279" s="30" t="s">
+      <c r="B279" s="29" t="s">
         <v>1274</v>
       </c>
       <c r="C279" t="s">
@@ -20083,7 +20105,7 @@
       <c r="A280" s="13" t="s">
         <v>1205</v>
       </c>
-      <c r="B280" s="30" t="s">
+      <c r="B280" s="29" t="s">
         <v>1273</v>
       </c>
       <c r="C280" t="s">
@@ -20103,7 +20125,7 @@
       <c r="A281" s="13" t="s">
         <v>1206</v>
       </c>
-      <c r="B281" s="30" t="s">
+      <c r="B281" s="29" t="s">
         <v>194</v>
       </c>
       <c r="C281" t="s">
@@ -20123,7 +20145,7 @@
       <c r="A282" s="13" t="s">
         <v>1207</v>
       </c>
-      <c r="B282" s="30" t="s">
+      <c r="B282" s="29" t="s">
         <v>203</v>
       </c>
       <c r="C282" t="s">
@@ -20143,7 +20165,7 @@
       <c r="A283" s="13" t="s">
         <v>1208</v>
       </c>
-      <c r="B283" s="30" t="s">
+      <c r="B283" s="29" t="s">
         <v>192</v>
       </c>
       <c r="C283" t="s">
@@ -20163,7 +20185,7 @@
       <c r="A284" s="13" t="s">
         <v>1209</v>
       </c>
-      <c r="B284" s="30" t="s">
+      <c r="B284" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C284" t="s">
@@ -20183,7 +20205,7 @@
       <c r="A285" s="13" t="s">
         <v>1210</v>
       </c>
-      <c r="B285" s="30" t="s">
+      <c r="B285" s="29" t="s">
         <v>1272</v>
       </c>
       <c r="C285" t="s">
@@ -20203,7 +20225,7 @@
       <c r="A286" s="13" t="s">
         <v>1211</v>
       </c>
-      <c r="B286" s="30" t="s">
+      <c r="B286" s="29" t="s">
         <v>1276</v>
       </c>
       <c r="C286" t="s">
@@ -20223,7 +20245,7 @@
       <c r="A287" s="13" t="s">
         <v>1212</v>
       </c>
-      <c r="B287" s="30" t="s">
+      <c r="B287" s="29" t="s">
         <v>158</v>
       </c>
       <c r="C287" t="s">
@@ -20243,7 +20265,7 @@
       <c r="A288" s="13" t="s">
         <v>1213</v>
       </c>
-      <c r="B288" s="30" t="s">
+      <c r="B288" s="29" t="s">
         <v>198</v>
       </c>
       <c r="C288" t="s">
@@ -20263,7 +20285,7 @@
       <c r="A289" s="13" t="s">
         <v>1214</v>
       </c>
-      <c r="B289" s="30" t="s">
+      <c r="B289" s="29" t="s">
         <v>366</v>
       </c>
       <c r="C289" t="s">
@@ -20283,7 +20305,7 @@
       <c r="A290" s="13" t="s">
         <v>1215</v>
       </c>
-      <c r="B290" s="30" t="s">
+      <c r="B290" s="29" t="s">
         <v>859</v>
       </c>
       <c r="C290" t="s">
@@ -20303,7 +20325,7 @@
       <c r="A291" s="13" t="s">
         <v>1216</v>
       </c>
-      <c r="B291" s="30" t="s">
+      <c r="B291" s="29" t="s">
         <v>201</v>
       </c>
       <c r="C291" t="s">
@@ -20323,7 +20345,7 @@
       <c r="A292" s="13" t="s">
         <v>1322</v>
       </c>
-      <c r="B292" s="30" t="s">
+      <c r="B292" s="29" t="s">
         <v>903</v>
       </c>
       <c r="C292" t="s">
@@ -20343,7 +20365,7 @@
       <c r="A293" s="15" t="s">
         <v>1217</v>
       </c>
-      <c r="B293" s="30" t="s">
+      <c r="B293" s="29" t="s">
         <v>121</v>
       </c>
       <c r="C293" t="s">
@@ -20363,7 +20385,7 @@
       <c r="A294" s="15" t="s">
         <v>1218</v>
       </c>
-      <c r="B294" s="30" t="s">
+      <c r="B294" s="29" t="s">
         <v>262</v>
       </c>
       <c r="C294" t="s">
@@ -20383,7 +20405,7 @@
       <c r="A295" s="15" t="s">
         <v>1219</v>
       </c>
-      <c r="B295" s="30" t="s">
+      <c r="B295" s="29" t="s">
         <v>189</v>
       </c>
       <c r="C295" t="s">
@@ -20403,7 +20425,7 @@
       <c r="A296" s="15" t="s">
         <v>1220</v>
       </c>
-      <c r="B296" s="30" t="s">
+      <c r="B296" s="29" t="s">
         <v>261</v>
       </c>
       <c r="C296" t="s">
@@ -20423,7 +20445,7 @@
       <c r="A297" s="15" t="s">
         <v>1221</v>
       </c>
-      <c r="B297" s="30" t="s">
+      <c r="B297" s="29" t="s">
         <v>267</v>
       </c>
       <c r="C297" t="s">
@@ -20443,7 +20465,7 @@
       <c r="A298" s="15" t="s">
         <v>1222</v>
       </c>
-      <c r="B298" s="30" t="s">
+      <c r="B298" s="29" t="s">
         <v>1243</v>
       </c>
       <c r="C298" t="s">
@@ -20463,7 +20485,7 @@
       <c r="A299" s="15" t="s">
         <v>1223</v>
       </c>
-      <c r="B299" s="30" t="s">
+      <c r="B299" s="29" t="s">
         <v>109</v>
       </c>
       <c r="C299" t="s">
@@ -20483,7 +20505,7 @@
       <c r="A300" s="15" t="s">
         <v>1224</v>
       </c>
-      <c r="B300" s="30" t="s">
+      <c r="B300" s="29" t="s">
         <v>1313</v>
       </c>
       <c r="C300" t="s">
@@ -20503,7 +20525,7 @@
       <c r="A301" s="15" t="s">
         <v>1225</v>
       </c>
-      <c r="B301" s="30" t="s">
+      <c r="B301" s="29" t="s">
         <v>114</v>
       </c>
       <c r="C301" t="s">
@@ -20523,7 +20545,7 @@
       <c r="A302" s="15" t="s">
         <v>1226</v>
       </c>
-      <c r="B302" s="30" t="s">
+      <c r="B302" s="29" t="s">
         <v>856</v>
       </c>
       <c r="C302" t="s">
@@ -20543,13 +20565,13 @@
       <c r="A303" s="15" t="s">
         <v>1227</v>
       </c>
-      <c r="B303" s="30" t="s">
+      <c r="B303" s="29" t="s">
         <v>1314</v>
       </c>
       <c r="C303" t="s">
         <v>399</v>
       </c>
-      <c r="D303" s="34" t="s">
+      <c r="D303" s="33" t="s">
         <v>14</v>
       </c>
       <c r="E303" t="s">
@@ -20560,10 +20582,10 @@
       </c>
     </row>
     <row r="304" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="35" t="s">
+      <c r="A304" s="34" t="s">
         <v>1228</v>
       </c>
-      <c r="B304" s="30" t="s">
+      <c r="B304" s="29" t="s">
         <v>1315</v>
       </c>
       <c r="C304" t="s">
@@ -20580,10 +20602,10 @@
       </c>
     </row>
     <row r="305" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="35" t="s">
+      <c r="A305" s="34" t="s">
         <v>1229</v>
       </c>
-      <c r="B305" s="30" t="s">
+      <c r="B305" s="29" t="s">
         <v>1316</v>
       </c>
       <c r="C305" t="s">
@@ -20600,10 +20622,10 @@
       </c>
     </row>
     <row r="306" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="35" t="s">
+      <c r="A306" s="34" t="s">
         <v>1230</v>
       </c>
-      <c r="B306" s="30" t="s">
+      <c r="B306" s="29" t="s">
         <v>400</v>
       </c>
       <c r="C306" t="s">
@@ -20620,10 +20642,10 @@
       </c>
     </row>
     <row r="307" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="35" t="s">
+      <c r="A307" s="34" t="s">
         <v>1231</v>
       </c>
-      <c r="B307" s="30" t="s">
+      <c r="B307" s="29" t="s">
         <v>1317</v>
       </c>
       <c r="C307" t="s">
@@ -20640,10 +20662,10 @@
       </c>
     </row>
     <row r="308" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="35" t="s">
+      <c r="A308" s="34" t="s">
         <v>1232</v>
       </c>
-      <c r="B308" s="30" t="s">
+      <c r="B308" s="29" t="s">
         <v>401</v>
       </c>
       <c r="C308" t="s">
@@ -20660,10 +20682,10 @@
       </c>
     </row>
     <row r="309" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="35" t="s">
+      <c r="A309" s="34" t="s">
         <v>1233</v>
       </c>
-      <c r="B309" s="30" t="s">
+      <c r="B309" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C309" t="s">
@@ -20680,10 +20702,10 @@
       </c>
     </row>
     <row r="310" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="35" t="s">
+      <c r="A310" s="34" t="s">
         <v>1234</v>
       </c>
-      <c r="B310" s="30" t="s">
+      <c r="B310" s="29" t="s">
         <v>402</v>
       </c>
       <c r="C310" t="s">
@@ -20700,10 +20722,10 @@
       </c>
     </row>
     <row r="311" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="35" t="s">
+      <c r="A311" s="34" t="s">
         <v>1235</v>
       </c>
-      <c r="B311" s="30" t="s">
+      <c r="B311" s="29" t="s">
         <v>1318</v>
       </c>
       <c r="C311" t="s">
@@ -20720,10 +20742,10 @@
       </c>
     </row>
     <row r="312" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="35" t="s">
+      <c r="A312" s="34" t="s">
         <v>1236</v>
       </c>
-      <c r="B312" s="30" t="s">
+      <c r="B312" s="29" t="s">
         <v>329</v>
       </c>
       <c r="C312" t="s">
@@ -20740,10 +20762,10 @@
       </c>
     </row>
     <row r="313" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="35" t="s">
+      <c r="A313" s="34" t="s">
         <v>1237</v>
       </c>
-      <c r="B313" s="30" t="s">
+      <c r="B313" s="29" t="s">
         <v>248</v>
       </c>
       <c r="C313" t="s">
@@ -20760,34 +20782,34 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="56" t="s">
+      <c r="A314" s="55" t="s">
         <v>1238</v>
       </c>
-      <c r="B314" s="47" t="s">
+      <c r="B314" s="46" t="s">
         <v>1319</v>
       </c>
-      <c r="C314" s="49" t="s">
+      <c r="C314" s="48" t="s">
         <v>399</v>
       </c>
-      <c r="D314" s="51" t="s">
+      <c r="D314" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E314" s="57" t="s">
+      <c r="E314" s="56" t="s">
         <v>376</v>
       </c>
-      <c r="F314" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="G314" s="41"/>
+      <c r="F314" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G314" s="40"/>
     </row>
     <row r="315" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="54" t="s">
+      <c r="A315" s="53" t="s">
         <v>878</v>
       </c>
       <c r="B315" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="C315" s="55" t="s">
+      <c r="C315" s="54" t="s">
         <v>350</v>
       </c>
       <c r="D315" s="20" t="s">
@@ -20801,7 +20823,7 @@
       </c>
     </row>
     <row r="316" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="38" t="s">
+      <c r="A316" s="37" t="s">
         <v>879</v>
       </c>
       <c r="B316" t="s">
@@ -20821,7 +20843,7 @@
       </c>
     </row>
     <row r="317" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="38" t="s">
+      <c r="A317" s="37" t="s">
         <v>880</v>
       </c>
       <c r="B317" t="s">
@@ -20841,13 +20863,13 @@
       </c>
     </row>
     <row r="318" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="38" t="s">
+      <c r="A318" s="37" t="s">
         <v>881</v>
       </c>
       <c r="B318" t="s">
         <v>1421</v>
       </c>
-      <c r="C318" s="40" t="s">
+      <c r="C318" s="39" t="s">
         <v>356</v>
       </c>
       <c r="D318" t="s">
@@ -20861,13 +20883,13 @@
       </c>
     </row>
     <row r="319" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="38" t="s">
+      <c r="A319" s="37" t="s">
         <v>882</v>
       </c>
       <c r="B319" s="25" t="s">
         <v>900</v>
       </c>
-      <c r="C319" s="39" t="s">
+      <c r="C319" s="38" t="s">
         <v>360</v>
       </c>
       <c r="D319" t="s">
@@ -20881,7 +20903,7 @@
       </c>
     </row>
     <row r="320" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="38" t="s">
+      <c r="A320" s="37" t="s">
         <v>883</v>
       </c>
       <c r="B320" s="14" t="s">
@@ -20901,7 +20923,7 @@
       </c>
     </row>
     <row r="321" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="38" t="s">
+      <c r="A321" s="37" t="s">
         <v>884</v>
       </c>
       <c r="B321" t="s">
@@ -20921,10 +20943,10 @@
       </c>
     </row>
     <row r="322" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="38" t="s">
+      <c r="A322" s="37" t="s">
         <v>885</v>
       </c>
-      <c r="B322" s="42" t="s">
+      <c r="B322" s="41" t="s">
         <v>903</v>
       </c>
       <c r="C322" s="14" t="s">
@@ -20941,13 +20963,13 @@
       </c>
     </row>
     <row r="323" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="54" t="s">
+      <c r="A323" s="53" t="s">
         <v>886</v>
       </c>
-      <c r="B323" s="55" t="s">
+      <c r="B323" s="54" t="s">
         <v>904</v>
       </c>
-      <c r="C323" s="55" t="s">
+      <c r="C323" s="54" t="s">
         <v>368</v>
       </c>
       <c r="D323" s="20" t="s">
@@ -20961,7 +20983,7 @@
       </c>
     </row>
     <row r="324" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="38" t="s">
+      <c r="A324" s="37" t="s">
         <v>913</v>
       </c>
       <c r="B324" t="s">
@@ -20981,13 +21003,13 @@
       </c>
     </row>
     <row r="325" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="38" t="s">
+      <c r="A325" s="37" t="s">
         <v>920</v>
       </c>
       <c r="B325" s="11" t="s">
         <v>918</v>
       </c>
-      <c r="C325" s="43" t="s">
+      <c r="C325" s="42" t="s">
         <v>375</v>
       </c>
       <c r="D325" t="s">
@@ -21001,13 +21023,13 @@
       </c>
     </row>
     <row r="326" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="38" t="s">
+      <c r="A326" s="37" t="s">
         <v>919</v>
       </c>
       <c r="B326" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="C326" s="43" t="s">
+      <c r="C326" s="42" t="s">
         <v>375</v>
       </c>
       <c r="D326" t="s">
@@ -21021,13 +21043,13 @@
       </c>
     </row>
     <row r="327" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="38" t="s">
+      <c r="A327" s="37" t="s">
         <v>921</v>
       </c>
       <c r="B327" s="11" t="s">
         <v>916</v>
       </c>
-      <c r="C327" s="43" t="s">
+      <c r="C327" s="42" t="s">
         <v>375</v>
       </c>
       <c r="D327" t="s">
@@ -21041,13 +21063,13 @@
       </c>
     </row>
     <row r="328" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="38" t="s">
+      <c r="A328" s="37" t="s">
         <v>922</v>
       </c>
       <c r="B328" s="11" t="s">
         <v>915</v>
       </c>
-      <c r="C328" s="43" t="s">
+      <c r="C328" s="42" t="s">
         <v>375</v>
       </c>
       <c r="D328" t="s">
@@ -21061,13 +21083,13 @@
       </c>
     </row>
     <row r="329" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="38" t="s">
+      <c r="A329" s="37" t="s">
         <v>923</v>
       </c>
       <c r="B329" s="11" t="s">
         <v>914</v>
       </c>
-      <c r="C329" s="43" t="s">
+      <c r="C329" s="42" t="s">
         <v>375</v>
       </c>
       <c r="D329" t="s">
@@ -21081,7 +21103,7 @@
       </c>
     </row>
     <row r="330" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="38" t="s">
+      <c r="A330" s="37" t="s">
         <v>887</v>
       </c>
       <c r="B330" t="s">
@@ -21101,7 +21123,7 @@
       </c>
     </row>
     <row r="331" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="38" t="s">
+      <c r="A331" s="37" t="s">
         <v>888</v>
       </c>
       <c r="B331" t="s">
@@ -21121,7 +21143,7 @@
       </c>
     </row>
     <row r="332" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="38" t="s">
+      <c r="A332" s="37" t="s">
         <v>889</v>
       </c>
       <c r="B332" t="s">
@@ -21141,13 +21163,13 @@
       </c>
     </row>
     <row r="333" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="38" t="s">
+      <c r="A333" s="37" t="s">
         <v>890</v>
       </c>
       <c r="B333" t="s">
         <v>166</v>
       </c>
-      <c r="C333" s="44" t="s">
+      <c r="C333" s="43" t="s">
         <v>381</v>
       </c>
       <c r="D333" t="s">
@@ -21161,7 +21183,7 @@
       </c>
     </row>
     <row r="334" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="38" t="s">
+      <c r="A334" s="37" t="s">
         <v>891</v>
       </c>
       <c r="B334" t="s">
@@ -21181,7 +21203,7 @@
       </c>
     </row>
     <row r="335" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="38" t="s">
+      <c r="A335" s="37" t="s">
         <v>892</v>
       </c>
       <c r="B335" s="14" t="s">
@@ -21201,7 +21223,7 @@
       </c>
     </row>
     <row r="336" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="38" t="s">
+      <c r="A336" s="37" t="s">
         <v>893</v>
       </c>
       <c r="B336" s="14" t="s">
@@ -21221,7 +21243,7 @@
       </c>
     </row>
     <row r="337" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="38" t="s">
+      <c r="A337" s="37" t="s">
         <v>894</v>
       </c>
       <c r="B337" t="s">
@@ -21241,7 +21263,7 @@
       </c>
     </row>
     <row r="338" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="38" t="s">
+      <c r="A338" s="37" t="s">
         <v>895</v>
       </c>
       <c r="B338" s="11" t="s">
@@ -21261,7 +21283,7 @@
       </c>
     </row>
     <row r="339" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="38" t="s">
+      <c r="A339" s="37" t="s">
         <v>896</v>
       </c>
       <c r="B339" t="s">
@@ -21281,7 +21303,7 @@
       </c>
     </row>
     <row r="340" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="38" t="s">
+      <c r="A340" s="37" t="s">
         <v>897</v>
       </c>
       <c r="B340" t="s">
@@ -21301,7 +21323,7 @@
       </c>
     </row>
     <row r="341" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="38" t="s">
+      <c r="A341" s="37" t="s">
         <v>898</v>
       </c>
       <c r="B341" t="s">
@@ -21321,7 +21343,7 @@
       </c>
     </row>
     <row r="342" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="38" t="s">
+      <c r="A342" s="37" t="s">
         <v>899</v>
       </c>
       <c r="B342" t="s">
@@ -21342,7 +21364,7 @@
     </row>
     <row r="343" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="26" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B343" s="25" t="s">
         <v>929</v>
@@ -21362,7 +21384,7 @@
     </row>
     <row r="344" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="26" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B344" s="25" t="s">
         <v>1426</v>
@@ -21381,13 +21403,13 @@
       </c>
     </row>
     <row r="345" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="52" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B345" s="53" t="s">
+      <c r="A345" s="51" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B345" s="52" t="s">
         <v>858</v>
       </c>
-      <c r="C345" s="53" t="s">
+      <c r="C345" s="52" t="s">
         <v>1428</v>
       </c>
       <c r="D345" s="23" t="s">
@@ -21399,7 +21421,67 @@
       <c r="F345" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G345" s="48"/>
+      <c r="G345" s="47"/>
+    </row>
+    <row r="346" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="59" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B346" s="60" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C346" s="61" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D346" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E346" s="61" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F346" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="59" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B347" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C347" s="61" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D347" s="62" t="s">
+        <v>872</v>
+      </c>
+      <c r="E347" s="61" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F347" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="59" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B348" s="60" t="s">
+        <v>334</v>
+      </c>
+      <c r="C348" s="61" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D348" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E348" s="25" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F348" s="20" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21415,14 +21497,14 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="3" max="3" width="53.5" customWidth="1"/>
     <col min="4" max="4" width="37.83203125" customWidth="1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/index Y database para Gihub VALIDACION 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE3859E-C097-A84C-8D22-0A582D99ED98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71E24D0-0A4F-934A-9124-CE1E6903ED98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4180" yWindow="540" windowWidth="31120" windowHeight="15860" activeTab="2" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
@@ -6448,7 +6448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6617,36 +6617,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -6957,6 +6939,17 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -6975,6 +6968,14 @@
         </top>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -7193,23 +7194,23 @@
     <tableColumn id="8" xr3:uid="{4A683C6F-BAFD-E243-ABD1-562B8EC53E99}" name="curso" dataDxfId="20"/>
     <tableColumn id="9" xr3:uid="{F9AD31F0-2006-9845-9571-7C0934CB1B4F}" name="departamento" dataDxfId="19"/>
     <tableColumn id="10" xr3:uid="{02A925E6-86CF-F047-A7F5-1C0D19B09CCA}" name="fecha" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{800F1D14-514D-D049-8526-0A01081A9CA0}" name="duracion" dataDxfId="1" totalsRowDxfId="16"/>
-    <tableColumn id="1" xr3:uid="{42DC9DE4-0C3A-D549-B9BB-BDB5B83BCB8D}" name="tipo" dataDxfId="0" totalsRowDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{800F1D14-514D-D049-8526-0A01081A9CA0}" name="duracion" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{42DC9DE4-0C3A-D549-B9BB-BDB5B83BCB8D}" name="tipo" dataDxfId="14" totalsRowDxfId="13"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B508AFF-503A-7943-8DD5-D06EBFCC8B62}" name="PARTICIPANTES16183" displayName="PARTICIPANTES16183" ref="A1:G485" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B508AFF-503A-7943-8DD5-D06EBFCC8B62}" name="PARTICIPANTES16183" displayName="PARTICIPANTES16183" ref="A1:G485" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <tableColumns count="7">
-    <tableColumn id="17" xr3:uid="{81EB27DA-9005-8343-8270-24F41F32CD2D}" name="folio" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{783F0072-DA7B-3140-83D6-27D662F54BBB}" name="nombre" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{D0D33A24-B6D2-2541-8F70-5398A340F57E}" name="curso" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{AB02D729-8232-8643-B88A-00257BFDD549}" name="departamento" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{DF3AACD7-1A51-AB47-9454-2F951F317051}" name="fecha" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{88C52EF0-15CE-8445-A82B-DCF650F2DA69}" name="duracion" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{1AF78C5C-C9C6-9544-8DF5-1DAA2AF11DBE}" name="tipo" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{81EB27DA-9005-8343-8270-24F41F32CD2D}" name="folio" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{783F0072-DA7B-3140-83D6-27D662F54BBB}" name="nombre" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{D0D33A24-B6D2-2541-8F70-5398A340F57E}" name="curso" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{AB02D729-8232-8643-B88A-00257BFDD549}" name="departamento" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{DF3AACD7-1A51-AB47-9454-2F951F317051}" name="fecha" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{88C52EF0-15CE-8445-A82B-DCF650F2DA69}" name="duracion" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1AF78C5C-C9C6-9544-8DF5-1DAA2AF11DBE}" name="tipo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7537,7 +7538,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C464" sqref="C464"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7551,25 +7552,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="19" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="89" t="s">
         <v>1430</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="89" t="s">
         <v>1431</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="89" t="s">
         <v>1432</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="89" t="s">
         <v>1433</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="89" t="s">
         <v>1434</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="89" t="s">
         <v>1435</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="89" t="s">
         <v>1881</v>
       </c>
     </row>
@@ -7592,7 +7593,7 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7615,7 +7616,7 @@
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7638,7 +7639,7 @@
       <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7661,7 +7662,7 @@
       <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="G5" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7684,7 +7685,7 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="87" t="s">
+      <c r="G6" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7707,7 +7708,7 @@
       <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="87" t="s">
+      <c r="G7" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7730,7 +7731,7 @@
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="87" t="s">
+      <c r="G8" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7753,7 +7754,7 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="87" t="s">
+      <c r="G9" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="87" t="s">
+      <c r="G10" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7799,7 +7800,7 @@
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="87" t="s">
+      <c r="G11" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7822,7 +7823,7 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="87" t="s">
+      <c r="G12" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7845,7 +7846,7 @@
       <c r="F13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="87" t="s">
+      <c r="G13" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7868,7 +7869,7 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="87" t="s">
+      <c r="G14" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7891,7 +7892,7 @@
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="87" t="s">
+      <c r="G15" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7914,7 +7915,7 @@
       <c r="F16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="87" t="s">
+      <c r="G16" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7937,7 +7938,7 @@
       <c r="F17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="87" t="s">
+      <c r="G17" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7960,7 +7961,7 @@
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="87" t="s">
+      <c r="G18" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7983,7 +7984,7 @@
       <c r="F19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="87" t="s">
+      <c r="G19" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8006,7 +8007,7 @@
       <c r="F20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="87" t="s">
+      <c r="G20" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8029,7 +8030,7 @@
       <c r="F21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="87" t="s">
+      <c r="G21" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8052,7 +8053,7 @@
       <c r="F22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="87" t="s">
+      <c r="G22" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8075,7 +8076,7 @@
       <c r="F23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="87" t="s">
+      <c r="G23" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8098,7 +8099,7 @@
       <c r="F24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="87" t="s">
+      <c r="G24" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8121,7 +8122,7 @@
       <c r="F25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="87" t="s">
+      <c r="G25" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8144,7 +8145,7 @@
       <c r="F26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="87" t="s">
+      <c r="G26" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8167,7 +8168,7 @@
       <c r="F27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="87" t="s">
+      <c r="G27" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8190,7 +8191,7 @@
       <c r="F28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="87" t="s">
+      <c r="G28" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8213,7 +8214,7 @@
       <c r="F29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="87" t="s">
+      <c r="G29" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8236,7 +8237,7 @@
       <c r="F30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="87" t="s">
+      <c r="G30" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8259,7 +8260,7 @@
       <c r="F31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="87" t="s">
+      <c r="G31" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8282,7 +8283,7 @@
       <c r="F32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="87" t="s">
+      <c r="G32" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8305,7 +8306,7 @@
       <c r="F33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="87" t="s">
+      <c r="G33" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8328,7 +8329,7 @@
       <c r="F34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="87" t="s">
+      <c r="G34" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8351,7 +8352,7 @@
       <c r="F35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="87" t="s">
+      <c r="G35" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8374,7 +8375,7 @@
       <c r="F36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="87" t="s">
+      <c r="G36" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8397,7 +8398,7 @@
       <c r="F37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="87" t="s">
+      <c r="G37" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8420,7 +8421,7 @@
       <c r="F38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="87" t="s">
+      <c r="G38" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8443,7 +8444,7 @@
       <c r="F39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="87" t="s">
+      <c r="G39" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       <c r="F40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="87" t="s">
+      <c r="G40" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8489,7 +8490,7 @@
       <c r="F41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="87" t="s">
+      <c r="G41" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8512,7 +8513,7 @@
       <c r="F42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="87" t="s">
+      <c r="G42" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8535,7 +8536,7 @@
       <c r="F43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="87" t="s">
+      <c r="G43" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8558,7 +8559,7 @@
       <c r="F44" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="87" t="s">
+      <c r="G44" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8581,7 +8582,7 @@
       <c r="F45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="87" t="s">
+      <c r="G45" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8604,7 +8605,7 @@
       <c r="F46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="87" t="s">
+      <c r="G46" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8627,7 +8628,7 @@
       <c r="F47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="87" t="s">
+      <c r="G47" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8650,7 +8651,7 @@
       <c r="F48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="87" t="s">
+      <c r="G48" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8673,7 +8674,7 @@
       <c r="F49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="87" t="s">
+      <c r="G49" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8696,7 +8697,7 @@
       <c r="F50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="87" t="s">
+      <c r="G50" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8719,7 +8720,7 @@
       <c r="F51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="87" t="s">
+      <c r="G51" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8742,7 +8743,7 @@
       <c r="F52" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="87" t="s">
+      <c r="G52" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8765,7 +8766,7 @@
       <c r="F53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="87" t="s">
+      <c r="G53" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8788,7 +8789,7 @@
       <c r="F54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G54" s="87" t="s">
+      <c r="G54" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8811,7 +8812,7 @@
       <c r="F55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G55" s="87" t="s">
+      <c r="G55" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8834,7 +8835,7 @@
       <c r="F56" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="87" t="s">
+      <c r="G56" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8857,7 +8858,7 @@
       <c r="F57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="87" t="s">
+      <c r="G57" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8880,7 +8881,7 @@
       <c r="F58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="87" t="s">
+      <c r="G58" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8903,7 +8904,7 @@
       <c r="F59" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="87" t="s">
+      <c r="G59" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8926,7 +8927,7 @@
       <c r="F60" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G60" s="87" t="s">
+      <c r="G60" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8949,7 +8950,7 @@
       <c r="F61" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G61" s="87" t="s">
+      <c r="G61" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8972,7 +8973,7 @@
       <c r="F62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="87" t="s">
+      <c r="G62" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -8995,7 +8996,7 @@
       <c r="F63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="87" t="s">
+      <c r="G63" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9018,7 +9019,7 @@
       <c r="F64" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G64" s="87" t="s">
+      <c r="G64" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9041,7 +9042,7 @@
       <c r="F65" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="87" t="s">
+      <c r="G65" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9064,7 +9065,7 @@
       <c r="F66" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G66" s="87" t="s">
+      <c r="G66" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9087,7 +9088,7 @@
       <c r="F67" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G67" s="87" t="s">
+      <c r="G67" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9110,7 +9111,7 @@
       <c r="F68" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G68" s="87" t="s">
+      <c r="G68" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9133,7 +9134,7 @@
       <c r="F69" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="87" t="s">
+      <c r="G69" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9156,7 +9157,7 @@
       <c r="F70" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G70" s="87" t="s">
+      <c r="G70" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9179,7 +9180,7 @@
       <c r="F71" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G71" s="87" t="s">
+      <c r="G71" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9202,7 +9203,7 @@
       <c r="F72" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="87" t="s">
+      <c r="G72" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9225,7 +9226,7 @@
       <c r="F73" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G73" s="87" t="s">
+      <c r="G73" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9248,7 +9249,7 @@
       <c r="F74" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="87" t="s">
+      <c r="G74" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9271,7 +9272,7 @@
       <c r="F75" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G75" s="87" t="s">
+      <c r="G75" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9294,7 +9295,7 @@
       <c r="F76" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G76" s="87" t="s">
+      <c r="G76" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9317,7 +9318,7 @@
       <c r="F77" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G77" s="87" t="s">
+      <c r="G77" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9340,7 +9341,7 @@
       <c r="F78" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G78" s="87" t="s">
+      <c r="G78" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9363,7 +9364,7 @@
       <c r="F79" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G79" s="87" t="s">
+      <c r="G79" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9386,7 +9387,7 @@
       <c r="F80" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G80" s="87" t="s">
+      <c r="G80" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9409,7 +9410,7 @@
       <c r="F81" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G81" s="87" t="s">
+      <c r="G81" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9432,7 +9433,7 @@
       <c r="F82" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G82" s="87" t="s">
+      <c r="G82" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9455,7 +9456,7 @@
       <c r="F83" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="87" t="s">
+      <c r="G83" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9478,7 +9479,7 @@
       <c r="F84" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G84" s="87" t="s">
+      <c r="G84" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9501,7 +9502,7 @@
       <c r="F85" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G85" s="87" t="s">
+      <c r="G85" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9524,7 +9525,7 @@
       <c r="F86" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G86" s="87" t="s">
+      <c r="G86" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9547,7 +9548,7 @@
       <c r="F87" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G87" s="87" t="s">
+      <c r="G87" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9570,7 +9571,7 @@
       <c r="F88" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G88" s="87" t="s">
+      <c r="G88" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9593,7 +9594,7 @@
       <c r="F89" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G89" s="87" t="s">
+      <c r="G89" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9616,7 +9617,7 @@
       <c r="F90" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G90" s="87" t="s">
+      <c r="G90" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9639,7 +9640,7 @@
       <c r="F91" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="87" t="s">
+      <c r="G91" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9662,7 +9663,7 @@
       <c r="F92" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G92" s="87" t="s">
+      <c r="G92" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9685,7 +9686,7 @@
       <c r="F93" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G93" s="87" t="s">
+      <c r="G93" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9708,7 +9709,7 @@
       <c r="F94" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="87" t="s">
+      <c r="G94" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9731,7 +9732,7 @@
       <c r="F95" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G95" s="87" t="s">
+      <c r="G95" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9754,7 +9755,7 @@
       <c r="F96" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G96" s="87" t="s">
+      <c r="G96" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9777,7 +9778,7 @@
       <c r="F97" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G97" s="87" t="s">
+      <c r="G97" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9800,7 +9801,7 @@
       <c r="F98" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G98" s="87" t="s">
+      <c r="G98" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9823,7 +9824,7 @@
       <c r="F99" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="87" t="s">
+      <c r="G99" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9846,7 +9847,7 @@
       <c r="F100" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="87" t="s">
+      <c r="G100" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9869,7 +9870,7 @@
       <c r="F101" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="87" t="s">
+      <c r="G101" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9892,7 +9893,7 @@
       <c r="F102" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G102" s="87" t="s">
+      <c r="G102" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9915,7 +9916,7 @@
       <c r="F103" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G103" s="87" t="s">
+      <c r="G103" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9938,7 +9939,7 @@
       <c r="F104" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G104" s="87" t="s">
+      <c r="G104" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9961,7 +9962,7 @@
       <c r="F105" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G105" s="87" t="s">
+      <c r="G105" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -9984,7 +9985,7 @@
       <c r="F106" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G106" s="87" t="s">
+      <c r="G106" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10007,7 +10008,7 @@
       <c r="F107" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G107" s="87" t="s">
+      <c r="G107" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10030,7 +10031,7 @@
       <c r="F108" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G108" s="87" t="s">
+      <c r="G108" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10053,7 +10054,7 @@
       <c r="F109" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G109" s="87" t="s">
+      <c r="G109" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10076,7 +10077,7 @@
       <c r="F110" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G110" s="87" t="s">
+      <c r="G110" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10099,7 +10100,7 @@
       <c r="F111" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G111" s="87" t="s">
+      <c r="G111" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10122,7 +10123,7 @@
       <c r="F112" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G112" s="87" t="s">
+      <c r="G112" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10145,7 +10146,7 @@
       <c r="F113" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G113" s="87" t="s">
+      <c r="G113" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10168,7 +10169,7 @@
       <c r="F114" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G114" s="87" t="s">
+      <c r="G114" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10191,7 +10192,7 @@
       <c r="F115" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G115" s="87" t="s">
+      <c r="G115" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10214,7 +10215,7 @@
       <c r="F116" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G116" s="87" t="s">
+      <c r="G116" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10237,7 +10238,7 @@
       <c r="F117" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G117" s="87" t="s">
+      <c r="G117" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10260,7 +10261,7 @@
       <c r="F118" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G118" s="87" t="s">
+      <c r="G118" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10283,7 +10284,7 @@
       <c r="F119" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G119" s="87" t="s">
+      <c r="G119" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10306,7 +10307,7 @@
       <c r="F120" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G120" s="87" t="s">
+      <c r="G120" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10329,7 +10330,7 @@
       <c r="F121" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G121" s="87" t="s">
+      <c r="G121" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10352,7 +10353,7 @@
       <c r="F122" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G122" s="87" t="s">
+      <c r="G122" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10375,7 +10376,7 @@
       <c r="F123" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G123" s="87" t="s">
+      <c r="G123" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10398,7 +10399,7 @@
       <c r="F124" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G124" s="87" t="s">
+      <c r="G124" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10421,7 +10422,7 @@
       <c r="F125" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G125" s="87" t="s">
+      <c r="G125" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10444,7 +10445,7 @@
       <c r="F126" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G126" s="87" t="s">
+      <c r="G126" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10467,7 +10468,7 @@
       <c r="F127" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G127" s="87" t="s">
+      <c r="G127" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10490,7 +10491,7 @@
       <c r="F128" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G128" s="87" t="s">
+      <c r="G128" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10513,7 +10514,7 @@
       <c r="F129" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G129" s="87" t="s">
+      <c r="G129" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10536,7 +10537,7 @@
       <c r="F130" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G130" s="87" t="s">
+      <c r="G130" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10559,7 +10560,7 @@
       <c r="F131" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G131" s="87" t="s">
+      <c r="G131" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10582,7 +10583,7 @@
       <c r="F132" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G132" s="87" t="s">
+      <c r="G132" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10605,7 +10606,7 @@
       <c r="F133" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G133" s="87" t="s">
+      <c r="G133" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10628,7 +10629,7 @@
       <c r="F134" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G134" s="87" t="s">
+      <c r="G134" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10651,7 +10652,7 @@
       <c r="F135" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G135" s="87" t="s">
+      <c r="G135" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10674,7 +10675,7 @@
       <c r="F136" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G136" s="87" t="s">
+      <c r="G136" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10697,7 +10698,7 @@
       <c r="F137" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G137" s="87" t="s">
+      <c r="G137" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10720,7 +10721,7 @@
       <c r="F138" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G138" s="87" t="s">
+      <c r="G138" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10743,7 +10744,7 @@
       <c r="F139" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G139" s="87" t="s">
+      <c r="G139" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10766,7 +10767,7 @@
       <c r="F140" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G140" s="87" t="s">
+      <c r="G140" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10789,7 +10790,7 @@
       <c r="F141" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G141" s="87" t="s">
+      <c r="G141" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10812,7 +10813,7 @@
       <c r="F142" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G142" s="87" t="s">
+      <c r="G142" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10835,7 +10836,7 @@
       <c r="F143" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G143" s="87" t="s">
+      <c r="G143" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10858,7 +10859,7 @@
       <c r="F144" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G144" s="87" t="s">
+      <c r="G144" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10881,7 +10882,7 @@
       <c r="F145" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G145" s="87" t="s">
+      <c r="G145" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10904,7 +10905,7 @@
       <c r="F146" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G146" s="87" t="s">
+      <c r="G146" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10927,7 +10928,7 @@
       <c r="F147" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G147" s="87" t="s">
+      <c r="G147" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10950,7 +10951,7 @@
       <c r="F148" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G148" s="87" t="s">
+      <c r="G148" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10973,7 +10974,7 @@
       <c r="F149" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G149" s="87" t="s">
+      <c r="G149" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -10996,7 +10997,7 @@
       <c r="F150" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G150" s="87" t="s">
+      <c r="G150" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11019,7 +11020,7 @@
       <c r="F151" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G151" s="87" t="s">
+      <c r="G151" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11042,7 +11043,7 @@
       <c r="F152" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G152" s="87" t="s">
+      <c r="G152" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11065,7 +11066,7 @@
       <c r="F153" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G153" s="87" t="s">
+      <c r="G153" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11088,7 +11089,7 @@
       <c r="F154" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G154" s="87" t="s">
+      <c r="G154" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11111,7 +11112,7 @@
       <c r="F155" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G155" s="87" t="s">
+      <c r="G155" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11134,7 +11135,7 @@
       <c r="F156" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G156" s="87" t="s">
+      <c r="G156" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11157,7 +11158,7 @@
       <c r="F157" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G157" s="87" t="s">
+      <c r="G157" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11180,7 +11181,7 @@
       <c r="F158" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G158" s="87" t="s">
+      <c r="G158" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11203,7 +11204,7 @@
       <c r="F159" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G159" s="87" t="s">
+      <c r="G159" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11226,7 +11227,7 @@
       <c r="F160" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G160" s="87" t="s">
+      <c r="G160" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11249,7 +11250,7 @@
       <c r="F161" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G161" s="87" t="s">
+      <c r="G161" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11272,7 +11273,7 @@
       <c r="F162" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G162" s="87" t="s">
+      <c r="G162" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11295,7 +11296,7 @@
       <c r="F163" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G163" s="87" t="s">
+      <c r="G163" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11318,7 +11319,7 @@
       <c r="F164" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G164" s="87" t="s">
+      <c r="G164" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11341,7 +11342,7 @@
       <c r="F165" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G165" s="87" t="s">
+      <c r="G165" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11364,7 +11365,7 @@
       <c r="F166" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G166" s="87" t="s">
+      <c r="G166" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11387,7 +11388,7 @@
       <c r="F167" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G167" s="87" t="s">
+      <c r="G167" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11410,7 +11411,7 @@
       <c r="F168" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G168" s="87" t="s">
+      <c r="G168" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11433,7 +11434,7 @@
       <c r="F169" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G169" s="87" t="s">
+      <c r="G169" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11456,7 +11457,7 @@
       <c r="F170" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G170" s="87" t="s">
+      <c r="G170" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11479,7 +11480,7 @@
       <c r="F171" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G171" s="87" t="s">
+      <c r="G171" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11502,7 +11503,7 @@
       <c r="F172" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G172" s="87" t="s">
+      <c r="G172" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11525,7 +11526,7 @@
       <c r="F173" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G173" s="87" t="s">
+      <c r="G173" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11548,7 +11549,7 @@
       <c r="F174" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G174" s="87" t="s">
+      <c r="G174" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11571,7 +11572,7 @@
       <c r="F175" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G175" s="87" t="s">
+      <c r="G175" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11594,7 +11595,7 @@
       <c r="F176" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G176" s="87" t="s">
+      <c r="G176" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11617,7 +11618,7 @@
       <c r="F177" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G177" s="87" t="s">
+      <c r="G177" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11640,7 +11641,7 @@
       <c r="F178" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G178" s="87" t="s">
+      <c r="G178" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11663,7 +11664,7 @@
       <c r="F179" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G179" s="87" t="s">
+      <c r="G179" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11686,7 +11687,7 @@
       <c r="F180" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G180" s="87" t="s">
+      <c r="G180" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11709,7 +11710,7 @@
       <c r="F181" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G181" s="87" t="s">
+      <c r="G181" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11732,7 +11733,7 @@
       <c r="F182" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G182" s="87" t="s">
+      <c r="G182" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11755,7 +11756,7 @@
       <c r="F183" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G183" s="87" t="s">
+      <c r="G183" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11778,7 +11779,7 @@
       <c r="F184" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G184" s="87" t="s">
+      <c r="G184" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11801,7 +11802,7 @@
       <c r="F185" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G185" s="87" t="s">
+      <c r="G185" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11824,7 +11825,7 @@
       <c r="F186" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G186" s="87" t="s">
+      <c r="G186" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11847,7 +11848,7 @@
       <c r="F187" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G187" s="87" t="s">
+      <c r="G187" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11870,7 +11871,7 @@
       <c r="F188" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G188" s="87" t="s">
+      <c r="G188" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11893,7 +11894,7 @@
       <c r="F189" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G189" s="87" t="s">
+      <c r="G189" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11916,7 +11917,7 @@
       <c r="F190" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G190" s="87" t="s">
+      <c r="G190" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11939,7 +11940,7 @@
       <c r="F191" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G191" s="87" t="s">
+      <c r="G191" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11962,7 +11963,7 @@
       <c r="F192" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G192" s="87" t="s">
+      <c r="G192" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -11985,7 +11986,7 @@
       <c r="F193" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G193" s="87" t="s">
+      <c r="G193" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12008,7 +12009,7 @@
       <c r="F194" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G194" s="87" t="s">
+      <c r="G194" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12031,7 +12032,7 @@
       <c r="F195" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G195" s="87" t="s">
+      <c r="G195" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12054,7 +12055,7 @@
       <c r="F196" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G196" s="87" t="s">
+      <c r="G196" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12077,7 +12078,7 @@
       <c r="F197" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G197" s="87" t="s">
+      <c r="G197" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12100,7 +12101,7 @@
       <c r="F198" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G198" s="87" t="s">
+      <c r="G198" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12123,7 +12124,7 @@
       <c r="F199" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G199" s="87" t="s">
+      <c r="G199" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12146,7 +12147,7 @@
       <c r="F200" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G200" s="87" t="s">
+      <c r="G200" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12169,7 +12170,7 @@
       <c r="F201" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G201" s="87" t="s">
+      <c r="G201" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12192,7 +12193,7 @@
       <c r="F202" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G202" s="87" t="s">
+      <c r="G202" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12215,7 +12216,7 @@
       <c r="F203" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G203" s="87" t="s">
+      <c r="G203" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12238,7 +12239,7 @@
       <c r="F204" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G204" s="87" t="s">
+      <c r="G204" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12261,7 +12262,7 @@
       <c r="F205" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G205" s="87" t="s">
+      <c r="G205" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12284,7 +12285,7 @@
       <c r="F206" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G206" s="87" t="s">
+      <c r="G206" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12307,7 +12308,7 @@
       <c r="F207" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G207" s="87" t="s">
+      <c r="G207" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12330,7 +12331,7 @@
       <c r="F208" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G208" s="87" t="s">
+      <c r="G208" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12353,7 +12354,7 @@
       <c r="F209" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G209" s="87" t="s">
+      <c r="G209" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12376,7 +12377,7 @@
       <c r="F210" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G210" s="87" t="s">
+      <c r="G210" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12399,7 +12400,7 @@
       <c r="F211" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G211" s="87" t="s">
+      <c r="G211" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12422,7 +12423,7 @@
       <c r="F212" t="s">
         <v>4</v>
       </c>
-      <c r="G212" s="87" t="s">
+      <c r="G212" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12445,7 +12446,7 @@
       <c r="F213" t="s">
         <v>4</v>
       </c>
-      <c r="G213" s="87" t="s">
+      <c r="G213" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12468,7 +12469,7 @@
       <c r="F214" t="s">
         <v>4</v>
       </c>
-      <c r="G214" s="87" t="s">
+      <c r="G214" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12491,7 +12492,7 @@
       <c r="F215" t="s">
         <v>4</v>
       </c>
-      <c r="G215" s="87" t="s">
+      <c r="G215" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12514,7 +12515,7 @@
       <c r="F216" t="s">
         <v>4</v>
       </c>
-      <c r="G216" s="87" t="s">
+      <c r="G216" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12537,7 +12538,7 @@
       <c r="F217" t="s">
         <v>4</v>
       </c>
-      <c r="G217" s="87" t="s">
+      <c r="G217" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12560,7 +12561,7 @@
       <c r="F218" t="s">
         <v>4</v>
       </c>
-      <c r="G218" s="87" t="s">
+      <c r="G218" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12583,7 +12584,7 @@
       <c r="F219" t="s">
         <v>4</v>
       </c>
-      <c r="G219" s="87" t="s">
+      <c r="G219" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12606,7 +12607,7 @@
       <c r="F220" t="s">
         <v>4</v>
       </c>
-      <c r="G220" s="87" t="s">
+      <c r="G220" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12629,7 +12630,7 @@
       <c r="F221" t="s">
         <v>4</v>
       </c>
-      <c r="G221" s="87" t="s">
+      <c r="G221" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12652,7 +12653,7 @@
       <c r="F222" t="s">
         <v>4</v>
       </c>
-      <c r="G222" s="87" t="s">
+      <c r="G222" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12675,7 +12676,7 @@
       <c r="F223" t="s">
         <v>4</v>
       </c>
-      <c r="G223" s="87" t="s">
+      <c r="G223" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12698,7 +12699,7 @@
       <c r="F224" t="s">
         <v>4</v>
       </c>
-      <c r="G224" s="87" t="s">
+      <c r="G224" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12721,7 +12722,7 @@
       <c r="F225" t="s">
         <v>4</v>
       </c>
-      <c r="G225" s="87" t="s">
+      <c r="G225" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12744,7 +12745,7 @@
       <c r="F226" t="s">
         <v>4</v>
       </c>
-      <c r="G226" s="87" t="s">
+      <c r="G226" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12767,7 +12768,7 @@
       <c r="F227" t="s">
         <v>4</v>
       </c>
-      <c r="G227" s="87" t="s">
+      <c r="G227" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12790,7 +12791,7 @@
       <c r="F228" t="s">
         <v>4</v>
       </c>
-      <c r="G228" s="87" t="s">
+      <c r="G228" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12813,7 +12814,7 @@
       <c r="F229" t="s">
         <v>4</v>
       </c>
-      <c r="G229" s="87" t="s">
+      <c r="G229" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12836,7 +12837,7 @@
       <c r="F230" t="s">
         <v>4</v>
       </c>
-      <c r="G230" s="87" t="s">
+      <c r="G230" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12859,7 +12860,7 @@
       <c r="F231" t="s">
         <v>4</v>
       </c>
-      <c r="G231" s="87" t="s">
+      <c r="G231" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12882,7 +12883,7 @@
       <c r="F232" t="s">
         <v>4</v>
       </c>
-      <c r="G232" s="87" t="s">
+      <c r="G232" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12905,7 +12906,7 @@
       <c r="F233" t="s">
         <v>4</v>
       </c>
-      <c r="G233" s="87" t="s">
+      <c r="G233" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12928,7 +12929,7 @@
       <c r="F234" t="s">
         <v>4</v>
       </c>
-      <c r="G234" s="87" t="s">
+      <c r="G234" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12951,7 +12952,7 @@
       <c r="F235" t="s">
         <v>4</v>
       </c>
-      <c r="G235" s="87" t="s">
+      <c r="G235" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12974,7 +12975,7 @@
       <c r="F236" t="s">
         <v>4</v>
       </c>
-      <c r="G236" s="87" t="s">
+      <c r="G236" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -12997,7 +12998,7 @@
       <c r="F237" t="s">
         <v>4</v>
       </c>
-      <c r="G237" s="87" t="s">
+      <c r="G237" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13020,7 +13021,7 @@
       <c r="F238" t="s">
         <v>4</v>
       </c>
-      <c r="G238" s="87" t="s">
+      <c r="G238" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13043,7 +13044,7 @@
       <c r="F239" t="s">
         <v>4</v>
       </c>
-      <c r="G239" s="87" t="s">
+      <c r="G239" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13066,7 +13067,7 @@
       <c r="F240" t="s">
         <v>4</v>
       </c>
-      <c r="G240" s="87" t="s">
+      <c r="G240" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13089,7 +13090,7 @@
       <c r="F241" t="s">
         <v>4</v>
       </c>
-      <c r="G241" s="87" t="s">
+      <c r="G241" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13112,7 +13113,7 @@
       <c r="F242" t="s">
         <v>4</v>
       </c>
-      <c r="G242" s="87" t="s">
+      <c r="G242" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13135,7 +13136,7 @@
       <c r="F243" t="s">
         <v>4</v>
       </c>
-      <c r="G243" s="87" t="s">
+      <c r="G243" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13158,7 +13159,7 @@
       <c r="F244" t="s">
         <v>4</v>
       </c>
-      <c r="G244" s="87" t="s">
+      <c r="G244" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13181,7 +13182,7 @@
       <c r="F245" t="s">
         <v>4</v>
       </c>
-      <c r="G245" s="87" t="s">
+      <c r="G245" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13204,7 +13205,7 @@
       <c r="F246" t="s">
         <v>4</v>
       </c>
-      <c r="G246" s="87" t="s">
+      <c r="G246" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13227,7 +13228,7 @@
       <c r="F247" t="s">
         <v>4</v>
       </c>
-      <c r="G247" s="87" t="s">
+      <c r="G247" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13250,7 +13251,7 @@
       <c r="F248" t="s">
         <v>4</v>
       </c>
-      <c r="G248" s="87" t="s">
+      <c r="G248" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13273,7 +13274,7 @@
       <c r="F249" t="s">
         <v>4</v>
       </c>
-      <c r="G249" s="87" t="s">
+      <c r="G249" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13296,7 +13297,7 @@
       <c r="F250" t="s">
         <v>4</v>
       </c>
-      <c r="G250" s="87" t="s">
+      <c r="G250" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13319,7 +13320,7 @@
       <c r="F251" t="s">
         <v>4</v>
       </c>
-      <c r="G251" s="87" t="s">
+      <c r="G251" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13342,7 +13343,7 @@
       <c r="F252" t="s">
         <v>4</v>
       </c>
-      <c r="G252" s="87" t="s">
+      <c r="G252" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13365,7 +13366,7 @@
       <c r="F253" t="s">
         <v>4</v>
       </c>
-      <c r="G253" s="87" t="s">
+      <c r="G253" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13388,7 +13389,7 @@
       <c r="F254" t="s">
         <v>4</v>
       </c>
-      <c r="G254" s="87" t="s">
+      <c r="G254" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13411,7 +13412,7 @@
       <c r="F255" t="s">
         <v>4</v>
       </c>
-      <c r="G255" s="87" t="s">
+      <c r="G255" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13434,7 +13435,7 @@
       <c r="F256" t="s">
         <v>4</v>
       </c>
-      <c r="G256" s="87" t="s">
+      <c r="G256" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13457,7 +13458,7 @@
       <c r="F257" t="s">
         <v>4</v>
       </c>
-      <c r="G257" s="87" t="s">
+      <c r="G257" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13480,7 +13481,7 @@
       <c r="F258" t="s">
         <v>4</v>
       </c>
-      <c r="G258" s="87" t="s">
+      <c r="G258" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13503,7 +13504,7 @@
       <c r="F259" t="s">
         <v>4</v>
       </c>
-      <c r="G259" s="87" t="s">
+      <c r="G259" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13526,7 +13527,7 @@
       <c r="F260" t="s">
         <v>4</v>
       </c>
-      <c r="G260" s="87" t="s">
+      <c r="G260" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13549,7 +13550,7 @@
       <c r="F261" t="s">
         <v>4</v>
       </c>
-      <c r="G261" s="87" t="s">
+      <c r="G261" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13572,7 +13573,7 @@
       <c r="F262" t="s">
         <v>4</v>
       </c>
-      <c r="G262" s="87" t="s">
+      <c r="G262" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13595,7 +13596,7 @@
       <c r="F263" t="s">
         <v>4</v>
       </c>
-      <c r="G263" s="87" t="s">
+      <c r="G263" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13618,7 +13619,7 @@
       <c r="F264" t="s">
         <v>4</v>
       </c>
-      <c r="G264" s="87" t="s">
+      <c r="G264" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13641,7 +13642,7 @@
       <c r="F265" t="s">
         <v>4</v>
       </c>
-      <c r="G265" s="87" t="s">
+      <c r="G265" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13664,7 +13665,7 @@
       <c r="F266" t="s">
         <v>4</v>
       </c>
-      <c r="G266" s="87" t="s">
+      <c r="G266" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13687,7 +13688,7 @@
       <c r="F267" t="s">
         <v>4</v>
       </c>
-      <c r="G267" s="87" t="s">
+      <c r="G267" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13710,7 +13711,7 @@
       <c r="F268" t="s">
         <v>4</v>
       </c>
-      <c r="G268" s="87" t="s">
+      <c r="G268" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13733,7 +13734,7 @@
       <c r="F269" t="s">
         <v>4</v>
       </c>
-      <c r="G269" s="87" t="s">
+      <c r="G269" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13756,7 +13757,7 @@
       <c r="F270" t="s">
         <v>4</v>
       </c>
-      <c r="G270" s="87" t="s">
+      <c r="G270" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13779,7 +13780,7 @@
       <c r="F271" t="s">
         <v>4</v>
       </c>
-      <c r="G271" s="87" t="s">
+      <c r="G271" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13802,7 +13803,7 @@
       <c r="F272" t="s">
         <v>4</v>
       </c>
-      <c r="G272" s="87" t="s">
+      <c r="G272" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13825,7 +13826,7 @@
       <c r="F273" t="s">
         <v>4</v>
       </c>
-      <c r="G273" s="87" t="s">
+      <c r="G273" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13848,7 +13849,7 @@
       <c r="F274" t="s">
         <v>4</v>
       </c>
-      <c r="G274" s="87" t="s">
+      <c r="G274" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13871,7 +13872,7 @@
       <c r="F275" t="s">
         <v>4</v>
       </c>
-      <c r="G275" s="87" t="s">
+      <c r="G275" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13894,7 +13895,7 @@
       <c r="F276" t="s">
         <v>4</v>
       </c>
-      <c r="G276" s="87" t="s">
+      <c r="G276" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13917,7 +13918,7 @@
       <c r="F277" t="s">
         <v>4</v>
       </c>
-      <c r="G277" s="87" t="s">
+      <c r="G277" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13940,7 +13941,7 @@
       <c r="F278" t="s">
         <v>4</v>
       </c>
-      <c r="G278" s="87" t="s">
+      <c r="G278" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13963,7 +13964,7 @@
       <c r="F279" t="s">
         <v>4</v>
       </c>
-      <c r="G279" s="87" t="s">
+      <c r="G279" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -13986,7 +13987,7 @@
       <c r="F280" t="s">
         <v>4</v>
       </c>
-      <c r="G280" s="87" t="s">
+      <c r="G280" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14009,7 +14010,7 @@
       <c r="F281" t="s">
         <v>4</v>
       </c>
-      <c r="G281" s="87" t="s">
+      <c r="G281" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14032,7 +14033,7 @@
       <c r="F282" t="s">
         <v>4</v>
       </c>
-      <c r="G282" s="87" t="s">
+      <c r="G282" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14055,7 +14056,7 @@
       <c r="F283" t="s">
         <v>4</v>
       </c>
-      <c r="G283" s="87" t="s">
+      <c r="G283" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14078,7 +14079,7 @@
       <c r="F284" t="s">
         <v>4</v>
       </c>
-      <c r="G284" s="87" t="s">
+      <c r="G284" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14101,7 +14102,7 @@
       <c r="F285" t="s">
         <v>4</v>
       </c>
-      <c r="G285" s="87" t="s">
+      <c r="G285" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14124,7 +14125,7 @@
       <c r="F286" t="s">
         <v>4</v>
       </c>
-      <c r="G286" s="87" t="s">
+      <c r="G286" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14147,7 +14148,7 @@
       <c r="F287" t="s">
         <v>4</v>
       </c>
-      <c r="G287" s="87" t="s">
+      <c r="G287" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14170,7 +14171,7 @@
       <c r="F288" t="s">
         <v>4</v>
       </c>
-      <c r="G288" s="87" t="s">
+      <c r="G288" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14193,7 +14194,7 @@
       <c r="F289" t="s">
         <v>4</v>
       </c>
-      <c r="G289" s="87" t="s">
+      <c r="G289" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14216,7 +14217,7 @@
       <c r="F290" t="s">
         <v>4</v>
       </c>
-      <c r="G290" s="87" t="s">
+      <c r="G290" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14239,7 +14240,7 @@
       <c r="F291" t="s">
         <v>4</v>
       </c>
-      <c r="G291" s="87" t="s">
+      <c r="G291" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14262,7 +14263,7 @@
       <c r="F292" t="s">
         <v>4</v>
       </c>
-      <c r="G292" s="87" t="s">
+      <c r="G292" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14285,7 +14286,7 @@
       <c r="F293" t="s">
         <v>4</v>
       </c>
-      <c r="G293" s="87" t="s">
+      <c r="G293" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14308,7 +14309,7 @@
       <c r="F294" t="s">
         <v>4</v>
       </c>
-      <c r="G294" s="87" t="s">
+      <c r="G294" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14331,7 +14332,7 @@
       <c r="F295" t="s">
         <v>4</v>
       </c>
-      <c r="G295" s="87" t="s">
+      <c r="G295" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14354,7 +14355,7 @@
       <c r="F296" t="s">
         <v>4</v>
       </c>
-      <c r="G296" s="87" t="s">
+      <c r="G296" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14377,7 +14378,7 @@
       <c r="F297" t="s">
         <v>4</v>
       </c>
-      <c r="G297" s="87" t="s">
+      <c r="G297" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14400,7 +14401,7 @@
       <c r="F298" t="s">
         <v>4</v>
       </c>
-      <c r="G298" s="87" t="s">
+      <c r="G298" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14423,7 +14424,7 @@
       <c r="F299" t="s">
         <v>4</v>
       </c>
-      <c r="G299" s="87" t="s">
+      <c r="G299" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14446,7 +14447,7 @@
       <c r="F300" t="s">
         <v>4</v>
       </c>
-      <c r="G300" s="87" t="s">
+      <c r="G300" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14469,7 +14470,7 @@
       <c r="F301" t="s">
         <v>4</v>
       </c>
-      <c r="G301" s="87" t="s">
+      <c r="G301" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14492,7 +14493,7 @@
       <c r="F302" t="s">
         <v>4</v>
       </c>
-      <c r="G302" s="87" t="s">
+      <c r="G302" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14515,7 +14516,7 @@
       <c r="F303" t="s">
         <v>4</v>
       </c>
-      <c r="G303" s="87" t="s">
+      <c r="G303" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14538,7 +14539,7 @@
       <c r="F304" t="s">
         <v>4</v>
       </c>
-      <c r="G304" s="87" t="s">
+      <c r="G304" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14561,7 +14562,7 @@
       <c r="F305" t="s">
         <v>4</v>
       </c>
-      <c r="G305" s="87" t="s">
+      <c r="G305" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14584,7 +14585,7 @@
       <c r="F306" t="s">
         <v>4</v>
       </c>
-      <c r="G306" s="87" t="s">
+      <c r="G306" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14607,7 +14608,7 @@
       <c r="F307" t="s">
         <v>4</v>
       </c>
-      <c r="G307" s="87" t="s">
+      <c r="G307" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14630,7 +14631,7 @@
       <c r="F308" t="s">
         <v>4</v>
       </c>
-      <c r="G308" s="87" t="s">
+      <c r="G308" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14653,7 +14654,7 @@
       <c r="F309" t="s">
         <v>4</v>
       </c>
-      <c r="G309" s="87" t="s">
+      <c r="G309" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14676,7 +14677,7 @@
       <c r="F310" t="s">
         <v>4</v>
       </c>
-      <c r="G310" s="87" t="s">
+      <c r="G310" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14699,7 +14700,7 @@
       <c r="F311" t="s">
         <v>4</v>
       </c>
-      <c r="G311" s="87" t="s">
+      <c r="G311" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14722,7 +14723,7 @@
       <c r="F312" t="s">
         <v>4</v>
       </c>
-      <c r="G312" s="87" t="s">
+      <c r="G312" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14745,7 +14746,7 @@
       <c r="F313" t="s">
         <v>4</v>
       </c>
-      <c r="G313" s="87" t="s">
+      <c r="G313" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14768,7 +14769,7 @@
       <c r="F314" t="s">
         <v>4</v>
       </c>
-      <c r="G314" s="87" t="s">
+      <c r="G314" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14791,7 +14792,7 @@
       <c r="F315" t="s">
         <v>4</v>
       </c>
-      <c r="G315" s="87" t="s">
+      <c r="G315" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14814,7 +14815,7 @@
       <c r="F316" t="s">
         <v>4</v>
       </c>
-      <c r="G316" s="87" t="s">
+      <c r="G316" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14837,7 +14838,7 @@
       <c r="F317" t="s">
         <v>4</v>
       </c>
-      <c r="G317" s="87" t="s">
+      <c r="G317" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14860,7 +14861,7 @@
       <c r="F318" t="s">
         <v>4</v>
       </c>
-      <c r="G318" s="87" t="s">
+      <c r="G318" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14883,7 +14884,7 @@
       <c r="F319" t="s">
         <v>4</v>
       </c>
-      <c r="G319" s="87" t="s">
+      <c r="G319" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14906,7 +14907,7 @@
       <c r="F320" t="s">
         <v>4</v>
       </c>
-      <c r="G320" s="87" t="s">
+      <c r="G320" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14929,7 +14930,7 @@
       <c r="F321" t="s">
         <v>4</v>
       </c>
-      <c r="G321" s="87" t="s">
+      <c r="G321" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14952,7 +14953,7 @@
       <c r="F322" t="s">
         <v>4</v>
       </c>
-      <c r="G322" s="87" t="s">
+      <c r="G322" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14975,7 +14976,7 @@
       <c r="F323" t="s">
         <v>4</v>
       </c>
-      <c r="G323" s="87" t="s">
+      <c r="G323" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14998,7 +14999,7 @@
       <c r="F324" t="s">
         <v>4</v>
       </c>
-      <c r="G324" s="87" t="s">
+      <c r="G324" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15021,7 +15022,7 @@
       <c r="F325" t="s">
         <v>4</v>
       </c>
-      <c r="G325" s="87" t="s">
+      <c r="G325" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15044,7 +15045,7 @@
       <c r="F326" t="s">
         <v>4</v>
       </c>
-      <c r="G326" s="87" t="s">
+      <c r="G326" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15067,7 +15068,7 @@
       <c r="F327" t="s">
         <v>4</v>
       </c>
-      <c r="G327" s="87" t="s">
+      <c r="G327" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15090,7 +15091,7 @@
       <c r="F328" t="s">
         <v>4</v>
       </c>
-      <c r="G328" s="87" t="s">
+      <c r="G328" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15113,7 +15114,7 @@
       <c r="F329" t="s">
         <v>4</v>
       </c>
-      <c r="G329" s="87" t="s">
+      <c r="G329" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15136,7 +15137,7 @@
       <c r="F330" t="s">
         <v>4</v>
       </c>
-      <c r="G330" s="87" t="s">
+      <c r="G330" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15159,7 +15160,7 @@
       <c r="F331" t="s">
         <v>4</v>
       </c>
-      <c r="G331" s="87" t="s">
+      <c r="G331" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15182,7 +15183,7 @@
       <c r="F332" t="s">
         <v>4</v>
       </c>
-      <c r="G332" s="87" t="s">
+      <c r="G332" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15205,7 +15206,7 @@
       <c r="F333" t="s">
         <v>4</v>
       </c>
-      <c r="G333" s="87" t="s">
+      <c r="G333" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15228,7 +15229,7 @@
       <c r="F334" t="s">
         <v>4</v>
       </c>
-      <c r="G334" s="87" t="s">
+      <c r="G334" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15251,7 +15252,7 @@
       <c r="F335" t="s">
         <v>4</v>
       </c>
-      <c r="G335" s="87" t="s">
+      <c r="G335" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15274,7 +15275,7 @@
       <c r="F336" t="s">
         <v>4</v>
       </c>
-      <c r="G336" s="87" t="s">
+      <c r="G336" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15297,7 +15298,7 @@
       <c r="F337" t="s">
         <v>4</v>
       </c>
-      <c r="G337" s="87" t="s">
+      <c r="G337" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15320,7 +15321,7 @@
       <c r="F338" t="s">
         <v>4</v>
       </c>
-      <c r="G338" s="87" t="s">
+      <c r="G338" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15343,7 +15344,7 @@
       <c r="F339" t="s">
         <v>4</v>
       </c>
-      <c r="G339" s="87" t="s">
+      <c r="G339" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15366,7 +15367,7 @@
       <c r="F340" t="s">
         <v>4</v>
       </c>
-      <c r="G340" s="87" t="s">
+      <c r="G340" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15389,7 +15390,7 @@
       <c r="F341" t="s">
         <v>4</v>
       </c>
-      <c r="G341" s="87" t="s">
+      <c r="G341" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15412,7 +15413,7 @@
       <c r="F342" t="s">
         <v>4</v>
       </c>
-      <c r="G342" s="87" t="s">
+      <c r="G342" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15435,7 +15436,7 @@
       <c r="F343" t="s">
         <v>4</v>
       </c>
-      <c r="G343" s="87" t="s">
+      <c r="G343" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15458,7 +15459,7 @@
       <c r="F344" t="s">
         <v>4</v>
       </c>
-      <c r="G344" s="87" t="s">
+      <c r="G344" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15481,7 +15482,7 @@
       <c r="F345" t="s">
         <v>4</v>
       </c>
-      <c r="G345" s="87" t="s">
+      <c r="G345" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15504,7 +15505,7 @@
       <c r="F346" t="s">
         <v>4</v>
       </c>
-      <c r="G346" s="87" t="s">
+      <c r="G346" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15527,7 +15528,7 @@
       <c r="F347" t="s">
         <v>4</v>
       </c>
-      <c r="G347" s="87" t="s">
+      <c r="G347" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15550,7 +15551,7 @@
       <c r="F348" t="s">
         <v>4</v>
       </c>
-      <c r="G348" s="87" t="s">
+      <c r="G348" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15573,7 +15574,7 @@
       <c r="F349" t="s">
         <v>4</v>
       </c>
-      <c r="G349" s="87" t="s">
+      <c r="G349" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15596,7 +15597,7 @@
       <c r="F350" t="s">
         <v>4</v>
       </c>
-      <c r="G350" s="87" t="s">
+      <c r="G350" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15619,7 +15620,7 @@
       <c r="F351" t="s">
         <v>4</v>
       </c>
-      <c r="G351" s="87" t="s">
+      <c r="G351" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15642,7 +15643,7 @@
       <c r="F352" t="s">
         <v>4</v>
       </c>
-      <c r="G352" s="87" t="s">
+      <c r="G352" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15665,7 +15666,7 @@
       <c r="F353" t="s">
         <v>4</v>
       </c>
-      <c r="G353" s="87" t="s">
+      <c r="G353" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15688,7 +15689,7 @@
       <c r="F354" t="s">
         <v>4</v>
       </c>
-      <c r="G354" s="87" t="s">
+      <c r="G354" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15711,7 +15712,7 @@
       <c r="F355" t="s">
         <v>4</v>
       </c>
-      <c r="G355" s="87" t="s">
+      <c r="G355" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15734,7 +15735,7 @@
       <c r="F356" t="s">
         <v>4</v>
       </c>
-      <c r="G356" s="87" t="s">
+      <c r="G356" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15757,7 +15758,7 @@
       <c r="F357" t="s">
         <v>4</v>
       </c>
-      <c r="G357" s="87" t="s">
+      <c r="G357" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15780,7 +15781,7 @@
       <c r="F358" t="s">
         <v>4</v>
       </c>
-      <c r="G358" s="87" t="s">
+      <c r="G358" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15803,7 +15804,7 @@
       <c r="F359" t="s">
         <v>4</v>
       </c>
-      <c r="G359" s="87" t="s">
+      <c r="G359" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15826,7 +15827,7 @@
       <c r="F360" t="s">
         <v>4</v>
       </c>
-      <c r="G360" s="87" t="s">
+      <c r="G360" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15849,7 +15850,7 @@
       <c r="F361" t="s">
         <v>4</v>
       </c>
-      <c r="G361" s="87" t="s">
+      <c r="G361" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15872,7 +15873,7 @@
       <c r="F362" t="s">
         <v>4</v>
       </c>
-      <c r="G362" s="87" t="s">
+      <c r="G362" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15895,7 +15896,7 @@
       <c r="F363" t="s">
         <v>4</v>
       </c>
-      <c r="G363" s="87" t="s">
+      <c r="G363" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15918,7 +15919,7 @@
       <c r="F364" t="s">
         <v>4</v>
       </c>
-      <c r="G364" s="87" t="s">
+      <c r="G364" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15941,7 +15942,7 @@
       <c r="F365" t="s">
         <v>4</v>
       </c>
-      <c r="G365" s="87" t="s">
+      <c r="G365" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15964,7 +15965,7 @@
       <c r="F366" t="s">
         <v>4</v>
       </c>
-      <c r="G366" s="87" t="s">
+      <c r="G366" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -15987,7 +15988,7 @@
       <c r="F367" t="s">
         <v>4</v>
       </c>
-      <c r="G367" s="87" t="s">
+      <c r="G367" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16010,7 +16011,7 @@
       <c r="F368" t="s">
         <v>4</v>
       </c>
-      <c r="G368" s="87" t="s">
+      <c r="G368" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16033,7 +16034,7 @@
       <c r="F369" t="s">
         <v>4</v>
       </c>
-      <c r="G369" s="87" t="s">
+      <c r="G369" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16056,7 +16057,7 @@
       <c r="F370" t="s">
         <v>4</v>
       </c>
-      <c r="G370" s="87" t="s">
+      <c r="G370" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16079,7 +16080,7 @@
       <c r="F371" t="s">
         <v>4</v>
       </c>
-      <c r="G371" s="87" t="s">
+      <c r="G371" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16102,7 +16103,7 @@
       <c r="F372" t="s">
         <v>4</v>
       </c>
-      <c r="G372" s="87" t="s">
+      <c r="G372" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16125,7 +16126,7 @@
       <c r="F373" t="s">
         <v>4</v>
       </c>
-      <c r="G373" s="87" t="s">
+      <c r="G373" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16148,7 +16149,7 @@
       <c r="F374" t="s">
         <v>4</v>
       </c>
-      <c r="G374" s="87" t="s">
+      <c r="G374" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16171,7 +16172,7 @@
       <c r="F375" t="s">
         <v>4</v>
       </c>
-      <c r="G375" s="87" t="s">
+      <c r="G375" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16194,7 +16195,7 @@
       <c r="F376" t="s">
         <v>4</v>
       </c>
-      <c r="G376" s="87" t="s">
+      <c r="G376" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16217,7 +16218,7 @@
       <c r="F377" t="s">
         <v>4</v>
       </c>
-      <c r="G377" s="87" t="s">
+      <c r="G377" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16240,7 +16241,7 @@
       <c r="F378" t="s">
         <v>4</v>
       </c>
-      <c r="G378" s="87" t="s">
+      <c r="G378" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16263,7 +16264,7 @@
       <c r="F379" t="s">
         <v>4</v>
       </c>
-      <c r="G379" s="87" t="s">
+      <c r="G379" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16286,7 +16287,7 @@
       <c r="F380" t="s">
         <v>4</v>
       </c>
-      <c r="G380" s="87" t="s">
+      <c r="G380" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16309,7 +16310,7 @@
       <c r="F381" t="s">
         <v>4</v>
       </c>
-      <c r="G381" s="87" t="s">
+      <c r="G381" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16332,7 +16333,7 @@
       <c r="F382" t="s">
         <v>4</v>
       </c>
-      <c r="G382" s="87" t="s">
+      <c r="G382" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16355,7 +16356,7 @@
       <c r="F383" t="s">
         <v>4</v>
       </c>
-      <c r="G383" s="87" t="s">
+      <c r="G383" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16378,7 +16379,7 @@
       <c r="F384" t="s">
         <v>4</v>
       </c>
-      <c r="G384" s="87" t="s">
+      <c r="G384" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16401,7 +16402,7 @@
       <c r="F385" t="s">
         <v>4</v>
       </c>
-      <c r="G385" s="87" t="s">
+      <c r="G385" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16424,7 +16425,7 @@
       <c r="F386" t="s">
         <v>4</v>
       </c>
-      <c r="G386" s="87" t="s">
+      <c r="G386" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16447,7 +16448,7 @@
       <c r="F387" t="s">
         <v>4</v>
       </c>
-      <c r="G387" s="87" t="s">
+      <c r="G387" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16470,7 +16471,7 @@
       <c r="F388" t="s">
         <v>4</v>
       </c>
-      <c r="G388" s="87" t="s">
+      <c r="G388" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16493,7 +16494,7 @@
       <c r="F389" t="s">
         <v>4</v>
       </c>
-      <c r="G389" s="87" t="s">
+      <c r="G389" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16516,7 +16517,7 @@
       <c r="F390" t="s">
         <v>4</v>
       </c>
-      <c r="G390" s="87" t="s">
+      <c r="G390" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16539,7 +16540,7 @@
       <c r="F391" t="s">
         <v>4</v>
       </c>
-      <c r="G391" s="87" t="s">
+      <c r="G391" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16562,7 +16563,7 @@
       <c r="F392" t="s">
         <v>4</v>
       </c>
-      <c r="G392" s="87" t="s">
+      <c r="G392" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16585,7 +16586,7 @@
       <c r="F393" t="s">
         <v>4</v>
       </c>
-      <c r="G393" s="87" t="s">
+      <c r="G393" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16608,7 +16609,7 @@
       <c r="F394" t="s">
         <v>4</v>
       </c>
-      <c r="G394" s="87" t="s">
+      <c r="G394" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16631,7 +16632,7 @@
       <c r="F395" t="s">
         <v>4</v>
       </c>
-      <c r="G395" s="87" t="s">
+      <c r="G395" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16654,7 +16655,7 @@
       <c r="F396" t="s">
         <v>4</v>
       </c>
-      <c r="G396" s="87" t="s">
+      <c r="G396" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16677,7 +16678,7 @@
       <c r="F397" t="s">
         <v>4</v>
       </c>
-      <c r="G397" s="87" t="s">
+      <c r="G397" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16700,7 +16701,7 @@
       <c r="F398" t="s">
         <v>4</v>
       </c>
-      <c r="G398" s="87" t="s">
+      <c r="G398" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16723,7 +16724,7 @@
       <c r="F399" t="s">
         <v>4</v>
       </c>
-      <c r="G399" s="87" t="s">
+      <c r="G399" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16746,7 +16747,7 @@
       <c r="F400" t="s">
         <v>4</v>
       </c>
-      <c r="G400" s="87" t="s">
+      <c r="G400" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16769,7 +16770,7 @@
       <c r="F401" t="s">
         <v>4</v>
       </c>
-      <c r="G401" s="87" t="s">
+      <c r="G401" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16792,7 +16793,7 @@
       <c r="F402" t="s">
         <v>4</v>
       </c>
-      <c r="G402" s="87" t="s">
+      <c r="G402" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16815,7 +16816,7 @@
       <c r="F403" t="s">
         <v>4</v>
       </c>
-      <c r="G403" s="87" t="s">
+      <c r="G403" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16838,7 +16839,7 @@
       <c r="F404" t="s">
         <v>4</v>
       </c>
-      <c r="G404" s="87" t="s">
+      <c r="G404" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16861,7 +16862,7 @@
       <c r="F405" t="s">
         <v>4</v>
       </c>
-      <c r="G405" s="87" t="s">
+      <c r="G405" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16884,7 +16885,7 @@
       <c r="F406" t="s">
         <v>4</v>
       </c>
-      <c r="G406" s="87" t="s">
+      <c r="G406" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16907,7 +16908,7 @@
       <c r="F407" t="s">
         <v>4</v>
       </c>
-      <c r="G407" s="87" t="s">
+      <c r="G407" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16930,7 +16931,7 @@
       <c r="F408" t="s">
         <v>4</v>
       </c>
-      <c r="G408" s="87" t="s">
+      <c r="G408" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16953,7 +16954,7 @@
       <c r="F409" t="s">
         <v>4</v>
       </c>
-      <c r="G409" s="87" t="s">
+      <c r="G409" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16976,7 +16977,7 @@
       <c r="F410" t="s">
         <v>4</v>
       </c>
-      <c r="G410" s="87" t="s">
+      <c r="G410" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -16999,7 +17000,7 @@
       <c r="F411" t="s">
         <v>4</v>
       </c>
-      <c r="G411" s="87" t="s">
+      <c r="G411" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -17022,7 +17023,7 @@
       <c r="F412" t="s">
         <v>4</v>
       </c>
-      <c r="G412" s="87" t="s">
+      <c r="G412" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -17045,7 +17046,7 @@
       <c r="F413" t="s">
         <v>4</v>
       </c>
-      <c r="G413" s="87" t="s">
+      <c r="G413" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -17068,7 +17069,7 @@
       <c r="F414" t="s">
         <v>4</v>
       </c>
-      <c r="G414" s="87" t="s">
+      <c r="G414" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -17091,7 +17092,7 @@
       <c r="F415" t="s">
         <v>4</v>
       </c>
-      <c r="G415" s="87" t="s">
+      <c r="G415" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -17114,7 +17115,7 @@
       <c r="F416" t="s">
         <v>4</v>
       </c>
-      <c r="G416" s="87" t="s">
+      <c r="G416" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -17137,7 +17138,7 @@
       <c r="F417" t="s">
         <v>4</v>
       </c>
-      <c r="G417" s="87" t="s">
+      <c r="G417" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -17160,7 +17161,7 @@
       <c r="F418" t="s">
         <v>4</v>
       </c>
-      <c r="G418" s="87" t="s">
+      <c r="G418" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -17183,7 +17184,7 @@
       <c r="F419" t="s">
         <v>4</v>
       </c>
-      <c r="G419" s="87" t="s">
+      <c r="G419" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -17206,7 +17207,7 @@
       <c r="F420" t="s">
         <v>4</v>
       </c>
-      <c r="G420" s="87" t="s">
+      <c r="G420" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -17229,7 +17230,7 @@
       <c r="F421" t="s">
         <v>4</v>
       </c>
-      <c r="G421" s="87" t="s">
+      <c r="G421" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -17252,7 +17253,7 @@
       <c r="F422" t="s">
         <v>4</v>
       </c>
-      <c r="G422" s="87" t="s">
+      <c r="G422" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -17275,7 +17276,7 @@
       <c r="F423" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G423" s="87" t="s">
+      <c r="G423" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -17299,7 +17300,7 @@
       <c r="F425" t="s">
         <v>4</v>
       </c>
-      <c r="G425" s="87" t="s">
+      <c r="G425" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17322,7 +17323,7 @@
       <c r="F426" t="s">
         <v>4</v>
       </c>
-      <c r="G426" s="87" t="s">
+      <c r="G426" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17345,7 +17346,7 @@
       <c r="F427" t="s">
         <v>4</v>
       </c>
-      <c r="G427" s="87" t="s">
+      <c r="G427" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17368,7 +17369,7 @@
       <c r="F428" t="s">
         <v>4</v>
       </c>
-      <c r="G428" s="87" t="s">
+      <c r="G428" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17391,7 +17392,7 @@
       <c r="F429" t="s">
         <v>4</v>
       </c>
-      <c r="G429" s="87" t="s">
+      <c r="G429" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17414,7 +17415,7 @@
       <c r="F430" t="s">
         <v>4</v>
       </c>
-      <c r="G430" s="87" t="s">
+      <c r="G430" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17437,7 +17438,7 @@
       <c r="F431" t="s">
         <v>4</v>
       </c>
-      <c r="G431" s="87" t="s">
+      <c r="G431" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17460,7 +17461,7 @@
       <c r="F432" t="s">
         <v>4</v>
       </c>
-      <c r="G432" s="87" t="s">
+      <c r="G432" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17483,7 +17484,7 @@
       <c r="F433" t="s">
         <v>4</v>
       </c>
-      <c r="G433" s="87" t="s">
+      <c r="G433" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17506,7 +17507,7 @@
       <c r="F434" t="s">
         <v>4</v>
       </c>
-      <c r="G434" s="87" t="s">
+      <c r="G434" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17529,7 +17530,7 @@
       <c r="F435" t="s">
         <v>4</v>
       </c>
-      <c r="G435" s="87" t="s">
+      <c r="G435" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17552,7 +17553,7 @@
       <c r="F436" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G436" s="87" t="s">
+      <c r="G436" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17575,7 +17576,7 @@
       <c r="F437" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G437" s="87" t="s">
+      <c r="G437" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17598,7 +17599,7 @@
       <c r="F438" t="s">
         <v>4</v>
       </c>
-      <c r="G438" s="87" t="s">
+      <c r="G438" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17621,7 +17622,7 @@
       <c r="F439" t="s">
         <v>4</v>
       </c>
-      <c r="G439" s="87" t="s">
+      <c r="G439" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17644,7 +17645,7 @@
       <c r="F440" t="s">
         <v>4</v>
       </c>
-      <c r="G440" s="87" t="s">
+      <c r="G440" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17667,7 +17668,7 @@
       <c r="F441" t="s">
         <v>4</v>
       </c>
-      <c r="G441" s="87" t="s">
+      <c r="G441" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17690,7 +17691,7 @@
       <c r="F442" t="s">
         <v>4</v>
       </c>
-      <c r="G442" s="87" t="s">
+      <c r="G442" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17713,7 +17714,7 @@
       <c r="F443" t="s">
         <v>4</v>
       </c>
-      <c r="G443" s="87" t="s">
+      <c r="G443" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17736,7 +17737,7 @@
       <c r="F444" t="s">
         <v>4</v>
       </c>
-      <c r="G444" s="87" t="s">
+      <c r="G444" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17759,7 +17760,7 @@
       <c r="F445" t="s">
         <v>4</v>
       </c>
-      <c r="G445" s="87" t="s">
+      <c r="G445" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17782,7 +17783,7 @@
       <c r="F446" t="s">
         <v>4</v>
       </c>
-      <c r="G446" s="87" t="s">
+      <c r="G446" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17805,7 +17806,7 @@
       <c r="F447" t="s">
         <v>4</v>
       </c>
-      <c r="G447" s="87" t="s">
+      <c r="G447" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17828,7 +17829,7 @@
       <c r="F448" t="s">
         <v>4</v>
       </c>
-      <c r="G448" s="87" t="s">
+      <c r="G448" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17851,7 +17852,7 @@
       <c r="F449" t="s">
         <v>4</v>
       </c>
-      <c r="G449" s="87" t="s">
+      <c r="G449" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17871,7 +17872,7 @@
       <c r="F450" t="s">
         <v>4</v>
       </c>
-      <c r="G450" s="87" t="s">
+      <c r="G450" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17894,7 +17895,7 @@
       <c r="F451" t="s">
         <v>4</v>
       </c>
-      <c r="G451" s="87" t="s">
+      <c r="G451" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17917,7 +17918,7 @@
       <c r="F452" t="s">
         <v>4</v>
       </c>
-      <c r="G452" s="87" t="s">
+      <c r="G452" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17940,7 +17941,7 @@
       <c r="F453" t="s">
         <v>4</v>
       </c>
-      <c r="G453" s="87" t="s">
+      <c r="G453" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17963,7 +17964,7 @@
       <c r="F454" t="s">
         <v>4</v>
       </c>
-      <c r="G454" s="87" t="s">
+      <c r="G454" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -17986,7 +17987,7 @@
       <c r="F455" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G455" s="87" t="s">
+      <c r="G455" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -18009,7 +18010,7 @@
       <c r="F456" t="s">
         <v>1429</v>
       </c>
-      <c r="G456" s="87" t="s">
+      <c r="G456" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -18041,7 +18042,7 @@
     <col min="4" max="4" width="53.5" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="90" customWidth="1"/>
+    <col min="7" max="7" width="16" style="88" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -26060,7 +26061,7 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26083,7 +26084,7 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26106,7 +26107,7 @@
       <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26129,7 +26130,7 @@
       <c r="F5" t="s">
         <v>1976</v>
       </c>
-      <c r="G5" s="89" t="s">
+      <c r="G5" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26152,7 +26153,7 @@
       <c r="F6" t="s">
         <v>1415</v>
       </c>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26175,7 +26176,7 @@
       <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26198,7 +26199,7 @@
       <c r="F8" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="89" t="s">
+      <c r="G8" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26221,7 +26222,7 @@
       <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="89" t="s">
+      <c r="G9" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26244,7 +26245,7 @@
       <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="89" t="s">
+      <c r="G10" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26267,7 +26268,7 @@
       <c r="F11" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="89" t="s">
+      <c r="G11" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26290,7 +26291,7 @@
       <c r="F12" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="89" t="s">
+      <c r="G12" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26313,7 +26314,7 @@
       <c r="F13" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="89" t="s">
+      <c r="G13" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26336,7 +26337,7 @@
       <c r="F14" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="89" t="s">
+      <c r="G14" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26359,7 +26360,7 @@
       <c r="F15" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="89" t="s">
+      <c r="G15" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26382,7 +26383,7 @@
       <c r="F16" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="89" t="s">
+      <c r="G16" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26405,7 +26406,7 @@
       <c r="F17" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="89" t="s">
+      <c r="G17" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26428,7 +26429,7 @@
       <c r="F18" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="89" t="s">
+      <c r="G18" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26451,7 +26452,7 @@
       <c r="F19" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="89" t="s">
+      <c r="G19" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26474,7 +26475,7 @@
       <c r="F20" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="89" t="s">
+      <c r="G20" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26497,7 +26498,7 @@
       <c r="F21" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="89" t="s">
+      <c r="G21" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26520,7 +26521,7 @@
       <c r="F22" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="89" t="s">
+      <c r="G22" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26543,7 +26544,7 @@
       <c r="F23" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="89" t="s">
+      <c r="G23" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26566,7 +26567,7 @@
       <c r="F24" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="89" t="s">
+      <c r="G24" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26589,7 +26590,7 @@
       <c r="F25" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="89" t="s">
+      <c r="G25" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26612,7 +26613,7 @@
       <c r="F26" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="89" t="s">
+      <c r="G26" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26635,7 +26636,7 @@
       <c r="F27" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="89" t="s">
+      <c r="G27" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26658,7 +26659,7 @@
       <c r="F28" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="89" t="s">
+      <c r="G28" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26681,7 +26682,7 @@
       <c r="F29" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="89" t="s">
+      <c r="G29" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26704,7 +26705,7 @@
       <c r="F30" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="89" t="s">
+      <c r="G30" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26727,7 +26728,7 @@
       <c r="F31" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="89" t="s">
+      <c r="G31" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26750,7 +26751,7 @@
       <c r="F32" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="89" t="s">
+      <c r="G32" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26773,7 +26774,7 @@
       <c r="F33" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="89" t="s">
+      <c r="G33" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26796,7 +26797,7 @@
       <c r="F34" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="89" t="s">
+      <c r="G34" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26819,7 +26820,7 @@
       <c r="F35" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="89" t="s">
+      <c r="G35" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26842,7 +26843,7 @@
       <c r="F36" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="89" t="s">
+      <c r="G36" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26865,7 +26866,7 @@
       <c r="F37" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="89" t="s">
+      <c r="G37" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26888,7 +26889,7 @@
       <c r="F38" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="89" t="s">
+      <c r="G38" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26911,7 +26912,7 @@
       <c r="F39" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="89" t="s">
+      <c r="G39" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26934,7 +26935,7 @@
       <c r="F40" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="89" t="s">
+      <c r="G40" s="87" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26957,7 +26958,7 @@
       <c r="F41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="88" t="s">
+      <c r="G41" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -26980,7 +26981,7 @@
       <c r="F42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="88" t="s">
+      <c r="G42" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27003,7 +27004,7 @@
       <c r="F43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="88" t="s">
+      <c r="G43" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27026,7 +27027,7 @@
       <c r="F44" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="88" t="s">
+      <c r="G44" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27049,7 +27050,7 @@
       <c r="F45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="88" t="s">
+      <c r="G45" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27072,7 +27073,7 @@
       <c r="F46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="88" t="s">
+      <c r="G46" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27095,7 +27096,7 @@
       <c r="F47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="88" t="s">
+      <c r="G47" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27118,7 +27119,7 @@
       <c r="F48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="88" t="s">
+      <c r="G48" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27141,7 +27142,7 @@
       <c r="F49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="88" t="s">
+      <c r="G49" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27164,7 +27165,7 @@
       <c r="F50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="88" t="s">
+      <c r="G50" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27187,7 +27188,7 @@
       <c r="F51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="88" t="s">
+      <c r="G51" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27210,7 +27211,7 @@
       <c r="F52" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="88" t="s">
+      <c r="G52" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27233,7 +27234,7 @@
       <c r="F53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="88" t="s">
+      <c r="G53" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27256,7 +27257,7 @@
       <c r="F54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G54" s="88" t="s">
+      <c r="G54" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27279,7 +27280,7 @@
       <c r="F55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G55" s="88" t="s">
+      <c r="G55" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27302,7 +27303,7 @@
       <c r="F56" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="88" t="s">
+      <c r="G56" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27325,7 +27326,7 @@
       <c r="F57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="88" t="s">
+      <c r="G57" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27348,7 +27349,7 @@
       <c r="F58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="88" t="s">
+      <c r="G58" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27371,7 +27372,7 @@
       <c r="F59" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="88" t="s">
+      <c r="G59" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27394,7 +27395,7 @@
       <c r="F60" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G60" s="88" t="s">
+      <c r="G60" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27417,7 +27418,7 @@
       <c r="F61" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G61" s="88" t="s">
+      <c r="G61" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27440,7 +27441,7 @@
       <c r="F62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="88" t="s">
+      <c r="G62" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27463,7 +27464,7 @@
       <c r="F63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="88" t="s">
+      <c r="G63" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27486,7 +27487,7 @@
       <c r="F64" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G64" s="88" t="s">
+      <c r="G64" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27509,7 +27510,7 @@
       <c r="F65" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="88" t="s">
+      <c r="G65" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27532,7 +27533,7 @@
       <c r="F66" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G66" s="88" t="s">
+      <c r="G66" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27555,7 +27556,7 @@
       <c r="F67" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G67" s="88" t="s">
+      <c r="G67" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27578,7 +27579,7 @@
       <c r="F68" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G68" s="88" t="s">
+      <c r="G68" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27601,7 +27602,7 @@
       <c r="F69" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="88" t="s">
+      <c r="G69" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27624,7 +27625,7 @@
       <c r="F70" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G70" s="88" t="s">
+      <c r="G70" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27647,7 +27648,7 @@
       <c r="F71" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G71" s="88" t="s">
+      <c r="G71" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27670,7 +27671,7 @@
       <c r="F72" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="88" t="s">
+      <c r="G72" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27693,7 +27694,7 @@
       <c r="F73" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G73" s="88" t="s">
+      <c r="G73" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27716,7 +27717,7 @@
       <c r="F74" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="88" t="s">
+      <c r="G74" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27739,7 +27740,7 @@
       <c r="F75" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G75" s="88" t="s">
+      <c r="G75" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27762,7 +27763,7 @@
       <c r="F76" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G76" s="88" t="s">
+      <c r="G76" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27785,7 +27786,7 @@
       <c r="F77" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G77" s="88" t="s">
+      <c r="G77" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27808,7 +27809,7 @@
       <c r="F78" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G78" s="88" t="s">
+      <c r="G78" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27831,7 +27832,7 @@
       <c r="F79" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G79" s="88" t="s">
+      <c r="G79" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27854,7 +27855,7 @@
       <c r="F80" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G80" s="88" t="s">
+      <c r="G80" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27877,7 +27878,7 @@
       <c r="F81" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G81" s="88" t="s">
+      <c r="G81" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27900,7 +27901,7 @@
       <c r="F82" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G82" s="88" t="s">
+      <c r="G82" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27923,7 +27924,7 @@
       <c r="F83" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G83" s="88" t="s">
+      <c r="G83" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27946,7 +27947,7 @@
       <c r="F84" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G84" s="88" t="s">
+      <c r="G84" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27969,7 +27970,7 @@
       <c r="F85" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G85" s="88" t="s">
+      <c r="G85" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -27992,7 +27993,7 @@
       <c r="F86" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G86" s="88" t="s">
+      <c r="G86" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28015,7 +28016,7 @@
       <c r="F87" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G87" s="88" t="s">
+      <c r="G87" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28038,7 +28039,7 @@
       <c r="F88" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G88" s="88" t="s">
+      <c r="G88" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28061,7 +28062,7 @@
       <c r="F89" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G89" s="88" t="s">
+      <c r="G89" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28084,7 +28085,7 @@
       <c r="F90" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G90" s="88" t="s">
+      <c r="G90" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28107,7 +28108,7 @@
       <c r="F91" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G91" s="88" t="s">
+      <c r="G91" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28130,7 +28131,7 @@
       <c r="F92" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G92" s="88" t="s">
+      <c r="G92" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28153,7 +28154,7 @@
       <c r="F93" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G93" s="88" t="s">
+      <c r="G93" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28176,7 +28177,7 @@
       <c r="F94" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G94" s="88" t="s">
+      <c r="G94" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28199,7 +28200,7 @@
       <c r="F95" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G95" s="88" t="s">
+      <c r="G95" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28222,7 +28223,7 @@
       <c r="F96" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G96" s="88" t="s">
+      <c r="G96" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28245,7 +28246,7 @@
       <c r="F97" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G97" s="88" t="s">
+      <c r="G97" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28268,7 +28269,7 @@
       <c r="F98" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G98" s="88" t="s">
+      <c r="G98" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28291,7 +28292,7 @@
       <c r="F99" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="88" t="s">
+      <c r="G99" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28314,7 +28315,7 @@
       <c r="F100" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="88" t="s">
+      <c r="G100" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28337,7 +28338,7 @@
       <c r="F101" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="88" t="s">
+      <c r="G101" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28360,7 +28361,7 @@
       <c r="F102" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G102" s="88" t="s">
+      <c r="G102" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28383,7 +28384,7 @@
       <c r="F103" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G103" s="88" t="s">
+      <c r="G103" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28406,7 +28407,7 @@
       <c r="F104" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G104" s="88" t="s">
+      <c r="G104" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28429,7 +28430,7 @@
       <c r="F105" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G105" s="88" t="s">
+      <c r="G105" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28452,7 +28453,7 @@
       <c r="F106" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G106" s="88" t="s">
+      <c r="G106" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28475,7 +28476,7 @@
       <c r="F107" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G107" s="88" t="s">
+      <c r="G107" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28498,7 +28499,7 @@
       <c r="F108" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G108" s="88" t="s">
+      <c r="G108" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28521,7 +28522,7 @@
       <c r="F109" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G109" s="88" t="s">
+      <c r="G109" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28544,7 +28545,7 @@
       <c r="F110" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G110" s="88" t="s">
+      <c r="G110" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28567,7 +28568,7 @@
       <c r="F111" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G111" s="88" t="s">
+      <c r="G111" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28590,7 +28591,7 @@
       <c r="F112" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G112" s="88" t="s">
+      <c r="G112" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28613,7 +28614,7 @@
       <c r="F113" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G113" s="88" t="s">
+      <c r="G113" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28636,7 +28637,7 @@
       <c r="F114" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G114" s="88" t="s">
+      <c r="G114" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28659,7 +28660,7 @@
       <c r="F115" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G115" s="88" t="s">
+      <c r="G115" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28682,7 +28683,7 @@
       <c r="F116" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G116" s="88" t="s">
+      <c r="G116" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28705,7 +28706,7 @@
       <c r="F117" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G117" s="88" t="s">
+      <c r="G117" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28728,7 +28729,7 @@
       <c r="F118" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G118" s="88" t="s">
+      <c r="G118" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28751,7 +28752,7 @@
       <c r="F119" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G119" s="88" t="s">
+      <c r="G119" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28774,7 +28775,7 @@
       <c r="F120" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G120" s="88" t="s">
+      <c r="G120" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28797,7 +28798,7 @@
       <c r="F121" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G121" s="88" t="s">
+      <c r="G121" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28820,7 +28821,7 @@
       <c r="F122" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G122" s="88" t="s">
+      <c r="G122" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28843,7 +28844,7 @@
       <c r="F123" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G123" s="88" t="s">
+      <c r="G123" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28866,7 +28867,7 @@
       <c r="F124" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G124" s="88" t="s">
+      <c r="G124" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28889,7 +28890,7 @@
       <c r="F125" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G125" s="88" t="s">
+      <c r="G125" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28912,7 +28913,7 @@
       <c r="F126" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G126" s="88" t="s">
+      <c r="G126" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28935,7 +28936,7 @@
       <c r="F127" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G127" s="88" t="s">
+      <c r="G127" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28958,7 +28959,7 @@
       <c r="F128" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G128" s="88" t="s">
+      <c r="G128" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -28981,7 +28982,7 @@
       <c r="F129" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G129" s="88" t="s">
+      <c r="G129" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29004,7 +29005,7 @@
       <c r="F130" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G130" s="88" t="s">
+      <c r="G130" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29027,7 +29028,7 @@
       <c r="F131" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G131" s="88" t="s">
+      <c r="G131" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29050,7 +29051,7 @@
       <c r="F132" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G132" s="88" t="s">
+      <c r="G132" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29073,7 +29074,7 @@
       <c r="F133" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G133" s="88" t="s">
+      <c r="G133" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29096,7 +29097,7 @@
       <c r="F134" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G134" s="88" t="s">
+      <c r="G134" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29119,7 +29120,7 @@
       <c r="F135" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G135" s="88" t="s">
+      <c r="G135" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29142,7 +29143,7 @@
       <c r="F136" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G136" s="88" t="s">
+      <c r="G136" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29165,7 +29166,7 @@
       <c r="F137" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G137" s="88" t="s">
+      <c r="G137" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29188,7 +29189,7 @@
       <c r="F138" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G138" s="88" t="s">
+      <c r="G138" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29211,7 +29212,7 @@
       <c r="F139" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G139" s="88" t="s">
+      <c r="G139" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29234,7 +29235,7 @@
       <c r="F140" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G140" s="88" t="s">
+      <c r="G140" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29257,7 +29258,7 @@
       <c r="F141" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G141" s="88" t="s">
+      <c r="G141" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29280,7 +29281,7 @@
       <c r="F142" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G142" s="88" t="s">
+      <c r="G142" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29303,7 +29304,7 @@
       <c r="F143" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G143" s="88" t="s">
+      <c r="G143" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29326,7 +29327,7 @@
       <c r="F144" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G144" s="88" t="s">
+      <c r="G144" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29349,7 +29350,7 @@
       <c r="F145" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G145" s="88" t="s">
+      <c r="G145" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29372,7 +29373,7 @@
       <c r="F146" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G146" s="88" t="s">
+      <c r="G146" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29395,7 +29396,7 @@
       <c r="F147" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G147" s="88" t="s">
+      <c r="G147" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29418,7 +29419,7 @@
       <c r="F148" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G148" s="88" t="s">
+      <c r="G148" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29441,7 +29442,7 @@
       <c r="F149" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G149" s="88" t="s">
+      <c r="G149" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29464,7 +29465,7 @@
       <c r="F150" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G150" s="88" t="s">
+      <c r="G150" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29487,7 +29488,7 @@
       <c r="F151" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G151" s="88" t="s">
+      <c r="G151" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29510,7 +29511,7 @@
       <c r="F152" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G152" s="88" t="s">
+      <c r="G152" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29533,7 +29534,7 @@
       <c r="F153" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G153" s="88" t="s">
+      <c r="G153" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29556,7 +29557,7 @@
       <c r="F154" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G154" s="88" t="s">
+      <c r="G154" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29579,7 +29580,7 @@
       <c r="F155" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G155" s="88" t="s">
+      <c r="G155" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29602,7 +29603,7 @@
       <c r="F156" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G156" s="88" t="s">
+      <c r="G156" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29625,7 +29626,7 @@
       <c r="F157" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G157" s="88" t="s">
+      <c r="G157" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29648,7 +29649,7 @@
       <c r="F158" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G158" s="88" t="s">
+      <c r="G158" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29671,7 +29672,7 @@
       <c r="F159" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G159" s="88" t="s">
+      <c r="G159" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29694,7 +29695,7 @@
       <c r="F160" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G160" s="88" t="s">
+      <c r="G160" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29717,7 +29718,7 @@
       <c r="F161" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G161" s="88" t="s">
+      <c r="G161" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29740,7 +29741,7 @@
       <c r="F162" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G162" s="88" t="s">
+      <c r="G162" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29763,7 +29764,7 @@
       <c r="F163" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G163" s="88" t="s">
+      <c r="G163" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29786,7 +29787,7 @@
       <c r="F164" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G164" s="88" t="s">
+      <c r="G164" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29809,7 +29810,7 @@
       <c r="F165" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G165" s="88" t="s">
+      <c r="G165" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29832,7 +29833,7 @@
       <c r="F166" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G166" s="88" t="s">
+      <c r="G166" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29855,7 +29856,7 @@
       <c r="F167" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G167" s="88" t="s">
+      <c r="G167" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29878,7 +29879,7 @@
       <c r="F168" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G168" s="88" t="s">
+      <c r="G168" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29901,7 +29902,7 @@
       <c r="F169" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G169" s="88" t="s">
+      <c r="G169" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29924,7 +29925,7 @@
       <c r="F170" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G170" s="88" t="s">
+      <c r="G170" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29947,7 +29948,7 @@
       <c r="F171" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G171" s="88" t="s">
+      <c r="G171" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29970,7 +29971,7 @@
       <c r="F172" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G172" s="88" t="s">
+      <c r="G172" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -29993,7 +29994,7 @@
       <c r="F173" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G173" s="88" t="s">
+      <c r="G173" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30016,7 +30017,7 @@
       <c r="F174" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G174" s="88" t="s">
+      <c r="G174" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30039,7 +30040,7 @@
       <c r="F175" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G175" s="88" t="s">
+      <c r="G175" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30062,7 +30063,7 @@
       <c r="F176" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G176" s="88" t="s">
+      <c r="G176" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30085,7 +30086,7 @@
       <c r="F177" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G177" s="88" t="s">
+      <c r="G177" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30108,7 +30109,7 @@
       <c r="F178" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G178" s="88" t="s">
+      <c r="G178" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30131,7 +30132,7 @@
       <c r="F179" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G179" s="88" t="s">
+      <c r="G179" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30154,7 +30155,7 @@
       <c r="F180" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G180" s="88" t="s">
+      <c r="G180" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30177,7 +30178,7 @@
       <c r="F181" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G181" s="88" t="s">
+      <c r="G181" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30200,7 +30201,7 @@
       <c r="F182" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G182" s="88" t="s">
+      <c r="G182" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30223,7 +30224,7 @@
       <c r="F183" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G183" s="88" t="s">
+      <c r="G183" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30246,7 +30247,7 @@
       <c r="F184" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G184" s="88" t="s">
+      <c r="G184" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30269,7 +30270,7 @@
       <c r="F185" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G185" s="88" t="s">
+      <c r="G185" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30292,7 +30293,7 @@
       <c r="F186" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G186" s="88" t="s">
+      <c r="G186" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30315,7 +30316,7 @@
       <c r="F187" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G187" s="88" t="s">
+      <c r="G187" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30338,7 +30339,7 @@
       <c r="F188" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G188" s="88" t="s">
+      <c r="G188" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30361,7 +30362,7 @@
       <c r="F189" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G189" s="88" t="s">
+      <c r="G189" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30384,7 +30385,7 @@
       <c r="F190" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G190" s="88" t="s">
+      <c r="G190" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30407,7 +30408,7 @@
       <c r="F191" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G191" s="88" t="s">
+      <c r="G191" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30430,7 +30431,7 @@
       <c r="F192" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G192" s="88" t="s">
+      <c r="G192" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30453,7 +30454,7 @@
       <c r="F193" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G193" s="88" t="s">
+      <c r="G193" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30476,7 +30477,7 @@
       <c r="F194" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G194" s="88" t="s">
+      <c r="G194" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30499,7 +30500,7 @@
       <c r="F195" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G195" s="88" t="s">
+      <c r="G195" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30522,7 +30523,7 @@
       <c r="F196" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G196" s="88" t="s">
+      <c r="G196" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30545,7 +30546,7 @@
       <c r="F197" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G197" s="88" t="s">
+      <c r="G197" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30568,7 +30569,7 @@
       <c r="F198" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G198" s="88" t="s">
+      <c r="G198" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30591,7 +30592,7 @@
       <c r="F199" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G199" s="88" t="s">
+      <c r="G199" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30614,7 +30615,7 @@
       <c r="F200" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G200" s="88" t="s">
+      <c r="G200" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30637,7 +30638,7 @@
       <c r="F201" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G201" s="88" t="s">
+      <c r="G201" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30660,7 +30661,7 @@
       <c r="F202" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G202" s="88" t="s">
+      <c r="G202" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30683,7 +30684,7 @@
       <c r="F203" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G203" s="88" t="s">
+      <c r="G203" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30706,7 +30707,7 @@
       <c r="F204" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G204" s="88" t="s">
+      <c r="G204" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30729,7 +30730,7 @@
       <c r="F205" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G205" s="88" t="s">
+      <c r="G205" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30752,7 +30753,7 @@
       <c r="F206" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G206" s="88" t="s">
+      <c r="G206" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30775,7 +30776,7 @@
       <c r="F207" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G207" s="88" t="s">
+      <c r="G207" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30798,7 +30799,7 @@
       <c r="F208" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G208" s="88" t="s">
+      <c r="G208" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30821,7 +30822,7 @@
       <c r="F209" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G209" s="88" t="s">
+      <c r="G209" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30844,7 +30845,7 @@
       <c r="F210" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G210" s="88" t="s">
+      <c r="G210" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30867,7 +30868,7 @@
       <c r="F211" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G211" s="88" t="s">
+      <c r="G211" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30890,7 +30891,7 @@
       <c r="F212" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G212" s="88" t="s">
+      <c r="G212" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30913,7 +30914,7 @@
       <c r="F213" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G213" s="88" t="s">
+      <c r="G213" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30936,7 +30937,7 @@
       <c r="F214" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G214" s="88" t="s">
+      <c r="G214" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30959,7 +30960,7 @@
       <c r="F215" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G215" s="88" t="s">
+      <c r="G215" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -30982,7 +30983,7 @@
       <c r="F216" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G216" s="88" t="s">
+      <c r="G216" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31005,7 +31006,7 @@
       <c r="F217" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G217" s="88" t="s">
+      <c r="G217" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31028,7 +31029,7 @@
       <c r="F218" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G218" s="88" t="s">
+      <c r="G218" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31051,7 +31052,7 @@
       <c r="F219" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G219" s="88" t="s">
+      <c r="G219" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31074,7 +31075,7 @@
       <c r="F220" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G220" s="88" t="s">
+      <c r="G220" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31097,7 +31098,7 @@
       <c r="F221" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G221" s="88" t="s">
+      <c r="G221" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31120,7 +31121,7 @@
       <c r="F222" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G222" s="88" t="s">
+      <c r="G222" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31143,7 +31144,7 @@
       <c r="F223" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G223" s="88" t="s">
+      <c r="G223" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31166,7 +31167,7 @@
       <c r="F224" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G224" s="88" t="s">
+      <c r="G224" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31189,7 +31190,7 @@
       <c r="F225" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G225" s="88" t="s">
+      <c r="G225" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31212,7 +31213,7 @@
       <c r="F226" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G226" s="88" t="s">
+      <c r="G226" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31235,7 +31236,7 @@
       <c r="F227" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G227" s="88" t="s">
+      <c r="G227" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31258,7 +31259,7 @@
       <c r="F228" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G228" s="88" t="s">
+      <c r="G228" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31281,7 +31282,7 @@
       <c r="F229" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G229" s="88" t="s">
+      <c r="G229" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31304,7 +31305,7 @@
       <c r="F230" s="4" t="s">
         <v>1975</v>
       </c>
-      <c r="G230" s="88" t="s">
+      <c r="G230" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31327,7 +31328,7 @@
       <c r="F231" t="s">
         <v>4</v>
       </c>
-      <c r="G231" s="88" t="s">
+      <c r="G231" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31350,7 +31351,7 @@
       <c r="F232" t="s">
         <v>4</v>
       </c>
-      <c r="G232" s="88" t="s">
+      <c r="G232" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31373,7 +31374,7 @@
       <c r="F233" t="s">
         <v>4</v>
       </c>
-      <c r="G233" s="88" t="s">
+      <c r="G233" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31396,7 +31397,7 @@
       <c r="F234" t="s">
         <v>4</v>
       </c>
-      <c r="G234" s="88" t="s">
+      <c r="G234" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31419,7 +31420,7 @@
       <c r="F235" t="s">
         <v>4</v>
       </c>
-      <c r="G235" s="88" t="s">
+      <c r="G235" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31442,7 +31443,7 @@
       <c r="F236" t="s">
         <v>4</v>
       </c>
-      <c r="G236" s="88" t="s">
+      <c r="G236" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31465,7 +31466,7 @@
       <c r="F237" t="s">
         <v>4</v>
       </c>
-      <c r="G237" s="88" t="s">
+      <c r="G237" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31488,7 +31489,7 @@
       <c r="F238" t="s">
         <v>4</v>
       </c>
-      <c r="G238" s="88" t="s">
+      <c r="G238" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31511,7 +31512,7 @@
       <c r="F239" t="s">
         <v>4</v>
       </c>
-      <c r="G239" s="88" t="s">
+      <c r="G239" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31534,7 +31535,7 @@
       <c r="F240" t="s">
         <v>4</v>
       </c>
-      <c r="G240" s="88" t="s">
+      <c r="G240" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31557,7 +31558,7 @@
       <c r="F241" t="s">
         <v>4</v>
       </c>
-      <c r="G241" s="88" t="s">
+      <c r="G241" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31580,7 +31581,7 @@
       <c r="F242" t="s">
         <v>4</v>
       </c>
-      <c r="G242" s="88" t="s">
+      <c r="G242" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31603,7 +31604,7 @@
       <c r="F243" t="s">
         <v>4</v>
       </c>
-      <c r="G243" s="88" t="s">
+      <c r="G243" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31626,7 +31627,7 @@
       <c r="F244" t="s">
         <v>4</v>
       </c>
-      <c r="G244" s="88" t="s">
+      <c r="G244" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31649,7 +31650,7 @@
       <c r="F245" t="s">
         <v>4</v>
       </c>
-      <c r="G245" s="88" t="s">
+      <c r="G245" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31672,7 +31673,7 @@
       <c r="F246" t="s">
         <v>4</v>
       </c>
-      <c r="G246" s="88" t="s">
+      <c r="G246" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31695,7 +31696,7 @@
       <c r="F247" t="s">
         <v>4</v>
       </c>
-      <c r="G247" s="88" t="s">
+      <c r="G247" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31718,7 +31719,7 @@
       <c r="F248" t="s">
         <v>4</v>
       </c>
-      <c r="G248" s="88" t="s">
+      <c r="G248" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31741,7 +31742,7 @@
       <c r="F249" t="s">
         <v>4</v>
       </c>
-      <c r="G249" s="88" t="s">
+      <c r="G249" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31764,7 +31765,7 @@
       <c r="F250" t="s">
         <v>4</v>
       </c>
-      <c r="G250" s="88" t="s">
+      <c r="G250" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31787,7 +31788,7 @@
       <c r="F251" t="s">
         <v>4</v>
       </c>
-      <c r="G251" s="88" t="s">
+      <c r="G251" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31810,7 +31811,7 @@
       <c r="F252" t="s">
         <v>4</v>
       </c>
-      <c r="G252" s="88" t="s">
+      <c r="G252" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31833,7 +31834,7 @@
       <c r="F253" t="s">
         <v>4</v>
       </c>
-      <c r="G253" s="88" t="s">
+      <c r="G253" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31856,7 +31857,7 @@
       <c r="F254" t="s">
         <v>4</v>
       </c>
-      <c r="G254" s="88" t="s">
+      <c r="G254" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31879,7 +31880,7 @@
       <c r="F255" t="s">
         <v>4</v>
       </c>
-      <c r="G255" s="88" t="s">
+      <c r="G255" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31902,7 +31903,7 @@
       <c r="F256" t="s">
         <v>4</v>
       </c>
-      <c r="G256" s="88" t="s">
+      <c r="G256" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31925,7 +31926,7 @@
       <c r="F257" t="s">
         <v>4</v>
       </c>
-      <c r="G257" s="88" t="s">
+      <c r="G257" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31948,7 +31949,7 @@
       <c r="F258" t="s">
         <v>4</v>
       </c>
-      <c r="G258" s="88" t="s">
+      <c r="G258" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31971,7 +31972,7 @@
       <c r="F259" t="s">
         <v>4</v>
       </c>
-      <c r="G259" s="88" t="s">
+      <c r="G259" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -31994,7 +31995,7 @@
       <c r="F260" t="s">
         <v>4</v>
       </c>
-      <c r="G260" s="88" t="s">
+      <c r="G260" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32017,7 +32018,7 @@
       <c r="F261" t="s">
         <v>4</v>
       </c>
-      <c r="G261" s="88" t="s">
+      <c r="G261" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32040,7 +32041,7 @@
       <c r="F262" t="s">
         <v>4</v>
       </c>
-      <c r="G262" s="88" t="s">
+      <c r="G262" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32063,7 +32064,7 @@
       <c r="F263" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G263" s="88" t="s">
+      <c r="G263" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32086,7 +32087,7 @@
       <c r="F264" t="s">
         <v>4</v>
       </c>
-      <c r="G264" s="88" t="s">
+      <c r="G264" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32109,7 +32110,7 @@
       <c r="F265" s="4" t="s">
         <v>1975</v>
       </c>
-      <c r="G265" s="88" t="s">
+      <c r="G265" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32132,7 +32133,7 @@
       <c r="F266" t="s">
         <v>4</v>
       </c>
-      <c r="G266" s="88" t="s">
+      <c r="G266" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32155,7 +32156,7 @@
       <c r="F267" t="s">
         <v>4</v>
       </c>
-      <c r="G267" s="88" t="s">
+      <c r="G267" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32178,7 +32179,7 @@
       <c r="F268" t="s">
         <v>4</v>
       </c>
-      <c r="G268" s="88" t="s">
+      <c r="G268" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32201,7 +32202,7 @@
       <c r="F269" t="s">
         <v>4</v>
       </c>
-      <c r="G269" s="88" t="s">
+      <c r="G269" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32224,7 +32225,7 @@
       <c r="F270" t="s">
         <v>4</v>
       </c>
-      <c r="G270" s="88" t="s">
+      <c r="G270" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32247,7 +32248,7 @@
       <c r="F271" t="s">
         <v>4</v>
       </c>
-      <c r="G271" s="88" t="s">
+      <c r="G271" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32270,7 +32271,7 @@
       <c r="F272" t="s">
         <v>4</v>
       </c>
-      <c r="G272" s="88" t="s">
+      <c r="G272" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32293,7 +32294,7 @@
       <c r="F273" t="s">
         <v>4</v>
       </c>
-      <c r="G273" s="88" t="s">
+      <c r="G273" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32316,7 +32317,7 @@
       <c r="F274" t="s">
         <v>4</v>
       </c>
-      <c r="G274" s="88" t="s">
+      <c r="G274" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32339,7 +32340,7 @@
       <c r="F275" t="s">
         <v>4</v>
       </c>
-      <c r="G275" s="88" t="s">
+      <c r="G275" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32362,7 +32363,7 @@
       <c r="F276" t="s">
         <v>4</v>
       </c>
-      <c r="G276" s="88" t="s">
+      <c r="G276" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32385,7 +32386,7 @@
       <c r="F277" t="s">
         <v>4</v>
       </c>
-      <c r="G277" s="88" t="s">
+      <c r="G277" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32408,7 +32409,7 @@
       <c r="F278" t="s">
         <v>4</v>
       </c>
-      <c r="G278" s="88" t="s">
+      <c r="G278" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32431,7 +32432,7 @@
       <c r="F279" t="s">
         <v>4</v>
       </c>
-      <c r="G279" s="88" t="s">
+      <c r="G279" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32454,7 +32455,7 @@
       <c r="F280" t="s">
         <v>4</v>
       </c>
-      <c r="G280" s="88" t="s">
+      <c r="G280" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32477,7 +32478,7 @@
       <c r="F281" t="s">
         <v>4</v>
       </c>
-      <c r="G281" s="88" t="s">
+      <c r="G281" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32500,7 +32501,7 @@
       <c r="F282" t="s">
         <v>4</v>
       </c>
-      <c r="G282" s="88" t="s">
+      <c r="G282" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32523,7 +32524,7 @@
       <c r="F283" t="s">
         <v>4</v>
       </c>
-      <c r="G283" s="88" t="s">
+      <c r="G283" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32546,7 +32547,7 @@
       <c r="F284" t="s">
         <v>4</v>
       </c>
-      <c r="G284" s="88" t="s">
+      <c r="G284" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32569,7 +32570,7 @@
       <c r="F285" t="s">
         <v>4</v>
       </c>
-      <c r="G285" s="88" t="s">
+      <c r="G285" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32592,7 +32593,7 @@
       <c r="F286" t="s">
         <v>4</v>
       </c>
-      <c r="G286" s="88" t="s">
+      <c r="G286" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32615,7 +32616,7 @@
       <c r="F287" t="s">
         <v>4</v>
       </c>
-      <c r="G287" s="88" t="s">
+      <c r="G287" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32638,7 +32639,7 @@
       <c r="F288" t="s">
         <v>4</v>
       </c>
-      <c r="G288" s="88" t="s">
+      <c r="G288" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32661,7 +32662,7 @@
       <c r="F289" t="s">
         <v>4</v>
       </c>
-      <c r="G289" s="88" t="s">
+      <c r="G289" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32684,7 +32685,7 @@
       <c r="F290" t="s">
         <v>4</v>
       </c>
-      <c r="G290" s="88" t="s">
+      <c r="G290" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32707,7 +32708,7 @@
       <c r="F291" t="s">
         <v>4</v>
       </c>
-      <c r="G291" s="88" t="s">
+      <c r="G291" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32730,7 +32731,7 @@
       <c r="F292" t="s">
         <v>4</v>
       </c>
-      <c r="G292" s="88" t="s">
+      <c r="G292" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32753,7 +32754,7 @@
       <c r="F293" t="s">
         <v>4</v>
       </c>
-      <c r="G293" s="88" t="s">
+      <c r="G293" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32776,7 +32777,7 @@
       <c r="F294" t="s">
         <v>4</v>
       </c>
-      <c r="G294" s="88" t="s">
+      <c r="G294" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32799,7 +32800,7 @@
       <c r="F295" t="s">
         <v>4</v>
       </c>
-      <c r="G295" s="88" t="s">
+      <c r="G295" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32822,7 +32823,7 @@
       <c r="F296" t="s">
         <v>4</v>
       </c>
-      <c r="G296" s="88" t="s">
+      <c r="G296" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32845,7 +32846,7 @@
       <c r="F297" t="s">
         <v>4</v>
       </c>
-      <c r="G297" s="88" t="s">
+      <c r="G297" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32868,7 +32869,7 @@
       <c r="F298" t="s">
         <v>4</v>
       </c>
-      <c r="G298" s="88" t="s">
+      <c r="G298" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32891,7 +32892,7 @@
       <c r="F299" t="s">
         <v>4</v>
       </c>
-      <c r="G299" s="88" t="s">
+      <c r="G299" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32914,7 +32915,7 @@
       <c r="F300" t="s">
         <v>4</v>
       </c>
-      <c r="G300" s="88" t="s">
+      <c r="G300" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32937,7 +32938,7 @@
       <c r="F301" t="s">
         <v>4</v>
       </c>
-      <c r="G301" s="88" t="s">
+      <c r="G301" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32960,7 +32961,7 @@
       <c r="F302" t="s">
         <v>4</v>
       </c>
-      <c r="G302" s="88" t="s">
+      <c r="G302" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -32983,7 +32984,7 @@
       <c r="F303" t="s">
         <v>4</v>
       </c>
-      <c r="G303" s="88" t="s">
+      <c r="G303" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33006,7 +33007,7 @@
       <c r="F304" t="s">
         <v>4</v>
       </c>
-      <c r="G304" s="88" t="s">
+      <c r="G304" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33029,7 +33030,7 @@
       <c r="F305" t="s">
         <v>4</v>
       </c>
-      <c r="G305" s="88" t="s">
+      <c r="G305" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33052,7 +33053,7 @@
       <c r="F306" t="s">
         <v>4</v>
       </c>
-      <c r="G306" s="88" t="s">
+      <c r="G306" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33075,7 +33076,7 @@
       <c r="F307" t="s">
         <v>4</v>
       </c>
-      <c r="G307" s="88" t="s">
+      <c r="G307" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33098,7 +33099,7 @@
       <c r="F308" t="s">
         <v>4</v>
       </c>
-      <c r="G308" s="88" t="s">
+      <c r="G308" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33121,7 +33122,7 @@
       <c r="F309" t="s">
         <v>4</v>
       </c>
-      <c r="G309" s="88" t="s">
+      <c r="G309" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33144,7 +33145,7 @@
       <c r="F310" t="s">
         <v>4</v>
       </c>
-      <c r="G310" s="88" t="s">
+      <c r="G310" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33167,7 +33168,7 @@
       <c r="F311" t="s">
         <v>4</v>
       </c>
-      <c r="G311" s="88" t="s">
+      <c r="G311" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33190,7 +33191,7 @@
       <c r="F312" t="s">
         <v>4</v>
       </c>
-      <c r="G312" s="88" t="s">
+      <c r="G312" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33213,7 +33214,7 @@
       <c r="F313" t="s">
         <v>4</v>
       </c>
-      <c r="G313" s="88" t="s">
+      <c r="G313" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33236,7 +33237,7 @@
       <c r="F314" t="s">
         <v>4</v>
       </c>
-      <c r="G314" s="88" t="s">
+      <c r="G314" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33259,7 +33260,7 @@
       <c r="F315" t="s">
         <v>4</v>
       </c>
-      <c r="G315" s="88" t="s">
+      <c r="G315" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33282,7 +33283,7 @@
       <c r="F316" t="s">
         <v>4</v>
       </c>
-      <c r="G316" s="88" t="s">
+      <c r="G316" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33305,7 +33306,7 @@
       <c r="F317" t="s">
         <v>4</v>
       </c>
-      <c r="G317" s="88" t="s">
+      <c r="G317" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33328,7 +33329,7 @@
       <c r="F318" t="s">
         <v>4</v>
       </c>
-      <c r="G318" s="88" t="s">
+      <c r="G318" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33351,7 +33352,7 @@
       <c r="F319" t="s">
         <v>4</v>
       </c>
-      <c r="G319" s="88" t="s">
+      <c r="G319" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33374,7 +33375,7 @@
       <c r="F320" t="s">
         <v>4</v>
       </c>
-      <c r="G320" s="88" t="s">
+      <c r="G320" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33397,7 +33398,7 @@
       <c r="F321" t="s">
         <v>4</v>
       </c>
-      <c r="G321" s="88" t="s">
+      <c r="G321" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33420,7 +33421,7 @@
       <c r="F322" t="s">
         <v>4</v>
       </c>
-      <c r="G322" s="88" t="s">
+      <c r="G322" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33443,7 +33444,7 @@
       <c r="F323" t="s">
         <v>4</v>
       </c>
-      <c r="G323" s="88" t="s">
+      <c r="G323" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33466,7 +33467,7 @@
       <c r="F324" t="s">
         <v>4</v>
       </c>
-      <c r="G324" s="88" t="s">
+      <c r="G324" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33489,7 +33490,7 @@
       <c r="F325" t="s">
         <v>4</v>
       </c>
-      <c r="G325" s="88" t="s">
+      <c r="G325" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33512,7 +33513,7 @@
       <c r="F326" t="s">
         <v>4</v>
       </c>
-      <c r="G326" s="88" t="s">
+      <c r="G326" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33535,7 +33536,7 @@
       <c r="F327" t="s">
         <v>4</v>
       </c>
-      <c r="G327" s="88" t="s">
+      <c r="G327" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33558,7 +33559,7 @@
       <c r="F328" t="s">
         <v>4</v>
       </c>
-      <c r="G328" s="88" t="s">
+      <c r="G328" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33581,7 +33582,7 @@
       <c r="F329" t="s">
         <v>4</v>
       </c>
-      <c r="G329" s="88" t="s">
+      <c r="G329" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33604,7 +33605,7 @@
       <c r="F330" t="s">
         <v>4</v>
       </c>
-      <c r="G330" s="88" t="s">
+      <c r="G330" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33627,7 +33628,7 @@
       <c r="F331" t="s">
         <v>4</v>
       </c>
-      <c r="G331" s="88" t="s">
+      <c r="G331" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33650,7 +33651,7 @@
       <c r="F332" t="s">
         <v>4</v>
       </c>
-      <c r="G332" s="88" t="s">
+      <c r="G332" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33673,7 +33674,7 @@
       <c r="F333" t="s">
         <v>4</v>
       </c>
-      <c r="G333" s="88" t="s">
+      <c r="G333" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33696,7 +33697,7 @@
       <c r="F334" t="s">
         <v>4</v>
       </c>
-      <c r="G334" s="88" t="s">
+      <c r="G334" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33719,7 +33720,7 @@
       <c r="F335" t="s">
         <v>4</v>
       </c>
-      <c r="G335" s="88" t="s">
+      <c r="G335" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33742,7 +33743,7 @@
       <c r="F336" t="s">
         <v>4</v>
       </c>
-      <c r="G336" s="88" t="s">
+      <c r="G336" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33765,7 +33766,7 @@
       <c r="F337" t="s">
         <v>4</v>
       </c>
-      <c r="G337" s="88" t="s">
+      <c r="G337" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33788,7 +33789,7 @@
       <c r="F338" t="s">
         <v>4</v>
       </c>
-      <c r="G338" s="88" t="s">
+      <c r="G338" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33811,7 +33812,7 @@
       <c r="F339" t="s">
         <v>4</v>
       </c>
-      <c r="G339" s="88" t="s">
+      <c r="G339" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33834,7 +33835,7 @@
       <c r="F340" t="s">
         <v>4</v>
       </c>
-      <c r="G340" s="88" t="s">
+      <c r="G340" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33857,7 +33858,7 @@
       <c r="F341" t="s">
         <v>4</v>
       </c>
-      <c r="G341" s="88" t="s">
+      <c r="G341" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33880,7 +33881,7 @@
       <c r="F342" t="s">
         <v>4</v>
       </c>
-      <c r="G342" s="88" t="s">
+      <c r="G342" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33903,7 +33904,7 @@
       <c r="F343" t="s">
         <v>4</v>
       </c>
-      <c r="G343" s="88" t="s">
+      <c r="G343" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33926,7 +33927,7 @@
       <c r="F344" t="s">
         <v>4</v>
       </c>
-      <c r="G344" s="88" t="s">
+      <c r="G344" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33949,7 +33950,7 @@
       <c r="F345" t="s">
         <v>4</v>
       </c>
-      <c r="G345" s="88" t="s">
+      <c r="G345" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33972,7 +33973,7 @@
       <c r="F346" t="s">
         <v>4</v>
       </c>
-      <c r="G346" s="88" t="s">
+      <c r="G346" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -33995,7 +33996,7 @@
       <c r="F347" t="s">
         <v>4</v>
       </c>
-      <c r="G347" s="88" t="s">
+      <c r="G347" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34018,7 +34019,7 @@
       <c r="F348" t="s">
         <v>4</v>
       </c>
-      <c r="G348" s="88" t="s">
+      <c r="G348" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34041,7 +34042,7 @@
       <c r="F349" t="s">
         <v>4</v>
       </c>
-      <c r="G349" s="88" t="s">
+      <c r="G349" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34064,7 +34065,7 @@
       <c r="F350" t="s">
         <v>4</v>
       </c>
-      <c r="G350" s="88" t="s">
+      <c r="G350" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34087,7 +34088,7 @@
       <c r="F351" t="s">
         <v>4</v>
       </c>
-      <c r="G351" s="88" t="s">
+      <c r="G351" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34110,7 +34111,7 @@
       <c r="F352" t="s">
         <v>4</v>
       </c>
-      <c r="G352" s="88" t="s">
+      <c r="G352" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34133,7 +34134,7 @@
       <c r="F353" t="s">
         <v>4</v>
       </c>
-      <c r="G353" s="88" t="s">
+      <c r="G353" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34156,7 +34157,7 @@
       <c r="F354" t="s">
         <v>4</v>
       </c>
-      <c r="G354" s="88" t="s">
+      <c r="G354" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34179,7 +34180,7 @@
       <c r="F355" t="s">
         <v>4</v>
       </c>
-      <c r="G355" s="88" t="s">
+      <c r="G355" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34202,7 +34203,7 @@
       <c r="F356" t="s">
         <v>4</v>
       </c>
-      <c r="G356" s="88" t="s">
+      <c r="G356" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34225,7 +34226,7 @@
       <c r="F357" t="s">
         <v>4</v>
       </c>
-      <c r="G357" s="88" t="s">
+      <c r="G357" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34248,7 +34249,7 @@
       <c r="F358" t="s">
         <v>4</v>
       </c>
-      <c r="G358" s="88" t="s">
+      <c r="G358" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34271,7 +34272,7 @@
       <c r="F359" t="s">
         <v>4</v>
       </c>
-      <c r="G359" s="88" t="s">
+      <c r="G359" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34294,7 +34295,7 @@
       <c r="F360" t="s">
         <v>4</v>
       </c>
-      <c r="G360" s="88" t="s">
+      <c r="G360" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34317,7 +34318,7 @@
       <c r="F361" t="s">
         <v>4</v>
       </c>
-      <c r="G361" s="88" t="s">
+      <c r="G361" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34340,7 +34341,7 @@
       <c r="F362" t="s">
         <v>4</v>
       </c>
-      <c r="G362" s="88" t="s">
+      <c r="G362" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34363,7 +34364,7 @@
       <c r="F363" t="s">
         <v>4</v>
       </c>
-      <c r="G363" s="88" t="s">
+      <c r="G363" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34386,7 +34387,7 @@
       <c r="F364" t="s">
         <v>4</v>
       </c>
-      <c r="G364" s="88" t="s">
+      <c r="G364" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34409,7 +34410,7 @@
       <c r="F365" t="s">
         <v>4</v>
       </c>
-      <c r="G365" s="88" t="s">
+      <c r="G365" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34432,7 +34433,7 @@
       <c r="F366" t="s">
         <v>4</v>
       </c>
-      <c r="G366" s="88" t="s">
+      <c r="G366" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34455,7 +34456,7 @@
       <c r="F367" t="s">
         <v>4</v>
       </c>
-      <c r="G367" s="88" t="s">
+      <c r="G367" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34478,7 +34479,7 @@
       <c r="F368" t="s">
         <v>4</v>
       </c>
-      <c r="G368" s="88" t="s">
+      <c r="G368" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34501,7 +34502,7 @@
       <c r="F369" t="s">
         <v>4</v>
       </c>
-      <c r="G369" s="88" t="s">
+      <c r="G369" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34524,7 +34525,7 @@
       <c r="F370" t="s">
         <v>4</v>
       </c>
-      <c r="G370" s="88" t="s">
+      <c r="G370" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34547,7 +34548,7 @@
       <c r="F371" t="s">
         <v>4</v>
       </c>
-      <c r="G371" s="88" t="s">
+      <c r="G371" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34570,7 +34571,7 @@
       <c r="F372" t="s">
         <v>4</v>
       </c>
-      <c r="G372" s="88" t="s">
+      <c r="G372" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34593,7 +34594,7 @@
       <c r="F373" t="s">
         <v>4</v>
       </c>
-      <c r="G373" s="88" t="s">
+      <c r="G373" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34616,7 +34617,7 @@
       <c r="F374" t="s">
         <v>4</v>
       </c>
-      <c r="G374" s="88" t="s">
+      <c r="G374" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34639,7 +34640,7 @@
       <c r="F375" t="s">
         <v>4</v>
       </c>
-      <c r="G375" s="88" t="s">
+      <c r="G375" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34662,7 +34663,7 @@
       <c r="F376" t="s">
         <v>4</v>
       </c>
-      <c r="G376" s="88" t="s">
+      <c r="G376" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34685,7 +34686,7 @@
       <c r="F377" t="s">
         <v>4</v>
       </c>
-      <c r="G377" s="88" t="s">
+      <c r="G377" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34708,7 +34709,7 @@
       <c r="F378" t="s">
         <v>4</v>
       </c>
-      <c r="G378" s="88" t="s">
+      <c r="G378" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34731,7 +34732,7 @@
       <c r="F379" t="s">
         <v>4</v>
       </c>
-      <c r="G379" s="88" t="s">
+      <c r="G379" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34754,7 +34755,7 @@
       <c r="F380" t="s">
         <v>4</v>
       </c>
-      <c r="G380" s="88" t="s">
+      <c r="G380" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34777,7 +34778,7 @@
       <c r="F381" t="s">
         <v>4</v>
       </c>
-      <c r="G381" s="88" t="s">
+      <c r="G381" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34800,7 +34801,7 @@
       <c r="F382" t="s">
         <v>4</v>
       </c>
-      <c r="G382" s="88" t="s">
+      <c r="G382" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34823,7 +34824,7 @@
       <c r="F383" t="s">
         <v>4</v>
       </c>
-      <c r="G383" s="88" t="s">
+      <c r="G383" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34846,7 +34847,7 @@
       <c r="F384" t="s">
         <v>4</v>
       </c>
-      <c r="G384" s="88" t="s">
+      <c r="G384" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34869,7 +34870,7 @@
       <c r="F385" t="s">
         <v>4</v>
       </c>
-      <c r="G385" s="88" t="s">
+      <c r="G385" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34892,7 +34893,7 @@
       <c r="F386" t="s">
         <v>4</v>
       </c>
-      <c r="G386" s="88" t="s">
+      <c r="G386" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34915,7 +34916,7 @@
       <c r="F387" t="s">
         <v>4</v>
       </c>
-      <c r="G387" s="88" t="s">
+      <c r="G387" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34938,7 +34939,7 @@
       <c r="F388" t="s">
         <v>4</v>
       </c>
-      <c r="G388" s="88" t="s">
+      <c r="G388" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34961,7 +34962,7 @@
       <c r="F389" t="s">
         <v>4</v>
       </c>
-      <c r="G389" s="88" t="s">
+      <c r="G389" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -34984,7 +34985,7 @@
       <c r="F390" t="s">
         <v>4</v>
       </c>
-      <c r="G390" s="88" t="s">
+      <c r="G390" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35007,7 +35008,7 @@
       <c r="F391" t="s">
         <v>4</v>
       </c>
-      <c r="G391" s="88" t="s">
+      <c r="G391" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35030,7 +35031,7 @@
       <c r="F392" t="s">
         <v>4</v>
       </c>
-      <c r="G392" s="88" t="s">
+      <c r="G392" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35053,7 +35054,7 @@
       <c r="F393" t="s">
         <v>4</v>
       </c>
-      <c r="G393" s="88" t="s">
+      <c r="G393" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35076,7 +35077,7 @@
       <c r="F394" t="s">
         <v>4</v>
       </c>
-      <c r="G394" s="88" t="s">
+      <c r="G394" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35099,7 +35100,7 @@
       <c r="F395" t="s">
         <v>4</v>
       </c>
-      <c r="G395" s="88" t="s">
+      <c r="G395" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35122,7 +35123,7 @@
       <c r="F396" t="s">
         <v>4</v>
       </c>
-      <c r="G396" s="88" t="s">
+      <c r="G396" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35145,7 +35146,7 @@
       <c r="F397" t="s">
         <v>4</v>
       </c>
-      <c r="G397" s="88" t="s">
+      <c r="G397" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35168,7 +35169,7 @@
       <c r="F398" t="s">
         <v>4</v>
       </c>
-      <c r="G398" s="88" t="s">
+      <c r="G398" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35191,7 +35192,7 @@
       <c r="F399" t="s">
         <v>4</v>
       </c>
-      <c r="G399" s="88" t="s">
+      <c r="G399" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35214,7 +35215,7 @@
       <c r="F400" t="s">
         <v>4</v>
       </c>
-      <c r="G400" s="88" t="s">
+      <c r="G400" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35237,7 +35238,7 @@
       <c r="F401" t="s">
         <v>4</v>
       </c>
-      <c r="G401" s="88" t="s">
+      <c r="G401" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35260,7 +35261,7 @@
       <c r="F402" t="s">
         <v>4</v>
       </c>
-      <c r="G402" s="88" t="s">
+      <c r="G402" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35283,7 +35284,7 @@
       <c r="F403" t="s">
         <v>4</v>
       </c>
-      <c r="G403" s="88" t="s">
+      <c r="G403" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35306,7 +35307,7 @@
       <c r="F404" t="s">
         <v>4</v>
       </c>
-      <c r="G404" s="88" t="s">
+      <c r="G404" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35329,7 +35330,7 @@
       <c r="F405" t="s">
         <v>4</v>
       </c>
-      <c r="G405" s="88" t="s">
+      <c r="G405" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35352,7 +35353,7 @@
       <c r="F406" t="s">
         <v>4</v>
       </c>
-      <c r="G406" s="88" t="s">
+      <c r="G406" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35375,7 +35376,7 @@
       <c r="F407" t="s">
         <v>4</v>
       </c>
-      <c r="G407" s="88" t="s">
+      <c r="G407" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35398,7 +35399,7 @@
       <c r="F408" t="s">
         <v>4</v>
       </c>
-      <c r="G408" s="88" t="s">
+      <c r="G408" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35421,7 +35422,7 @@
       <c r="F409" t="s">
         <v>4</v>
       </c>
-      <c r="G409" s="88" t="s">
+      <c r="G409" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35444,7 +35445,7 @@
       <c r="F410" t="s">
         <v>4</v>
       </c>
-      <c r="G410" s="88" t="s">
+      <c r="G410" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35467,7 +35468,7 @@
       <c r="F411" t="s">
         <v>4</v>
       </c>
-      <c r="G411" s="88" t="s">
+      <c r="G411" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35490,7 +35491,7 @@
       <c r="F412" t="s">
         <v>4</v>
       </c>
-      <c r="G412" s="88" t="s">
+      <c r="G412" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35513,7 +35514,7 @@
       <c r="F413" t="s">
         <v>4</v>
       </c>
-      <c r="G413" s="88" t="s">
+      <c r="G413" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35536,7 +35537,7 @@
       <c r="F414" t="s">
         <v>4</v>
       </c>
-      <c r="G414" s="88" t="s">
+      <c r="G414" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35559,7 +35560,7 @@
       <c r="F415" t="s">
         <v>4</v>
       </c>
-      <c r="G415" s="88" t="s">
+      <c r="G415" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35582,7 +35583,7 @@
       <c r="F416" t="s">
         <v>4</v>
       </c>
-      <c r="G416" s="88" t="s">
+      <c r="G416" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35605,7 +35606,7 @@
       <c r="F417" t="s">
         <v>4</v>
       </c>
-      <c r="G417" s="88" t="s">
+      <c r="G417" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35628,7 +35629,7 @@
       <c r="F418" t="s">
         <v>4</v>
       </c>
-      <c r="G418" s="88" t="s">
+      <c r="G418" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35651,7 +35652,7 @@
       <c r="F419" t="s">
         <v>4</v>
       </c>
-      <c r="G419" s="88" t="s">
+      <c r="G419" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35674,7 +35675,7 @@
       <c r="F420" t="s">
         <v>4</v>
       </c>
-      <c r="G420" s="88" t="s">
+      <c r="G420" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35697,7 +35698,7 @@
       <c r="F421" t="s">
         <v>4</v>
       </c>
-      <c r="G421" s="88" t="s">
+      <c r="G421" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35720,7 +35721,7 @@
       <c r="F422" t="s">
         <v>4</v>
       </c>
-      <c r="G422" s="88" t="s">
+      <c r="G422" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35743,7 +35744,7 @@
       <c r="F423" t="s">
         <v>4</v>
       </c>
-      <c r="G423" s="88" t="s">
+      <c r="G423" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35766,7 +35767,7 @@
       <c r="F424" t="s">
         <v>4</v>
       </c>
-      <c r="G424" s="88" t="s">
+      <c r="G424" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35789,7 +35790,7 @@
       <c r="F425" t="s">
         <v>4</v>
       </c>
-      <c r="G425" s="88" t="s">
+      <c r="G425" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35812,7 +35813,7 @@
       <c r="F426" t="s">
         <v>4</v>
       </c>
-      <c r="G426" s="88" t="s">
+      <c r="G426" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35835,7 +35836,7 @@
       <c r="F427" t="s">
         <v>4</v>
       </c>
-      <c r="G427" s="88" t="s">
+      <c r="G427" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35858,7 +35859,7 @@
       <c r="F428" t="s">
         <v>4</v>
       </c>
-      <c r="G428" s="88" t="s">
+      <c r="G428" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35881,7 +35882,7 @@
       <c r="F429" t="s">
         <v>4</v>
       </c>
-      <c r="G429" s="88" t="s">
+      <c r="G429" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35904,7 +35905,7 @@
       <c r="F430" t="s">
         <v>4</v>
       </c>
-      <c r="G430" s="88" t="s">
+      <c r="G430" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35927,7 +35928,7 @@
       <c r="F431" t="s">
         <v>4</v>
       </c>
-      <c r="G431" s="88" t="s">
+      <c r="G431" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35950,7 +35951,7 @@
       <c r="F432" t="s">
         <v>4</v>
       </c>
-      <c r="G432" s="88" t="s">
+      <c r="G432" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35973,7 +35974,7 @@
       <c r="F433" t="s">
         <v>4</v>
       </c>
-      <c r="G433" s="88" t="s">
+      <c r="G433" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -35996,7 +35997,7 @@
       <c r="F434" t="s">
         <v>4</v>
       </c>
-      <c r="G434" s="88" t="s">
+      <c r="G434" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36019,7 +36020,7 @@
       <c r="F435" t="s">
         <v>4</v>
       </c>
-      <c r="G435" s="88" t="s">
+      <c r="G435" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36042,7 +36043,7 @@
       <c r="F436" t="s">
         <v>4</v>
       </c>
-      <c r="G436" s="88" t="s">
+      <c r="G436" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36065,7 +36066,7 @@
       <c r="F437" t="s">
         <v>4</v>
       </c>
-      <c r="G437" s="88" t="s">
+      <c r="G437" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36088,7 +36089,7 @@
       <c r="F438" t="s">
         <v>4</v>
       </c>
-      <c r="G438" s="88" t="s">
+      <c r="G438" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36111,7 +36112,7 @@
       <c r="F439" t="s">
         <v>4</v>
       </c>
-      <c r="G439" s="88" t="s">
+      <c r="G439" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36134,7 +36135,7 @@
       <c r="F440" t="s">
         <v>4</v>
       </c>
-      <c r="G440" s="88" t="s">
+      <c r="G440" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36157,7 +36158,7 @@
       <c r="F441" t="s">
         <v>4</v>
       </c>
-      <c r="G441" s="88" t="s">
+      <c r="G441" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36180,7 +36181,7 @@
       <c r="F442" t="s">
         <v>4</v>
       </c>
-      <c r="G442" s="88" t="s">
+      <c r="G442" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36203,7 +36204,7 @@
       <c r="F443" t="s">
         <v>4</v>
       </c>
-      <c r="G443" s="88" t="s">
+      <c r="G443" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36226,7 +36227,7 @@
       <c r="F444" t="s">
         <v>4</v>
       </c>
-      <c r="G444" s="88" t="s">
+      <c r="G444" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36249,7 +36250,7 @@
       <c r="F445" t="s">
         <v>4</v>
       </c>
-      <c r="G445" s="88" t="s">
+      <c r="G445" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36272,7 +36273,7 @@
       <c r="F446" t="s">
         <v>4</v>
       </c>
-      <c r="G446" s="88" t="s">
+      <c r="G446" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36295,7 +36296,7 @@
       <c r="F447" t="s">
         <v>4</v>
       </c>
-      <c r="G447" s="88" t="s">
+      <c r="G447" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36318,7 +36319,7 @@
       <c r="F448" t="s">
         <v>4</v>
       </c>
-      <c r="G448" s="88" t="s">
+      <c r="G448" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36341,7 +36342,7 @@
       <c r="F449" t="s">
         <v>4</v>
       </c>
-      <c r="G449" s="88" t="s">
+      <c r="G449" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36364,7 +36365,7 @@
       <c r="F450" t="s">
         <v>4</v>
       </c>
-      <c r="G450" s="88" t="s">
+      <c r="G450" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36387,7 +36388,7 @@
       <c r="F451" t="s">
         <v>4</v>
       </c>
-      <c r="G451" s="88" t="s">
+      <c r="G451" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36410,7 +36411,7 @@
       <c r="F452" t="s">
         <v>4</v>
       </c>
-      <c r="G452" s="88" t="s">
+      <c r="G452" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36433,7 +36434,7 @@
       <c r="F453" t="s">
         <v>4</v>
       </c>
-      <c r="G453" s="88" t="s">
+      <c r="G453" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36456,7 +36457,7 @@
       <c r="F454" t="s">
         <v>4</v>
       </c>
-      <c r="G454" s="88" t="s">
+      <c r="G454" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36479,7 +36480,7 @@
       <c r="F455" t="s">
         <v>4</v>
       </c>
-      <c r="G455" s="88" t="s">
+      <c r="G455" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36502,7 +36503,7 @@
       <c r="F456" t="s">
         <v>4</v>
       </c>
-      <c r="G456" s="88" t="s">
+      <c r="G456" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36525,7 +36526,7 @@
       <c r="F457" t="s">
         <v>4</v>
       </c>
-      <c r="G457" s="88" t="s">
+      <c r="G457" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36548,7 +36549,7 @@
       <c r="F458" t="s">
         <v>4</v>
       </c>
-      <c r="G458" s="88" t="s">
+      <c r="G458" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36571,7 +36572,7 @@
       <c r="F459" t="s">
         <v>4</v>
       </c>
-      <c r="G459" s="88" t="s">
+      <c r="G459" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36594,7 +36595,7 @@
       <c r="F460" t="s">
         <v>4</v>
       </c>
-      <c r="G460" s="88" t="s">
+      <c r="G460" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36617,7 +36618,7 @@
       <c r="F461" t="s">
         <v>4</v>
       </c>
-      <c r="G461" s="88" t="s">
+      <c r="G461" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36640,7 +36641,7 @@
       <c r="F462" t="s">
         <v>4</v>
       </c>
-      <c r="G462" s="88" t="s">
+      <c r="G462" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36663,7 +36664,7 @@
       <c r="F463" t="s">
         <v>4</v>
       </c>
-      <c r="G463" s="88" t="s">
+      <c r="G463" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36686,7 +36687,7 @@
       <c r="F464" t="s">
         <v>4</v>
       </c>
-      <c r="G464" s="88" t="s">
+      <c r="G464" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36709,7 +36710,7 @@
       <c r="F465" t="s">
         <v>4</v>
       </c>
-      <c r="G465" s="88" t="s">
+      <c r="G465" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36732,7 +36733,7 @@
       <c r="F466" t="s">
         <v>4</v>
       </c>
-      <c r="G466" s="88" t="s">
+      <c r="G466" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36755,7 +36756,7 @@
       <c r="F467" t="s">
         <v>4</v>
       </c>
-      <c r="G467" s="88" t="s">
+      <c r="G467" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36778,7 +36779,7 @@
       <c r="F468" t="s">
         <v>4</v>
       </c>
-      <c r="G468" s="88" t="s">
+      <c r="G468" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36801,7 +36802,7 @@
       <c r="F469" t="s">
         <v>4</v>
       </c>
-      <c r="G469" s="88" t="s">
+      <c r="G469" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36824,7 +36825,7 @@
       <c r="F470" t="s">
         <v>4</v>
       </c>
-      <c r="G470" s="88" t="s">
+      <c r="G470" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36847,7 +36848,7 @@
       <c r="F471" t="s">
         <v>4</v>
       </c>
-      <c r="G471" s="88" t="s">
+      <c r="G471" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36870,7 +36871,7 @@
       <c r="F472" t="s">
         <v>4</v>
       </c>
-      <c r="G472" s="88" t="s">
+      <c r="G472" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36893,7 +36894,7 @@
       <c r="F473" t="s">
         <v>4</v>
       </c>
-      <c r="G473" s="88" t="s">
+      <c r="G473" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36916,7 +36917,7 @@
       <c r="F474" t="s">
         <v>1976</v>
       </c>
-      <c r="G474" s="88" t="s">
+      <c r="G474" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36939,7 +36940,7 @@
       <c r="F475" t="s">
         <v>1976</v>
       </c>
-      <c r="G475" s="88" t="s">
+      <c r="G475" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36962,7 +36963,7 @@
       <c r="F476" t="s">
         <v>1976</v>
       </c>
-      <c r="G476" s="88" t="s">
+      <c r="G476" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -36985,7 +36986,7 @@
       <c r="F477" t="s">
         <v>1976</v>
       </c>
-      <c r="G477" s="88" t="s">
+      <c r="G477" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -37008,7 +37009,7 @@
       <c r="F478" t="s">
         <v>1976</v>
       </c>
-      <c r="G478" s="88" t="s">
+      <c r="G478" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -37031,7 +37032,7 @@
       <c r="F479" t="s">
         <v>1976</v>
       </c>
-      <c r="G479" s="88" t="s">
+      <c r="G479" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -37054,7 +37055,7 @@
       <c r="F480" t="s">
         <v>1976</v>
       </c>
-      <c r="G480" s="88" t="s">
+      <c r="G480" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -37077,7 +37078,7 @@
       <c r="F481" t="s">
         <v>1976</v>
       </c>
-      <c r="G481" s="88" t="s">
+      <c r="G481" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -37100,7 +37101,7 @@
       <c r="F482" t="s">
         <v>1976</v>
       </c>
-      <c r="G482" s="88" t="s">
+      <c r="G482" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -37123,7 +37124,7 @@
       <c r="F483" t="s">
         <v>1976</v>
       </c>
-      <c r="G483" s="88" t="s">
+      <c r="G483" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -37146,7 +37147,7 @@
       <c r="F484" t="s">
         <v>1976</v>
       </c>
-      <c r="G484" s="88" t="s">
+      <c r="G484" s="4" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -37169,7 +37170,7 @@
       <c r="F485" t="s">
         <v>1976</v>
       </c>
-      <c r="G485" s="88" t="s">
+      <c r="G485" s="4" t="s">
         <v>1882</v>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/index Y database para Gihub VALIDACION 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itdurangoedu-my.sharepoint.com/personal/alejandro_calderon_itdurango_edu_mx/Documents/Actualizacion docente/2025/index Y database para Gihub VALIDACION 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346A6530-4B93-A14A-9CF5-F682FC0EFE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{346A6530-4B93-A14A-9CF5-F682FC0EFE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C05F10D-8519-FD42-A6D6-C0D5F579348F}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="540" windowWidth="31120" windowHeight="15860" activeTab="1" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
+    <workbookView xWindow="880" yWindow="540" windowWidth="33880" windowHeight="19380" activeTab="2" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8995" uniqueCount="1981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9002" uniqueCount="1982">
   <si>
     <t>GILDA FERNÁNDEZ VÁZQUEZ</t>
   </si>
@@ -5997,6 +5997,9 @@
   </si>
   <si>
     <t>TNM-054-49-2025-II</t>
+  </si>
+  <si>
+    <t>TNM-054-93-2025-17</t>
   </si>
 </sst>
 </file>
@@ -6460,7 +6463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6636,8 +6639,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7216,7 +7222,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B508AFF-503A-7943-8DD5-D06EBFCC8B62}" name="PARTICIPANTES16183" displayName="PARTICIPANTES16183" ref="A1:G485" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B508AFF-503A-7943-8DD5-D06EBFCC8B62}" name="PARTICIPANTES16183" displayName="PARTICIPANTES16183" ref="A1:G486" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <tableColumns count="7">
     <tableColumn id="17" xr3:uid="{81EB27DA-9005-8343-8270-24F41F32CD2D}" name="folio" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{783F0072-DA7B-3140-83D6-27D662F54BBB}" name="nombre" dataDxfId="7"/>
@@ -18042,7 +18048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E4E2C6-ECF6-8E42-BACE-6A57540CDA47}">
   <dimension ref="A1:G348"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="B351" sqref="B351"/>
@@ -25814,13 +25820,13 @@
       <c r="A338" s="41" t="s">
         <v>1979</v>
       </c>
-      <c r="B338" s="91" t="s">
+      <c r="B338" t="s">
         <v>1270</v>
       </c>
-      <c r="C338" s="90" t="s">
+      <c r="C338" t="s">
         <v>1975</v>
       </c>
-      <c r="D338" s="90" t="s">
+      <c r="D338" t="s">
         <v>1976</v>
       </c>
       <c r="E338" t="s">
@@ -25837,13 +25843,13 @@
       <c r="A339" s="41" t="s">
         <v>1980</v>
       </c>
-      <c r="B339" s="91" t="s">
+      <c r="B339" t="s">
         <v>145</v>
       </c>
-      <c r="C339" s="90" t="s">
+      <c r="C339" t="s">
         <v>1975</v>
       </c>
-      <c r="D339" s="90" t="s">
+      <c r="D339" t="s">
         <v>1976</v>
       </c>
       <c r="E339" t="s">
@@ -26037,12 +26043,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BB4C77-EC78-E54B-9F74-171DAF10810C}">
-  <dimension ref="A1:G485"/>
+  <dimension ref="A1:G486"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94:XFD94"/>
+      <selection pane="bottomLeft" activeCell="D475" sqref="D475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36937,22 +36943,22 @@
     </row>
     <row r="474" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="16" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B474" s="75" t="s">
-        <v>1887</v>
-      </c>
-      <c r="C474" s="4" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D474" s="14" t="s">
-        <v>2</v>
+        <v>1981</v>
+      </c>
+      <c r="B474" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="C474" s="91" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D474" s="92" t="s">
+        <v>14</v>
       </c>
       <c r="E474" t="s">
         <v>1412</v>
       </c>
       <c r="F474" t="s">
-        <v>1974</v>
+        <v>4</v>
       </c>
       <c r="G474" s="4" t="s">
         <v>1880</v>
@@ -36960,16 +36966,16 @@
     </row>
     <row r="475" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="16" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B475" s="75" t="s">
-        <v>380</v>
+        <v>1887</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>1408</v>
       </c>
       <c r="D475" s="14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E475" t="s">
         <v>1412</v>
@@ -36983,16 +36989,16 @@
     </row>
     <row r="476" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="16" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B476" s="75" t="s">
-        <v>246</v>
+        <v>380</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>1408</v>
       </c>
       <c r="D476" s="14" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E476" t="s">
         <v>1412</v>
@@ -37006,16 +37012,16 @@
     </row>
     <row r="477" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="16" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B477" s="75" t="s">
-        <v>1888</v>
+        <v>246</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>1408</v>
       </c>
       <c r="D477" s="14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E477" t="s">
         <v>1412</v>
@@ -37029,16 +37035,16 @@
     </row>
     <row r="478" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="16" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B478" s="75" t="s">
-        <v>20</v>
+        <v>1888</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>1408</v>
       </c>
       <c r="D478" s="14" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E478" t="s">
         <v>1412</v>
@@ -37052,10 +37058,10 @@
     </row>
     <row r="479" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="16" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B479" s="75" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>1408</v>
@@ -37075,10 +37081,10 @@
     </row>
     <row r="480" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="16" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B480" s="75" t="s">
-        <v>1253</v>
+        <v>115</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>1408</v>
@@ -37098,16 +37104,16 @@
     </row>
     <row r="481" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="16" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B481" s="75" t="s">
-        <v>46</v>
+        <v>1253</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>1408</v>
       </c>
       <c r="D481" s="14" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E481" t="s">
         <v>1412</v>
@@ -37121,16 +37127,16 @@
     </row>
     <row r="482" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="16" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B482" s="75" t="s">
-        <v>1889</v>
+        <v>46</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>1408</v>
       </c>
       <c r="D482" s="14" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E482" t="s">
         <v>1412</v>
@@ -37144,10 +37150,10 @@
     </row>
     <row r="483" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="16" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B483" s="75" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>1408</v>
@@ -37167,16 +37173,16 @@
     </row>
     <row r="484" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="16" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B484" s="75" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>1408</v>
       </c>
       <c r="D484" s="14" t="s">
-        <v>1321</v>
+        <v>2</v>
       </c>
       <c r="E484" t="s">
         <v>1412</v>
@@ -37189,17 +37195,17 @@
       </c>
     </row>
     <row r="485" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A485" s="66" t="s">
-        <v>1878</v>
-      </c>
-      <c r="B485" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="C485" s="12" t="s">
+      <c r="A485" s="16" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B485" s="75" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C485" s="4" t="s">
         <v>1408</v>
       </c>
-      <c r="D485" s="77" t="s">
-        <v>2</v>
+      <c r="D485" s="14" t="s">
+        <v>1321</v>
       </c>
       <c r="E485" t="s">
         <v>1412</v>
@@ -37208,6 +37214,29 @@
         <v>1974</v>
       </c>
       <c r="G485" s="4" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="66" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B486" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="C486" s="12" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D486" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E486" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F486" t="s">
+        <v>1974</v>
+      </c>
+      <c r="G486" s="4" t="s">
         <v>1880</v>
       </c>
     </row>
